--- a/misc/_bthome_v1.xlsx
+++ b/misc/_bthome_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Arduino\@esphome\esphome_components\bthome\components\bthome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Arduino\@esphome\esphome_components\bthome\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312372F5-B5DC-4804-BC22-C64F58585144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B8B0F1-615B-4F50-B2CC-7AE3541720EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="12825" activeTab="1" xr2:uid="{0A7624A3-1B95-4732-9BD7-3FA24DFCB5DE}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="394">
   <si>
     <t>bject id</t>
   </si>
@@ -1159,13 +1159,79 @@
   </si>
   <si>
     <t>count large</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_OPENING</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_BATTERY_CHARGING</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_COLD</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_DOOR</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_GARAGE_DOOR</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_HEAT</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_LIGHT</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_LOCK</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_MOTION</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_MOVING</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_OCCUPANCY</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_PLUG</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_PRESENCE</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_PROBLEM</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_RUNNING</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_SAFETY</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_SMOKE</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_SOUND</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_TAMPER</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_VIBRATION</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_WINDOW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,13 +1257,6 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1232,21 +1291,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -4075,9 +4132,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2:S81"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S17" sqref="S17:S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4096,71 +4153,71 @@
     <col min="13" max="13" width="10.7109375" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="20" style="11" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
     <col min="17" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="68.28515625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="108.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A78" si="0">HEX2DEC(SUBSTITUTE(B2,"0x",""))</f>
         <v>0</v>
@@ -4184,7 +4241,7 @@
         <v>9</v>
       </c>
       <c r="I2" t="str">
-        <f>IF(N2&gt;0," || obj_meas_type == "&amp;B2,"")</f>
+        <f t="shared" ref="I2:I33" si="1">IF(N2&gt;0," || obj_meas_type == "&amp;B2,"")</f>
         <v/>
       </c>
       <c r="J2" t="b">
@@ -4196,38 +4253,35 @@
         <v>packet idFALSE</v>
       </c>
       <c r="L2">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D2,FIND("(",D2)+1,1),0))</f>
+        <f t="shared" ref="L2:L33" si="2">_xlfn.NUMBERVALUE(IFERROR(MID(D2,FIND("(",D2)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M2">
-        <f>IF(MID(D2,1,4)="sint",1,0)</f>
+        <f t="shared" ref="M2:M33" si="3">IF(MID(D2,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="1">IFERROR(ABS(LOG10(E2)),0)</f>
+        <f t="shared" ref="N2:N33" si="4">IFERROR(ABS(LOG10(E2)),0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="str">
         <f>DEC2HEX(L2+_xlfn.BITLSHIFT(M2,3)+_xlfn.BITLSHIFT(N2,5),2)</f>
         <v>01</v>
       </c>
-      <c r="P2" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="Q2" t="str">
-        <f>"0x"&amp;O2&amp;","&amp;CHAR(9)&amp;" // "&amp;B2&amp;" | "&amp;C2&amp;" | "&amp;D2&amp;" | datatype: "&amp;M2&amp;" | factor_exp10: "&amp;E2&amp;" | example: "&amp;F2</f>
+        <f t="shared" ref="Q2:Q33" si="5">"0x"&amp;O2&amp;","&amp;CHAR(9)&amp;" // "&amp;B2&amp;" | "&amp;C2&amp;" | "&amp;D2&amp;" | datatype: "&amp;M2&amp;" | factor_exp10: "&amp;E2&amp;" | example: "&amp;F2</f>
         <v>0x01,	 // 0x00 | packet id | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 9</v>
       </c>
       <c r="R2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C2," ","_"),".","_"),"(",""),")","")</f>
         <v>packet_id</v>
       </c>
-      <c r="S2" s="5" t="str">
-        <f>"  """&amp;R2&amp;""": {""measurement_type"": " &amp; B2 &amp; ", ""accuracy_decimals"": "&amp;N2&amp;", ""unit_of_measurement"": """&amp;H2&amp;""", ""device_class"": "&amp;P2&amp;"},"</f>
-        <v xml:space="preserve">  "packet_id": {"measurement_type": 0x00, "accuracy_decimals": 0, "unit_of_measurement": "", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S2" s="9" t="str">
+        <f>"  "&amp;IF(OR(J2=TRUE,J2=FALSE),""""&amp;R2&amp;""": {""measurement_type"": "&amp;B2&amp;IF(NOT(ISBLANK(P2)),", ""device_class"": "&amp;P2,"")&amp;IF(J2=FALSE,", ""accuracy_decimals"": "&amp;N2&amp;", ""unit_of_measurement"": """&amp;H2&amp;"""","")&amp;"},","# "&amp;B2)</f>
+        <v xml:space="preserve">  "packet_id": {"measurement_type": 0x00, "accuracy_decimals": 0, "unit_of_measurement": ""},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4254,50 +4308,50 @@
         <v>8</v>
       </c>
       <c r="I3" t="str">
-        <f>IF(N3&gt;0," || obj_meas_type == "&amp;B3,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J3" t="b">
-        <f t="shared" ref="J3:J66" si="2">IF(ISBLANK(D3),"NA",NOT(ISERR(FIND("True =",G3))))</f>
+        <f t="shared" ref="J3:J66" si="6">IF(ISBLANK(D3),"NA",NOT(ISERR(FIND("True =",G3))))</f>
         <v>0</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K66" si="3">C3&amp;J3</f>
+        <f t="shared" ref="K3:K66" si="7">C3&amp;J3</f>
         <v>batteryFALSE</v>
       </c>
       <c r="L3">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D3,FIND("(",D3)+1,1),0))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M3">
-        <f>IF(MID(D3,1,4)="sint",1,0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O66" si="4">DEC2HEX(L3+_xlfn.BITLSHIFT(M3,3)+_xlfn.BITLSHIFT(N3,5),2)</f>
+        <f t="shared" ref="O3:O66" si="8">DEC2HEX(L3+_xlfn.BITLSHIFT(M3,3)+_xlfn.BITLSHIFT(N3,5),2)</f>
         <v>01</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" t="s">
         <v>204</v>
       </c>
       <c r="Q3" t="str">
-        <f>"0x"&amp;O3&amp;","&amp;CHAR(9)&amp;" // "&amp;B3&amp;" | "&amp;C3&amp;" | "&amp;D3&amp;" | datatype: "&amp;M3&amp;" | factor_exp10: "&amp;E3&amp;" | example: "&amp;F3</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x01 | battery | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 0161</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R16" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3," ","_"),".","_"),"(",""),")","")</f>
+        <f t="shared" ref="R3:R48" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3," ","_"),".","_"),"(",""),")","")</f>
         <v>battery</v>
       </c>
-      <c r="S3" s="5" t="str">
-        <f t="shared" ref="S3:S16" si="6">"  """&amp;R3&amp;""": {""measurement_type"": " &amp; B3 &amp; ", ""accuracy_decimals"": "&amp;N3&amp;", ""unit_of_measurement"": """&amp;H3&amp;""", ""device_class"": "&amp;P3&amp;"},"</f>
-        <v xml:space="preserve">  "battery": {"measurement_type": 0x01, "accuracy_decimals": 0, "unit_of_measurement": "%", "device_class": DEVICE_CLASS_BATTERY},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S3" s="9" t="str">
+        <f t="shared" ref="S3:S66" si="10">"  "&amp;IF(OR(J3=TRUE,J3=FALSE),""""&amp;R3&amp;""": {""measurement_type"": "&amp;B3&amp;IF(NOT(ISBLANK(P3)),", ""device_class"": "&amp;P3,"")&amp;IF(J3=FALSE,", ""accuracy_decimals"": "&amp;N3&amp;", ""unit_of_measurement"": """&amp;H3&amp;"""","")&amp;"},","# "&amp;B3)</f>
+        <v xml:space="preserve">  "battery": {"measurement_type": 0x01, "device_class": DEVICE_CLASS_BATTERY, "accuracy_decimals": 0, "unit_of_measurement": "%"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4324,50 +4378,50 @@
         <v>12</v>
       </c>
       <c r="I4" t="str">
-        <f>IF(N4&gt;0," || obj_meas_type == "&amp;B4,"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> || obj_meas_type == 0x02</v>
       </c>
       <c r="J4" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>temperatureFALSE</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="M4">
         <f t="shared" si="3"/>
-        <v>temperatureFALSE</v>
-      </c>
-      <c r="L4">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D4,FIND("(",D4)+1,1),0))</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M4">
-        <f>IF(MID(D4,1,4)="sint",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="O4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4A</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" t="s">
         <v>205</v>
       </c>
       <c r="Q4" t="str">
-        <f>"0x"&amp;O4&amp;","&amp;CHAR(9)&amp;" // "&amp;B4&amp;" | "&amp;C4&amp;" | "&amp;D4&amp;" | datatype: "&amp;M4&amp;" | factor_exp10: "&amp;E4&amp;" | example: "&amp;F4</f>
+        <f t="shared" si="5"/>
         <v>0x4A,	 // 0x02 | temperature | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.01 | example: 02CA09</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>temperature</v>
       </c>
-      <c r="S4" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "temperature": {"measurement_type": 0x02, "accuracy_decimals": 2, "unit_of_measurement": "°C", "device_class": DEVICE_CLASS_TEMPERATURE},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S4" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "temperature": {"measurement_type": 0x02, "device_class": DEVICE_CLASS_TEMPERATURE, "accuracy_decimals": 2, "unit_of_measurement": "°C"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4394,50 +4448,47 @@
         <v>8</v>
       </c>
       <c r="I5" t="str">
-        <f>IF(N5&gt;0," || obj_meas_type == "&amp;B5,"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> || obj_meas_type == 0x03</v>
       </c>
       <c r="J5" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>humidityFALSE</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="3"/>
-        <v>humidityFALSE</v>
-      </c>
-      <c r="L5">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D5,FIND("(",D5)+1,1),0))</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M5">
-        <f>IF(MID(D5,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="O5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>206</v>
-      </c>
       <c r="Q5" t="str">
-        <f>"0x"&amp;O5&amp;","&amp;CHAR(9)&amp;" // "&amp;B5&amp;" | "&amp;C5&amp;" | "&amp;D5&amp;" | datatype: "&amp;M5&amp;" | factor_exp10: "&amp;E5&amp;" | example: "&amp;F5</f>
+        <f t="shared" si="5"/>
         <v>0x42,	 // 0x03 | humidity | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 03BF13</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>humidity</v>
       </c>
-      <c r="S5" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "humidity": {"measurement_type": 0x03, "accuracy_decimals": 2, "unit_of_measurement": "%", "device_class": DEVICE_CLASS_HUMIDITY},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S5" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "humidity": {"measurement_type": 0x03, "accuracy_decimals": 2, "unit_of_measurement": "%"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4464,50 +4515,50 @@
         <v>20</v>
       </c>
       <c r="I6" t="str">
-        <f>IF(N6&gt;0," || obj_meas_type == "&amp;B6,"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> || obj_meas_type == 0x04</v>
       </c>
       <c r="J6" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>pressureFALSE</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="3"/>
-        <v>pressureFALSE</v>
-      </c>
-      <c r="L6">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D6,FIND("(",D6)+1,1),0))</f>
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <f>IF(MID(D6,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" t="s">
         <v>207</v>
       </c>
       <c r="Q6" t="str">
-        <f>"0x"&amp;O6&amp;","&amp;CHAR(9)&amp;" // "&amp;B6&amp;" | "&amp;C6&amp;" | "&amp;D6&amp;" | datatype: "&amp;M6&amp;" | factor_exp10: "&amp;E6&amp;" | example: "&amp;F6</f>
+        <f t="shared" si="5"/>
         <v>0x43,	 // 0x04 | pressure | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 04138A01</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>pressure</v>
       </c>
-      <c r="S6" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "pressure": {"measurement_type": 0x04, "accuracy_decimals": 2, "unit_of_measurement": "hPa", "device_class": DEVICE_CLASS_PRESSURE},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S6" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "pressure": {"measurement_type": 0x04, "device_class": DEVICE_CLASS_PRESSURE, "accuracy_decimals": 2, "unit_of_measurement": "hPa"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4534,50 +4585,50 @@
         <v>24</v>
       </c>
       <c r="I7" t="str">
-        <f>IF(N7&gt;0," || obj_meas_type == "&amp;B7,"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> || obj_meas_type == 0x05</v>
       </c>
       <c r="J7" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>illuminanceFALSE</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="3"/>
-        <v>illuminanceFALSE</v>
-      </c>
-      <c r="L7">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D7,FIND("(",D7)+1,1),0))</f>
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <f>IF(MID(D7,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" t="s">
         <v>208</v>
       </c>
       <c r="Q7" t="str">
-        <f>"0x"&amp;O7&amp;","&amp;CHAR(9)&amp;" // "&amp;B7&amp;" | "&amp;C7&amp;" | "&amp;D7&amp;" | datatype: "&amp;M7&amp;" | factor_exp10: "&amp;E7&amp;" | example: "&amp;F7</f>
+        <f t="shared" si="5"/>
         <v>0x43,	 // 0x05 | illuminance | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 05138A14</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>illuminance</v>
       </c>
-      <c r="S7" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "illuminance": {"measurement_type": 0x05, "accuracy_decimals": 2, "unit_of_measurement": "lux", "device_class": DEVICE_CLASS_ILLUMINANCE},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "illuminance": {"measurement_type": 0x05, "device_class": DEVICE_CLASS_ILLUMINANCE, "accuracy_decimals": 2, "unit_of_measurement": "lux"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4604,50 +4655,47 @@
         <v>28</v>
       </c>
       <c r="I8" t="str">
-        <f>IF(N8&gt;0," || obj_meas_type == "&amp;B8,"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> || obj_meas_type == 0x06</v>
       </c>
       <c r="J8" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>mass (kg)FALSE</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="3"/>
-        <v>mass (kg)FALSE</v>
-      </c>
-      <c r="L8">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D8,FIND("(",D8)+1,1),0))</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M8">
-        <f>IF(MID(D8,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="O8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="P8" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="Q8" t="str">
-        <f>"0x"&amp;O8&amp;","&amp;CHAR(9)&amp;" // "&amp;B8&amp;" | "&amp;C8&amp;" | "&amp;D8&amp;" | datatype: "&amp;M8&amp;" | factor_exp10: "&amp;E8&amp;" | example: "&amp;F8</f>
+        <f t="shared" si="5"/>
         <v>0x42,	 // 0x06 | mass (kg) | uint16 (2 byte) | datatype: 0 | factor_exp10: 0.01 | example: 065E1F</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>mass_kg</v>
       </c>
-      <c r="S8" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "mass_kg": {"measurement_type": 0x06, "accuracy_decimals": 2, "unit_of_measurement": "kg", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S8" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "mass_kg": {"measurement_type": 0x06, "accuracy_decimals": 2, "unit_of_measurement": "kg"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4674,50 +4722,47 @@
         <v>32</v>
       </c>
       <c r="I9" t="str">
-        <f>IF(N9&gt;0," || obj_meas_type == "&amp;B9,"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> || obj_meas_type == 0x07</v>
       </c>
       <c r="J9" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>mass (lb)FALSE</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="3"/>
-        <v>mass (lb)FALSE</v>
-      </c>
-      <c r="L9">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D9,FIND("(",D9)+1,1),0))</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M9">
-        <f>IF(MID(D9,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="O9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="Q9" t="str">
-        <f>"0x"&amp;O9&amp;","&amp;CHAR(9)&amp;" // "&amp;B9&amp;" | "&amp;C9&amp;" | "&amp;D9&amp;" | datatype: "&amp;M9&amp;" | factor_exp10: "&amp;E9&amp;" | example: "&amp;F9</f>
+        <f t="shared" si="5"/>
         <v>0x42,	 // 0x07 | mass (lb) | uint16 (2 byte) | datatype: 0 | factor_exp10: 0.01 | example: 073E1D</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>mass_lb</v>
       </c>
-      <c r="S9" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "mass_lb": {"measurement_type": 0x07, "accuracy_decimals": 2, "unit_of_measurement": "lb", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S9" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "mass_lb": {"measurement_type": 0x07, "accuracy_decimals": 2, "unit_of_measurement": "lb"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4744,50 +4789,47 @@
         <v>12</v>
       </c>
       <c r="I10" t="str">
-        <f>IF(N10&gt;0," || obj_meas_type == "&amp;B10,"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> || obj_meas_type == 0x08</v>
       </c>
       <c r="J10" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>dewpointFALSE</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="3"/>
-        <v>dewpointFALSE</v>
-      </c>
-      <c r="L10">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D10,FIND("(",D10)+1,1),0))</f>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M10">
-        <f>IF(MID(D10,1,4)="sint",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="O10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4A</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="Q10" t="str">
-        <f>"0x"&amp;O10&amp;","&amp;CHAR(9)&amp;" // "&amp;B10&amp;" | "&amp;C10&amp;" | "&amp;D10&amp;" | datatype: "&amp;M10&amp;" | factor_exp10: "&amp;E10&amp;" | example: "&amp;F10</f>
+        <f t="shared" si="5"/>
         <v>0x4A,	 // 0x08 | dewpoint | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.01 | example: 08CA06</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>dewpoint</v>
       </c>
-      <c r="S10" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "dewpoint": {"measurement_type": 0x08, "accuracy_decimals": 2, "unit_of_measurement": "°C", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S10" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "dewpoint": {"measurement_type": 0x08, "accuracy_decimals": 2, "unit_of_measurement": "°C"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4811,50 +4853,47 @@
         <v>96</v>
       </c>
       <c r="I11" t="str">
-        <f>IF(N11&gt;0," || obj_meas_type == "&amp;B11,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J11" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>count smallFALSE</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="3"/>
-        <v>count smallFALSE</v>
-      </c>
-      <c r="L11">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D11,FIND("(",D11)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <f>IF(MID(D11,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="Q11" t="str">
-        <f>"0x"&amp;O11&amp;","&amp;CHAR(9)&amp;" // "&amp;B11&amp;" | "&amp;C11&amp;" | "&amp;D11&amp;" | datatype: "&amp;M11&amp;" | factor_exp10: "&amp;E11&amp;" | example: "&amp;F11</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x09 | count small | uint (1 bytes) | datatype: 0 | factor_exp10: 1 | example: 0960</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>count_small</v>
       </c>
-      <c r="S11" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "count_small": {"measurement_type": 0x09, "accuracy_decimals": 0, "unit_of_measurement": "", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S11" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "count_small": {"measurement_type": 0x09, "accuracy_decimals": 0, "unit_of_measurement": ""},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4881,50 +4920,50 @@
         <v>40</v>
       </c>
       <c r="I12" t="str">
-        <f>IF(N12&gt;0," || obj_meas_type == "&amp;B12,"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> || obj_meas_type == 0x0A</v>
       </c>
       <c r="J12" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>energyFALSE</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="3"/>
-        <v>energyFALSE</v>
-      </c>
-      <c r="L12">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D12,FIND("(",D12)+1,1),0))</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M12">
-        <f>IF(MID(D12,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
       <c r="O12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" t="s">
         <v>209</v>
       </c>
       <c r="Q12" t="str">
-        <f>"0x"&amp;O12&amp;","&amp;CHAR(9)&amp;" // "&amp;B12&amp;" | "&amp;C12&amp;" | "&amp;D12&amp;" | datatype: "&amp;M12&amp;" | factor_exp10: "&amp;E12&amp;" | example: "&amp;F12</f>
+        <f t="shared" si="5"/>
         <v>0x63,	 // 0x0A | energy | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 0A138A14</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>energy</v>
       </c>
-      <c r="S12" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "energy": {"measurement_type": 0x0A, "accuracy_decimals": 3, "unit_of_measurement": "kWh", "device_class": DEVICE_CLASS_ENERGY},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S12" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "energy": {"measurement_type": 0x0A, "device_class": DEVICE_CLASS_ENERGY, "accuracy_decimals": 3, "unit_of_measurement": "kWh"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4951,50 +4990,50 @@
         <v>44</v>
       </c>
       <c r="I13" t="str">
-        <f>IF(N13&gt;0," || obj_meas_type == "&amp;B13,"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> || obj_meas_type == 0x0B</v>
       </c>
       <c r="J13" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>powerFALSE</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="3"/>
-        <v>powerFALSE</v>
-      </c>
-      <c r="L13">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D13,FIND("(",D13)+1,1),0))</f>
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <f>IF(MID(D13,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" t="s">
         <v>210</v>
       </c>
       <c r="Q13" t="str">
-        <f>"0x"&amp;O13&amp;","&amp;CHAR(9)&amp;" // "&amp;B13&amp;" | "&amp;C13&amp;" | "&amp;D13&amp;" | datatype: "&amp;M13&amp;" | factor_exp10: "&amp;E13&amp;" | example: "&amp;F13</f>
+        <f t="shared" si="5"/>
         <v>0x43,	 // 0x0B | power | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 0B021B00</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>power</v>
       </c>
-      <c r="S13" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "power": {"measurement_type": 0x0B, "accuracy_decimals": 2, "unit_of_measurement": "W", "device_class": DEVICE_CLASS_POWER},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S13" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "power": {"measurement_type": 0x0B, "device_class": DEVICE_CLASS_POWER, "accuracy_decimals": 2, "unit_of_measurement": "W"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5021,50 +5060,50 @@
         <v>48</v>
       </c>
       <c r="I14" t="str">
-        <f>IF(N14&gt;0," || obj_meas_type == "&amp;B14,"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> || obj_meas_type == 0x0C</v>
       </c>
       <c r="J14" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>voltageFALSE</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="3"/>
-        <v>voltageFALSE</v>
-      </c>
-      <c r="L14">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D14,FIND("(",D14)+1,1),0))</f>
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <f>IF(MID(D14,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" t="s">
         <v>211</v>
       </c>
       <c r="Q14" t="str">
-        <f>"0x"&amp;O14&amp;","&amp;CHAR(9)&amp;" // "&amp;B14&amp;" | "&amp;C14&amp;" | "&amp;D14&amp;" | datatype: "&amp;M14&amp;" | factor_exp10: "&amp;E14&amp;" | example: "&amp;F14</f>
+        <f t="shared" si="5"/>
         <v>0x62,	 // 0x0C | voltage | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 0C020C</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>voltage</v>
       </c>
-      <c r="S14" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "voltage": {"measurement_type": 0x0C, "accuracy_decimals": 3, "unit_of_measurement": "V", "device_class": DEVICE_CLASS_VOLTAGE},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S14" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "voltage": {"measurement_type": 0x0C, "device_class": DEVICE_CLASS_VOLTAGE, "accuracy_decimals": 3, "unit_of_measurement": "V"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5091,50 +5130,50 @@
         <v>52</v>
       </c>
       <c r="I15" t="str">
-        <f>IF(N15&gt;0," || obj_meas_type == "&amp;B15,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J15" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>pm2.5FALSE</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="3"/>
-        <v>pm2.5FALSE</v>
-      </c>
-      <c r="L15">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D15,FIND("(",D15)+1,1),0))</f>
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <f>IF(MID(D15,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>02</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" t="s">
         <v>215</v>
       </c>
       <c r="Q15" t="str">
-        <f>"0x"&amp;O15&amp;","&amp;CHAR(9)&amp;" // "&amp;B15&amp;" | "&amp;C15&amp;" | "&amp;D15&amp;" | datatype: "&amp;M15&amp;" | factor_exp10: "&amp;E15&amp;" | example: "&amp;F15</f>
+        <f t="shared" si="5"/>
         <v>0x02,	 // 0x0D | pm2.5 | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 0D120C</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>pm2_5</v>
       </c>
-      <c r="S15" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "pm2_5": {"measurement_type": 0x0D, "accuracy_decimals": 0, "unit_of_measurement": "ug/m3", "device_class": DEVICE_CLASS_PM25},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S15" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "pm2_5": {"measurement_type": 0x0D, "device_class": DEVICE_CLASS_PM25, "accuracy_decimals": 0, "unit_of_measurement": "ug/m3"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5161,50 +5200,50 @@
         <v>52</v>
       </c>
       <c r="I16" t="str">
-        <f>IF(N16&gt;0," || obj_meas_type == "&amp;B16,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J16" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>pm10FALSE</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="3"/>
-        <v>pm10FALSE</v>
-      </c>
-      <c r="L16">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D16,FIND("(",D16)+1,1),0))</f>
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <f>IF(MID(D16,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>02</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" t="s">
         <v>212</v>
       </c>
       <c r="Q16" t="str">
-        <f>"0x"&amp;O16&amp;","&amp;CHAR(9)&amp;" // "&amp;B16&amp;" | "&amp;C16&amp;" | "&amp;D16&amp;" | datatype: "&amp;M16&amp;" | factor_exp10: "&amp;E16&amp;" | example: "&amp;F16</f>
+        <f t="shared" si="5"/>
         <v>0x02,	 // 0x0E | pm10 | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 0E021C</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>pm10</v>
       </c>
-      <c r="S16" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">  "pm10": {"measurement_type": 0x0E, "accuracy_decimals": 0, "unit_of_measurement": "ug/m3", "device_class": DEVICE_CLASS_PM10},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "pm10": {"measurement_type": 0x0E, "device_class": DEVICE_CLASS_PM10, "accuracy_decimals": 0, "unit_of_measurement": "ug/m3"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5225,41 +5264,47 @@
         <v>316</v>
       </c>
       <c r="I17" t="str">
-        <f>IF(N17&gt;0," || obj_meas_type == "&amp;B17,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J17" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>generic booleanTRUE</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K17" s="4" t="str">
+      <c r="M17">
         <f t="shared" si="3"/>
-        <v>generic booleanTRUE</v>
-      </c>
-      <c r="L17">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D17,FIND("(",D17)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <f>IF(MID(D17,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P17"/>
       <c r="Q17" t="str">
-        <f>"0x"&amp;O17&amp;","&amp;CHAR(9)&amp;" // "&amp;B17&amp;" | "&amp;C17&amp;" | "&amp;D17&amp;" | datatype: "&amp;M17&amp;" | factor_exp10: "&amp;E17&amp;" | example: "&amp;F17</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x0F | generic boolean | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 0F01</v>
       </c>
-      <c r="S17"/>
-    </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R17" t="str">
+        <f t="shared" si="9"/>
+        <v>generic_boolean</v>
+      </c>
+      <c r="S17" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "generic_boolean": {"measurement_type": 0x0F},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5280,41 +5325,50 @@
         <v>316</v>
       </c>
       <c r="I18" t="str">
-        <f>IF(N18&gt;0," || obj_meas_type == "&amp;B18,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J18" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>powerTRUE</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K18" s="4" t="str">
+      <c r="M18">
         <f t="shared" si="3"/>
-        <v>powerTRUE</v>
-      </c>
-      <c r="L18">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D18,FIND("(",D18)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <f>IF(MID(D18,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P18"/>
+      <c r="P18" t="s">
+        <v>210</v>
+      </c>
       <c r="Q18" t="str">
-        <f>"0x"&amp;O18&amp;","&amp;CHAR(9)&amp;" // "&amp;B18&amp;" | "&amp;C18&amp;" | "&amp;D18&amp;" | datatype: "&amp;M18&amp;" | factor_exp10: "&amp;E18&amp;" | example: "&amp;F18</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x10 | power | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1001</v>
       </c>
-      <c r="S18"/>
-    </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R18" t="str">
+        <f t="shared" si="9"/>
+        <v>power</v>
+      </c>
+      <c r="S18" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "power": {"measurement_type": 0x10, "device_class": DEVICE_CLASS_POWER},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5335,41 +5389,50 @@
         <v>314</v>
       </c>
       <c r="I19" t="str">
-        <f>IF(N19&gt;0," || obj_meas_type == "&amp;B19,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J19" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>openingTRUE</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K19" s="4" t="str">
+      <c r="M19">
         <f t="shared" si="3"/>
-        <v>openingTRUE</v>
-      </c>
-      <c r="L19">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D19,FIND("(",D19)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <f>IF(MID(D19,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P19"/>
+      <c r="P19" t="s">
+        <v>372</v>
+      </c>
       <c r="Q19" t="str">
-        <f>"0x"&amp;O19&amp;","&amp;CHAR(9)&amp;" // "&amp;B19&amp;" | "&amp;C19&amp;" | "&amp;D19&amp;" | datatype: "&amp;M19&amp;" | factor_exp10: "&amp;E19&amp;" | example: "&amp;F19</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x11 | opening | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1100</v>
       </c>
-      <c r="S19"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R19" t="str">
+        <f t="shared" si="9"/>
+        <v>opening</v>
+      </c>
+      <c r="S19" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "opening": {"measurement_type": 0x11, "device_class": DEVICE_CLASS_OPENING},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5396,50 +5459,50 @@
         <v>58</v>
       </c>
       <c r="I20" t="str">
-        <f>IF(N20&gt;0," || obj_meas_type == "&amp;B20,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J20" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>co2FALSE</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="3"/>
-        <v>co2FALSE</v>
-      </c>
-      <c r="L20">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D20,FIND("(",D20)+1,1),0))</f>
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <f>IF(MID(D20,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>02</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" t="s">
         <v>217</v>
       </c>
       <c r="Q20" t="str">
-        <f>"0x"&amp;O20&amp;","&amp;CHAR(9)&amp;" // "&amp;B20&amp;" | "&amp;C20&amp;" | "&amp;D20&amp;" | datatype: "&amp;M20&amp;" | factor_exp10: "&amp;E20&amp;" | example: "&amp;F20</f>
+        <f t="shared" si="5"/>
         <v>0x02,	 // 0x12 | co2 | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 12E204</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" ref="R20:R22" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C20," ","_"),".","_"),"(",""),")","")</f>
+        <f t="shared" si="9"/>
         <v>co2</v>
       </c>
-      <c r="S20" s="5" t="str">
-        <f t="shared" ref="S20:S22" si="8">"  """&amp;R20&amp;""": {""measurement_type"": " &amp; B20 &amp; ", ""accuracy_decimals"": "&amp;N20&amp;", ""unit_of_measurement"": """&amp;H20&amp;""", ""device_class"": "&amp;P20&amp;"},"</f>
-        <v xml:space="preserve">  "co2": {"measurement_type": 0x12, "accuracy_decimals": 0, "unit_of_measurement": "ppm", "device_class": DEVICE_CLASS_CARBON_DIOXIDE},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S20" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "co2": {"measurement_type": 0x12, "device_class": DEVICE_CLASS_CARBON_DIOXIDE, "accuracy_decimals": 0, "unit_of_measurement": "ppm"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5466,50 +5529,50 @@
         <v>52</v>
       </c>
       <c r="I21" t="str">
-        <f>IF(N21&gt;0," || obj_meas_type == "&amp;B21,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J21" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>tvocFALSE</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="3"/>
-        <v>tvocFALSE</v>
-      </c>
-      <c r="L21">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D21,FIND("(",D21)+1,1),0))</f>
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <f>IF(MID(D21,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>02</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" t="s">
         <v>218</v>
       </c>
       <c r="Q21" t="str">
-        <f>"0x"&amp;O21&amp;","&amp;CHAR(9)&amp;" // "&amp;B21&amp;" | "&amp;C21&amp;" | "&amp;D21&amp;" | datatype: "&amp;M21&amp;" | factor_exp10: "&amp;E21&amp;" | example: "&amp;F21</f>
+        <f t="shared" si="5"/>
         <v>0x02,	 // 0x13 | tvoc | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 133301</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>tvoc</v>
       </c>
-      <c r="S21" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  "tvoc": {"measurement_type": 0x13, "accuracy_decimals": 0, "unit_of_measurement": "ug/m3", "device_class": DEVICE_CLASS_VOLATILE_ORGANIC_COMPOUNDS},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S21" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "tvoc": {"measurement_type": 0x13, "device_class": DEVICE_CLASS_VOLATILE_ORGANIC_COMPOUNDS, "accuracy_decimals": 0, "unit_of_measurement": "ug/m3"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5536,50 +5599,47 @@
         <v>8</v>
       </c>
       <c r="I22" t="str">
-        <f>IF(N22&gt;0," || obj_meas_type == "&amp;B22,"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> || obj_meas_type == 0x14</v>
       </c>
       <c r="J22" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>moistureFALSE</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="3"/>
-        <v>moistureFALSE</v>
-      </c>
-      <c r="L22">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D22,FIND("(",D22)+1,1),0))</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M22">
-        <f>IF(MID(D22,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
       <c r="O22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="P22" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="Q22" t="str">
-        <f>"0x"&amp;O22&amp;","&amp;CHAR(9)&amp;" // "&amp;B22&amp;" | "&amp;C22&amp;" | "&amp;D22&amp;" | datatype: "&amp;M22&amp;" | factor_exp10: "&amp;E22&amp;" | example: "&amp;F22</f>
+        <f t="shared" si="5"/>
         <v>0x42,	 // 0x14 | moisture | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 14020C</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>moisture</v>
       </c>
-      <c r="S22" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">  "moisture": {"measurement_type": 0x14, "accuracy_decimals": 2, "unit_of_measurement": "%", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "moisture": {"measurement_type": 0x14, "accuracy_decimals": 2, "unit_of_measurement": "%"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5600,41 +5660,50 @@
         <v>309</v>
       </c>
       <c r="I23" t="str">
-        <f>IF(N23&gt;0," || obj_meas_type == "&amp;B23,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J23" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>batteryTRUE</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K23" s="4" t="str">
+      <c r="M23">
         <f t="shared" si="3"/>
-        <v>batteryTRUE</v>
-      </c>
-      <c r="L23">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D23,FIND("(",D23)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <f>IF(MID(D23,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P23"/>
+      <c r="P23" t="s">
+        <v>204</v>
+      </c>
       <c r="Q23" t="str">
-        <f>"0x"&amp;O23&amp;","&amp;CHAR(9)&amp;" // "&amp;B23&amp;" | "&amp;C23&amp;" | "&amp;D23&amp;" | datatype: "&amp;M23&amp;" | factor_exp10: "&amp;E23&amp;" | example: "&amp;F23</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x15 | battery | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1501</v>
       </c>
-      <c r="S23"/>
-    </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R23" t="str">
+        <f t="shared" si="9"/>
+        <v>battery</v>
+      </c>
+      <c r="S23" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "battery": {"measurement_type": 0x15, "device_class": DEVICE_CLASS_BATTERY},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5655,41 +5724,50 @@
         <v>310</v>
       </c>
       <c r="I24" t="str">
-        <f>IF(N24&gt;0," || obj_meas_type == "&amp;B24,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J24" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>battery chargingTRUE</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K24" s="4" t="str">
+      <c r="M24">
         <f t="shared" si="3"/>
-        <v>battery chargingTRUE</v>
-      </c>
-      <c r="L24">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D24,FIND("(",D24)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <f>IF(MID(D24,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P24"/>
+      <c r="P24" t="s">
+        <v>373</v>
+      </c>
       <c r="Q24" t="str">
-        <f>"0x"&amp;O24&amp;","&amp;CHAR(9)&amp;" // "&amp;B24&amp;" | "&amp;C24&amp;" | "&amp;D24&amp;" | datatype: "&amp;M24&amp;" | factor_exp10: "&amp;E24&amp;" | example: "&amp;F24</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x16 | battery charging | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1601</v>
       </c>
-      <c r="S24"/>
-    </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R24" t="str">
+        <f t="shared" si="9"/>
+        <v>battery_charging</v>
+      </c>
+      <c r="S24" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "battery_charging": {"measurement_type": 0x16, "device_class": DEVICE_CLASS_BATTERY_CHARGING},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5710,41 +5788,50 @@
         <v>311</v>
       </c>
       <c r="I25" t="str">
-        <f>IF(N25&gt;0," || obj_meas_type == "&amp;B25,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J25" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>carbon monoxideTRUE</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K25" s="4" t="str">
+      <c r="M25">
         <f t="shared" si="3"/>
-        <v>carbon monoxideTRUE</v>
-      </c>
-      <c r="L25">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D25,FIND("(",D25)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <f>IF(MID(D25,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P25"/>
+      <c r="P25" t="s">
+        <v>358</v>
+      </c>
       <c r="Q25" t="str">
-        <f>"0x"&amp;O25&amp;","&amp;CHAR(9)&amp;" // "&amp;B25&amp;" | "&amp;C25&amp;" | "&amp;D25&amp;" | datatype: "&amp;M25&amp;" | factor_exp10: "&amp;E25&amp;" | example: "&amp;F25</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x17 | carbon monoxide | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1700</v>
       </c>
-      <c r="S25"/>
-    </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R25" t="str">
+        <f t="shared" si="9"/>
+        <v>carbon_monoxide</v>
+      </c>
+      <c r="S25" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "carbon_monoxide": {"measurement_type": 0x17, "device_class": DEVICE_CLASS_GAS},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5765,41 +5852,50 @@
         <v>312</v>
       </c>
       <c r="I26" t="str">
-        <f>IF(N26&gt;0," || obj_meas_type == "&amp;B26,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J26" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>coldTRUE</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K26" s="4" t="str">
+      <c r="M26">
         <f t="shared" si="3"/>
-        <v>coldTRUE</v>
-      </c>
-      <c r="L26">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D26,FIND("(",D26)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <f>IF(MID(D26,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P26"/>
+      <c r="P26" t="s">
+        <v>374</v>
+      </c>
       <c r="Q26" t="str">
-        <f>"0x"&amp;O26&amp;","&amp;CHAR(9)&amp;" // "&amp;B26&amp;" | "&amp;C26&amp;" | "&amp;D26&amp;" | datatype: "&amp;M26&amp;" | factor_exp10: "&amp;E26&amp;" | example: "&amp;F26</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x18 | cold | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1801</v>
       </c>
-      <c r="S26"/>
-    </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R26" t="str">
+        <f t="shared" si="9"/>
+        <v>cold</v>
+      </c>
+      <c r="S26" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "cold": {"measurement_type": 0x18, "device_class": DEVICE_CLASS_COLD},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5820,41 +5916,50 @@
         <v>313</v>
       </c>
       <c r="I27" t="str">
-        <f>IF(N27&gt;0," || obj_meas_type == "&amp;B27,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J27" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>connectivityTRUE</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K27" s="4" t="str">
+      <c r="M27">
         <f t="shared" si="3"/>
-        <v>connectivityTRUE</v>
-      </c>
-      <c r="L27">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D27,FIND("(",D27)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <f>IF(MID(D27,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P27"/>
+      <c r="P27" t="s">
+        <v>375</v>
+      </c>
       <c r="Q27" t="str">
-        <f>"0x"&amp;O27&amp;","&amp;CHAR(9)&amp;" // "&amp;B27&amp;" | "&amp;C27&amp;" | "&amp;D27&amp;" | datatype: "&amp;M27&amp;" | factor_exp10: "&amp;E27&amp;" | example: "&amp;F27</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x19 | connectivity | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1900</v>
       </c>
-      <c r="S27"/>
-    </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R27" t="str">
+        <f t="shared" si="9"/>
+        <v>connectivity</v>
+      </c>
+      <c r="S27" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "connectivity": {"measurement_type": 0x19, "device_class": DEVICE_CLASS_CONNECTIVITY},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5875,41 +5980,50 @@
         <v>314</v>
       </c>
       <c r="I28" t="str">
-        <f>IF(N28&gt;0," || obj_meas_type == "&amp;B28,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J28" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>doorTRUE</v>
+      </c>
+      <c r="L28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K28" s="4" t="str">
+      <c r="M28">
         <f t="shared" si="3"/>
-        <v>doorTRUE</v>
-      </c>
-      <c r="L28">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D28,FIND("(",D28)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <f>IF(MID(D28,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P28"/>
+      <c r="P28" t="s">
+        <v>376</v>
+      </c>
       <c r="Q28" t="str">
-        <f>"0x"&amp;O28&amp;","&amp;CHAR(9)&amp;" // "&amp;B28&amp;" | "&amp;C28&amp;" | "&amp;D28&amp;" | datatype: "&amp;M28&amp;" | factor_exp10: "&amp;E28&amp;" | example: "&amp;F28</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x1A | door | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1A00</v>
       </c>
-      <c r="S28"/>
-    </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R28" t="str">
+        <f t="shared" si="9"/>
+        <v>door</v>
+      </c>
+      <c r="S28" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "door": {"measurement_type": 0x1A, "device_class": DEVICE_CLASS_DOOR},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5930,41 +6044,50 @@
         <v>314</v>
       </c>
       <c r="I29" t="str">
-        <f>IF(N29&gt;0," || obj_meas_type == "&amp;B29,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J29" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>garage doorTRUE</v>
+      </c>
+      <c r="L29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K29" s="4" t="str">
+      <c r="M29">
         <f t="shared" si="3"/>
-        <v>garage doorTRUE</v>
-      </c>
-      <c r="L29">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D29,FIND("(",D29)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <f>IF(MID(D29,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P29"/>
+      <c r="P29" t="s">
+        <v>377</v>
+      </c>
       <c r="Q29" t="str">
-        <f>"0x"&amp;O29&amp;","&amp;CHAR(9)&amp;" // "&amp;B29&amp;" | "&amp;C29&amp;" | "&amp;D29&amp;" | datatype: "&amp;M29&amp;" | factor_exp10: "&amp;E29&amp;" | example: "&amp;F29</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x1B | garage door | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1B01</v>
       </c>
-      <c r="S29"/>
-    </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R29" t="str">
+        <f t="shared" si="9"/>
+        <v>garage_door</v>
+      </c>
+      <c r="S29" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "garage_door": {"measurement_type": 0x1B, "device_class": DEVICE_CLASS_GARAGE_DOOR},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5985,41 +6108,50 @@
         <v>315</v>
       </c>
       <c r="I30" t="str">
-        <f>IF(N30&gt;0," || obj_meas_type == "&amp;B30,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J30" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>gasTRUE</v>
+      </c>
+      <c r="L30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K30" s="4" t="str">
+      <c r="M30">
         <f t="shared" si="3"/>
-        <v>gasTRUE</v>
-      </c>
-      <c r="L30">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D30,FIND("(",D30)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <f>IF(MID(D30,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P30"/>
+      <c r="P30" t="s">
+        <v>358</v>
+      </c>
       <c r="Q30" t="str">
-        <f>"0x"&amp;O30&amp;","&amp;CHAR(9)&amp;" // "&amp;B30&amp;" | "&amp;C30&amp;" | "&amp;D30&amp;" | datatype: "&amp;M30&amp;" | factor_exp10: "&amp;E30&amp;" | example: "&amp;F30</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x1C | gas | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1C01</v>
       </c>
-      <c r="S30"/>
-    </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R30" t="str">
+        <f t="shared" si="9"/>
+        <v>gas</v>
+      </c>
+      <c r="S30" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "gas": {"measurement_type": 0x1C, "device_class": DEVICE_CLASS_GAS},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6040,41 +6172,50 @@
         <v>317</v>
       </c>
       <c r="I31" t="str">
-        <f>IF(N31&gt;0," || obj_meas_type == "&amp;B31,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J31" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>heatTRUE</v>
+      </c>
+      <c r="L31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K31" s="4" t="str">
+      <c r="M31">
         <f t="shared" si="3"/>
-        <v>heatTRUE</v>
-      </c>
-      <c r="L31">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D31,FIND("(",D31)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <f>IF(MID(D31,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P31"/>
+      <c r="P31" t="s">
+        <v>378</v>
+      </c>
       <c r="Q31" t="str">
-        <f>"0x"&amp;O31&amp;","&amp;CHAR(9)&amp;" // "&amp;B31&amp;" | "&amp;C31&amp;" | "&amp;D31&amp;" | datatype: "&amp;M31&amp;" | factor_exp10: "&amp;E31&amp;" | example: "&amp;F31</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x1D | heat | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1D00</v>
       </c>
-      <c r="S31"/>
-    </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R31" t="str">
+        <f t="shared" si="9"/>
+        <v>heat</v>
+      </c>
+      <c r="S31" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "heat": {"measurement_type": 0x1D, "device_class": DEVICE_CLASS_HEAT},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6095,41 +6236,50 @@
         <v>318</v>
       </c>
       <c r="I32" t="str">
-        <f>IF(N32&gt;0," || obj_meas_type == "&amp;B32,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J32" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>lightTRUE</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K32" s="4" t="str">
+      <c r="M32">
         <f t="shared" si="3"/>
-        <v>lightTRUE</v>
-      </c>
-      <c r="L32">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D32,FIND("(",D32)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <f>IF(MID(D32,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P32"/>
+      <c r="P32" t="s">
+        <v>379</v>
+      </c>
       <c r="Q32" t="str">
-        <f>"0x"&amp;O32&amp;","&amp;CHAR(9)&amp;" // "&amp;B32&amp;" | "&amp;C32&amp;" | "&amp;D32&amp;" | datatype: "&amp;M32&amp;" | factor_exp10: "&amp;E32&amp;" | example: "&amp;F32</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x1E | light | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 10</v>
       </c>
-      <c r="S32"/>
-    </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R32" t="str">
+        <f t="shared" si="9"/>
+        <v>light</v>
+      </c>
+      <c r="S32" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "light": {"measurement_type": 0x1E, "device_class": DEVICE_CLASS_LIGHT},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6150,41 +6300,50 @@
         <v>319</v>
       </c>
       <c r="I33" t="str">
-        <f>IF(N33&gt;0," || obj_meas_type == "&amp;B33,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J33" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>lockTRUE</v>
+      </c>
+      <c r="L33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K33" s="4" t="str">
+      <c r="M33">
         <f t="shared" si="3"/>
-        <v>lockTRUE</v>
-      </c>
-      <c r="L33">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D33,FIND("(",D33)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <f>IF(MID(D33,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P33"/>
+      <c r="P33" t="s">
+        <v>380</v>
+      </c>
       <c r="Q33" t="str">
-        <f>"0x"&amp;O33&amp;","&amp;CHAR(9)&amp;" // "&amp;B33&amp;" | "&amp;C33&amp;" | "&amp;D33&amp;" | datatype: "&amp;M33&amp;" | factor_exp10: "&amp;E33&amp;" | example: "&amp;F33</f>
+        <f t="shared" si="5"/>
         <v>0x01,	 // 0x1F | lock | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1F01</v>
       </c>
-      <c r="S33"/>
-    </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R33" t="str">
+        <f t="shared" si="9"/>
+        <v>lock</v>
+      </c>
+      <c r="S33" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "lock": {"measurement_type": 0x1F, "device_class": DEVICE_CLASS_LOCK},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6205,41 +6364,50 @@
         <v>320</v>
       </c>
       <c r="I34" t="str">
-        <f>IF(N34&gt;0," || obj_meas_type == "&amp;B34,"")</f>
+        <f t="shared" ref="I34:I65" si="11">IF(N34&gt;0," || obj_meas_type == "&amp;B34,"")</f>
         <v/>
       </c>
       <c r="J34" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K34" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>moistureTRUE</v>
       </c>
       <c r="L34">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D34,FIND("(",D34)+1,1),0))</f>
+        <f t="shared" ref="L34:L65" si="12">_xlfn.NUMBERVALUE(IFERROR(MID(D34,FIND("(",D34)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M34">
-        <f>IF(MID(D34,1,4)="sint",1,0)</f>
+        <f t="shared" ref="M34:M65" si="13">IF(MID(D34,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="9">IFERROR(ABS(LOG10(E34)),0)</f>
+        <f t="shared" ref="N34:N65" si="14">IFERROR(ABS(LOG10(E34)),0)</f>
         <v>0</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P34"/>
+      <c r="P34" t="s">
+        <v>213</v>
+      </c>
       <c r="Q34" t="str">
-        <f>"0x"&amp;O34&amp;","&amp;CHAR(9)&amp;" // "&amp;B34&amp;" | "&amp;C34&amp;" | "&amp;D34&amp;" | datatype: "&amp;M34&amp;" | factor_exp10: "&amp;E34&amp;" | example: "&amp;F34</f>
+        <f t="shared" ref="Q34:Q65" si="15">"0x"&amp;O34&amp;","&amp;CHAR(9)&amp;" // "&amp;B34&amp;" | "&amp;C34&amp;" | "&amp;D34&amp;" | datatype: "&amp;M34&amp;" | factor_exp10: "&amp;E34&amp;" | example: "&amp;F34</f>
         <v>0x01,	 // 0x20 | moisture | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2001</v>
       </c>
-      <c r="S34"/>
-    </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R34" t="str">
+        <f t="shared" si="9"/>
+        <v>moisture</v>
+      </c>
+      <c r="S34" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "moisture": {"measurement_type": 0x20, "device_class": DEVICE_CLASS_MOISTURE},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6260,41 +6428,50 @@
         <v>315</v>
       </c>
       <c r="I35" t="str">
-        <f>IF(N35&gt;0," || obj_meas_type == "&amp;B35,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J35" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K35" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>motionTRUE</v>
       </c>
       <c r="L35">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D35,FIND("(",D35)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M35">
-        <f>IF(MID(D35,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P35" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x21 | motion | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2100</v>
+      </c>
+      <c r="R35" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P35"/>
-      <c r="Q35" t="str">
-        <f>"0x"&amp;O35&amp;","&amp;CHAR(9)&amp;" // "&amp;B35&amp;" | "&amp;C35&amp;" | "&amp;D35&amp;" | datatype: "&amp;M35&amp;" | factor_exp10: "&amp;E35&amp;" | example: "&amp;F35</f>
-        <v>0x01,	 // 0x21 | motion | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2100</v>
-      </c>
-      <c r="S35"/>
-    </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>motion</v>
+      </c>
+      <c r="S35" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "motion": {"measurement_type": 0x21, "device_class": DEVICE_CLASS_MOTION},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6315,41 +6492,50 @@
         <v>321</v>
       </c>
       <c r="I36" t="str">
-        <f>IF(N36&gt;0," || obj_meas_type == "&amp;B36,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J36" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K36" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>movingTRUE</v>
       </c>
       <c r="L36">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D36,FIND("(",D36)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M36">
-        <f>IF(MID(D36,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P36" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x22 | moving | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2201</v>
+      </c>
+      <c r="R36" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P36"/>
-      <c r="Q36" t="str">
-        <f>"0x"&amp;O36&amp;","&amp;CHAR(9)&amp;" // "&amp;B36&amp;" | "&amp;C36&amp;" | "&amp;D36&amp;" | datatype: "&amp;M36&amp;" | factor_exp10: "&amp;E36&amp;" | example: "&amp;F36</f>
-        <v>0x01,	 // 0x22 | moving | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2201</v>
-      </c>
-      <c r="S36"/>
-    </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>moving</v>
+      </c>
+      <c r="S36" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "moving": {"measurement_type": 0x22, "device_class": DEVICE_CLASS_MOVING},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6370,41 +6556,50 @@
         <v>315</v>
       </c>
       <c r="I37" t="str">
-        <f>IF(N37&gt;0," || obj_meas_type == "&amp;B37,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J37" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K37" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>occupancyTRUE</v>
       </c>
       <c r="L37">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D37,FIND("(",D37)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M37">
-        <f>IF(MID(D37,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P37" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x23 | occupancy | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2301</v>
+      </c>
+      <c r="R37" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P37"/>
-      <c r="Q37" t="str">
-        <f>"0x"&amp;O37&amp;","&amp;CHAR(9)&amp;" // "&amp;B37&amp;" | "&amp;C37&amp;" | "&amp;D37&amp;" | datatype: "&amp;M37&amp;" | factor_exp10: "&amp;E37&amp;" | example: "&amp;F37</f>
-        <v>0x01,	 // 0x23 | occupancy | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2301</v>
-      </c>
-      <c r="S37"/>
-    </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>occupancy</v>
+      </c>
+      <c r="S37" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "occupancy": {"measurement_type": 0x23, "device_class": DEVICE_CLASS_OCCUPANCY},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6425,41 +6620,50 @@
         <v>322</v>
       </c>
       <c r="I38" t="str">
-        <f>IF(N38&gt;0," || obj_meas_type == "&amp;B38,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J38" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K38" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>plugTRUE</v>
       </c>
       <c r="L38">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D38,FIND("(",D38)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M38">
-        <f>IF(MID(D38,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N38">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P38" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x24 | plug | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2400</v>
+      </c>
+      <c r="R38" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P38"/>
-      <c r="Q38" t="str">
-        <f>"0x"&amp;O38&amp;","&amp;CHAR(9)&amp;" // "&amp;B38&amp;" | "&amp;C38&amp;" | "&amp;D38&amp;" | datatype: "&amp;M38&amp;" | factor_exp10: "&amp;E38&amp;" | example: "&amp;F38</f>
-        <v>0x01,	 // 0x24 | plug | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2400</v>
-      </c>
-      <c r="S38"/>
-    </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>plug</v>
+      </c>
+      <c r="S38" s="9" t="str">
+        <f>"  "&amp;IF(OR(J38=TRUE,J38=FALSE),""""&amp;R38&amp;""": {""measurement_type"": "&amp;B38&amp;IF(NOT(ISBLANK(P19)),", ""device_class"": "&amp;P19,"")&amp;IF(J38=FALSE,", ""accuracy_decimals"": "&amp;N38&amp;", ""unit_of_measurement"": """&amp;H38&amp;"""","")&amp;"},","# "&amp;B38)</f>
+        <v xml:space="preserve">  "plug": {"measurement_type": 0x24, "device_class": DEVICE_CLASS_OPENING},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6480,41 +6684,50 @@
         <v>323</v>
       </c>
       <c r="I39" t="str">
-        <f>IF(N39&gt;0," || obj_meas_type == "&amp;B39,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J39" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K39" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>presenceTRUE</v>
       </c>
       <c r="L39">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D39,FIND("(",D39)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M39">
-        <f>IF(MID(D39,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P39" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x25 | presence | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2500</v>
+      </c>
+      <c r="R39" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P39"/>
-      <c r="Q39" t="str">
-        <f>"0x"&amp;O39&amp;","&amp;CHAR(9)&amp;" // "&amp;B39&amp;" | "&amp;C39&amp;" | "&amp;D39&amp;" | datatype: "&amp;M39&amp;" | factor_exp10: "&amp;E39&amp;" | example: "&amp;F39</f>
-        <v>0x01,	 // 0x25 | presence | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2500</v>
-      </c>
-      <c r="S39"/>
-    </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>presence</v>
+      </c>
+      <c r="S39" s="9" t="str">
+        <f>"  "&amp;IF(OR(J39=TRUE,J39=FALSE),""""&amp;R39&amp;""": {""measurement_type"": "&amp;B39&amp;IF(NOT(ISBLANK(P38)),", ""device_class"": "&amp;P38,"")&amp;IF(J39=FALSE,", ""accuracy_decimals"": "&amp;N39&amp;", ""unit_of_measurement"": """&amp;H39&amp;"""","")&amp;"},","# "&amp;B39)</f>
+        <v xml:space="preserve">  "presence": {"measurement_type": 0x25, "device_class": DEVICE_CLASS_PLUG},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6535,41 +6748,50 @@
         <v>324</v>
       </c>
       <c r="I40" t="str">
-        <f>IF(N40&gt;0," || obj_meas_type == "&amp;B40,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K40" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>problemTRUE</v>
       </c>
       <c r="L40">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D40,FIND("(",D40)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M40">
-        <f>IF(MID(D40,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P40" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x26 | problem | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2601</v>
+      </c>
+      <c r="R40" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P40"/>
-      <c r="Q40" t="str">
-        <f>"0x"&amp;O40&amp;","&amp;CHAR(9)&amp;" // "&amp;B40&amp;" | "&amp;C40&amp;" | "&amp;D40&amp;" | datatype: "&amp;M40&amp;" | factor_exp10: "&amp;E40&amp;" | example: "&amp;F40</f>
-        <v>0x01,	 // 0x26 | problem | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2601</v>
-      </c>
-      <c r="S40"/>
-    </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>problem</v>
+      </c>
+      <c r="S40" s="9" t="str">
+        <f>"  "&amp;IF(OR(J40=TRUE,J40=FALSE),""""&amp;R40&amp;""": {""measurement_type"": "&amp;B40&amp;IF(NOT(ISBLANK(P39)),", ""device_class"": "&amp;P39,"")&amp;IF(J40=FALSE,", ""accuracy_decimals"": "&amp;N40&amp;", ""unit_of_measurement"": """&amp;H40&amp;"""","")&amp;"},","# "&amp;B40)</f>
+        <v xml:space="preserve">  "problem": {"measurement_type": 0x26, "device_class": DEVICE_CLASS_PRESENCE},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6590,41 +6812,50 @@
         <v>325</v>
       </c>
       <c r="I41" t="str">
-        <f>IF(N41&gt;0," || obj_meas_type == "&amp;B41,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J41" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K41" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>runningTRUE</v>
       </c>
       <c r="L41">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D41,FIND("(",D41)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M41">
-        <f>IF(MID(D41,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P41" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x27 | running | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2701</v>
+      </c>
+      <c r="R41" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P41"/>
-      <c r="Q41" t="str">
-        <f>"0x"&amp;O41&amp;","&amp;CHAR(9)&amp;" // "&amp;B41&amp;" | "&amp;C41&amp;" | "&amp;D41&amp;" | datatype: "&amp;M41&amp;" | factor_exp10: "&amp;E41&amp;" | example: "&amp;F41</f>
-        <v>0x01,	 // 0x27 | running | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2701</v>
-      </c>
-      <c r="S41"/>
-    </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>running</v>
+      </c>
+      <c r="S41" s="9" t="str">
+        <f>"  "&amp;IF(OR(J41=TRUE,J41=FALSE),""""&amp;R41&amp;""": {""measurement_type"": "&amp;B41&amp;IF(NOT(ISBLANK(P40)),", ""device_class"": "&amp;P40,"")&amp;IF(J41=FALSE,", ""accuracy_decimals"": "&amp;N41&amp;", ""unit_of_measurement"": """&amp;H41&amp;"""","")&amp;"},","# "&amp;B41)</f>
+        <v xml:space="preserve">  "running": {"measurement_type": 0x27, "device_class": DEVICE_CLASS_PROBLEM},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6645,41 +6876,50 @@
         <v>326</v>
       </c>
       <c r="I42" t="str">
-        <f>IF(N42&gt;0," || obj_meas_type == "&amp;B42,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J42" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K42" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>safetyTRUE</v>
       </c>
       <c r="L42">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D42,FIND("(",D42)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M42">
-        <f>IF(MID(D42,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P42" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x28 | safety | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2800</v>
+      </c>
+      <c r="R42" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P42"/>
-      <c r="Q42" t="str">
-        <f>"0x"&amp;O42&amp;","&amp;CHAR(9)&amp;" // "&amp;B42&amp;" | "&amp;C42&amp;" | "&amp;D42&amp;" | datatype: "&amp;M42&amp;" | factor_exp10: "&amp;E42&amp;" | example: "&amp;F42</f>
-        <v>0x01,	 // 0x28 | safety | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2800</v>
-      </c>
-      <c r="S42"/>
-    </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>safety</v>
+      </c>
+      <c r="S42" s="9" t="str">
+        <f>"  "&amp;IF(OR(J42=TRUE,J42=FALSE),""""&amp;R42&amp;""": {""measurement_type"": "&amp;B42&amp;IF(NOT(ISBLANK(P41)),", ""device_class"": "&amp;P41,"")&amp;IF(J42=FALSE,", ""accuracy_decimals"": "&amp;N42&amp;", ""unit_of_measurement"": """&amp;H42&amp;"""","")&amp;"},","# "&amp;B42)</f>
+        <v xml:space="preserve">  "safety": {"measurement_type": 0x28, "device_class": DEVICE_CLASS_RUNNING},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6700,41 +6940,50 @@
         <v>315</v>
       </c>
       <c r="I43" t="str">
-        <f>IF(N43&gt;0," || obj_meas_type == "&amp;B43,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J43" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>smokeTRUE</v>
       </c>
       <c r="L43">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D43,FIND("(",D43)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M43">
-        <f>IF(MID(D43,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P43" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x29 | smoke | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2901</v>
+      </c>
+      <c r="R43" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P43"/>
-      <c r="Q43" t="str">
-        <f>"0x"&amp;O43&amp;","&amp;CHAR(9)&amp;" // "&amp;B43&amp;" | "&amp;C43&amp;" | "&amp;D43&amp;" | datatype: "&amp;M43&amp;" | factor_exp10: "&amp;E43&amp;" | example: "&amp;F43</f>
-        <v>0x01,	 // 0x29 | smoke | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2901</v>
-      </c>
-      <c r="S43"/>
-    </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>smoke</v>
+      </c>
+      <c r="S43" s="9" t="str">
+        <f>"  "&amp;IF(OR(J43=TRUE,J43=FALSE),""""&amp;R43&amp;""": {""measurement_type"": "&amp;B43&amp;IF(NOT(ISBLANK(P42)),", ""device_class"": "&amp;P42,"")&amp;IF(J43=FALSE,", ""accuracy_decimals"": "&amp;N43&amp;", ""unit_of_measurement"": """&amp;H43&amp;"""","")&amp;"},","# "&amp;B43)</f>
+        <v xml:space="preserve">  "smoke": {"measurement_type": 0x29, "device_class": DEVICE_CLASS_SAFETY},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6755,41 +7004,50 @@
         <v>315</v>
       </c>
       <c r="I44" t="str">
-        <f>IF(N44&gt;0," || obj_meas_type == "&amp;B44,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J44" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K44" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>soundTRUE</v>
       </c>
       <c r="L44">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D44,FIND("(",D44)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M44">
-        <f>IF(MID(D44,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P44" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x2A | sound | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2A00</v>
+      </c>
+      <c r="R44" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P44"/>
-      <c r="Q44" t="str">
-        <f>"0x"&amp;O44&amp;","&amp;CHAR(9)&amp;" // "&amp;B44&amp;" | "&amp;C44&amp;" | "&amp;D44&amp;" | datatype: "&amp;M44&amp;" | factor_exp10: "&amp;E44&amp;" | example: "&amp;F44</f>
-        <v>0x01,	 // 0x2A | sound | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2A00</v>
-      </c>
-      <c r="S44"/>
-    </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>sound</v>
+      </c>
+      <c r="S44" s="9" t="str">
+        <f>"  "&amp;IF(OR(J44=TRUE,J44=FALSE),""""&amp;R44&amp;""": {""measurement_type"": "&amp;B44&amp;IF(NOT(ISBLANK(P43)),", ""device_class"": "&amp;P43,"")&amp;IF(J44=FALSE,", ""accuracy_decimals"": "&amp;N44&amp;", ""unit_of_measurement"": """&amp;H44&amp;"""","")&amp;"},","# "&amp;B44)</f>
+        <v xml:space="preserve">  "sound": {"measurement_type": 0x2A, "device_class": DEVICE_CLASS_SMOKE},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6810,41 +7068,50 @@
         <v>316</v>
       </c>
       <c r="I45" t="str">
-        <f>IF(N45&gt;0," || obj_meas_type == "&amp;B45,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J45" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K45" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>tamperTRUE</v>
       </c>
       <c r="L45">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D45,FIND("(",D45)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M45">
-        <f>IF(MID(D45,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P45" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x2B | tamper | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2B00</v>
+      </c>
+      <c r="R45" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P45"/>
-      <c r="Q45" t="str">
-        <f>"0x"&amp;O45&amp;","&amp;CHAR(9)&amp;" // "&amp;B45&amp;" | "&amp;C45&amp;" | "&amp;D45&amp;" | datatype: "&amp;M45&amp;" | factor_exp10: "&amp;E45&amp;" | example: "&amp;F45</f>
-        <v>0x01,	 // 0x2B | tamper | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2B00</v>
-      </c>
-      <c r="S45"/>
-    </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>tamper</v>
+      </c>
+      <c r="S45" s="9" t="str">
+        <f>"  "&amp;IF(OR(J45=TRUE,J45=FALSE),""""&amp;R45&amp;""": {""measurement_type"": "&amp;B45&amp;IF(NOT(ISBLANK(P44)),", ""device_class"": "&amp;P44,"")&amp;IF(J45=FALSE,", ""accuracy_decimals"": "&amp;N45&amp;", ""unit_of_measurement"": """&amp;H45&amp;"""","")&amp;"},","# "&amp;B45)</f>
+        <v xml:space="preserve">  "tamper": {"measurement_type": 0x2B, "device_class": DEVICE_CLASS_SOUND},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6865,41 +7132,50 @@
         <v>315</v>
       </c>
       <c r="I46" t="str">
-        <f>IF(N46&gt;0," || obj_meas_type == "&amp;B46,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J46" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K46" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>vibrationTRUE</v>
       </c>
       <c r="L46">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D46,FIND("(",D46)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M46">
-        <f>IF(MID(D46,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P46" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x2C | vibration | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2C01</v>
+      </c>
+      <c r="R46" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O46" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P46"/>
-      <c r="Q46" t="str">
-        <f>"0x"&amp;O46&amp;","&amp;CHAR(9)&amp;" // "&amp;B46&amp;" | "&amp;C46&amp;" | "&amp;D46&amp;" | datatype: "&amp;M46&amp;" | factor_exp10: "&amp;E46&amp;" | example: "&amp;F46</f>
-        <v>0x01,	 // 0x2C | vibration | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2C01</v>
-      </c>
-      <c r="S46"/>
-    </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>vibration</v>
+      </c>
+      <c r="S46" s="9" t="str">
+        <f>"  "&amp;IF(OR(J46=TRUE,J46=FALSE),""""&amp;R46&amp;""": {""measurement_type"": "&amp;B46&amp;IF(NOT(ISBLANK(P45)),", ""device_class"": "&amp;P45,"")&amp;IF(J46=FALSE,", ""accuracy_decimals"": "&amp;N46&amp;", ""unit_of_measurement"": """&amp;H46&amp;"""","")&amp;"},","# "&amp;B46)</f>
+        <v xml:space="preserve">  "vibration": {"measurement_type": 0x2C, "device_class": DEVICE_CLASS_TAMPER},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6920,41 +7196,50 @@
         <v>314</v>
       </c>
       <c r="I47" t="str">
-        <f>IF(N47&gt;0," || obj_meas_type == "&amp;B47,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J47" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K47" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>windowTRUE</v>
       </c>
       <c r="L47">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D47,FIND("(",D47)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M47">
-        <f>IF(MID(D47,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="P47" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x2D | window | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2D01</v>
+      </c>
+      <c r="R47" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O47" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P47"/>
-      <c r="Q47" t="str">
-        <f>"0x"&amp;O47&amp;","&amp;CHAR(9)&amp;" // "&amp;B47&amp;" | "&amp;C47&amp;" | "&amp;D47&amp;" | datatype: "&amp;M47&amp;" | factor_exp10: "&amp;E47&amp;" | example: "&amp;F47</f>
-        <v>0x01,	 // 0x2D | window | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2D01</v>
-      </c>
-      <c r="S47"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+        <v>window</v>
+      </c>
+      <c r="S47" s="9" t="str">
+        <f>"  "&amp;IF(OR(J47=TRUE,J47=FALSE),""""&amp;R47&amp;""": {""measurement_type"": "&amp;B47&amp;IF(NOT(ISBLANK(P46)),", ""device_class"": "&amp;P46,"")&amp;IF(J47=FALSE,", ""accuracy_decimals"": "&amp;N47&amp;", ""unit_of_measurement"": """&amp;H47&amp;"""","")&amp;"},","# "&amp;B47)</f>
+        <v xml:space="preserve">  "window": {"measurement_type": 0x2D, "device_class": DEVICE_CLASS_VIBRATION},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6981,50 +7266,47 @@
         <v>8</v>
       </c>
       <c r="I48" t="str">
-        <f>IF(N48&gt;0," || obj_meas_type == "&amp;B48,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J48" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K48" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>humidity coarseFALSE</v>
       </c>
       <c r="L48">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D48,FIND("(",D48)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M48">
-        <f>IF(MID(D48,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N48">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="8"/>
+        <v>01</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="15"/>
+        <v>0x01,	 // 0x2E | humidity coarse | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 2E23</v>
+      </c>
+      <c r="R48" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O48" t="str">
-        <f t="shared" si="4"/>
-        <v>01</v>
-      </c>
-      <c r="P48" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q48" t="str">
-        <f>"0x"&amp;O48&amp;","&amp;CHAR(9)&amp;" // "&amp;B48&amp;" | "&amp;C48&amp;" | "&amp;D48&amp;" | datatype: "&amp;M48&amp;" | factor_exp10: "&amp;E48&amp;" | example: "&amp;F48</f>
-        <v>0x01,	 // 0x2E | humidity coarse | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 2E23</v>
-      </c>
-      <c r="R48" t="str">
-        <f t="shared" ref="R48:R81" si="10">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C48," ","_"),".","_"),"(",""),")","")</f>
         <v>humidity_coarse</v>
       </c>
-      <c r="S48" s="5" t="str">
-        <f t="shared" ref="S48:S49" si="11">"  """&amp;R48&amp;""": {""measurement_type"": " &amp; B48 &amp; ", ""accuracy_decimals"": "&amp;N48&amp;", ""unit_of_measurement"": """&amp;H48&amp;""", ""device_class"": "&amp;P48&amp;"},"</f>
-        <v xml:space="preserve">  "humidity_coarse": {"measurement_type": 0x2E, "accuracy_decimals": 0, "unit_of_measurement": "%", "device_class": DEVICE_CLASS_HUMIDITY},</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S48" s="9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  "humidity_coarse": {"measurement_type": 0x2E, "accuracy_decimals": 0, "unit_of_measurement": "%"},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7051,47 +7333,44 @@
         <v>8</v>
       </c>
       <c r="I49" t="str">
-        <f>IF(N49&gt;0," || obj_meas_type == "&amp;B49,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J49" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K49" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>moisture coarseFALSE</v>
       </c>
       <c r="L49">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D49,FIND("(",D49)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M49">
-        <f>IF(MID(D49,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
-      <c r="P49" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="Q49" t="str">
-        <f>"0x"&amp;O49&amp;","&amp;CHAR(9)&amp;" // "&amp;B49&amp;" | "&amp;C49&amp;" | "&amp;D49&amp;" | datatype: "&amp;M49&amp;" | factor_exp10: "&amp;E49&amp;" | example: "&amp;F49</f>
+        <f t="shared" si="15"/>
         <v>0x01,	 // 0x2F | moisture coarse | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 2F23</v>
       </c>
       <c r="R49" t="str">
+        <f t="shared" ref="R49:R81" si="16">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C49," ","_"),".","_"),"(",""),")","")</f>
+        <v>moisture_coarse</v>
+      </c>
+      <c r="S49" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>moisture_coarse</v>
-      </c>
-      <c r="S49" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">  "moisture_coarse": {"measurement_type": 0x2F, "accuracy_decimals": 0, "unit_of_measurement": "%", "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  "moisture_coarse": {"measurement_type": 0x2F, "accuracy_decimals": 0, "unit_of_measurement": "%"},</v>
       </c>
     </row>
     <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7106,47 +7385,44 @@
         <v>350</v>
       </c>
       <c r="I50" t="str">
-        <f>IF(N50&gt;0," || obj_meas_type == "&amp;B50,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K50" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>NANA</v>
       </c>
       <c r="L50">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D50,FIND("(",D50)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M50">
-        <f>IF(MID(D50,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P50" t="s">
-        <v>214</v>
-      </c>
       <c r="Q50" t="str">
-        <f>"0x"&amp;O50&amp;","&amp;CHAR(9)&amp;" // "&amp;B50&amp;" | "&amp;C50&amp;" | "&amp;D50&amp;" | datatype: "&amp;M50&amp;" | factor_exp10: "&amp;E50&amp;" | example: "&amp;F50</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x30 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R50" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="S50" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="S50" s="5" t="str">
-        <f t="shared" ref="S48:S81" si="12">"    """&amp;R50&amp;""": {""measurement_type"": " &amp; B50 &amp; ", ""accuracy_decimals"": "&amp;N50&amp;", ""unit_of_measurement"":"""&amp;H50&amp;""" , ""device_class"": "&amp;P50&amp;"},"</f>
-        <v xml:space="preserve">    "NA": {"measurement_type": 0x30, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  # 0x30</v>
       </c>
     </row>
     <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7161,47 +7437,44 @@
         <v>350</v>
       </c>
       <c r="I51" t="str">
-        <f>IF(N51&gt;0," || obj_meas_type == "&amp;B51,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K51" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>NANA</v>
       </c>
       <c r="L51">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D51,FIND("(",D51)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M51">
-        <f>IF(MID(D51,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P51" t="s">
-        <v>214</v>
-      </c>
       <c r="Q51" t="str">
-        <f>"0x"&amp;O51&amp;","&amp;CHAR(9)&amp;" // "&amp;B51&amp;" | "&amp;C51&amp;" | "&amp;D51&amp;" | datatype: "&amp;M51&amp;" | factor_exp10: "&amp;E51&amp;" | example: "&amp;F51</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x31 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R51" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="S51" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="S51" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    "NA": {"measurement_type": 0x31, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  # 0x31</v>
       </c>
     </row>
     <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7216,47 +7489,44 @@
         <v>350</v>
       </c>
       <c r="I52" t="str">
-        <f>IF(N52&gt;0," || obj_meas_type == "&amp;B52,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K52" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>NANA</v>
       </c>
       <c r="L52">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D52,FIND("(",D52)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f>IF(MID(D52,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P52" t="s">
-        <v>214</v>
-      </c>
       <c r="Q52" t="str">
-        <f>"0x"&amp;O52&amp;","&amp;CHAR(9)&amp;" // "&amp;B52&amp;" | "&amp;C52&amp;" | "&amp;D52&amp;" | datatype: "&amp;M52&amp;" | factor_exp10: "&amp;E52&amp;" | example: "&amp;F52</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x32 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R52" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="S52" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="S52" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    "NA": {"measurement_type": 0x32, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  # 0x32</v>
       </c>
     </row>
     <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7271,47 +7541,44 @@
         <v>350</v>
       </c>
       <c r="I53" t="str">
-        <f>IF(N53&gt;0," || obj_meas_type == "&amp;B53,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K53" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>NANA</v>
       </c>
       <c r="L53">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D53,FIND("(",D53)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M53">
-        <f>IF(MID(D53,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P53" t="s">
-        <v>214</v>
-      </c>
       <c r="Q53" t="str">
-        <f>"0x"&amp;O53&amp;","&amp;CHAR(9)&amp;" // "&amp;B53&amp;" | "&amp;C53&amp;" | "&amp;D53&amp;" | datatype: "&amp;M53&amp;" | factor_exp10: "&amp;E53&amp;" | example: "&amp;F53</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x33 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R53" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="S53" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="S53" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    "NA": {"measurement_type": 0x33, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  # 0x33</v>
       </c>
     </row>
     <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7326,47 +7593,44 @@
         <v>350</v>
       </c>
       <c r="I54" t="str">
-        <f>IF(N54&gt;0," || obj_meas_type == "&amp;B54,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K54" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>NANA</v>
       </c>
       <c r="L54">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D54,FIND("(",D54)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M54">
-        <f>IF(MID(D54,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P54" t="s">
-        <v>214</v>
-      </c>
       <c r="Q54" t="str">
-        <f>"0x"&amp;O54&amp;","&amp;CHAR(9)&amp;" // "&amp;B54&amp;" | "&amp;C54&amp;" | "&amp;D54&amp;" | datatype: "&amp;M54&amp;" | factor_exp10: "&amp;E54&amp;" | example: "&amp;F54</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x34 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R54" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="S54" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="S54" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    "NA": {"measurement_type": 0x34, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  # 0x34</v>
       </c>
     </row>
     <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7381,47 +7645,44 @@
         <v>350</v>
       </c>
       <c r="I55" t="str">
-        <f>IF(N55&gt;0," || obj_meas_type == "&amp;B55,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K55" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>NANA</v>
       </c>
       <c r="L55">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D55,FIND("(",D55)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M55">
-        <f>IF(MID(D55,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P55" t="s">
-        <v>214</v>
-      </c>
       <c r="Q55" t="str">
-        <f>"0x"&amp;O55&amp;","&amp;CHAR(9)&amp;" // "&amp;B55&amp;" | "&amp;C55&amp;" | "&amp;D55&amp;" | datatype: "&amp;M55&amp;" | factor_exp10: "&amp;E55&amp;" | example: "&amp;F55</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x35 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R55" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="S55" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="S55" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    "NA": {"measurement_type": 0x35, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  # 0x35</v>
       </c>
     </row>
     <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7436,47 +7697,44 @@
         <v>350</v>
       </c>
       <c r="I56" t="str">
-        <f>IF(N56&gt;0," || obj_meas_type == "&amp;B56,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K56" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>NANA</v>
       </c>
       <c r="L56">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D56,FIND("(",D56)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M56">
-        <f>IF(MID(D56,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P56" t="s">
-        <v>214</v>
-      </c>
       <c r="Q56" t="str">
-        <f>"0x"&amp;O56&amp;","&amp;CHAR(9)&amp;" // "&amp;B56&amp;" | "&amp;C56&amp;" | "&amp;D56&amp;" | datatype: "&amp;M56&amp;" | factor_exp10: "&amp;E56&amp;" | example: "&amp;F56</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x36 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R56" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="S56" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="S56" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    "NA": {"measurement_type": 0x36, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  # 0x36</v>
       </c>
     </row>
     <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7491,47 +7749,44 @@
         <v>350</v>
       </c>
       <c r="I57" t="str">
-        <f>IF(N57&gt;0," || obj_meas_type == "&amp;B57,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K57" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>NANA</v>
       </c>
       <c r="L57">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D57,FIND("(",D57)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M57">
-        <f>IF(MID(D57,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P57" t="s">
-        <v>214</v>
-      </c>
       <c r="Q57" t="str">
-        <f>"0x"&amp;O57&amp;","&amp;CHAR(9)&amp;" // "&amp;B57&amp;" | "&amp;C57&amp;" | "&amp;D57&amp;" | datatype: "&amp;M57&amp;" | factor_exp10: "&amp;E57&amp;" | example: "&amp;F57</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x37 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R57" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="S57" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="S57" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    "NA": {"measurement_type": 0x37, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  # 0x37</v>
       </c>
     </row>
     <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7546,47 +7801,44 @@
         <v>350</v>
       </c>
       <c r="I58" t="str">
-        <f>IF(N58&gt;0," || obj_meas_type == "&amp;B58,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K58" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>NANA</v>
       </c>
       <c r="L58">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D58,FIND("(",D58)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f>IF(MID(D58,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P58" t="s">
-        <v>214</v>
-      </c>
       <c r="Q58" t="str">
-        <f>"0x"&amp;O58&amp;","&amp;CHAR(9)&amp;" // "&amp;B58&amp;" | "&amp;C58&amp;" | "&amp;D58&amp;" | datatype: "&amp;M58&amp;" | factor_exp10: "&amp;E58&amp;" | example: "&amp;F58</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x38 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R58" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="S58" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="S58" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    "NA": {"measurement_type": 0x38, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  # 0x38</v>
       </c>
     </row>
     <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7601,47 +7853,44 @@
         <v>350</v>
       </c>
       <c r="I59" t="str">
-        <f>IF(N59&gt;0," || obj_meas_type == "&amp;B59,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K59" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>NANA</v>
       </c>
       <c r="L59">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D59,FIND("(",D59)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f>IF(MID(D59,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P59" t="s">
-        <v>214</v>
-      </c>
       <c r="Q59" t="str">
-        <f>"0x"&amp;O59&amp;","&amp;CHAR(9)&amp;" // "&amp;B59&amp;" | "&amp;C59&amp;" | "&amp;D59&amp;" | datatype: "&amp;M59&amp;" | factor_exp10: "&amp;E59&amp;" | example: "&amp;F59</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x39 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R59" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="S59" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="S59" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    "NA": {"measurement_type": 0x39, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  # 0x39</v>
       </c>
     </row>
     <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7657,47 +7906,44 @@
       </c>
       <c r="F60"/>
       <c r="I60" t="str">
-        <f>IF(N60&gt;0," || obj_meas_type == "&amp;B60,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K60" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>TODONA</v>
       </c>
       <c r="L60">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D60,FIND("(",D60)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f>IF(MID(D60,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P60" t="s">
-        <v>214</v>
-      </c>
       <c r="Q60" t="str">
-        <f>"0x"&amp;O60&amp;","&amp;CHAR(9)&amp;" // "&amp;B60&amp;" | "&amp;C60&amp;" | "&amp;D60&amp;" | datatype: "&amp;M60&amp;" | factor_exp10: "&amp;E60&amp;" | example: "&amp;F60</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x3A | TODO |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R60" t="str">
+        <f t="shared" si="16"/>
+        <v>TODO</v>
+      </c>
+      <c r="S60" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>TODO</v>
-      </c>
-      <c r="S60" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    "TODO": {"measurement_type": 0x3A, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  # 0x3A</v>
       </c>
     </row>
     <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7712,47 +7958,44 @@
         <v>350</v>
       </c>
       <c r="I61" t="str">
-        <f>IF(N61&gt;0," || obj_meas_type == "&amp;B61,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K61" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>NANA</v>
       </c>
       <c r="L61">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D61,FIND("(",D61)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f>IF(MID(D61,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P61" t="s">
-        <v>214</v>
-      </c>
       <c r="Q61" t="str">
-        <f>"0x"&amp;O61&amp;","&amp;CHAR(9)&amp;" // "&amp;B61&amp;" | "&amp;C61&amp;" | "&amp;D61&amp;" | datatype: "&amp;M61&amp;" | factor_exp10: "&amp;E61&amp;" | example: "&amp;F61</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x3B | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R61" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="S61" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>NA</v>
-      </c>
-      <c r="S61" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    "NA": {"measurement_type": 0x3B, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
+        <v xml:space="preserve">  # 0x3B</v>
       </c>
     </row>
     <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7767,50 +8010,47 @@
         <v>351</v>
       </c>
       <c r="I62" t="str">
-        <f>IF(N62&gt;0," || obj_meas_type == "&amp;B62,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="K62" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>TODONA</v>
       </c>
       <c r="L62">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D62,FIND("(",D62)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f>IF(MID(D62,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P62" t="s">
-        <v>214</v>
-      </c>
       <c r="Q62" t="str">
-        <f>"0x"&amp;O62&amp;","&amp;CHAR(9)&amp;" // "&amp;B62&amp;" | "&amp;C62&amp;" | "&amp;D62&amp;" | datatype: "&amp;M62&amp;" | factor_exp10: "&amp;E62&amp;" | example: "&amp;F62</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">0x00,	 // 0x3C | TODO |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R62" t="str">
+        <f t="shared" si="16"/>
+        <v>TODO</v>
+      </c>
+      <c r="S62" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>TODO</v>
-      </c>
-      <c r="S62" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v xml:space="preserve">    "TODO": {"measurement_type": 0x3C, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">  # 0x3C</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -7834,50 +8074,47 @@
         <v>24585</v>
       </c>
       <c r="I63" t="str">
-        <f>IF(N63&gt;0," || obj_meas_type == "&amp;B63,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J63" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K63" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>count mediumFALSE</v>
       </c>
       <c r="L63">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D63,FIND("(",D63)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="M63">
-        <f>IF(MID(D63,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>02</v>
       </c>
-      <c r="P63" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="Q63" t="str">
-        <f>"0x"&amp;O63&amp;","&amp;CHAR(9)&amp;" // "&amp;B63&amp;" | "&amp;C63&amp;" | "&amp;D63&amp;" | datatype: "&amp;M63&amp;" | factor_exp10: "&amp;E63&amp;" | example: "&amp;F63</f>
+        <f t="shared" si="15"/>
         <v>0x02,	 // 0x3D | count medium | uint (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 3D0960</v>
       </c>
       <c r="R63" t="str">
+        <f t="shared" si="16"/>
+        <v>count_medium</v>
+      </c>
+      <c r="S63" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>count_medium</v>
-      </c>
-      <c r="S63" s="5" t="str">
-        <f t="shared" ref="S63:S81" si="13">"  """&amp;R63&amp;""": {""measurement_type"": " &amp; B63 &amp; ", ""accuracy_decimals"": "&amp;N63&amp;", ""unit_of_measurement"": """&amp;H63&amp;""", ""device_class"": "&amp;P63&amp;"},"</f>
-        <v xml:space="preserve">  "count_medium": {"measurement_type": 0x3D, "accuracy_decimals": 0, "unit_of_measurement": "", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">  "count_medium": {"measurement_type": 0x3D, "accuracy_decimals": 0, "unit_of_measurement": ""},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -7901,50 +8138,47 @@
         <v>1611213866</v>
       </c>
       <c r="I64" t="str">
-        <f>IF(N64&gt;0," || obj_meas_type == "&amp;B64,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J64" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K64" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>count largeFALSE</v>
       </c>
       <c r="L64">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D64,FIND("(",D64)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="M64">
-        <f>IF(MID(D64,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>04</v>
       </c>
-      <c r="P64" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="Q64" t="str">
-        <f>"0x"&amp;O64&amp;","&amp;CHAR(9)&amp;" // "&amp;B64&amp;" | "&amp;C64&amp;" | "&amp;D64&amp;" | datatype: "&amp;M64&amp;" | factor_exp10: "&amp;E64&amp;" | example: "&amp;F64</f>
+        <f t="shared" si="15"/>
         <v>0x04,	 // 0x3E | count large | uint (4 bytes) | datatype: 0 | factor_exp10: 1 | example: 3E2A2C0960</v>
       </c>
       <c r="R64" t="str">
+        <f t="shared" si="16"/>
+        <v>count_large</v>
+      </c>
+      <c r="S64" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>count_large</v>
-      </c>
-      <c r="S64" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "count_large": {"measurement_type": 0x3E, "accuracy_decimals": 0, "unit_of_measurement": "", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">  "count_large": {"measurement_type": 0x3E, "accuracy_decimals": 0, "unit_of_measurement": ""},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -7971,50 +8205,47 @@
         <v>262</v>
       </c>
       <c r="I65" t="str">
-        <f>IF(N65&gt;0," || obj_meas_type == "&amp;B65,"")</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve"> || obj_meas_type == 0x3F</v>
       </c>
       <c r="J65" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K65" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>rotationFALSE</v>
       </c>
       <c r="L65">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D65,FIND("(",D65)+1,1),0))</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="M65">
-        <f>IF(MID(D65,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2A</v>
       </c>
-      <c r="P65" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="Q65" t="str">
-        <f>"0x"&amp;O65&amp;","&amp;CHAR(9)&amp;" // "&amp;B65&amp;" | "&amp;C65&amp;" | "&amp;D65&amp;" | datatype: "&amp;M65&amp;" | factor_exp10: "&amp;E65&amp;" | example: "&amp;F65</f>
+        <f t="shared" si="15"/>
         <v>0x2A,	 // 0x3F | rotation | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.1 | example: 3F020C</v>
       </c>
       <c r="R65" t="str">
+        <f t="shared" si="16"/>
+        <v>rotation</v>
+      </c>
+      <c r="S65" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>rotation</v>
-      </c>
-      <c r="S65" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "rotation": {"measurement_type": 0x3F, "accuracy_decimals": 1, "unit_of_measurement": "°", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">  "rotation": {"measurement_type": 0x3F, "accuracy_decimals": 1, "unit_of_measurement": "°"},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -8041,50 +8272,47 @@
         <v>232</v>
       </c>
       <c r="I66" t="str">
-        <f>IF(N66&gt;0," || obj_meas_type == "&amp;B66,"")</f>
+        <f t="shared" ref="I66:I81" si="17">IF(N66&gt;0," || obj_meas_type == "&amp;B66,"")</f>
         <v/>
       </c>
       <c r="J66" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K66" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>distance (mm)FALSE</v>
       </c>
       <c r="L66">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D66,FIND("(",D66)+1,1),0))</f>
+        <f t="shared" ref="L66:L81" si="18">_xlfn.NUMBERVALUE(IFERROR(MID(D66,FIND("(",D66)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M66">
-        <f>IF(MID(D66,1,4)="sint",1,0)</f>
+        <f t="shared" ref="M66:M81" si="19">IF(MID(D66,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N81" si="14">IFERROR(ABS(LOG10(E66)),0)</f>
+        <f t="shared" ref="N66:N81" si="20">IFERROR(ABS(LOG10(E66)),0)</f>
         <v>0</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>02</v>
       </c>
-      <c r="P66" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="Q66" t="str">
-        <f>"0x"&amp;O66&amp;","&amp;CHAR(9)&amp;" // "&amp;B66&amp;" | "&amp;C66&amp;" | "&amp;D66&amp;" | datatype: "&amp;M66&amp;" | factor_exp10: "&amp;E66&amp;" | example: "&amp;F66</f>
+        <f t="shared" ref="Q66:Q81" si="21">"0x"&amp;O66&amp;","&amp;CHAR(9)&amp;" // "&amp;B66&amp;" | "&amp;C66&amp;" | "&amp;D66&amp;" | datatype: "&amp;M66&amp;" | factor_exp10: "&amp;E66&amp;" | example: "&amp;F66</f>
         <v>0x02,	 // 0x40 | distance (mm) | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 400C00</v>
       </c>
       <c r="R66" t="str">
+        <f t="shared" si="16"/>
+        <v>distance_mm</v>
+      </c>
+      <c r="S66" s="9" t="str">
         <f t="shared" si="10"/>
-        <v>distance_mm</v>
-      </c>
-      <c r="S66" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "distance_mm": {"measurement_type": 0x40, "accuracy_decimals": 0, "unit_of_measurement": "mm", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">  "distance_mm": {"measurement_type": 0x40, "accuracy_decimals": 0, "unit_of_measurement": "mm"},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -8111,50 +8339,47 @@
         <v>235</v>
       </c>
       <c r="I67" t="str">
-        <f>IF(N67&gt;0," || obj_meas_type == "&amp;B67,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x41</v>
       </c>
       <c r="J67" t="b">
-        <f t="shared" ref="J67:J81" si="15">IF(ISBLANK(D67),"NA",NOT(ISERR(FIND("True =",G67))))</f>
+        <f t="shared" ref="J67:J81" si="22">IF(ISBLANK(D67),"NA",NOT(ISERR(FIND("True =",G67))))</f>
         <v>0</v>
       </c>
       <c r="K67" s="4" t="str">
-        <f t="shared" ref="K67:K81" si="16">C67&amp;J67</f>
+        <f t="shared" ref="K67:K81" si="23">C67&amp;J67</f>
         <v>distance (m)FALSE</v>
       </c>
       <c r="L67">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D67,FIND("(",D67)+1,1),0))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="M67">
-        <f>IF(MID(D67,1,4)="sint",1,0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O81" si="17">DEC2HEX(L67+_xlfn.BITLSHIFT(M67,3)+_xlfn.BITLSHIFT(N67,5),2)</f>
+        <f t="shared" ref="O67:O81" si="24">DEC2HEX(L67+_xlfn.BITLSHIFT(M67,3)+_xlfn.BITLSHIFT(N67,5),2)</f>
         <v>22</v>
       </c>
-      <c r="P67" s="11" t="s">
-        <v>214</v>
-      </c>
       <c r="Q67" t="str">
-        <f>"0x"&amp;O67&amp;","&amp;CHAR(9)&amp;" // "&amp;B67&amp;" | "&amp;C67&amp;" | "&amp;D67&amp;" | datatype: "&amp;M67&amp;" | factor_exp10: "&amp;E67&amp;" | example: "&amp;F67</f>
+        <f t="shared" si="21"/>
         <v>0x22,	 // 0x41 | distance (m) | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.1 | example: 414E00</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>distance_m</v>
       </c>
-      <c r="S67" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "distance_m": {"measurement_type": 0x41, "accuracy_decimals": 1, "unit_of_measurement": "m", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S67" s="9" t="str">
+        <f t="shared" ref="S67:S81" si="25">"  "&amp;IF(OR(J67=TRUE,J67=FALSE),""""&amp;R67&amp;""": {""measurement_type"": "&amp;B67&amp;IF(NOT(ISBLANK(P67)),", ""device_class"": "&amp;P67,"")&amp;IF(J67=FALSE,", ""accuracy_decimals"": "&amp;N67&amp;", ""unit_of_measurement"": """&amp;H67&amp;"""","")&amp;"},","# "&amp;B67)</f>
+        <v xml:space="preserve">  "distance_m": {"measurement_type": 0x41, "accuracy_decimals": 1, "unit_of_measurement": "m"},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -8181,50 +8406,47 @@
         <v>239</v>
       </c>
       <c r="I68" t="str">
-        <f>IF(N68&gt;0," || obj_meas_type == "&amp;B68,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x42</v>
       </c>
       <c r="J68" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K68" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>durationFALSE</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="24"/>
+        <v>63</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="21"/>
+        <v>0x63,	 // 0x42 | duration | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 424E3400</v>
+      </c>
+      <c r="R68" t="str">
         <f t="shared" si="16"/>
-        <v>durationFALSE</v>
-      </c>
-      <c r="L68">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D68,FIND("(",D68)+1,1),0))</f>
-        <v>3</v>
-      </c>
-      <c r="M68">
-        <f>IF(MID(D68,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="O68" t="str">
-        <f t="shared" si="17"/>
-        <v>63</v>
-      </c>
-      <c r="P68" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q68" t="str">
-        <f>"0x"&amp;O68&amp;","&amp;CHAR(9)&amp;" // "&amp;B68&amp;" | "&amp;C68&amp;" | "&amp;D68&amp;" | datatype: "&amp;M68&amp;" | factor_exp10: "&amp;E68&amp;" | example: "&amp;F68</f>
-        <v>0x63,	 // 0x42 | duration | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 424E3400</v>
-      </c>
-      <c r="R68" t="str">
-        <f t="shared" si="10"/>
         <v>duration</v>
       </c>
-      <c r="S68" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "duration": {"measurement_type": 0x42, "accuracy_decimals": 3, "unit_of_measurement": "s", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S68" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "duration": {"measurement_type": 0x42, "accuracy_decimals": 3, "unit_of_measurement": "s"},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -8251,50 +8473,50 @@
         <v>227</v>
       </c>
       <c r="I69" t="str">
-        <f>IF(N69&gt;0," || obj_meas_type == "&amp;B69,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x43</v>
       </c>
       <c r="J69" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K69" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>currentFALSE</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="24"/>
+        <v>62</v>
+      </c>
+      <c r="P69" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="21"/>
+        <v>0x62,	 // 0x43 | current | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 434E34</v>
+      </c>
+      <c r="R69" t="str">
         <f t="shared" si="16"/>
-        <v>currentFALSE</v>
-      </c>
-      <c r="L69">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D69,FIND("(",D69)+1,1),0))</f>
-        <v>2</v>
-      </c>
-      <c r="M69">
-        <f>IF(MID(D69,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="O69" t="str">
-        <f t="shared" si="17"/>
-        <v>62</v>
-      </c>
-      <c r="P69" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q69" t="str">
-        <f>"0x"&amp;O69&amp;","&amp;CHAR(9)&amp;" // "&amp;B69&amp;" | "&amp;C69&amp;" | "&amp;D69&amp;" | datatype: "&amp;M69&amp;" | factor_exp10: "&amp;E69&amp;" | example: "&amp;F69</f>
-        <v>0x62,	 // 0x43 | current | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 434E34</v>
-      </c>
-      <c r="R69" t="str">
-        <f t="shared" si="10"/>
         <v>current</v>
       </c>
-      <c r="S69" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "current": {"measurement_type": 0x43, "accuracy_decimals": 3, "unit_of_measurement": "A", "device_class": DEVICE_CLASS_CURRENT},</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S69" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "current": {"measurement_type": 0x43, "device_class": DEVICE_CLASS_CURRENT, "accuracy_decimals": 3, "unit_of_measurement": "A"},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -8321,50 +8543,47 @@
         <v>265</v>
       </c>
       <c r="I70" t="str">
-        <f>IF(N70&gt;0," || obj_meas_type == "&amp;B70,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x44</v>
       </c>
       <c r="J70" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K70" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>speedFALSE</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="24"/>
+        <v>42</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="21"/>
+        <v>0x42,	 // 0x44 | speed | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 444E34</v>
+      </c>
+      <c r="R70" t="str">
         <f t="shared" si="16"/>
-        <v>speedFALSE</v>
-      </c>
-      <c r="L70">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D70,FIND("(",D70)+1,1),0))</f>
-        <v>2</v>
-      </c>
-      <c r="M70">
-        <f>IF(MID(D70,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="O70" t="str">
-        <f t="shared" si="17"/>
-        <v>42</v>
-      </c>
-      <c r="P70" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q70" t="str">
-        <f>"0x"&amp;O70&amp;","&amp;CHAR(9)&amp;" // "&amp;B70&amp;" | "&amp;C70&amp;" | "&amp;D70&amp;" | datatype: "&amp;M70&amp;" | factor_exp10: "&amp;E70&amp;" | example: "&amp;F70</f>
-        <v>0x42,	 // 0x44 | speed | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 444E34</v>
-      </c>
-      <c r="R70" t="str">
-        <f t="shared" si="10"/>
         <v>speed</v>
       </c>
-      <c r="S70" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "speed": {"measurement_type": 0x44, "accuracy_decimals": 2, "unit_of_measurement": "m/s", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S70" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "speed": {"measurement_type": 0x44, "accuracy_decimals": 2, "unit_of_measurement": "m/s"},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -8391,50 +8610,50 @@
         <v>12</v>
       </c>
       <c r="I71" t="str">
-        <f>IF(N71&gt;0," || obj_meas_type == "&amp;B71,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x45</v>
       </c>
       <c r="J71" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K71" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>temperature coarseFALSE</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="24"/>
+        <v>2A</v>
+      </c>
+      <c r="P71" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="21"/>
+        <v>0x2A,	 // 0x45 | temperature coarse | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.1 | example: 451101</v>
+      </c>
+      <c r="R71" t="str">
         <f t="shared" si="16"/>
-        <v>temperature coarseFALSE</v>
-      </c>
-      <c r="L71">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D71,FIND("(",D71)+1,1),0))</f>
-        <v>2</v>
-      </c>
-      <c r="M71">
-        <f>IF(MID(D71,1,4)="sint",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O71" t="str">
-        <f t="shared" si="17"/>
-        <v>2A</v>
-      </c>
-      <c r="P71" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q71" t="str">
-        <f>"0x"&amp;O71&amp;","&amp;CHAR(9)&amp;" // "&amp;B71&amp;" | "&amp;C71&amp;" | "&amp;D71&amp;" | datatype: "&amp;M71&amp;" | factor_exp10: "&amp;E71&amp;" | example: "&amp;F71</f>
-        <v>0x2A,	 // 0x45 | temperature coarse | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.1 | example: 451101</v>
-      </c>
-      <c r="R71" t="str">
-        <f t="shared" si="10"/>
         <v>temperature_coarse</v>
       </c>
-      <c r="S71" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "temperature_coarse": {"measurement_type": 0x45, "accuracy_decimals": 1, "unit_of_measurement": "°C", "device_class": DEVICE_CLASS_TEMPERATURE},</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S71" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "temperature_coarse": {"measurement_type": 0x45, "device_class": DEVICE_CLASS_TEMPERATURE, "accuracy_decimals": 1, "unit_of_measurement": "°C"},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -8458,50 +8677,47 @@
         <v>5</v>
       </c>
       <c r="I72" t="str">
-        <f>IF(N72&gt;0," || obj_meas_type == "&amp;B72,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x46</v>
       </c>
       <c r="J72" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K72" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>UV indexFALSE</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="24"/>
+        <v>21</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="21"/>
+        <v>0x21,	 // 0x46 | UV index | uint8 (1 byte) | datatype: 0 | factor_exp10: 0.1 | example: 4632</v>
+      </c>
+      <c r="R72" t="str">
         <f t="shared" si="16"/>
-        <v>UV indexFALSE</v>
-      </c>
-      <c r="L72">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D72,FIND("(",D72)+1,1),0))</f>
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <f>IF(MID(D72,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O72" t="str">
-        <f t="shared" si="17"/>
-        <v>21</v>
-      </c>
-      <c r="P72" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q72" t="str">
-        <f>"0x"&amp;O72&amp;","&amp;CHAR(9)&amp;" // "&amp;B72&amp;" | "&amp;C72&amp;" | "&amp;D72&amp;" | datatype: "&amp;M72&amp;" | factor_exp10: "&amp;E72&amp;" | example: "&amp;F72</f>
-        <v>0x21,	 // 0x46 | UV index | uint8 (1 byte) | datatype: 0 | factor_exp10: 0.1 | example: 4632</v>
-      </c>
-      <c r="R72" t="str">
-        <f t="shared" si="10"/>
         <v>UV_index</v>
       </c>
-      <c r="S72" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "UV_index": {"measurement_type": 0x46, "accuracy_decimals": 1, "unit_of_measurement": "", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S72" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "UV_index": {"measurement_type": 0x46, "accuracy_decimals": 1, "unit_of_measurement": ""},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -8528,50 +8744,47 @@
         <v>274</v>
       </c>
       <c r="I73" t="str">
-        <f>IF(N73&gt;0," || obj_meas_type == "&amp;B73,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x47</v>
       </c>
       <c r="J73" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K73" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>volumeFALSE</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="24"/>
+        <v>22</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="21"/>
+        <v>0x22,	 // 0x47 | volume | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.1 | example: 478756</v>
+      </c>
+      <c r="R73" t="str">
         <f t="shared" si="16"/>
-        <v>volumeFALSE</v>
-      </c>
-      <c r="L73">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D73,FIND("(",D73)+1,1),0))</f>
-        <v>2</v>
-      </c>
-      <c r="M73">
-        <f>IF(MID(D73,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O73" t="str">
-        <f t="shared" si="17"/>
-        <v>22</v>
-      </c>
-      <c r="P73" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q73" t="str">
-        <f>"0x"&amp;O73&amp;","&amp;CHAR(9)&amp;" // "&amp;B73&amp;" | "&amp;C73&amp;" | "&amp;D73&amp;" | datatype: "&amp;M73&amp;" | factor_exp10: "&amp;E73&amp;" | example: "&amp;F73</f>
-        <v>0x22,	 // 0x47 | volume | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.1 | example: 478756</v>
-      </c>
-      <c r="R73" t="str">
-        <f t="shared" si="10"/>
         <v>volume</v>
       </c>
-      <c r="S73" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "volume": {"measurement_type": 0x47, "accuracy_decimals": 1, "unit_of_measurement": "L", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S73" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "volume": {"measurement_type": 0x47, "accuracy_decimals": 1, "unit_of_measurement": "L"},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -8598,50 +8811,47 @@
         <v>278</v>
       </c>
       <c r="I74" t="str">
-        <f>IF(N74&gt;0," || obj_meas_type == "&amp;B74,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J74" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K74" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>volume courseFALSE</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="24"/>
+        <v>02</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="21"/>
+        <v>0x02,	 // 0x48 | volume course | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 48DC87</v>
+      </c>
+      <c r="R74" t="str">
         <f t="shared" si="16"/>
-        <v>volume courseFALSE</v>
-      </c>
-      <c r="L74">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D74,FIND("(",D74)+1,1),0))</f>
-        <v>2</v>
-      </c>
-      <c r="M74">
-        <f>IF(MID(D74,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O74" t="str">
-        <f t="shared" si="17"/>
-        <v>02</v>
-      </c>
-      <c r="P74" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q74" t="str">
-        <f>"0x"&amp;O74&amp;","&amp;CHAR(9)&amp;" // "&amp;B74&amp;" | "&amp;C74&amp;" | "&amp;D74&amp;" | datatype: "&amp;M74&amp;" | factor_exp10: "&amp;E74&amp;" | example: "&amp;F74</f>
-        <v>0x02,	 // 0x48 | volume course | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 48DC87</v>
-      </c>
-      <c r="R74" t="str">
-        <f t="shared" si="10"/>
         <v>volume_course</v>
       </c>
-      <c r="S74" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "volume_course": {"measurement_type": 0x48, "accuracy_decimals": 0, "unit_of_measurement": "mL", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S74" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "volume_course": {"measurement_type": 0x48, "accuracy_decimals": 0, "unit_of_measurement": "mL"},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -8668,50 +8878,47 @@
         <v>282</v>
       </c>
       <c r="I75" t="str">
-        <f>IF(N75&gt;0," || obj_meas_type == "&amp;B75,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x49</v>
       </c>
       <c r="J75" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K75" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>volume Flow RateFALSE</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="24"/>
+        <v>62</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="21"/>
+        <v>0x62,	 // 0x49 | volume Flow Rate | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 49DC87</v>
+      </c>
+      <c r="R75" t="str">
         <f t="shared" si="16"/>
-        <v>volume Flow RateFALSE</v>
-      </c>
-      <c r="L75">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D75,FIND("(",D75)+1,1),0))</f>
-        <v>2</v>
-      </c>
-      <c r="M75">
-        <f>IF(MID(D75,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="O75" t="str">
-        <f t="shared" si="17"/>
-        <v>62</v>
-      </c>
-      <c r="P75" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q75" t="str">
-        <f>"0x"&amp;O75&amp;","&amp;CHAR(9)&amp;" // "&amp;B75&amp;" | "&amp;C75&amp;" | "&amp;D75&amp;" | datatype: "&amp;M75&amp;" | factor_exp10: "&amp;E75&amp;" | example: "&amp;F75</f>
-        <v>0x62,	 // 0x49 | volume Flow Rate | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 49DC87</v>
-      </c>
-      <c r="R75" t="str">
-        <f t="shared" si="10"/>
         <v>volume_Flow_Rate</v>
       </c>
-      <c r="S75" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "volume_Flow_Rate": {"measurement_type": 0x49, "accuracy_decimals": 3, "unit_of_measurement": "m3/hr", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S75" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "volume_Flow_Rate": {"measurement_type": 0x49, "accuracy_decimals": 3, "unit_of_measurement": "m3/hr"},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -8738,50 +8945,47 @@
         <v>48</v>
       </c>
       <c r="I76" t="str">
-        <f>IF(N76&gt;0," || obj_meas_type == "&amp;B76,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x4A</v>
       </c>
       <c r="J76" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K76" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>voltage coarseFALSE</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="24"/>
+        <v>22</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="21"/>
+        <v>0x22,	 // 0x4A | voltage coarse | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.1 | example: 4A020C</v>
+      </c>
+      <c r="R76" t="str">
         <f t="shared" si="16"/>
-        <v>voltage coarseFALSE</v>
-      </c>
-      <c r="L76">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D76,FIND("(",D76)+1,1),0))</f>
-        <v>2</v>
-      </c>
-      <c r="M76">
-        <f>IF(MID(D76,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O76" t="str">
-        <f t="shared" si="17"/>
-        <v>22</v>
-      </c>
-      <c r="P76" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q76" t="str">
-        <f>"0x"&amp;O76&amp;","&amp;CHAR(9)&amp;" // "&amp;B76&amp;" | "&amp;C76&amp;" | "&amp;D76&amp;" | datatype: "&amp;M76&amp;" | factor_exp10: "&amp;E76&amp;" | example: "&amp;F76</f>
-        <v>0x22,	 // 0x4A | voltage coarse | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.1 | example: 4A020C</v>
-      </c>
-      <c r="R76" t="str">
-        <f t="shared" si="10"/>
         <v>voltage_coarse</v>
       </c>
-      <c r="S76" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "voltage_coarse": {"measurement_type": 0x4A, "accuracy_decimals": 1, "unit_of_measurement": "V", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S76" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "voltage_coarse": {"measurement_type": 0x4A, "accuracy_decimals": 1, "unit_of_measurement": "V"},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -8808,50 +9012,50 @@
         <v>246</v>
       </c>
       <c r="I77" t="str">
-        <f>IF(N77&gt;0," || obj_meas_type == "&amp;B77,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x4B</v>
       </c>
       <c r="J77" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K77" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>gasFALSE</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="24"/>
+        <v>63</v>
+      </c>
+      <c r="P77" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="21"/>
+        <v>0x63,	 // 0x4B | gas | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4B138A14</v>
+      </c>
+      <c r="R77" t="str">
         <f t="shared" si="16"/>
-        <v>gasFALSE</v>
-      </c>
-      <c r="L77">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D77,FIND("(",D77)+1,1),0))</f>
-        <v>3</v>
-      </c>
-      <c r="M77">
-        <f>IF(MID(D77,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="O77" t="str">
-        <f t="shared" si="17"/>
-        <v>63</v>
-      </c>
-      <c r="P77" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q77" t="str">
-        <f>"0x"&amp;O77&amp;","&amp;CHAR(9)&amp;" // "&amp;B77&amp;" | "&amp;C77&amp;" | "&amp;D77&amp;" | datatype: "&amp;M77&amp;" | factor_exp10: "&amp;E77&amp;" | example: "&amp;F77</f>
-        <v>0x63,	 // 0x4B | gas | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4B138A14</v>
-      </c>
-      <c r="R77" t="str">
-        <f t="shared" si="10"/>
         <v>gas</v>
       </c>
-      <c r="S77" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "gas": {"measurement_type": 0x4B, "accuracy_decimals": 3, "unit_of_measurement": "m3", "device_class": DEVICE_CLASS_GAS},</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S77" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "gas": {"measurement_type": 0x4B, "device_class": DEVICE_CLASS_GAS, "accuracy_decimals": 3, "unit_of_measurement": "m3"},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -8878,52 +9082,52 @@
         <v>246</v>
       </c>
       <c r="I78" t="str">
-        <f>IF(N78&gt;0," || obj_meas_type == "&amp;B78,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x4C</v>
       </c>
       <c r="J78" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K78" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>gas largeFALSE</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="24"/>
+        <v>64</v>
+      </c>
+      <c r="P78" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="21"/>
+        <v>0x64,	 // 0x4C | gas large | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4C41018A01</v>
+      </c>
+      <c r="R78" t="str">
         <f t="shared" si="16"/>
-        <v>gas largeFALSE</v>
-      </c>
-      <c r="L78">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D78,FIND("(",D78)+1,1),0))</f>
-        <v>4</v>
-      </c>
-      <c r="M78">
-        <f>IF(MID(D78,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="O78" t="str">
-        <f t="shared" si="17"/>
-        <v>64</v>
-      </c>
-      <c r="P78" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q78" t="str">
-        <f>"0x"&amp;O78&amp;","&amp;CHAR(9)&amp;" // "&amp;B78&amp;" | "&amp;C78&amp;" | "&amp;D78&amp;" | datatype: "&amp;M78&amp;" | factor_exp10: "&amp;E78&amp;" | example: "&amp;F78</f>
-        <v>0x64,	 // 0x4C | gas large | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4C41018A01</v>
-      </c>
-      <c r="R78" t="str">
-        <f t="shared" si="10"/>
         <v>gas_large</v>
       </c>
-      <c r="S78" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "gas_large": {"measurement_type": 0x4C, "accuracy_decimals": 3, "unit_of_measurement": "m3", "device_class": DEVICE_CLASS_GAS},</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S78" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "gas_large": {"measurement_type": 0x4C, "device_class": DEVICE_CLASS_GAS, "accuracy_decimals": 3, "unit_of_measurement": "m3"},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" ref="A79:A81" si="18">HEX2DEC(SUBSTITUTE(B79,"0x",""))</f>
+        <f t="shared" ref="A79:A81" si="26">HEX2DEC(SUBSTITUTE(B79,"0x",""))</f>
         <v>77</v>
       </c>
       <c r="B79" t="s">
@@ -8948,52 +9152,52 @@
         <v>40</v>
       </c>
       <c r="I79" t="str">
-        <f>IF(N79&gt;0," || obj_meas_type == "&amp;B79,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x4D</v>
       </c>
       <c r="J79" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>energy coarseFALSE</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="24"/>
+        <v>64</v>
+      </c>
+      <c r="P79" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="21"/>
+        <v>0x64,	 // 0x4D | energy coarse | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4d12138a14</v>
+      </c>
+      <c r="R79" t="str">
         <f t="shared" si="16"/>
-        <v>energy coarseFALSE</v>
-      </c>
-      <c r="L79">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D79,FIND("(",D79)+1,1),0))</f>
-        <v>4</v>
-      </c>
-      <c r="M79">
-        <f>IF(MID(D79,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="O79" t="str">
-        <f t="shared" si="17"/>
-        <v>64</v>
-      </c>
-      <c r="P79" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q79" t="str">
-        <f>"0x"&amp;O79&amp;","&amp;CHAR(9)&amp;" // "&amp;B79&amp;" | "&amp;C79&amp;" | "&amp;D79&amp;" | datatype: "&amp;M79&amp;" | factor_exp10: "&amp;E79&amp;" | example: "&amp;F79</f>
-        <v>0x64,	 // 0x4D | energy coarse | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4d12138a14</v>
-      </c>
-      <c r="R79" t="str">
-        <f t="shared" si="10"/>
         <v>energy_coarse</v>
       </c>
-      <c r="S79" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "energy_coarse": {"measurement_type": 0x4D, "accuracy_decimals": 3, "unit_of_measurement": "kWh", "device_class": DEVICE_CLASS_ENERGY},</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S79" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "energy_coarse": {"measurement_type": 0x4D, "device_class": DEVICE_CLASS_ENERGY, "accuracy_decimals": 3, "unit_of_measurement": "kWh"},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>78</v>
       </c>
       <c r="B80" t="s">
@@ -9018,52 +9222,49 @@
         <v>274</v>
       </c>
       <c r="I80" t="str">
-        <f>IF(N80&gt;0," || obj_meas_type == "&amp;B80,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x4E</v>
       </c>
       <c r="J80" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K80" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>volume preciseFALSE</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="24"/>
+        <v>64</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="21"/>
+        <v>0x64,	 // 0x4E | volume precise | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4E87562A01</v>
+      </c>
+      <c r="R80" t="str">
         <f t="shared" si="16"/>
-        <v>volume preciseFALSE</v>
-      </c>
-      <c r="L80">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D80,FIND("(",D80)+1,1),0))</f>
-        <v>4</v>
-      </c>
-      <c r="M80">
-        <f>IF(MID(D80,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="O80" t="str">
-        <f t="shared" si="17"/>
-        <v>64</v>
-      </c>
-      <c r="P80" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q80" t="str">
-        <f>"0x"&amp;O80&amp;","&amp;CHAR(9)&amp;" // "&amp;B80&amp;" | "&amp;C80&amp;" | "&amp;D80&amp;" | datatype: "&amp;M80&amp;" | factor_exp10: "&amp;E80&amp;" | example: "&amp;F80</f>
-        <v>0x64,	 // 0x4E | volume precise | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4E87562A01</v>
-      </c>
-      <c r="R80" t="str">
-        <f t="shared" si="10"/>
         <v>volume_precise</v>
       </c>
-      <c r="S80" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "volume_precise": {"measurement_type": 0x4E, "accuracy_decimals": 3, "unit_of_measurement": "L", "device_class": DEVICE_CLASS_EMPTY},</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S80" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "volume_precise": {"measurement_type": 0x4E, "accuracy_decimals": 3, "unit_of_measurement": "L"},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>79</v>
       </c>
       <c r="B81" t="s">
@@ -9088,47 +9289,44 @@
         <v>274</v>
       </c>
       <c r="I81" t="str">
-        <f>IF(N81&gt;0," || obj_meas_type == "&amp;B81,"")</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve"> || obj_meas_type == 0x4F</v>
       </c>
       <c r="J81" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K81" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>waterFALSE</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="24"/>
+        <v>64</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="21"/>
+        <v>0x64,	 // 0x4F | water | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4F87562A01</v>
+      </c>
+      <c r="R81" t="str">
         <f t="shared" si="16"/>
-        <v>waterFALSE</v>
-      </c>
-      <c r="L81">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D81,FIND("(",D81)+1,1),0))</f>
-        <v>4</v>
-      </c>
-      <c r="M81">
-        <f>IF(MID(D81,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="O81" t="str">
-        <f t="shared" si="17"/>
-        <v>64</v>
-      </c>
-      <c r="P81" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q81" t="str">
-        <f>"0x"&amp;O81&amp;","&amp;CHAR(9)&amp;" // "&amp;B81&amp;" | "&amp;C81&amp;" | "&amp;D81&amp;" | datatype: "&amp;M81&amp;" | factor_exp10: "&amp;E81&amp;" | example: "&amp;F81</f>
-        <v>0x64,	 // 0x4F | water | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4F87562A01</v>
-      </c>
-      <c r="R81" t="str">
-        <f t="shared" si="10"/>
         <v>water</v>
       </c>
-      <c r="S81" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">  "water": {"measurement_type": 0x4F, "accuracy_decimals": 3, "unit_of_measurement": "L", "device_class": DEVICE_CLASS_EMPTY},</v>
+      <c r="S81" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  "water": {"measurement_type": 0x4F, "accuracy_decimals": 3, "unit_of_measurement": "L"},</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -9164,7 +9362,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" ref="A85" si="19">HEX2DEC(SUBSTITUTE(B85,"0x",""))</f>
+        <f t="shared" ref="A85" si="27">HEX2DEC(SUBSTITUTE(B85,"0x",""))</f>
         <v>58</v>
       </c>
       <c r="B85" t="s">
@@ -9275,7 +9473,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" ref="A92" si="20">HEX2DEC(SUBSTITUTE(B92,"0x",""))</f>
+        <f t="shared" ref="A92" si="28">HEX2DEC(SUBSTITUTE(B92,"0x",""))</f>
         <v>60</v>
       </c>
       <c r="B92" t="s">
@@ -9332,10 +9530,13 @@
   <autoFilter ref="A1:S81" xr:uid="{28042196-756D-49C6-ACCE-21EFE4A952B1}">
     <filterColumn colId="9">
       <filters>
-        <filter val="FALSE"/>
+        <filter val="TRUE"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -9370,9 +9571,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/misc/_bthome_v1.xlsx
+++ b/misc/_bthome_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\Arduino\@esphome\esphome_components\bthome\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I066492\OneDrive - SAP SE\Documents\user_afarago\Code\esphome\beethowen\esphome_components\bthome\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B8B0F1-615B-4F50-B2CC-7AE3541720EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3122BAA1-6BB6-400B-922D-3AB5FB256A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="12825" activeTab="1" xr2:uid="{0A7624A3-1B95-4732-9BD7-3FA24DFCB5DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0A7624A3-1B95-4732-9BD7-3FA24DFCB5DE}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="411">
   <si>
     <t>bject id</t>
   </si>
@@ -1225,6 +1225,57 @@
   </si>
   <si>
     <t>DEVICE_CLASS_WINDOW</t>
+  </si>
+  <si>
+    <t>0x50</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>uint48 (4 bytes)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>505396164</t>
+  </si>
+  <si>
+    <t>see below</t>
+  </si>
+  <si>
+    <t>0x51</t>
+  </si>
+  <si>
+    <t>acceleration</t>
+  </si>
+  <si>
+    <t>uint16 (2 bytes)</t>
+  </si>
+  <si>
+    <t>m/s²</t>
+  </si>
+  <si>
+    <t>518756</t>
+  </si>
+  <si>
+    <t>0x52</t>
+  </si>
+  <si>
+    <t>gyroscope</t>
+  </si>
+  <si>
+    <t>°/s</t>
+  </si>
+  <si>
+    <t>528756</t>
+  </si>
+  <si>
+    <t>DEVICE_CLASS_TIMESTAMP</t>
+  </si>
+  <si>
+    <t>BTHomeType</t>
   </si>
 </sst>
 </file>
@@ -1637,27 +1688,27 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" customWidth="1"/>
-    <col min="16" max="16" width="62.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" customWidth="1"/>
+    <col min="16" max="16" width="62.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -1707,7 +1758,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <f t="shared" ref="A2:A49" si="0">HEX2DEC(SUBSTITUTE(B2,"0x",""))</f>
         <v>0</v>
@@ -1753,7 +1804,7 @@
         <v xml:space="preserve">    "packet_id": {"measurement_type": 0x00, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1802,7 +1853,7 @@
         <v xml:space="preserve">    "battery": {"measurement_type": 0x01, "accuracy_decimals": 0, "unit_of_measurement":"%" , "device_class": DEVICE_CLASS_BATTERY},</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1855,7 +1906,7 @@
         <v xml:space="preserve">    "temperature": {"measurement_type": 0x02, "accuracy_decimals": 2, "unit_of_measurement":"°C" , "device_class": DEVICE_CLASS_TEMPERATURE},</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1908,7 +1959,7 @@
         <v xml:space="preserve">    "humidity": {"measurement_type": 0x03, "accuracy_decimals": 2, "unit_of_measurement":"%" , "device_class": DEVICE_CLASS_HUMIDITY},</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1961,7 +2012,7 @@
         <v xml:space="preserve">    "pressure": {"measurement_type": 0x04, "accuracy_decimals": 2, "unit_of_measurement":"hPa" , "device_class": DEVICE_CLASS_PRESSURE},</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2014,7 +2065,7 @@
         <v xml:space="preserve">    "illuminance": {"measurement_type": 0x05, "accuracy_decimals": 2, "unit_of_measurement":"lux" , "device_class": DEVICE_CLASS_ILLUMINANCE},</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2067,7 +2118,7 @@
         <v xml:space="preserve">    "mass_kg": {"measurement_type": 0x06, "accuracy_decimals": 2, "unit_of_measurement":"kg" , "device_class": DEVICE_CLASS_EMPTY},</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2120,7 +2171,7 @@
         <v xml:space="preserve">    "mass_lb": {"measurement_type": 0x07, "accuracy_decimals": 2, "unit_of_measurement":"lb" , "device_class": DEVICE_CLASS_EMPTY},</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2173,7 +2224,7 @@
         <v xml:space="preserve">    "dewpoint": {"measurement_type": 0x08, "accuracy_decimals": 2, "unit_of_measurement":"°C" , "device_class": DEVICE_CLASS_EMPTY},</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2219,7 +2270,7 @@
         <v xml:space="preserve">    "count": {"measurement_type": 0x09, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2272,7 +2323,7 @@
         <v xml:space="preserve">    "energy": {"measurement_type": 0x0A, "accuracy_decimals": 3, "unit_of_measurement":"kWh" , "device_class": DEVICE_CLASS_ENERGY},</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2325,7 +2376,7 @@
         <v xml:space="preserve">    "power": {"measurement_type": 0x0B, "accuracy_decimals": 2, "unit_of_measurement":"W" , "device_class": DEVICE_CLASS_POWER},</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2378,7 +2429,7 @@
         <v xml:space="preserve">    "voltage": {"measurement_type": 0x0C, "accuracy_decimals": 3, "unit_of_measurement":"V" , "device_class": DEVICE_CLASS_VOLTAGE},</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2427,7 +2478,7 @@
         <v xml:space="preserve">    "pm2_5": {"measurement_type": 0x0D, "accuracy_decimals": 0, "unit_of_measurement":"ug/m3" , "device_class": DEVICE_CLASS_PM25},</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2476,7 +2527,7 @@
         <v xml:space="preserve">    "pm10": {"measurement_type": 0x0E, "accuracy_decimals": 0, "unit_of_measurement":"ug/m3" , "device_class": DEVICE_CLASS_PM10},</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2519,7 +2570,7 @@
         <v xml:space="preserve">    "generic_boolean": {"measurement_type": 0x0F, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2562,7 +2613,7 @@
         <v xml:space="preserve">    "power": {"measurement_type": 0x10, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2605,7 +2656,7 @@
         <v xml:space="preserve">    "opening": {"measurement_type": 0x11, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2654,7 +2705,7 @@
         <v xml:space="preserve">    "co2": {"measurement_type": 0x12, "accuracy_decimals": 0, "unit_of_measurement":"ppm" , "device_class": DEVICE_CLASS_CARBON_DIOXIDE},</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2703,7 +2754,7 @@
         <v xml:space="preserve">    "tvoc": {"measurement_type": 0x13, "accuracy_decimals": 0, "unit_of_measurement":"ug/m3" , "device_class": DEVICE_CLASS_VOLATILE_ORGANIC_COMPOUNDS},</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2756,7 +2807,7 @@
         <v xml:space="preserve">    "moisture": {"measurement_type": 0x14, "accuracy_decimals": 2, "unit_of_measurement":"%" , "device_class": DEVICE_CLASS_MOISTURE},</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2799,7 +2850,7 @@
         <v xml:space="preserve">    "battery": {"measurement_type": 0x15, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2842,7 +2893,7 @@
         <v xml:space="preserve">    "battery_charging": {"measurement_type": 0x16, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2885,7 +2936,7 @@
         <v xml:space="preserve">    "carbon_monoxide": {"measurement_type": 0x17, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2928,7 +2979,7 @@
         <v xml:space="preserve">    "cold": {"measurement_type": 0x18, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2971,7 +3022,7 @@
         <v xml:space="preserve">    "connectivity": {"measurement_type": 0x19, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3014,7 +3065,7 @@
         <v xml:space="preserve">    "door": {"measurement_type": 0x1A, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3057,7 +3108,7 @@
         <v xml:space="preserve">    "garage_door": {"measurement_type": 0x1B, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3100,7 +3151,7 @@
         <v xml:space="preserve">    "gas": {"measurement_type": 0x1C, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3143,7 +3194,7 @@
         <v xml:space="preserve">    "heat": {"measurement_type": 0x1D, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3186,7 +3237,7 @@
         <v xml:space="preserve">    "light": {"measurement_type": 0x1E, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3229,7 +3280,7 @@
         <v xml:space="preserve">    "lock": {"measurement_type": 0x1F, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3272,7 +3323,7 @@
         <v xml:space="preserve">    "moisture": {"measurement_type": 0x20, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3315,7 +3366,7 @@
         <v xml:space="preserve">    "motion": {"measurement_type": 0x21, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3358,7 +3409,7 @@
         <v xml:space="preserve">    "moving": {"measurement_type": 0x22, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3401,7 +3452,7 @@
         <v xml:space="preserve">    "occupancy": {"measurement_type": 0x23, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3444,7 +3495,7 @@
         <v xml:space="preserve">    "plug": {"measurement_type": 0x24, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3487,7 +3538,7 @@
         <v xml:space="preserve">    "presence": {"measurement_type": 0x25, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3530,7 +3581,7 @@
         <v xml:space="preserve">    "problem": {"measurement_type": 0x26, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3573,7 +3624,7 @@
         <v xml:space="preserve">    "running": {"measurement_type": 0x27, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3616,7 +3667,7 @@
         <v xml:space="preserve">    "safety": {"measurement_type": 0x28, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3659,7 +3710,7 @@
         <v xml:space="preserve">    "smoke": {"measurement_type": 0x29, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3702,7 +3753,7 @@
         <v xml:space="preserve">    "sound": {"measurement_type": 0x2A, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3745,7 +3796,7 @@
         <v xml:space="preserve">    "tamper": {"measurement_type": 0x2B, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3788,7 +3839,7 @@
         <v xml:space="preserve">    "vibration": {"measurement_type": 0x2C, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3831,7 +3882,7 @@
         <v xml:space="preserve">    "window": {"measurement_type": 0x2D, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3880,7 +3931,7 @@
         <v xml:space="preserve">    "humidity2": {"measurement_type": 0x2E, "accuracy_decimals": 0, "unit_of_measurement":"%" , "device_class": DEVICE_CLASS_HUMIDITY},</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3929,17 +3980,17 @@
         <v xml:space="preserve">    "moisture2": {"measurement_type": 0x2F, "accuracy_decimals": 0, "unit_of_measurement":"%" , "device_class": DEVICE_CLASS_MOISTURE},</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +4013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -3979,7 +4030,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>6</v>
       </c>
@@ -3993,7 +4044,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>9</v>
       </c>
@@ -4007,7 +4058,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>13</v>
       </c>
@@ -4021,7 +4072,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>17</v>
       </c>
@@ -4035,7 +4086,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>21</v>
       </c>
@@ -4049,7 +4100,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -4063,7 +4114,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -4080,7 +4131,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>6</v>
       </c>
@@ -4097,7 +4148,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>9</v>
       </c>
@@ -4129,36 +4180,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28042196-756D-49C6-ACCE-21EFE4A952B1}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S17" sqref="S17:S47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="6" max="6" width="13" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="9" width="9.88671875" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" customWidth="1"/>
-    <col min="19" max="19" width="108.42578125" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" customWidth="1"/>
+    <col min="17" max="18" width="16.6640625" customWidth="1"/>
+    <col min="19" max="19" width="108.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>338</v>
       </c>
@@ -4184,7 +4233,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>188</v>
+        <v>410</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>357</v>
@@ -4217,7 +4266,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <f t="shared" ref="A2:A78" si="0">HEX2DEC(SUBSTITUTE(B2,"0x",""))</f>
         <v>0</v>
@@ -4239,10 +4288,6 @@
       </c>
       <c r="G2">
         <v>9</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I33" si="1">IF(N2&gt;0," || obj_meas_type == "&amp;B2,"")</f>
-        <v/>
       </c>
       <c r="J2" t="b">
         <f>IF(ISBLANK(D2),"NA",NOT(ISERR(FIND("True =",G2))))</f>
@@ -4253,15 +4298,15 @@
         <v>packet idFALSE</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L33" si="2">_xlfn.NUMBERVALUE(IFERROR(MID(D2,FIND("(",D2)+1,1),0))</f>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D2,FIND("(",D2)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M33" si="3">IF(MID(D2,1,4)="sint",1,0)</f>
+        <f>IF(MID(D2,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="4">IFERROR(ABS(LOG10(E2)),0)</f>
+        <f>IFERROR(ABS(LOG10(E2)),0)</f>
         <v>0</v>
       </c>
       <c r="O2" t="str">
@@ -4269,7 +4314,7 @@
         <v>01</v>
       </c>
       <c r="Q2" t="str">
-        <f t="shared" ref="Q2:Q33" si="5">"0x"&amp;O2&amp;","&amp;CHAR(9)&amp;" // "&amp;B2&amp;" | "&amp;C2&amp;" | "&amp;D2&amp;" | datatype: "&amp;M2&amp;" | factor_exp10: "&amp;E2&amp;" | example: "&amp;F2</f>
+        <f>"0x"&amp;O2&amp;","&amp;CHAR(9)&amp;" // "&amp;B2&amp;" | "&amp;C2&amp;" | "&amp;D2&amp;" | datatype: "&amp;M2&amp;" | factor_exp10: "&amp;E2&amp;" | example: "&amp;F2</f>
         <v>0x01,	 // 0x00 | packet id | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 9</v>
       </c>
       <c r="R2" t="str">
@@ -4281,7 +4326,7 @@
         <v xml:space="preserve">  "packet_id": {"measurement_type": 0x00, "accuracy_decimals": 0, "unit_of_measurement": ""},</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4307,51 +4352,47 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J3" t="b">
-        <f t="shared" ref="J3:J66" si="6">IF(ISBLANK(D3),"NA",NOT(ISERR(FIND("True =",G3))))</f>
+        <f>IF(ISBLANK(D3),"NA",NOT(ISERR(FIND("True =",G3))))</f>
         <v>0</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f t="shared" ref="K3:K66" si="7">C3&amp;J3</f>
+        <f>C3&amp;J3</f>
         <v>batteryFALSE</v>
       </c>
       <c r="L3">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D3,FIND("(",D3)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M3">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D3,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E3)),0)</f>
         <v>0</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O66" si="8">DEC2HEX(L3+_xlfn.BITLSHIFT(M3,3)+_xlfn.BITLSHIFT(N3,5),2)</f>
+        <f t="shared" ref="O3:O66" si="1">DEC2HEX(L3+_xlfn.BITLSHIFT(M3,3)+_xlfn.BITLSHIFT(N3,5),2)</f>
         <v>01</v>
       </c>
       <c r="P3" t="s">
         <v>204</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O3&amp;","&amp;CHAR(9)&amp;" // "&amp;B3&amp;" | "&amp;C3&amp;" | "&amp;D3&amp;" | datatype: "&amp;M3&amp;" | factor_exp10: "&amp;E3&amp;" | example: "&amp;F3</f>
         <v>0x01,	 // 0x01 | battery | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 0161</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R48" si="9">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3," ","_"),".","_"),"(",""),")","")</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3," ","_"),".","_"),"(",""),")","")</f>
         <v>battery</v>
       </c>
       <c r="S3" s="9" t="str">
-        <f t="shared" ref="S3:S66" si="10">"  "&amp;IF(OR(J3=TRUE,J3=FALSE),""""&amp;R3&amp;""": {""measurement_type"": "&amp;B3&amp;IF(NOT(ISBLANK(P3)),", ""device_class"": "&amp;P3,"")&amp;IF(J3=FALSE,", ""accuracy_decimals"": "&amp;N3&amp;", ""unit_of_measurement"": """&amp;H3&amp;"""","")&amp;"},","# "&amp;B3)</f>
+        <f>"  "&amp;IF(OR(J3=TRUE,J3=FALSE),""""&amp;R3&amp;""": {""measurement_type"": "&amp;B3&amp;IF(NOT(ISBLANK(P3)),", ""device_class"": "&amp;P3,"")&amp;IF(J3=FALSE,", ""accuracy_decimals"": "&amp;N3&amp;", ""unit_of_measurement"": """&amp;H3&amp;"""","")&amp;"},","# "&amp;B3)</f>
         <v xml:space="preserve">  "battery": {"measurement_type": 0x01, "device_class": DEVICE_CLASS_BATTERY, "accuracy_decimals": 0, "unit_of_measurement": "%"},</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4377,51 +4418,47 @@
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x02</v>
-      </c>
       <c r="J4" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D4),"NA",NOT(ISERR(FIND("True =",G4))))</f>
         <v>0</v>
       </c>
       <c r="K4" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C4&amp;J4</f>
         <v>temperatureFALSE</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D4,FIND("(",D4)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D4,1,4)="sint",1,0)</f>
         <v>1</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E4)),0)</f>
         <v>2</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>4A</v>
       </c>
       <c r="P4" t="s">
         <v>205</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O4&amp;","&amp;CHAR(9)&amp;" // "&amp;B4&amp;" | "&amp;C4&amp;" | "&amp;D4&amp;" | datatype: "&amp;M4&amp;" | factor_exp10: "&amp;E4&amp;" | example: "&amp;F4</f>
         <v>0x4A,	 // 0x02 | temperature | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.01 | example: 02CA09</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C4," ","_"),".","_"),"(",""),")","")</f>
         <v>temperature</v>
       </c>
       <c r="S4" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J4=TRUE,J4=FALSE),""""&amp;R4&amp;""": {""measurement_type"": "&amp;B4&amp;IF(NOT(ISBLANK(P4)),", ""device_class"": "&amp;P4,"")&amp;IF(J4=FALSE,", ""accuracy_decimals"": "&amp;N4&amp;", ""unit_of_measurement"": """&amp;H4&amp;"""","")&amp;"},","# "&amp;B4)</f>
         <v xml:space="preserve">  "temperature": {"measurement_type": 0x02, "device_class": DEVICE_CLASS_TEMPERATURE, "accuracy_decimals": 2, "unit_of_measurement": "°C"},</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4447,48 +4484,44 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x03</v>
-      </c>
       <c r="J5" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D5),"NA",NOT(ISERR(FIND("True =",G5))))</f>
         <v>0</v>
       </c>
       <c r="K5" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C5&amp;J5</f>
         <v>humidityFALSE</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D5,FIND("(",D5)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D5,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E5)),0)</f>
         <v>2</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O5&amp;","&amp;CHAR(9)&amp;" // "&amp;B5&amp;" | "&amp;C5&amp;" | "&amp;D5&amp;" | datatype: "&amp;M5&amp;" | factor_exp10: "&amp;E5&amp;" | example: "&amp;F5</f>
         <v>0x42,	 // 0x03 | humidity | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 03BF13</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5," ","_"),".","_"),"(",""),")","")</f>
         <v>humidity</v>
       </c>
       <c r="S5" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J5=TRUE,J5=FALSE),""""&amp;R5&amp;""": {""measurement_type"": "&amp;B5&amp;IF(NOT(ISBLANK(P5)),", ""device_class"": "&amp;P5,"")&amp;IF(J5=FALSE,", ""accuracy_decimals"": "&amp;N5&amp;", ""unit_of_measurement"": """&amp;H5&amp;"""","")&amp;"},","# "&amp;B5)</f>
         <v xml:space="preserve">  "humidity": {"measurement_type": 0x03, "accuracy_decimals": 2, "unit_of_measurement": "%"},</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4514,51 +4547,47 @@
       <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x04</v>
-      </c>
       <c r="J6" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D6),"NA",NOT(ISERR(FIND("True =",G6))))</f>
         <v>0</v>
       </c>
       <c r="K6" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C6&amp;J6</f>
         <v>pressureFALSE</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D6,FIND("(",D6)+1,1),0))</f>
         <v>3</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D6,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E6)),0)</f>
         <v>2</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="P6" t="s">
         <v>207</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O6&amp;","&amp;CHAR(9)&amp;" // "&amp;B6&amp;" | "&amp;C6&amp;" | "&amp;D6&amp;" | datatype: "&amp;M6&amp;" | factor_exp10: "&amp;E6&amp;" | example: "&amp;F6</f>
         <v>0x43,	 // 0x04 | pressure | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 04138A01</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C6," ","_"),".","_"),"(",""),")","")</f>
         <v>pressure</v>
       </c>
       <c r="S6" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J6=TRUE,J6=FALSE),""""&amp;R6&amp;""": {""measurement_type"": "&amp;B6&amp;IF(NOT(ISBLANK(P6)),", ""device_class"": "&amp;P6,"")&amp;IF(J6=FALSE,", ""accuracy_decimals"": "&amp;N6&amp;", ""unit_of_measurement"": """&amp;H6&amp;"""","")&amp;"},","# "&amp;B6)</f>
         <v xml:space="preserve">  "pressure": {"measurement_type": 0x04, "device_class": DEVICE_CLASS_PRESSURE, "accuracy_decimals": 2, "unit_of_measurement": "hPa"},</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4584,51 +4613,47 @@
       <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x05</v>
-      </c>
       <c r="J7" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D7),"NA",NOT(ISERR(FIND("True =",G7))))</f>
         <v>0</v>
       </c>
       <c r="K7" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C7&amp;J7</f>
         <v>illuminanceFALSE</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D7,FIND("(",D7)+1,1),0))</f>
         <v>3</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D7,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E7)),0)</f>
         <v>2</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="P7" t="s">
         <v>208</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O7&amp;","&amp;CHAR(9)&amp;" // "&amp;B7&amp;" | "&amp;C7&amp;" | "&amp;D7&amp;" | datatype: "&amp;M7&amp;" | factor_exp10: "&amp;E7&amp;" | example: "&amp;F7</f>
         <v>0x43,	 // 0x05 | illuminance | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 05138A14</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C7," ","_"),".","_"),"(",""),")","")</f>
         <v>illuminance</v>
       </c>
       <c r="S7" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J7=TRUE,J7=FALSE),""""&amp;R7&amp;""": {""measurement_type"": "&amp;B7&amp;IF(NOT(ISBLANK(P7)),", ""device_class"": "&amp;P7,"")&amp;IF(J7=FALSE,", ""accuracy_decimals"": "&amp;N7&amp;", ""unit_of_measurement"": """&amp;H7&amp;"""","")&amp;"},","# "&amp;B7)</f>
         <v xml:space="preserve">  "illuminance": {"measurement_type": 0x05, "device_class": DEVICE_CLASS_ILLUMINANCE, "accuracy_decimals": 2, "unit_of_measurement": "lux"},</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4654,48 +4679,44 @@
       <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x06</v>
-      </c>
       <c r="J8" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D8),"NA",NOT(ISERR(FIND("True =",G8))))</f>
         <v>0</v>
       </c>
       <c r="K8" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C8&amp;J8</f>
         <v>mass (kg)FALSE</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D8,FIND("(",D8)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D8,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E8)),0)</f>
         <v>2</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O8&amp;","&amp;CHAR(9)&amp;" // "&amp;B8&amp;" | "&amp;C8&amp;" | "&amp;D8&amp;" | datatype: "&amp;M8&amp;" | factor_exp10: "&amp;E8&amp;" | example: "&amp;F8</f>
         <v>0x42,	 // 0x06 | mass (kg) | uint16 (2 byte) | datatype: 0 | factor_exp10: 0.01 | example: 065E1F</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C8," ","_"),".","_"),"(",""),")","")</f>
         <v>mass_kg</v>
       </c>
       <c r="S8" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J8=TRUE,J8=FALSE),""""&amp;R8&amp;""": {""measurement_type"": "&amp;B8&amp;IF(NOT(ISBLANK(P8)),", ""device_class"": "&amp;P8,"")&amp;IF(J8=FALSE,", ""accuracy_decimals"": "&amp;N8&amp;", ""unit_of_measurement"": """&amp;H8&amp;"""","")&amp;"},","# "&amp;B8)</f>
         <v xml:space="preserve">  "mass_kg": {"measurement_type": 0x06, "accuracy_decimals": 2, "unit_of_measurement": "kg"},</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4721,48 +4742,44 @@
       <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="I9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x07</v>
-      </c>
       <c r="J9" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D9),"NA",NOT(ISERR(FIND("True =",G9))))</f>
         <v>0</v>
       </c>
       <c r="K9" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C9&amp;J9</f>
         <v>mass (lb)FALSE</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D9,FIND("(",D9)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D9,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E9)),0)</f>
         <v>2</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O9&amp;","&amp;CHAR(9)&amp;" // "&amp;B9&amp;" | "&amp;C9&amp;" | "&amp;D9&amp;" | datatype: "&amp;M9&amp;" | factor_exp10: "&amp;E9&amp;" | example: "&amp;F9</f>
         <v>0x42,	 // 0x07 | mass (lb) | uint16 (2 byte) | datatype: 0 | factor_exp10: 0.01 | example: 073E1D</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C9," ","_"),".","_"),"(",""),")","")</f>
         <v>mass_lb</v>
       </c>
       <c r="S9" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J9=TRUE,J9=FALSE),""""&amp;R9&amp;""": {""measurement_type"": "&amp;B9&amp;IF(NOT(ISBLANK(P9)),", ""device_class"": "&amp;P9,"")&amp;IF(J9=FALSE,", ""accuracy_decimals"": "&amp;N9&amp;", ""unit_of_measurement"": """&amp;H9&amp;"""","")&amp;"},","# "&amp;B9)</f>
         <v xml:space="preserve">  "mass_lb": {"measurement_type": 0x07, "accuracy_decimals": 2, "unit_of_measurement": "lb"},</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4788,48 +4805,44 @@
       <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x08</v>
-      </c>
       <c r="J10" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D10),"NA",NOT(ISERR(FIND("True =",G10))))</f>
         <v>0</v>
       </c>
       <c r="K10" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C10&amp;J10</f>
         <v>dewpointFALSE</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D10,FIND("(",D10)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D10,1,4)="sint",1,0)</f>
         <v>1</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E10)),0)</f>
         <v>2</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>4A</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O10&amp;","&amp;CHAR(9)&amp;" // "&amp;B10&amp;" | "&amp;C10&amp;" | "&amp;D10&amp;" | datatype: "&amp;M10&amp;" | factor_exp10: "&amp;E10&amp;" | example: "&amp;F10</f>
         <v>0x4A,	 // 0x08 | dewpoint | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.01 | example: 08CA06</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C10," ","_"),".","_"),"(",""),")","")</f>
         <v>dewpoint</v>
       </c>
       <c r="S10" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J10=TRUE,J10=FALSE),""""&amp;R10&amp;""": {""measurement_type"": "&amp;B10&amp;IF(NOT(ISBLANK(P10)),", ""device_class"": "&amp;P10,"")&amp;IF(J10=FALSE,", ""accuracy_decimals"": "&amp;N10&amp;", ""unit_of_measurement"": """&amp;H10&amp;"""","")&amp;"},","# "&amp;B10)</f>
         <v xml:space="preserve">  "dewpoint": {"measurement_type": 0x08, "accuracy_decimals": 2, "unit_of_measurement": "°C"},</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4852,48 +4865,44 @@
       <c r="G11">
         <v>96</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J11" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D11),"NA",NOT(ISERR(FIND("True =",G11))))</f>
         <v>0</v>
       </c>
       <c r="K11" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C11&amp;J11</f>
         <v>count smallFALSE</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D11,FIND("(",D11)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D11,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E11)),0)</f>
         <v>0</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O11&amp;","&amp;CHAR(9)&amp;" // "&amp;B11&amp;" | "&amp;C11&amp;" | "&amp;D11&amp;" | datatype: "&amp;M11&amp;" | factor_exp10: "&amp;E11&amp;" | example: "&amp;F11</f>
         <v>0x01,	 // 0x09 | count small | uint (1 bytes) | datatype: 0 | factor_exp10: 1 | example: 0960</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C11," ","_"),".","_"),"(",""),")","")</f>
         <v>count_small</v>
       </c>
       <c r="S11" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J11=TRUE,J11=FALSE),""""&amp;R11&amp;""": {""measurement_type"": "&amp;B11&amp;IF(NOT(ISBLANK(P11)),", ""device_class"": "&amp;P11,"")&amp;IF(J11=FALSE,", ""accuracy_decimals"": "&amp;N11&amp;", ""unit_of_measurement"": """&amp;H11&amp;"""","")&amp;"},","# "&amp;B11)</f>
         <v xml:space="preserve">  "count_small": {"measurement_type": 0x09, "accuracy_decimals": 0, "unit_of_measurement": ""},</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4919,51 +4928,47 @@
       <c r="H12" t="s">
         <v>40</v>
       </c>
-      <c r="I12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x0A</v>
-      </c>
       <c r="J12" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D12),"NA",NOT(ISERR(FIND("True =",G12))))</f>
         <v>0</v>
       </c>
       <c r="K12" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C12&amp;J12</f>
         <v>energyFALSE</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D12,FIND("(",D12)+1,1),0))</f>
         <v>3</v>
       </c>
       <c r="M12">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D12,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E12)),0)</f>
         <v>3</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="P12" t="s">
         <v>209</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O12&amp;","&amp;CHAR(9)&amp;" // "&amp;B12&amp;" | "&amp;C12&amp;" | "&amp;D12&amp;" | datatype: "&amp;M12&amp;" | factor_exp10: "&amp;E12&amp;" | example: "&amp;F12</f>
         <v>0x63,	 // 0x0A | energy | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 0A138A14</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C12," ","_"),".","_"),"(",""),")","")</f>
         <v>energy</v>
       </c>
       <c r="S12" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J12=TRUE,J12=FALSE),""""&amp;R12&amp;""": {""measurement_type"": "&amp;B12&amp;IF(NOT(ISBLANK(P12)),", ""device_class"": "&amp;P12,"")&amp;IF(J12=FALSE,", ""accuracy_decimals"": "&amp;N12&amp;", ""unit_of_measurement"": """&amp;H12&amp;"""","")&amp;"},","# "&amp;B12)</f>
         <v xml:space="preserve">  "energy": {"measurement_type": 0x0A, "device_class": DEVICE_CLASS_ENERGY, "accuracy_decimals": 3, "unit_of_measurement": "kWh"},</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4989,51 +4994,47 @@
       <c r="H13" t="s">
         <v>44</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x0B</v>
-      </c>
       <c r="J13" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D13),"NA",NOT(ISERR(FIND("True =",G13))))</f>
         <v>0</v>
       </c>
       <c r="K13" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C13&amp;J13</f>
         <v>powerFALSE</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D13,FIND("(",D13)+1,1),0))</f>
         <v>3</v>
       </c>
       <c r="M13">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D13,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E13)),0)</f>
         <v>2</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="P13" t="s">
         <v>210</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O13&amp;","&amp;CHAR(9)&amp;" // "&amp;B13&amp;" | "&amp;C13&amp;" | "&amp;D13&amp;" | datatype: "&amp;M13&amp;" | factor_exp10: "&amp;E13&amp;" | example: "&amp;F13</f>
         <v>0x43,	 // 0x0B | power | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 0B021B00</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C13," ","_"),".","_"),"(",""),")","")</f>
         <v>power</v>
       </c>
       <c r="S13" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J13=TRUE,J13=FALSE),""""&amp;R13&amp;""": {""measurement_type"": "&amp;B13&amp;IF(NOT(ISBLANK(P13)),", ""device_class"": "&amp;P13,"")&amp;IF(J13=FALSE,", ""accuracy_decimals"": "&amp;N13&amp;", ""unit_of_measurement"": """&amp;H13&amp;"""","")&amp;"},","# "&amp;B13)</f>
         <v xml:space="preserve">  "power": {"measurement_type": 0x0B, "device_class": DEVICE_CLASS_POWER, "accuracy_decimals": 2, "unit_of_measurement": "W"},</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5059,51 +5060,47 @@
       <c r="H14" t="s">
         <v>48</v>
       </c>
-      <c r="I14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x0C</v>
-      </c>
       <c r="J14" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D14),"NA",NOT(ISERR(FIND("True =",G14))))</f>
         <v>0</v>
       </c>
       <c r="K14" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C14&amp;J14</f>
         <v>voltageFALSE</v>
       </c>
       <c r="L14">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D14,FIND("(",D14)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D14,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E14)),0)</f>
         <v>3</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="P14" t="s">
         <v>211</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O14&amp;","&amp;CHAR(9)&amp;" // "&amp;B14&amp;" | "&amp;C14&amp;" | "&amp;D14&amp;" | datatype: "&amp;M14&amp;" | factor_exp10: "&amp;E14&amp;" | example: "&amp;F14</f>
         <v>0x62,	 // 0x0C | voltage | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 0C020C</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C14," ","_"),".","_"),"(",""),")","")</f>
         <v>voltage</v>
       </c>
       <c r="S14" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J14=TRUE,J14=FALSE),""""&amp;R14&amp;""": {""measurement_type"": "&amp;B14&amp;IF(NOT(ISBLANK(P14)),", ""device_class"": "&amp;P14,"")&amp;IF(J14=FALSE,", ""accuracy_decimals"": "&amp;N14&amp;", ""unit_of_measurement"": """&amp;H14&amp;"""","")&amp;"},","# "&amp;B14)</f>
         <v xml:space="preserve">  "voltage": {"measurement_type": 0x0C, "device_class": DEVICE_CLASS_VOLTAGE, "accuracy_decimals": 3, "unit_of_measurement": "V"},</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5129,51 +5126,47 @@
       <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="I15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J15" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D15),"NA",NOT(ISERR(FIND("True =",G15))))</f>
         <v>0</v>
       </c>
       <c r="K15" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C15&amp;J15</f>
         <v>pm2.5FALSE</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D15,FIND("(",D15)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D15,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E15)),0)</f>
         <v>0</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="P15" t="s">
         <v>215</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O15&amp;","&amp;CHAR(9)&amp;" // "&amp;B15&amp;" | "&amp;C15&amp;" | "&amp;D15&amp;" | datatype: "&amp;M15&amp;" | factor_exp10: "&amp;E15&amp;" | example: "&amp;F15</f>
         <v>0x02,	 // 0x0D | pm2.5 | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 0D120C</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C15," ","_"),".","_"),"(",""),")","")</f>
         <v>pm2_5</v>
       </c>
       <c r="S15" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J15=TRUE,J15=FALSE),""""&amp;R15&amp;""": {""measurement_type"": "&amp;B15&amp;IF(NOT(ISBLANK(P15)),", ""device_class"": "&amp;P15,"")&amp;IF(J15=FALSE,", ""accuracy_decimals"": "&amp;N15&amp;", ""unit_of_measurement"": """&amp;H15&amp;"""","")&amp;"},","# "&amp;B15)</f>
         <v xml:space="preserve">  "pm2_5": {"measurement_type": 0x0D, "device_class": DEVICE_CLASS_PM25, "accuracy_decimals": 0, "unit_of_measurement": "ug/m3"},</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5199,51 +5192,47 @@
       <c r="H16" t="s">
         <v>52</v>
       </c>
-      <c r="I16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J16" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D16),"NA",NOT(ISERR(FIND("True =",G16))))</f>
         <v>0</v>
       </c>
       <c r="K16" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C16&amp;J16</f>
         <v>pm10FALSE</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D16,FIND("(",D16)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D16,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E16)),0)</f>
         <v>0</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="P16" t="s">
         <v>212</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O16&amp;","&amp;CHAR(9)&amp;" // "&amp;B16&amp;" | "&amp;C16&amp;" | "&amp;D16&amp;" | datatype: "&amp;M16&amp;" | factor_exp10: "&amp;E16&amp;" | example: "&amp;F16</f>
         <v>0x02,	 // 0x0E | pm10 | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 0E021C</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C16," ","_"),".","_"),"(",""),")","")</f>
         <v>pm10</v>
       </c>
       <c r="S16" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J16=TRUE,J16=FALSE),""""&amp;R16&amp;""": {""measurement_type"": "&amp;B16&amp;IF(NOT(ISBLANK(P16)),", ""device_class"": "&amp;P16,"")&amp;IF(J16=FALSE,", ""accuracy_decimals"": "&amp;N16&amp;", ""unit_of_measurement"": """&amp;H16&amp;"""","")&amp;"},","# "&amp;B16)</f>
         <v xml:space="preserve">  "pm10": {"measurement_type": 0x0E, "device_class": DEVICE_CLASS_PM10, "accuracy_decimals": 0, "unit_of_measurement": "ug/m3"},</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5263,48 +5252,44 @@
       <c r="G17" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J17" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D17),"NA",NOT(ISERR(FIND("True =",G17))))</f>
         <v>1</v>
       </c>
       <c r="K17" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C17&amp;J17</f>
         <v>generic booleanTRUE</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D17,FIND("(",D17)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D17,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E17)),0)</f>
         <v>0</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O17&amp;","&amp;CHAR(9)&amp;" // "&amp;B17&amp;" | "&amp;C17&amp;" | "&amp;D17&amp;" | datatype: "&amp;M17&amp;" | factor_exp10: "&amp;E17&amp;" | example: "&amp;F17</f>
         <v>0x01,	 // 0x0F | generic boolean | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 0F01</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C17," ","_"),".","_"),"(",""),")","")</f>
         <v>generic_boolean</v>
       </c>
       <c r="S17" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J17=TRUE,J17=FALSE),""""&amp;R17&amp;""": {""measurement_type"": "&amp;B17&amp;IF(NOT(ISBLANK(P17)),", ""device_class"": "&amp;P17,"")&amp;IF(J17=FALSE,", ""accuracy_decimals"": "&amp;N17&amp;", ""unit_of_measurement"": """&amp;H17&amp;"""","")&amp;"},","# "&amp;B17)</f>
         <v xml:space="preserve">  "generic_boolean": {"measurement_type": 0x0F},</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5324,51 +5309,47 @@
       <c r="G18" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J18" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D18),"NA",NOT(ISERR(FIND("True =",G18))))</f>
         <v>1</v>
       </c>
       <c r="K18" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C18&amp;J18</f>
         <v>powerTRUE</v>
       </c>
       <c r="L18">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D18,FIND("(",D18)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D18,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E18)),0)</f>
         <v>0</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P18" t="s">
         <v>210</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O18&amp;","&amp;CHAR(9)&amp;" // "&amp;B18&amp;" | "&amp;C18&amp;" | "&amp;D18&amp;" | datatype: "&amp;M18&amp;" | factor_exp10: "&amp;E18&amp;" | example: "&amp;F18</f>
         <v>0x01,	 // 0x10 | power | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1001</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C18," ","_"),".","_"),"(",""),")","")</f>
         <v>power</v>
       </c>
       <c r="S18" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J18=TRUE,J18=FALSE),""""&amp;R18&amp;""": {""measurement_type"": "&amp;B18&amp;IF(NOT(ISBLANK(P18)),", ""device_class"": "&amp;P18,"")&amp;IF(J18=FALSE,", ""accuracy_decimals"": "&amp;N18&amp;", ""unit_of_measurement"": """&amp;H18&amp;"""","")&amp;"},","# "&amp;B18)</f>
         <v xml:space="preserve">  "power": {"measurement_type": 0x10, "device_class": DEVICE_CLASS_POWER},</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5388,51 +5369,47 @@
       <c r="G19" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J19" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D19),"NA",NOT(ISERR(FIND("True =",G19))))</f>
         <v>1</v>
       </c>
       <c r="K19" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C19&amp;J19</f>
         <v>openingTRUE</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D19,FIND("(",D19)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D19,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E19)),0)</f>
         <v>0</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P19" t="s">
         <v>372</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O19&amp;","&amp;CHAR(9)&amp;" // "&amp;B19&amp;" | "&amp;C19&amp;" | "&amp;D19&amp;" | datatype: "&amp;M19&amp;" | factor_exp10: "&amp;E19&amp;" | example: "&amp;F19</f>
         <v>0x01,	 // 0x11 | opening | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1100</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C19," ","_"),".","_"),"(",""),")","")</f>
         <v>opening</v>
       </c>
       <c r="S19" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J19=TRUE,J19=FALSE),""""&amp;R19&amp;""": {""measurement_type"": "&amp;B19&amp;IF(NOT(ISBLANK(P19)),", ""device_class"": "&amp;P19,"")&amp;IF(J19=FALSE,", ""accuracy_decimals"": "&amp;N19&amp;", ""unit_of_measurement"": """&amp;H19&amp;"""","")&amp;"},","# "&amp;B19)</f>
         <v xml:space="preserve">  "opening": {"measurement_type": 0x11, "device_class": DEVICE_CLASS_OPENING},</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5458,51 +5435,47 @@
       <c r="H20" t="s">
         <v>58</v>
       </c>
-      <c r="I20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J20" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D20),"NA",NOT(ISERR(FIND("True =",G20))))</f>
         <v>0</v>
       </c>
       <c r="K20" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C20&amp;J20</f>
         <v>co2FALSE</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D20,FIND("(",D20)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M20">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D20,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E20)),0)</f>
         <v>0</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="P20" t="s">
         <v>217</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O20&amp;","&amp;CHAR(9)&amp;" // "&amp;B20&amp;" | "&amp;C20&amp;" | "&amp;D20&amp;" | datatype: "&amp;M20&amp;" | factor_exp10: "&amp;E20&amp;" | example: "&amp;F20</f>
         <v>0x02,	 // 0x12 | co2 | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 12E204</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C20," ","_"),".","_"),"(",""),")","")</f>
         <v>co2</v>
       </c>
       <c r="S20" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J20=TRUE,J20=FALSE),""""&amp;R20&amp;""": {""measurement_type"": "&amp;B20&amp;IF(NOT(ISBLANK(P20)),", ""device_class"": "&amp;P20,"")&amp;IF(J20=FALSE,", ""accuracy_decimals"": "&amp;N20&amp;", ""unit_of_measurement"": """&amp;H20&amp;"""","")&amp;"},","# "&amp;B20)</f>
         <v xml:space="preserve">  "co2": {"measurement_type": 0x12, "device_class": DEVICE_CLASS_CARBON_DIOXIDE, "accuracy_decimals": 0, "unit_of_measurement": "ppm"},</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5528,51 +5501,47 @@
       <c r="H21" t="s">
         <v>52</v>
       </c>
-      <c r="I21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J21" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D21),"NA",NOT(ISERR(FIND("True =",G21))))</f>
         <v>0</v>
       </c>
       <c r="K21" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C21&amp;J21</f>
         <v>tvocFALSE</v>
       </c>
       <c r="L21">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D21,FIND("(",D21)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M21">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D21,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N21">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E21)),0)</f>
         <v>0</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="P21" t="s">
         <v>218</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O21&amp;","&amp;CHAR(9)&amp;" // "&amp;B21&amp;" | "&amp;C21&amp;" | "&amp;D21&amp;" | datatype: "&amp;M21&amp;" | factor_exp10: "&amp;E21&amp;" | example: "&amp;F21</f>
         <v>0x02,	 // 0x13 | tvoc | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 133301</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C21," ","_"),".","_"),"(",""),")","")</f>
         <v>tvoc</v>
       </c>
       <c r="S21" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J21=TRUE,J21=FALSE),""""&amp;R21&amp;""": {""measurement_type"": "&amp;B21&amp;IF(NOT(ISBLANK(P21)),", ""device_class"": "&amp;P21,"")&amp;IF(J21=FALSE,", ""accuracy_decimals"": "&amp;N21&amp;", ""unit_of_measurement"": """&amp;H21&amp;"""","")&amp;"},","# "&amp;B21)</f>
         <v xml:space="preserve">  "tvoc": {"measurement_type": 0x13, "device_class": DEVICE_CLASS_VOLATILE_ORGANIC_COMPOUNDS, "accuracy_decimals": 0, "unit_of_measurement": "ug/m3"},</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5598,48 +5567,44 @@
       <c r="H22" t="s">
         <v>8</v>
       </c>
-      <c r="I22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x14</v>
-      </c>
       <c r="J22" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D22),"NA",NOT(ISERR(FIND("True =",G22))))</f>
         <v>0</v>
       </c>
       <c r="K22" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C22&amp;J22</f>
         <v>moistureFALSE</v>
       </c>
       <c r="L22">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D22,FIND("(",D22)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D22,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E22)),0)</f>
         <v>2</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O22&amp;","&amp;CHAR(9)&amp;" // "&amp;B22&amp;" | "&amp;C22&amp;" | "&amp;D22&amp;" | datatype: "&amp;M22&amp;" | factor_exp10: "&amp;E22&amp;" | example: "&amp;F22</f>
         <v>0x42,	 // 0x14 | moisture | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 14020C</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C22," ","_"),".","_"),"(",""),")","")</f>
         <v>moisture</v>
       </c>
       <c r="S22" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J22=TRUE,J22=FALSE),""""&amp;R22&amp;""": {""measurement_type"": "&amp;B22&amp;IF(NOT(ISBLANK(P22)),", ""device_class"": "&amp;P22,"")&amp;IF(J22=FALSE,", ""accuracy_decimals"": "&amp;N22&amp;", ""unit_of_measurement"": """&amp;H22&amp;"""","")&amp;"},","# "&amp;B22)</f>
         <v xml:space="preserve">  "moisture": {"measurement_type": 0x14, "accuracy_decimals": 2, "unit_of_measurement": "%"},</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5659,51 +5624,47 @@
       <c r="G23" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="I23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J23" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D23),"NA",NOT(ISERR(FIND("True =",G23))))</f>
         <v>1</v>
       </c>
       <c r="K23" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C23&amp;J23</f>
         <v>batteryTRUE</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D23,FIND("(",D23)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D23,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N23">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E23)),0)</f>
         <v>0</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P23" t="s">
         <v>204</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O23&amp;","&amp;CHAR(9)&amp;" // "&amp;B23&amp;" | "&amp;C23&amp;" | "&amp;D23&amp;" | datatype: "&amp;M23&amp;" | factor_exp10: "&amp;E23&amp;" | example: "&amp;F23</f>
         <v>0x01,	 // 0x15 | battery | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1501</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C23," ","_"),".","_"),"(",""),")","")</f>
         <v>battery</v>
       </c>
       <c r="S23" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J23=TRUE,J23=FALSE),""""&amp;R23&amp;""": {""measurement_type"": "&amp;B23&amp;IF(NOT(ISBLANK(P23)),", ""device_class"": "&amp;P23,"")&amp;IF(J23=FALSE,", ""accuracy_decimals"": "&amp;N23&amp;", ""unit_of_measurement"": """&amp;H23&amp;"""","")&amp;"},","# "&amp;B23)</f>
         <v xml:space="preserve">  "battery": {"measurement_type": 0x15, "device_class": DEVICE_CLASS_BATTERY},</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5723,51 +5684,47 @@
       <c r="G24" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J24" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D24),"NA",NOT(ISERR(FIND("True =",G24))))</f>
         <v>1</v>
       </c>
       <c r="K24" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C24&amp;J24</f>
         <v>battery chargingTRUE</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D24,FIND("(",D24)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D24,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E24)),0)</f>
         <v>0</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P24" t="s">
         <v>373</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O24&amp;","&amp;CHAR(9)&amp;" // "&amp;B24&amp;" | "&amp;C24&amp;" | "&amp;D24&amp;" | datatype: "&amp;M24&amp;" | factor_exp10: "&amp;E24&amp;" | example: "&amp;F24</f>
         <v>0x01,	 // 0x16 | battery charging | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1601</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C24," ","_"),".","_"),"(",""),")","")</f>
         <v>battery_charging</v>
       </c>
       <c r="S24" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J24=TRUE,J24=FALSE),""""&amp;R24&amp;""": {""measurement_type"": "&amp;B24&amp;IF(NOT(ISBLANK(P24)),", ""device_class"": "&amp;P24,"")&amp;IF(J24=FALSE,", ""accuracy_decimals"": "&amp;N24&amp;", ""unit_of_measurement"": """&amp;H24&amp;"""","")&amp;"},","# "&amp;B24)</f>
         <v xml:space="preserve">  "battery_charging": {"measurement_type": 0x16, "device_class": DEVICE_CLASS_BATTERY_CHARGING},</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5787,51 +5744,47 @@
       <c r="G25" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="I25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J25" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D25),"NA",NOT(ISERR(FIND("True =",G25))))</f>
         <v>1</v>
       </c>
       <c r="K25" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C25&amp;J25</f>
         <v>carbon monoxideTRUE</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D25,FIND("(",D25)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D25,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N25">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E25)),0)</f>
         <v>0</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P25" t="s">
         <v>358</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O25&amp;","&amp;CHAR(9)&amp;" // "&amp;B25&amp;" | "&amp;C25&amp;" | "&amp;D25&amp;" | datatype: "&amp;M25&amp;" | factor_exp10: "&amp;E25&amp;" | example: "&amp;F25</f>
         <v>0x01,	 // 0x17 | carbon monoxide | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1700</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C25," ","_"),".","_"),"(",""),")","")</f>
         <v>carbon_monoxide</v>
       </c>
       <c r="S25" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J25=TRUE,J25=FALSE),""""&amp;R25&amp;""": {""measurement_type"": "&amp;B25&amp;IF(NOT(ISBLANK(P25)),", ""device_class"": "&amp;P25,"")&amp;IF(J25=FALSE,", ""accuracy_decimals"": "&amp;N25&amp;", ""unit_of_measurement"": """&amp;H25&amp;"""","")&amp;"},","# "&amp;B25)</f>
         <v xml:space="preserve">  "carbon_monoxide": {"measurement_type": 0x17, "device_class": DEVICE_CLASS_GAS},</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5851,51 +5804,47 @@
       <c r="G26" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="I26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J26" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D26),"NA",NOT(ISERR(FIND("True =",G26))))</f>
         <v>1</v>
       </c>
       <c r="K26" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C26&amp;J26</f>
         <v>coldTRUE</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D26,FIND("(",D26)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D26,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N26">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E26)),0)</f>
         <v>0</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P26" t="s">
         <v>374</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O26&amp;","&amp;CHAR(9)&amp;" // "&amp;B26&amp;" | "&amp;C26&amp;" | "&amp;D26&amp;" | datatype: "&amp;M26&amp;" | factor_exp10: "&amp;E26&amp;" | example: "&amp;F26</f>
         <v>0x01,	 // 0x18 | cold | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1801</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C26," ","_"),".","_"),"(",""),")","")</f>
         <v>cold</v>
       </c>
       <c r="S26" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J26=TRUE,J26=FALSE),""""&amp;R26&amp;""": {""measurement_type"": "&amp;B26&amp;IF(NOT(ISBLANK(P26)),", ""device_class"": "&amp;P26,"")&amp;IF(J26=FALSE,", ""accuracy_decimals"": "&amp;N26&amp;", ""unit_of_measurement"": """&amp;H26&amp;"""","")&amp;"},","# "&amp;B26)</f>
         <v xml:space="preserve">  "cold": {"measurement_type": 0x18, "device_class": DEVICE_CLASS_COLD},</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5915,51 +5864,47 @@
       <c r="G27" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="I27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J27" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D27),"NA",NOT(ISERR(FIND("True =",G27))))</f>
         <v>1</v>
       </c>
       <c r="K27" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C27&amp;J27</f>
         <v>connectivityTRUE</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D27,FIND("(",D27)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M27">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D27,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N27">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E27)),0)</f>
         <v>0</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P27" t="s">
         <v>375</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O27&amp;","&amp;CHAR(9)&amp;" // "&amp;B27&amp;" | "&amp;C27&amp;" | "&amp;D27&amp;" | datatype: "&amp;M27&amp;" | factor_exp10: "&amp;E27&amp;" | example: "&amp;F27</f>
         <v>0x01,	 // 0x19 | connectivity | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1900</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C27," ","_"),".","_"),"(",""),")","")</f>
         <v>connectivity</v>
       </c>
       <c r="S27" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J27=TRUE,J27=FALSE),""""&amp;R27&amp;""": {""measurement_type"": "&amp;B27&amp;IF(NOT(ISBLANK(P27)),", ""device_class"": "&amp;P27,"")&amp;IF(J27=FALSE,", ""accuracy_decimals"": "&amp;N27&amp;", ""unit_of_measurement"": """&amp;H27&amp;"""","")&amp;"},","# "&amp;B27)</f>
         <v xml:space="preserve">  "connectivity": {"measurement_type": 0x19, "device_class": DEVICE_CLASS_CONNECTIVITY},</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5979,51 +5924,47 @@
       <c r="G28" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J28" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D28),"NA",NOT(ISERR(FIND("True =",G28))))</f>
         <v>1</v>
       </c>
       <c r="K28" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C28&amp;J28</f>
         <v>doorTRUE</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D28,FIND("(",D28)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D28,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E28)),0)</f>
         <v>0</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P28" t="s">
         <v>376</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O28&amp;","&amp;CHAR(9)&amp;" // "&amp;B28&amp;" | "&amp;C28&amp;" | "&amp;D28&amp;" | datatype: "&amp;M28&amp;" | factor_exp10: "&amp;E28&amp;" | example: "&amp;F28</f>
         <v>0x01,	 // 0x1A | door | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1A00</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C28," ","_"),".","_"),"(",""),")","")</f>
         <v>door</v>
       </c>
       <c r="S28" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J28=TRUE,J28=FALSE),""""&amp;R28&amp;""": {""measurement_type"": "&amp;B28&amp;IF(NOT(ISBLANK(P28)),", ""device_class"": "&amp;P28,"")&amp;IF(J28=FALSE,", ""accuracy_decimals"": "&amp;N28&amp;", ""unit_of_measurement"": """&amp;H28&amp;"""","")&amp;"},","# "&amp;B28)</f>
         <v xml:space="preserve">  "door": {"measurement_type": 0x1A, "device_class": DEVICE_CLASS_DOOR},</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6043,51 +5984,47 @@
       <c r="G29" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J29" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D29),"NA",NOT(ISERR(FIND("True =",G29))))</f>
         <v>1</v>
       </c>
       <c r="K29" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C29&amp;J29</f>
         <v>garage doorTRUE</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D29,FIND("(",D29)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M29">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D29,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E29)),0)</f>
         <v>0</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P29" t="s">
         <v>377</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O29&amp;","&amp;CHAR(9)&amp;" // "&amp;B29&amp;" | "&amp;C29&amp;" | "&amp;D29&amp;" | datatype: "&amp;M29&amp;" | factor_exp10: "&amp;E29&amp;" | example: "&amp;F29</f>
         <v>0x01,	 // 0x1B | garage door | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1B01</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C29," ","_"),".","_"),"(",""),")","")</f>
         <v>garage_door</v>
       </c>
       <c r="S29" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J29=TRUE,J29=FALSE),""""&amp;R29&amp;""": {""measurement_type"": "&amp;B29&amp;IF(NOT(ISBLANK(P29)),", ""device_class"": "&amp;P29,"")&amp;IF(J29=FALSE,", ""accuracy_decimals"": "&amp;N29&amp;", ""unit_of_measurement"": """&amp;H29&amp;"""","")&amp;"},","# "&amp;B29)</f>
         <v xml:space="preserve">  "garage_door": {"measurement_type": 0x1B, "device_class": DEVICE_CLASS_GARAGE_DOOR},</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6107,51 +6044,47 @@
       <c r="G30" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J30" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D30),"NA",NOT(ISERR(FIND("True =",G30))))</f>
         <v>1</v>
       </c>
       <c r="K30" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C30&amp;J30</f>
         <v>gasTRUE</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D30,FIND("(",D30)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D30,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E30)),0)</f>
         <v>0</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P30" t="s">
         <v>358</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O30&amp;","&amp;CHAR(9)&amp;" // "&amp;B30&amp;" | "&amp;C30&amp;" | "&amp;D30&amp;" | datatype: "&amp;M30&amp;" | factor_exp10: "&amp;E30&amp;" | example: "&amp;F30</f>
         <v>0x01,	 // 0x1C | gas | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1C01</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C30," ","_"),".","_"),"(",""),")","")</f>
         <v>gas</v>
       </c>
       <c r="S30" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J30=TRUE,J30=FALSE),""""&amp;R30&amp;""": {""measurement_type"": "&amp;B30&amp;IF(NOT(ISBLANK(P30)),", ""device_class"": "&amp;P30,"")&amp;IF(J30=FALSE,", ""accuracy_decimals"": "&amp;N30&amp;", ""unit_of_measurement"": """&amp;H30&amp;"""","")&amp;"},","# "&amp;B30)</f>
         <v xml:space="preserve">  "gas": {"measurement_type": 0x1C, "device_class": DEVICE_CLASS_GAS},</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6171,51 +6104,47 @@
       <c r="G31" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J31" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D31),"NA",NOT(ISERR(FIND("True =",G31))))</f>
         <v>1</v>
       </c>
       <c r="K31" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C31&amp;J31</f>
         <v>heatTRUE</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D31,FIND("(",D31)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M31">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D31,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E31)),0)</f>
         <v>0</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P31" t="s">
         <v>378</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O31&amp;","&amp;CHAR(9)&amp;" // "&amp;B31&amp;" | "&amp;C31&amp;" | "&amp;D31&amp;" | datatype: "&amp;M31&amp;" | factor_exp10: "&amp;E31&amp;" | example: "&amp;F31</f>
         <v>0x01,	 // 0x1D | heat | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1D00</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C31," ","_"),".","_"),"(",""),")","")</f>
         <v>heat</v>
       </c>
       <c r="S31" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J31=TRUE,J31=FALSE),""""&amp;R31&amp;""": {""measurement_type"": "&amp;B31&amp;IF(NOT(ISBLANK(P31)),", ""device_class"": "&amp;P31,"")&amp;IF(J31=FALSE,", ""accuracy_decimals"": "&amp;N31&amp;", ""unit_of_measurement"": """&amp;H31&amp;"""","")&amp;"},","# "&amp;B31)</f>
         <v xml:space="preserve">  "heat": {"measurement_type": 0x1D, "device_class": DEVICE_CLASS_HEAT},</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6235,51 +6164,47 @@
       <c r="G32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="I32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J32" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D32),"NA",NOT(ISERR(FIND("True =",G32))))</f>
         <v>1</v>
       </c>
       <c r="K32" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C32&amp;J32</f>
         <v>lightTRUE</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D32,FIND("(",D32)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M32">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D32,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E32)),0)</f>
         <v>0</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P32" t="s">
         <v>379</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O32&amp;","&amp;CHAR(9)&amp;" // "&amp;B32&amp;" | "&amp;C32&amp;" | "&amp;D32&amp;" | datatype: "&amp;M32&amp;" | factor_exp10: "&amp;E32&amp;" | example: "&amp;F32</f>
         <v>0x01,	 // 0x1E | light | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 10</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C32," ","_"),".","_"),"(",""),")","")</f>
         <v>light</v>
       </c>
       <c r="S32" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J32=TRUE,J32=FALSE),""""&amp;R32&amp;""": {""measurement_type"": "&amp;B32&amp;IF(NOT(ISBLANK(P32)),", ""device_class"": "&amp;P32,"")&amp;IF(J32=FALSE,", ""accuracy_decimals"": "&amp;N32&amp;", ""unit_of_measurement"": """&amp;H32&amp;"""","")&amp;"},","# "&amp;B32)</f>
         <v xml:space="preserve">  "light": {"measurement_type": 0x1E, "device_class": DEVICE_CLASS_LIGHT},</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6299,51 +6224,47 @@
       <c r="G33" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="I33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J33" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D33),"NA",NOT(ISERR(FIND("True =",G33))))</f>
         <v>1</v>
       </c>
       <c r="K33" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C33&amp;J33</f>
         <v>lockTRUE</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D33,FIND("(",D33)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
+        <f>IF(MID(D33,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="4"/>
+        <f>IFERROR(ABS(LOG10(E33)),0)</f>
         <v>0</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P33" t="s">
         <v>380</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="5"/>
+        <f>"0x"&amp;O33&amp;","&amp;CHAR(9)&amp;" // "&amp;B33&amp;" | "&amp;C33&amp;" | "&amp;D33&amp;" | datatype: "&amp;M33&amp;" | factor_exp10: "&amp;E33&amp;" | example: "&amp;F33</f>
         <v>0x01,	 // 0x1F | lock | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1F01</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C33," ","_"),".","_"),"(",""),")","")</f>
         <v>lock</v>
       </c>
       <c r="S33" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J33=TRUE,J33=FALSE),""""&amp;R33&amp;""": {""measurement_type"": "&amp;B33&amp;IF(NOT(ISBLANK(P33)),", ""device_class"": "&amp;P33,"")&amp;IF(J33=FALSE,", ""accuracy_decimals"": "&amp;N33&amp;", ""unit_of_measurement"": """&amp;H33&amp;"""","")&amp;"},","# "&amp;B33)</f>
         <v xml:space="preserve">  "lock": {"measurement_type": 0x1F, "device_class": DEVICE_CLASS_LOCK},</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6363,51 +6284,47 @@
       <c r="G34" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="I34" t="str">
-        <f t="shared" ref="I34:I65" si="11">IF(N34&gt;0," || obj_meas_type == "&amp;B34,"")</f>
-        <v/>
-      </c>
       <c r="J34" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D34),"NA",NOT(ISERR(FIND("True =",G34))))</f>
         <v>1</v>
       </c>
       <c r="K34" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C34&amp;J34</f>
         <v>moistureTRUE</v>
       </c>
       <c r="L34">
-        <f t="shared" ref="L34:L65" si="12">_xlfn.NUMBERVALUE(IFERROR(MID(D34,FIND("(",D34)+1,1),0))</f>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D34,FIND("(",D34)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M34">
-        <f t="shared" ref="M34:M65" si="13">IF(MID(D34,1,4)="sint",1,0)</f>
+        <f>IF(MID(D34,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="14">IFERROR(ABS(LOG10(E34)),0)</f>
+        <f>IFERROR(ABS(LOG10(E34)),0)</f>
         <v>0</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P34" t="s">
         <v>213</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" ref="Q34:Q65" si="15">"0x"&amp;O34&amp;","&amp;CHAR(9)&amp;" // "&amp;B34&amp;" | "&amp;C34&amp;" | "&amp;D34&amp;" | datatype: "&amp;M34&amp;" | factor_exp10: "&amp;E34&amp;" | example: "&amp;F34</f>
+        <f>"0x"&amp;O34&amp;","&amp;CHAR(9)&amp;" // "&amp;B34&amp;" | "&amp;C34&amp;" | "&amp;D34&amp;" | datatype: "&amp;M34&amp;" | factor_exp10: "&amp;E34&amp;" | example: "&amp;F34</f>
         <v>0x01,	 // 0x20 | moisture | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2001</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C34," ","_"),".","_"),"(",""),")","")</f>
         <v>moisture</v>
       </c>
       <c r="S34" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J34=TRUE,J34=FALSE),""""&amp;R34&amp;""": {""measurement_type"": "&amp;B34&amp;IF(NOT(ISBLANK(P34)),", ""device_class"": "&amp;P34,"")&amp;IF(J34=FALSE,", ""accuracy_decimals"": "&amp;N34&amp;", ""unit_of_measurement"": """&amp;H34&amp;"""","")&amp;"},","# "&amp;B34)</f>
         <v xml:space="preserve">  "moisture": {"measurement_type": 0x20, "device_class": DEVICE_CLASS_MOISTURE},</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6427,51 +6344,47 @@
       <c r="G35" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I35" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J35" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D35),"NA",NOT(ISERR(FIND("True =",G35))))</f>
         <v>1</v>
       </c>
       <c r="K35" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C35&amp;J35</f>
         <v>motionTRUE</v>
       </c>
       <c r="L35">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D35,FIND("(",D35)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M35">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D35,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E35)),0)</f>
         <v>0</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P35" t="s">
         <v>381</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O35&amp;","&amp;CHAR(9)&amp;" // "&amp;B35&amp;" | "&amp;C35&amp;" | "&amp;D35&amp;" | datatype: "&amp;M35&amp;" | factor_exp10: "&amp;E35&amp;" | example: "&amp;F35</f>
         <v>0x01,	 // 0x21 | motion | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2100</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C35," ","_"),".","_"),"(",""),")","")</f>
         <v>motion</v>
       </c>
       <c r="S35" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J35=TRUE,J35=FALSE),""""&amp;R35&amp;""": {""measurement_type"": "&amp;B35&amp;IF(NOT(ISBLANK(P35)),", ""device_class"": "&amp;P35,"")&amp;IF(J35=FALSE,", ""accuracy_decimals"": "&amp;N35&amp;", ""unit_of_measurement"": """&amp;H35&amp;"""","")&amp;"},","# "&amp;B35)</f>
         <v xml:space="preserve">  "motion": {"measurement_type": 0x21, "device_class": DEVICE_CLASS_MOTION},</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6491,51 +6404,47 @@
       <c r="G36" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I36" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J36" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D36),"NA",NOT(ISERR(FIND("True =",G36))))</f>
         <v>1</v>
       </c>
       <c r="K36" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C36&amp;J36</f>
         <v>movingTRUE</v>
       </c>
       <c r="L36">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D36,FIND("(",D36)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M36">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D36,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E36)),0)</f>
         <v>0</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P36" t="s">
         <v>382</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O36&amp;","&amp;CHAR(9)&amp;" // "&amp;B36&amp;" | "&amp;C36&amp;" | "&amp;D36&amp;" | datatype: "&amp;M36&amp;" | factor_exp10: "&amp;E36&amp;" | example: "&amp;F36</f>
         <v>0x01,	 // 0x22 | moving | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2201</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C36," ","_"),".","_"),"(",""),")","")</f>
         <v>moving</v>
       </c>
       <c r="S36" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J36=TRUE,J36=FALSE),""""&amp;R36&amp;""": {""measurement_type"": "&amp;B36&amp;IF(NOT(ISBLANK(P36)),", ""device_class"": "&amp;P36,"")&amp;IF(J36=FALSE,", ""accuracy_decimals"": "&amp;N36&amp;", ""unit_of_measurement"": """&amp;H36&amp;"""","")&amp;"},","# "&amp;B36)</f>
         <v xml:space="preserve">  "moving": {"measurement_type": 0x22, "device_class": DEVICE_CLASS_MOVING},</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6555,51 +6464,47 @@
       <c r="G37" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I37" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J37" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D37),"NA",NOT(ISERR(FIND("True =",G37))))</f>
         <v>1</v>
       </c>
       <c r="K37" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C37&amp;J37</f>
         <v>occupancyTRUE</v>
       </c>
       <c r="L37">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D37,FIND("(",D37)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M37">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D37,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E37)),0)</f>
         <v>0</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P37" t="s">
         <v>383</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O37&amp;","&amp;CHAR(9)&amp;" // "&amp;B37&amp;" | "&amp;C37&amp;" | "&amp;D37&amp;" | datatype: "&amp;M37&amp;" | factor_exp10: "&amp;E37&amp;" | example: "&amp;F37</f>
         <v>0x01,	 // 0x23 | occupancy | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2301</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C37," ","_"),".","_"),"(",""),")","")</f>
         <v>occupancy</v>
       </c>
       <c r="S37" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J37=TRUE,J37=FALSE),""""&amp;R37&amp;""": {""measurement_type"": "&amp;B37&amp;IF(NOT(ISBLANK(P37)),", ""device_class"": "&amp;P37,"")&amp;IF(J37=FALSE,", ""accuracy_decimals"": "&amp;N37&amp;", ""unit_of_measurement"": """&amp;H37&amp;"""","")&amp;"},","# "&amp;B37)</f>
         <v xml:space="preserve">  "occupancy": {"measurement_type": 0x23, "device_class": DEVICE_CLASS_OCCUPANCY},</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6619,43 +6524,39 @@
       <c r="G38" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I38" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J38" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D38),"NA",NOT(ISERR(FIND("True =",G38))))</f>
         <v>1</v>
       </c>
       <c r="K38" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C38&amp;J38</f>
         <v>plugTRUE</v>
       </c>
       <c r="L38">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D38,FIND("(",D38)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M38">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D38,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E38)),0)</f>
         <v>0</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P38" t="s">
         <v>384</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O38&amp;","&amp;CHAR(9)&amp;" // "&amp;B38&amp;" | "&amp;C38&amp;" | "&amp;D38&amp;" | datatype: "&amp;M38&amp;" | factor_exp10: "&amp;E38&amp;" | example: "&amp;F38</f>
         <v>0x01,	 // 0x24 | plug | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2400</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C38," ","_"),".","_"),"(",""),")","")</f>
         <v>plug</v>
       </c>
       <c r="S38" s="9" t="str">
@@ -6663,7 +6564,7 @@
         <v xml:space="preserve">  "plug": {"measurement_type": 0x24, "device_class": DEVICE_CLASS_OPENING},</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6683,43 +6584,39 @@
       <c r="G39" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="I39" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J39" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D39),"NA",NOT(ISERR(FIND("True =",G39))))</f>
         <v>1</v>
       </c>
       <c r="K39" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C39&amp;J39</f>
         <v>presenceTRUE</v>
       </c>
       <c r="L39">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D39,FIND("(",D39)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M39">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D39,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N39">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E39)),0)</f>
         <v>0</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P39" t="s">
         <v>385</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O39&amp;","&amp;CHAR(9)&amp;" // "&amp;B39&amp;" | "&amp;C39&amp;" | "&amp;D39&amp;" | datatype: "&amp;M39&amp;" | factor_exp10: "&amp;E39&amp;" | example: "&amp;F39</f>
         <v>0x01,	 // 0x25 | presence | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2500</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C39," ","_"),".","_"),"(",""),")","")</f>
         <v>presence</v>
       </c>
       <c r="S39" s="9" t="str">
@@ -6727,7 +6624,7 @@
         <v xml:space="preserve">  "presence": {"measurement_type": 0x25, "device_class": DEVICE_CLASS_PLUG},</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6747,43 +6644,39 @@
       <c r="G40" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="I40" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J40" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D40),"NA",NOT(ISERR(FIND("True =",G40))))</f>
         <v>1</v>
       </c>
       <c r="K40" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C40&amp;J40</f>
         <v>problemTRUE</v>
       </c>
       <c r="L40">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D40,FIND("(",D40)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M40">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D40,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E40)),0)</f>
         <v>0</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P40" t="s">
         <v>386</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O40&amp;","&amp;CHAR(9)&amp;" // "&amp;B40&amp;" | "&amp;C40&amp;" | "&amp;D40&amp;" | datatype: "&amp;M40&amp;" | factor_exp10: "&amp;E40&amp;" | example: "&amp;F40</f>
         <v>0x01,	 // 0x26 | problem | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2601</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C40," ","_"),".","_"),"(",""),")","")</f>
         <v>problem</v>
       </c>
       <c r="S40" s="9" t="str">
@@ -6791,7 +6684,7 @@
         <v xml:space="preserve">  "problem": {"measurement_type": 0x26, "device_class": DEVICE_CLASS_PRESENCE},</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6811,43 +6704,39 @@
       <c r="G41" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="I41" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J41" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D41),"NA",NOT(ISERR(FIND("True =",G41))))</f>
         <v>1</v>
       </c>
       <c r="K41" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C41&amp;J41</f>
         <v>runningTRUE</v>
       </c>
       <c r="L41">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D41,FIND("(",D41)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M41">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D41,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E41)),0)</f>
         <v>0</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P41" t="s">
         <v>387</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O41&amp;","&amp;CHAR(9)&amp;" // "&amp;B41&amp;" | "&amp;C41&amp;" | "&amp;D41&amp;" | datatype: "&amp;M41&amp;" | factor_exp10: "&amp;E41&amp;" | example: "&amp;F41</f>
         <v>0x01,	 // 0x27 | running | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2701</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C41," ","_"),".","_"),"(",""),")","")</f>
         <v>running</v>
       </c>
       <c r="S41" s="9" t="str">
@@ -6855,7 +6744,7 @@
         <v xml:space="preserve">  "running": {"measurement_type": 0x27, "device_class": DEVICE_CLASS_PROBLEM},</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6875,43 +6764,39 @@
       <c r="G42" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="I42" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J42" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D42),"NA",NOT(ISERR(FIND("True =",G42))))</f>
         <v>1</v>
       </c>
       <c r="K42" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C42&amp;J42</f>
         <v>safetyTRUE</v>
       </c>
       <c r="L42">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D42,FIND("(",D42)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M42">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D42,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E42)),0)</f>
         <v>0</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P42" t="s">
         <v>388</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O42&amp;","&amp;CHAR(9)&amp;" // "&amp;B42&amp;" | "&amp;C42&amp;" | "&amp;D42&amp;" | datatype: "&amp;M42&amp;" | factor_exp10: "&amp;E42&amp;" | example: "&amp;F42</f>
         <v>0x01,	 // 0x28 | safety | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2800</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C42," ","_"),".","_"),"(",""),")","")</f>
         <v>safety</v>
       </c>
       <c r="S42" s="9" t="str">
@@ -6919,7 +6804,7 @@
         <v xml:space="preserve">  "safety": {"measurement_type": 0x28, "device_class": DEVICE_CLASS_RUNNING},</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6939,43 +6824,39 @@
       <c r="G43" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I43" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J43" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D43),"NA",NOT(ISERR(FIND("True =",G43))))</f>
         <v>1</v>
       </c>
       <c r="K43" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C43&amp;J43</f>
         <v>smokeTRUE</v>
       </c>
       <c r="L43">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D43,FIND("(",D43)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M43">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D43,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E43)),0)</f>
         <v>0</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P43" t="s">
         <v>389</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O43&amp;","&amp;CHAR(9)&amp;" // "&amp;B43&amp;" | "&amp;C43&amp;" | "&amp;D43&amp;" | datatype: "&amp;M43&amp;" | factor_exp10: "&amp;E43&amp;" | example: "&amp;F43</f>
         <v>0x01,	 // 0x29 | smoke | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2901</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C43," ","_"),".","_"),"(",""),")","")</f>
         <v>smoke</v>
       </c>
       <c r="S43" s="9" t="str">
@@ -6983,7 +6864,7 @@
         <v xml:space="preserve">  "smoke": {"measurement_type": 0x29, "device_class": DEVICE_CLASS_SAFETY},</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -7003,43 +6884,39 @@
       <c r="G44" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I44" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J44" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D44),"NA",NOT(ISERR(FIND("True =",G44))))</f>
         <v>1</v>
       </c>
       <c r="K44" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C44&amp;J44</f>
         <v>soundTRUE</v>
       </c>
       <c r="L44">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D44,FIND("(",D44)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M44">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D44,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E44)),0)</f>
         <v>0</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P44" t="s">
         <v>390</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O44&amp;","&amp;CHAR(9)&amp;" // "&amp;B44&amp;" | "&amp;C44&amp;" | "&amp;D44&amp;" | datatype: "&amp;M44&amp;" | factor_exp10: "&amp;E44&amp;" | example: "&amp;F44</f>
         <v>0x01,	 // 0x2A | sound | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2A00</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C44," ","_"),".","_"),"(",""),")","")</f>
         <v>sound</v>
       </c>
       <c r="S44" s="9" t="str">
@@ -7047,7 +6924,7 @@
         <v xml:space="preserve">  "sound": {"measurement_type": 0x2A, "device_class": DEVICE_CLASS_SMOKE},</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -7067,43 +6944,39 @@
       <c r="G45" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="I45" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J45" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D45),"NA",NOT(ISERR(FIND("True =",G45))))</f>
         <v>1</v>
       </c>
       <c r="K45" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C45&amp;J45</f>
         <v>tamperTRUE</v>
       </c>
       <c r="L45">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D45,FIND("(",D45)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M45">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D45,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N45">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E45)),0)</f>
         <v>0</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P45" t="s">
         <v>391</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O45&amp;","&amp;CHAR(9)&amp;" // "&amp;B45&amp;" | "&amp;C45&amp;" | "&amp;D45&amp;" | datatype: "&amp;M45&amp;" | factor_exp10: "&amp;E45&amp;" | example: "&amp;F45</f>
         <v>0x01,	 // 0x2B | tamper | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2B00</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C45," ","_"),".","_"),"(",""),")","")</f>
         <v>tamper</v>
       </c>
       <c r="S45" s="9" t="str">
@@ -7111,7 +6984,7 @@
         <v xml:space="preserve">  "tamper": {"measurement_type": 0x2B, "device_class": DEVICE_CLASS_SOUND},</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -7131,43 +7004,39 @@
       <c r="G46" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="I46" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J46" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D46),"NA",NOT(ISERR(FIND("True =",G46))))</f>
         <v>1</v>
       </c>
       <c r="K46" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C46&amp;J46</f>
         <v>vibrationTRUE</v>
       </c>
       <c r="L46">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D46,FIND("(",D46)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M46">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D46,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N46">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E46)),0)</f>
         <v>0</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P46" t="s">
         <v>392</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O46&amp;","&amp;CHAR(9)&amp;" // "&amp;B46&amp;" | "&amp;C46&amp;" | "&amp;D46&amp;" | datatype: "&amp;M46&amp;" | factor_exp10: "&amp;E46&amp;" | example: "&amp;F46</f>
         <v>0x01,	 // 0x2C | vibration | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2C01</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C46," ","_"),".","_"),"(",""),")","")</f>
         <v>vibration</v>
       </c>
       <c r="S46" s="9" t="str">
@@ -7175,7 +7044,7 @@
         <v xml:space="preserve">  "vibration": {"measurement_type": 0x2C, "device_class": DEVICE_CLASS_TAMPER},</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7195,43 +7064,39 @@
       <c r="G47" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I47" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J47" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D47),"NA",NOT(ISERR(FIND("True =",G47))))</f>
         <v>1</v>
       </c>
       <c r="K47" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C47&amp;J47</f>
         <v>windowTRUE</v>
       </c>
       <c r="L47">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D47,FIND("(",D47)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M47">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D47,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E47)),0)</f>
         <v>0</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="P47" t="s">
         <v>393</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O47&amp;","&amp;CHAR(9)&amp;" // "&amp;B47&amp;" | "&amp;C47&amp;" | "&amp;D47&amp;" | datatype: "&amp;M47&amp;" | factor_exp10: "&amp;E47&amp;" | example: "&amp;F47</f>
         <v>0x01,	 // 0x2D | window | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2D01</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C47," ","_"),".","_"),"(",""),")","")</f>
         <v>window</v>
       </c>
       <c r="S47" s="9" t="str">
@@ -7239,7 +7104,7 @@
         <v xml:space="preserve">  "window": {"measurement_type": 0x2D, "device_class": DEVICE_CLASS_VIBRATION},</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -7265,48 +7130,44 @@
       <c r="H48" t="s">
         <v>8</v>
       </c>
-      <c r="I48" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J48" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D48),"NA",NOT(ISERR(FIND("True =",G48))))</f>
         <v>0</v>
       </c>
       <c r="K48" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C48&amp;J48</f>
         <v>humidity coarseFALSE</v>
       </c>
       <c r="L48">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D48,FIND("(",D48)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M48">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D48,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N48">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E48)),0)</f>
         <v>0</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O48&amp;","&amp;CHAR(9)&amp;" // "&amp;B48&amp;" | "&amp;C48&amp;" | "&amp;D48&amp;" | datatype: "&amp;M48&amp;" | factor_exp10: "&amp;E48&amp;" | example: "&amp;F48</f>
         <v>0x01,	 // 0x2E | humidity coarse | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 2E23</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="9"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C48," ","_"),".","_"),"(",""),")","")</f>
         <v>humidity_coarse</v>
       </c>
       <c r="S48" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J48=TRUE,J48=FALSE),""""&amp;R48&amp;""": {""measurement_type"": "&amp;B48&amp;IF(NOT(ISBLANK(P48)),", ""device_class"": "&amp;P48,"")&amp;IF(J48=FALSE,", ""accuracy_decimals"": "&amp;N48&amp;", ""unit_of_measurement"": """&amp;H48&amp;"""","")&amp;"},","# "&amp;B48)</f>
         <v xml:space="preserve">  "humidity_coarse": {"measurement_type": 0x2E, "accuracy_decimals": 0, "unit_of_measurement": "%"},</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7332,48 +7193,44 @@
       <c r="H49" t="s">
         <v>8</v>
       </c>
-      <c r="I49" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J49" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D49),"NA",NOT(ISERR(FIND("True =",G49))))</f>
         <v>0</v>
       </c>
       <c r="K49" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C49&amp;J49</f>
         <v>moisture coarseFALSE</v>
       </c>
       <c r="L49">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D49,FIND("(",D49)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M49">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D49,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N49">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E49)),0)</f>
         <v>0</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O49&amp;","&amp;CHAR(9)&amp;" // "&amp;B49&amp;" | "&amp;C49&amp;" | "&amp;D49&amp;" | datatype: "&amp;M49&amp;" | factor_exp10: "&amp;E49&amp;" | example: "&amp;F49</f>
         <v>0x01,	 // 0x2F | moisture coarse | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 2F23</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" ref="R49:R81" si="16">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C49," ","_"),".","_"),"(",""),")","")</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C49," ","_"),".","_"),"(",""),")","")</f>
         <v>moisture_coarse</v>
       </c>
       <c r="S49" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J49=TRUE,J49=FALSE),""""&amp;R49&amp;""": {""measurement_type"": "&amp;B49&amp;IF(NOT(ISBLANK(P49)),", ""device_class"": "&amp;P49,"")&amp;IF(J49=FALSE,", ""accuracy_decimals"": "&amp;N49&amp;", ""unit_of_measurement"": """&amp;H49&amp;"""","")&amp;"},","# "&amp;B49)</f>
         <v xml:space="preserve">  "moisture_coarse": {"measurement_type": 0x2F, "accuracy_decimals": 0, "unit_of_measurement": "%"},</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7384,48 +7241,44 @@
       <c r="C50" t="s">
         <v>350</v>
       </c>
-      <c r="I50" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J50" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D50),"NA",NOT(ISERR(FIND("True =",G50))))</f>
         <v>NA</v>
       </c>
       <c r="K50" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C50&amp;J50</f>
         <v>NANA</v>
       </c>
       <c r="L50">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D50,FIND("(",D50)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M50">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D50,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N50">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E50)),0)</f>
         <v>0</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O50&amp;","&amp;CHAR(9)&amp;" // "&amp;B50&amp;" | "&amp;C50&amp;" | "&amp;D50&amp;" | datatype: "&amp;M50&amp;" | factor_exp10: "&amp;E50&amp;" | example: "&amp;F50</f>
         <v xml:space="preserve">0x00,	 // 0x30 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C50," ","_"),".","_"),"(",""),")","")</f>
         <v>NA</v>
       </c>
       <c r="S50" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J50=TRUE,J50=FALSE),""""&amp;R50&amp;""": {""measurement_type"": "&amp;B50&amp;IF(NOT(ISBLANK(P50)),", ""device_class"": "&amp;P50,"")&amp;IF(J50=FALSE,", ""accuracy_decimals"": "&amp;N50&amp;", ""unit_of_measurement"": """&amp;H50&amp;"""","")&amp;"},","# "&amp;B50)</f>
         <v xml:space="preserve">  # 0x30</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7436,48 +7289,44 @@
       <c r="C51" t="s">
         <v>350</v>
       </c>
-      <c r="I51" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J51" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D51),"NA",NOT(ISERR(FIND("True =",G51))))</f>
         <v>NA</v>
       </c>
       <c r="K51" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C51&amp;J51</f>
         <v>NANA</v>
       </c>
       <c r="L51">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D51,FIND("(",D51)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D51,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E51)),0)</f>
         <v>0</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O51&amp;","&amp;CHAR(9)&amp;" // "&amp;B51&amp;" | "&amp;C51&amp;" | "&amp;D51&amp;" | datatype: "&amp;M51&amp;" | factor_exp10: "&amp;E51&amp;" | example: "&amp;F51</f>
         <v xml:space="preserve">0x00,	 // 0x31 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C51," ","_"),".","_"),"(",""),")","")</f>
         <v>NA</v>
       </c>
       <c r="S51" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J51=TRUE,J51=FALSE),""""&amp;R51&amp;""": {""measurement_type"": "&amp;B51&amp;IF(NOT(ISBLANK(P51)),", ""device_class"": "&amp;P51,"")&amp;IF(J51=FALSE,", ""accuracy_decimals"": "&amp;N51&amp;", ""unit_of_measurement"": """&amp;H51&amp;"""","")&amp;"},","# "&amp;B51)</f>
         <v xml:space="preserve">  # 0x31</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7488,48 +7337,44 @@
       <c r="C52" t="s">
         <v>350</v>
       </c>
-      <c r="I52" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J52" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D52),"NA",NOT(ISERR(FIND("True =",G52))))</f>
         <v>NA</v>
       </c>
       <c r="K52" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C52&amp;J52</f>
         <v>NANA</v>
       </c>
       <c r="L52">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D52,FIND("(",D52)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D52,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N52">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E52)),0)</f>
         <v>0</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O52&amp;","&amp;CHAR(9)&amp;" // "&amp;B52&amp;" | "&amp;C52&amp;" | "&amp;D52&amp;" | datatype: "&amp;M52&amp;" | factor_exp10: "&amp;E52&amp;" | example: "&amp;F52</f>
         <v xml:space="preserve">0x00,	 // 0x32 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C52," ","_"),".","_"),"(",""),")","")</f>
         <v>NA</v>
       </c>
       <c r="S52" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J52=TRUE,J52=FALSE),""""&amp;R52&amp;""": {""measurement_type"": "&amp;B52&amp;IF(NOT(ISBLANK(P52)),", ""device_class"": "&amp;P52,"")&amp;IF(J52=FALSE,", ""accuracy_decimals"": "&amp;N52&amp;", ""unit_of_measurement"": """&amp;H52&amp;"""","")&amp;"},","# "&amp;B52)</f>
         <v xml:space="preserve">  # 0x32</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -7540,48 +7385,44 @@
       <c r="C53" t="s">
         <v>350</v>
       </c>
-      <c r="I53" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J53" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D53),"NA",NOT(ISERR(FIND("True =",G53))))</f>
         <v>NA</v>
       </c>
       <c r="K53" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C53&amp;J53</f>
         <v>NANA</v>
       </c>
       <c r="L53">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D53,FIND("(",D53)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D53,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N53">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E53)),0)</f>
         <v>0</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O53&amp;","&amp;CHAR(9)&amp;" // "&amp;B53&amp;" | "&amp;C53&amp;" | "&amp;D53&amp;" | datatype: "&amp;M53&amp;" | factor_exp10: "&amp;E53&amp;" | example: "&amp;F53</f>
         <v xml:space="preserve">0x00,	 // 0x33 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C53," ","_"),".","_"),"(",""),")","")</f>
         <v>NA</v>
       </c>
       <c r="S53" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J53=TRUE,J53=FALSE),""""&amp;R53&amp;""": {""measurement_type"": "&amp;B53&amp;IF(NOT(ISBLANK(P53)),", ""device_class"": "&amp;P53,"")&amp;IF(J53=FALSE,", ""accuracy_decimals"": "&amp;N53&amp;", ""unit_of_measurement"": """&amp;H53&amp;"""","")&amp;"},","# "&amp;B53)</f>
         <v xml:space="preserve">  # 0x33</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -7592,48 +7433,44 @@
       <c r="C54" t="s">
         <v>350</v>
       </c>
-      <c r="I54" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J54" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D54),"NA",NOT(ISERR(FIND("True =",G54))))</f>
         <v>NA</v>
       </c>
       <c r="K54" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C54&amp;J54</f>
         <v>NANA</v>
       </c>
       <c r="L54">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D54,FIND("(",D54)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M54">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D54,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N54">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E54)),0)</f>
         <v>0</v>
       </c>
       <c r="O54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O54&amp;","&amp;CHAR(9)&amp;" // "&amp;B54&amp;" | "&amp;C54&amp;" | "&amp;D54&amp;" | datatype: "&amp;M54&amp;" | factor_exp10: "&amp;E54&amp;" | example: "&amp;F54</f>
         <v xml:space="preserve">0x00,	 // 0x34 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C54," ","_"),".","_"),"(",""),")","")</f>
         <v>NA</v>
       </c>
       <c r="S54" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J54=TRUE,J54=FALSE),""""&amp;R54&amp;""": {""measurement_type"": "&amp;B54&amp;IF(NOT(ISBLANK(P54)),", ""device_class"": "&amp;P54,"")&amp;IF(J54=FALSE,", ""accuracy_decimals"": "&amp;N54&amp;", ""unit_of_measurement"": """&amp;H54&amp;"""","")&amp;"},","# "&amp;B54)</f>
         <v xml:space="preserve">  # 0x34</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -7644,48 +7481,44 @@
       <c r="C55" t="s">
         <v>350</v>
       </c>
-      <c r="I55" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J55" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D55),"NA",NOT(ISERR(FIND("True =",G55))))</f>
         <v>NA</v>
       </c>
       <c r="K55" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C55&amp;J55</f>
         <v>NANA</v>
       </c>
       <c r="L55">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D55,FIND("(",D55)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D55,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N55">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E55)),0)</f>
         <v>0</v>
       </c>
       <c r="O55" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O55&amp;","&amp;CHAR(9)&amp;" // "&amp;B55&amp;" | "&amp;C55&amp;" | "&amp;D55&amp;" | datatype: "&amp;M55&amp;" | factor_exp10: "&amp;E55&amp;" | example: "&amp;F55</f>
         <v xml:space="preserve">0x00,	 // 0x35 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C55," ","_"),".","_"),"(",""),")","")</f>
         <v>NA</v>
       </c>
       <c r="S55" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J55=TRUE,J55=FALSE),""""&amp;R55&amp;""": {""measurement_type"": "&amp;B55&amp;IF(NOT(ISBLANK(P55)),", ""device_class"": "&amp;P55,"")&amp;IF(J55=FALSE,", ""accuracy_decimals"": "&amp;N55&amp;", ""unit_of_measurement"": """&amp;H55&amp;"""","")&amp;"},","# "&amp;B55)</f>
         <v xml:space="preserve">  # 0x35</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -7696,48 +7529,44 @@
       <c r="C56" t="s">
         <v>350</v>
       </c>
-      <c r="I56" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J56" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D56),"NA",NOT(ISERR(FIND("True =",G56))))</f>
         <v>NA</v>
       </c>
       <c r="K56" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C56&amp;J56</f>
         <v>NANA</v>
       </c>
       <c r="L56">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D56,FIND("(",D56)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D56,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N56">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E56)),0)</f>
         <v>0</v>
       </c>
       <c r="O56" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O56&amp;","&amp;CHAR(9)&amp;" // "&amp;B56&amp;" | "&amp;C56&amp;" | "&amp;D56&amp;" | datatype: "&amp;M56&amp;" | factor_exp10: "&amp;E56&amp;" | example: "&amp;F56</f>
         <v xml:space="preserve">0x00,	 // 0x36 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C56," ","_"),".","_"),"(",""),")","")</f>
         <v>NA</v>
       </c>
       <c r="S56" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J56=TRUE,J56=FALSE),""""&amp;R56&amp;""": {""measurement_type"": "&amp;B56&amp;IF(NOT(ISBLANK(P56)),", ""device_class"": "&amp;P56,"")&amp;IF(J56=FALSE,", ""accuracy_decimals"": "&amp;N56&amp;", ""unit_of_measurement"": """&amp;H56&amp;"""","")&amp;"},","# "&amp;B56)</f>
         <v xml:space="preserve">  # 0x36</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -7748,48 +7577,44 @@
       <c r="C57" t="s">
         <v>350</v>
       </c>
-      <c r="I57" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J57" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D57),"NA",NOT(ISERR(FIND("True =",G57))))</f>
         <v>NA</v>
       </c>
       <c r="K57" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C57&amp;J57</f>
         <v>NANA</v>
       </c>
       <c r="L57">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D57,FIND("(",D57)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M57">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D57,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N57">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E57)),0)</f>
         <v>0</v>
       </c>
       <c r="O57" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O57&amp;","&amp;CHAR(9)&amp;" // "&amp;B57&amp;" | "&amp;C57&amp;" | "&amp;D57&amp;" | datatype: "&amp;M57&amp;" | factor_exp10: "&amp;E57&amp;" | example: "&amp;F57</f>
         <v xml:space="preserve">0x00,	 // 0x37 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C57," ","_"),".","_"),"(",""),")","")</f>
         <v>NA</v>
       </c>
       <c r="S57" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J57=TRUE,J57=FALSE),""""&amp;R57&amp;""": {""measurement_type"": "&amp;B57&amp;IF(NOT(ISBLANK(P57)),", ""device_class"": "&amp;P57,"")&amp;IF(J57=FALSE,", ""accuracy_decimals"": "&amp;N57&amp;", ""unit_of_measurement"": """&amp;H57&amp;"""","")&amp;"},","# "&amp;B57)</f>
         <v xml:space="preserve">  # 0x37</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -7800,48 +7625,44 @@
       <c r="C58" t="s">
         <v>350</v>
       </c>
-      <c r="I58" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J58" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D58),"NA",NOT(ISERR(FIND("True =",G58))))</f>
         <v>NA</v>
       </c>
       <c r="K58" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C58&amp;J58</f>
         <v>NANA</v>
       </c>
       <c r="L58">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D58,FIND("(",D58)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D58,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N58">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E58)),0)</f>
         <v>0</v>
       </c>
       <c r="O58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O58&amp;","&amp;CHAR(9)&amp;" // "&amp;B58&amp;" | "&amp;C58&amp;" | "&amp;D58&amp;" | datatype: "&amp;M58&amp;" | factor_exp10: "&amp;E58&amp;" | example: "&amp;F58</f>
         <v xml:space="preserve">0x00,	 // 0x38 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C58," ","_"),".","_"),"(",""),")","")</f>
         <v>NA</v>
       </c>
       <c r="S58" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J58=TRUE,J58=FALSE),""""&amp;R58&amp;""": {""measurement_type"": "&amp;B58&amp;IF(NOT(ISBLANK(P58)),", ""device_class"": "&amp;P58,"")&amp;IF(J58=FALSE,", ""accuracy_decimals"": "&amp;N58&amp;", ""unit_of_measurement"": """&amp;H58&amp;"""","")&amp;"},","# "&amp;B58)</f>
         <v xml:space="preserve">  # 0x38</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -7852,48 +7673,44 @@
       <c r="C59" t="s">
         <v>350</v>
       </c>
-      <c r="I59" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J59" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D59),"NA",NOT(ISERR(FIND("True =",G59))))</f>
         <v>NA</v>
       </c>
       <c r="K59" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C59&amp;J59</f>
         <v>NANA</v>
       </c>
       <c r="L59">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D59,FIND("(",D59)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D59,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N59">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E59)),0)</f>
         <v>0</v>
       </c>
       <c r="O59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O59&amp;","&amp;CHAR(9)&amp;" // "&amp;B59&amp;" | "&amp;C59&amp;" | "&amp;D59&amp;" | datatype: "&amp;M59&amp;" | factor_exp10: "&amp;E59&amp;" | example: "&amp;F59</f>
         <v xml:space="preserve">0x00,	 // 0x39 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C59," ","_"),".","_"),"(",""),")","")</f>
         <v>NA</v>
       </c>
       <c r="S59" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J59=TRUE,J59=FALSE),""""&amp;R59&amp;""": {""measurement_type"": "&amp;B59&amp;IF(NOT(ISBLANK(P59)),", ""device_class"": "&amp;P59,"")&amp;IF(J59=FALSE,", ""accuracy_decimals"": "&amp;N59&amp;", ""unit_of_measurement"": """&amp;H59&amp;"""","")&amp;"},","# "&amp;B59)</f>
         <v xml:space="preserve">  # 0x39</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -7905,48 +7722,44 @@
         <v>351</v>
       </c>
       <c r="F60"/>
-      <c r="I60" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J60" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D60),"NA",NOT(ISERR(FIND("True =",G60))))</f>
         <v>NA</v>
       </c>
       <c r="K60" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C60&amp;J60</f>
         <v>TODONA</v>
       </c>
       <c r="L60">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D60,FIND("(",D60)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D60,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N60">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E60)),0)</f>
         <v>0</v>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O60&amp;","&amp;CHAR(9)&amp;" // "&amp;B60&amp;" | "&amp;C60&amp;" | "&amp;D60&amp;" | datatype: "&amp;M60&amp;" | factor_exp10: "&amp;E60&amp;" | example: "&amp;F60</f>
         <v xml:space="preserve">0x00,	 // 0x3A | TODO |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C60," ","_"),".","_"),"(",""),")","")</f>
         <v>TODO</v>
       </c>
       <c r="S60" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J60=TRUE,J60=FALSE),""""&amp;R60&amp;""": {""measurement_type"": "&amp;B60&amp;IF(NOT(ISBLANK(P60)),", ""device_class"": "&amp;P60,"")&amp;IF(J60=FALSE,", ""accuracy_decimals"": "&amp;N60&amp;", ""unit_of_measurement"": """&amp;H60&amp;"""","")&amp;"},","# "&amp;B60)</f>
         <v xml:space="preserve">  # 0x3A</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -7957,48 +7770,44 @@
       <c r="C61" t="s">
         <v>350</v>
       </c>
-      <c r="I61" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J61" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D61),"NA",NOT(ISERR(FIND("True =",G61))))</f>
         <v>NA</v>
       </c>
       <c r="K61" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C61&amp;J61</f>
         <v>NANA</v>
       </c>
       <c r="L61">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D61,FIND("(",D61)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D61,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N61">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E61)),0)</f>
         <v>0</v>
       </c>
       <c r="O61" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O61&amp;","&amp;CHAR(9)&amp;" // "&amp;B61&amp;" | "&amp;C61&amp;" | "&amp;D61&amp;" | datatype: "&amp;M61&amp;" | factor_exp10: "&amp;E61&amp;" | example: "&amp;F61</f>
         <v xml:space="preserve">0x00,	 // 0x3B | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C61," ","_"),".","_"),"(",""),")","")</f>
         <v>NA</v>
       </c>
       <c r="S61" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J61=TRUE,J61=FALSE),""""&amp;R61&amp;""": {""measurement_type"": "&amp;B61&amp;IF(NOT(ISBLANK(P61)),", ""device_class"": "&amp;P61,"")&amp;IF(J61=FALSE,", ""accuracy_decimals"": "&amp;N61&amp;", ""unit_of_measurement"": """&amp;H61&amp;"""","")&amp;"},","# "&amp;B61)</f>
         <v xml:space="preserve">  # 0x3B</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -8009,48 +7818,44 @@
       <c r="C62" t="s">
         <v>351</v>
       </c>
-      <c r="I62" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J62" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D62),"NA",NOT(ISERR(FIND("True =",G62))))</f>
         <v>NA</v>
       </c>
       <c r="K62" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C62&amp;J62</f>
         <v>TODONA</v>
       </c>
       <c r="L62">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D62,FIND("(",D62)+1,1),0))</f>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D62,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N62">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E62)),0)</f>
         <v>0</v>
       </c>
       <c r="O62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O62&amp;","&amp;CHAR(9)&amp;" // "&amp;B62&amp;" | "&amp;C62&amp;" | "&amp;D62&amp;" | datatype: "&amp;M62&amp;" | factor_exp10: "&amp;E62&amp;" | example: "&amp;F62</f>
         <v xml:space="preserve">0x00,	 // 0x3C | TODO |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C62," ","_"),".","_"),"(",""),")","")</f>
         <v>TODO</v>
       </c>
       <c r="S62" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J62=TRUE,J62=FALSE),""""&amp;R62&amp;""": {""measurement_type"": "&amp;B62&amp;IF(NOT(ISBLANK(P62)),", ""device_class"": "&amp;P62,"")&amp;IF(J62=FALSE,", ""accuracy_decimals"": "&amp;N62&amp;", ""unit_of_measurement"": """&amp;H62&amp;"""","")&amp;"},","# "&amp;B62)</f>
         <v xml:space="preserve">  # 0x3C</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -8073,48 +7878,44 @@
       <c r="G63">
         <v>24585</v>
       </c>
-      <c r="I63" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J63" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D63),"NA",NOT(ISERR(FIND("True =",G63))))</f>
         <v>0</v>
       </c>
       <c r="K63" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C63&amp;J63</f>
         <v>count mediumFALSE</v>
       </c>
       <c r="L63">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D63,FIND("(",D63)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M63">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D63,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E63)),0)</f>
         <v>0</v>
       </c>
       <c r="O63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O63&amp;","&amp;CHAR(9)&amp;" // "&amp;B63&amp;" | "&amp;C63&amp;" | "&amp;D63&amp;" | datatype: "&amp;M63&amp;" | factor_exp10: "&amp;E63&amp;" | example: "&amp;F63</f>
         <v>0x02,	 // 0x3D | count medium | uint (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 3D0960</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C63," ","_"),".","_"),"(",""),")","")</f>
         <v>count_medium</v>
       </c>
       <c r="S63" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J63=TRUE,J63=FALSE),""""&amp;R63&amp;""": {""measurement_type"": "&amp;B63&amp;IF(NOT(ISBLANK(P63)),", ""device_class"": "&amp;P63,"")&amp;IF(J63=FALSE,", ""accuracy_decimals"": "&amp;N63&amp;", ""unit_of_measurement"": """&amp;H63&amp;"""","")&amp;"},","# "&amp;B63)</f>
         <v xml:space="preserve">  "count_medium": {"measurement_type": 0x3D, "accuracy_decimals": 0, "unit_of_measurement": ""},</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -8137,48 +7938,44 @@
       <c r="G64">
         <v>1611213866</v>
       </c>
-      <c r="I64" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
       <c r="J64" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D64),"NA",NOT(ISERR(FIND("True =",G64))))</f>
         <v>0</v>
       </c>
       <c r="K64" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C64&amp;J64</f>
         <v>count largeFALSE</v>
       </c>
       <c r="L64">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D64,FIND("(",D64)+1,1),0))</f>
         <v>4</v>
       </c>
       <c r="M64">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D64,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N64">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E64)),0)</f>
         <v>0</v>
       </c>
       <c r="O64" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>04</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O64&amp;","&amp;CHAR(9)&amp;" // "&amp;B64&amp;" | "&amp;C64&amp;" | "&amp;D64&amp;" | datatype: "&amp;M64&amp;" | factor_exp10: "&amp;E64&amp;" | example: "&amp;F64</f>
         <v>0x04,	 // 0x3E | count large | uint (4 bytes) | datatype: 0 | factor_exp10: 1 | example: 3E2A2C0960</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C64," ","_"),".","_"),"(",""),")","")</f>
         <v>count_large</v>
       </c>
       <c r="S64" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J64=TRUE,J64=FALSE),""""&amp;R64&amp;""": {""measurement_type"": "&amp;B64&amp;IF(NOT(ISBLANK(P64)),", ""device_class"": "&amp;P64,"")&amp;IF(J64=FALSE,", ""accuracy_decimals"": "&amp;N64&amp;", ""unit_of_measurement"": """&amp;H64&amp;"""","")&amp;"},","# "&amp;B64)</f>
         <v xml:space="preserve">  "count_large": {"measurement_type": 0x3E, "accuracy_decimals": 0, "unit_of_measurement": ""},</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -8204,48 +8001,44 @@
       <c r="H65" t="s">
         <v>262</v>
       </c>
-      <c r="I65" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x3F</v>
-      </c>
       <c r="J65" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D65),"NA",NOT(ISERR(FIND("True =",G65))))</f>
         <v>0</v>
       </c>
       <c r="K65" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C65&amp;J65</f>
         <v>rotationFALSE</v>
       </c>
       <c r="L65">
-        <f t="shared" si="12"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D65,FIND("(",D65)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M65">
-        <f t="shared" si="13"/>
+        <f>IF(MID(D65,1,4)="sint",1,0)</f>
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="14"/>
+        <f>IFERROR(ABS(LOG10(E65)),0)</f>
         <v>1</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>2A</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="15"/>
+        <f>"0x"&amp;O65&amp;","&amp;CHAR(9)&amp;" // "&amp;B65&amp;" | "&amp;C65&amp;" | "&amp;D65&amp;" | datatype: "&amp;M65&amp;" | factor_exp10: "&amp;E65&amp;" | example: "&amp;F65</f>
         <v>0x2A,	 // 0x3F | rotation | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.1 | example: 3F020C</v>
       </c>
       <c r="R65" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C65," ","_"),".","_"),"(",""),")","")</f>
         <v>rotation</v>
       </c>
       <c r="S65" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J65=TRUE,J65=FALSE),""""&amp;R65&amp;""": {""measurement_type"": "&amp;B65&amp;IF(NOT(ISBLANK(P65)),", ""device_class"": "&amp;P65,"")&amp;IF(J65=FALSE,", ""accuracy_decimals"": "&amp;N65&amp;", ""unit_of_measurement"": """&amp;H65&amp;"""","")&amp;"},","# "&amp;B65)</f>
         <v xml:space="preserve">  "rotation": {"measurement_type": 0x3F, "accuracy_decimals": 1, "unit_of_measurement": "°"},</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -8271,48 +8064,44 @@
       <c r="H66" t="s">
         <v>232</v>
       </c>
-      <c r="I66" t="str">
-        <f t="shared" ref="I66:I81" si="17">IF(N66&gt;0," || obj_meas_type == "&amp;B66,"")</f>
-        <v/>
-      </c>
       <c r="J66" t="b">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK(D66),"NA",NOT(ISERR(FIND("True =",G66))))</f>
         <v>0</v>
       </c>
       <c r="K66" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f>C66&amp;J66</f>
         <v>distance (mm)FALSE</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L81" si="18">_xlfn.NUMBERVALUE(IFERROR(MID(D66,FIND("(",D66)+1,1),0))</f>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D66,FIND("(",D66)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66:M81" si="19">IF(MID(D66,1,4)="sint",1,0)</f>
+        <f>IF(MID(D66,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N81" si="20">IFERROR(ABS(LOG10(E66)),0)</f>
+        <f>IFERROR(ABS(LOG10(E66)),0)</f>
         <v>0</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>02</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" ref="Q66:Q81" si="21">"0x"&amp;O66&amp;","&amp;CHAR(9)&amp;" // "&amp;B66&amp;" | "&amp;C66&amp;" | "&amp;D66&amp;" | datatype: "&amp;M66&amp;" | factor_exp10: "&amp;E66&amp;" | example: "&amp;F66</f>
+        <f>"0x"&amp;O66&amp;","&amp;CHAR(9)&amp;" // "&amp;B66&amp;" | "&amp;C66&amp;" | "&amp;D66&amp;" | datatype: "&amp;M66&amp;" | factor_exp10: "&amp;E66&amp;" | example: "&amp;F66</f>
         <v>0x02,	 // 0x40 | distance (mm) | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 400C00</v>
       </c>
       <c r="R66" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C66," ","_"),".","_"),"(",""),")","")</f>
         <v>distance_mm</v>
       </c>
       <c r="S66" s="9" t="str">
-        <f t="shared" si="10"/>
+        <f>"  "&amp;IF(OR(J66=TRUE,J66=FALSE),""""&amp;R66&amp;""": {""measurement_type"": "&amp;B66&amp;IF(NOT(ISBLANK(P66)),", ""device_class"": "&amp;P66,"")&amp;IF(J66=FALSE,", ""accuracy_decimals"": "&amp;N66&amp;", ""unit_of_measurement"": """&amp;H66&amp;"""","")&amp;"},","# "&amp;B66)</f>
         <v xml:space="preserve">  "distance_mm": {"measurement_type": 0x40, "accuracy_decimals": 0, "unit_of_measurement": "mm"},</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -8338,48 +8127,44 @@
       <c r="H67" t="s">
         <v>235</v>
       </c>
-      <c r="I67" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x41</v>
-      </c>
       <c r="J67" t="b">
-        <f t="shared" ref="J67:J81" si="22">IF(ISBLANK(D67),"NA",NOT(ISERR(FIND("True =",G67))))</f>
+        <f>IF(ISBLANK(D67),"NA",NOT(ISERR(FIND("True =",G67))))</f>
         <v>0</v>
       </c>
       <c r="K67" s="4" t="str">
-        <f t="shared" ref="K67:K81" si="23">C67&amp;J67</f>
+        <f>C67&amp;J67</f>
         <v>distance (m)FALSE</v>
       </c>
       <c r="L67">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D67,FIND("(",D67)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M67">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D67,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E67)),0)</f>
         <v>1</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O81" si="24">DEC2HEX(L67+_xlfn.BITLSHIFT(M67,3)+_xlfn.BITLSHIFT(N67,5),2)</f>
+        <f t="shared" ref="O67:O81" si="2">DEC2HEX(L67+_xlfn.BITLSHIFT(M67,3)+_xlfn.BITLSHIFT(N67,5),2)</f>
         <v>22</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O67&amp;","&amp;CHAR(9)&amp;" // "&amp;B67&amp;" | "&amp;C67&amp;" | "&amp;D67&amp;" | datatype: "&amp;M67&amp;" | factor_exp10: "&amp;E67&amp;" | example: "&amp;F67</f>
         <v>0x22,	 // 0x41 | distance (m) | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.1 | example: 414E00</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C67," ","_"),".","_"),"(",""),")","")</f>
         <v>distance_m</v>
       </c>
       <c r="S67" s="9" t="str">
-        <f t="shared" ref="S67:S81" si="25">"  "&amp;IF(OR(J67=TRUE,J67=FALSE),""""&amp;R67&amp;""": {""measurement_type"": "&amp;B67&amp;IF(NOT(ISBLANK(P67)),", ""device_class"": "&amp;P67,"")&amp;IF(J67=FALSE,", ""accuracy_decimals"": "&amp;N67&amp;", ""unit_of_measurement"": """&amp;H67&amp;"""","")&amp;"},","# "&amp;B67)</f>
+        <f>"  "&amp;IF(OR(J67=TRUE,J67=FALSE),""""&amp;R67&amp;""": {""measurement_type"": "&amp;B67&amp;IF(NOT(ISBLANK(P67)),", ""device_class"": "&amp;P67,"")&amp;IF(J67=FALSE,", ""accuracy_decimals"": "&amp;N67&amp;", ""unit_of_measurement"": """&amp;H67&amp;"""","")&amp;"},","# "&amp;B67)</f>
         <v xml:space="preserve">  "distance_m": {"measurement_type": 0x41, "accuracy_decimals": 1, "unit_of_measurement": "m"},</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -8405,48 +8190,44 @@
       <c r="H68" t="s">
         <v>239</v>
       </c>
-      <c r="I68" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x42</v>
-      </c>
       <c r="J68" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D68),"NA",NOT(ISERR(FIND("True =",G68))))</f>
         <v>0</v>
       </c>
       <c r="K68" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C68&amp;J68</f>
         <v>durationFALSE</v>
       </c>
       <c r="L68">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D68,FIND("(",D68)+1,1),0))</f>
         <v>3</v>
       </c>
       <c r="M68">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D68,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N68">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E68)),0)</f>
         <v>3</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O68&amp;","&amp;CHAR(9)&amp;" // "&amp;B68&amp;" | "&amp;C68&amp;" | "&amp;D68&amp;" | datatype: "&amp;M68&amp;" | factor_exp10: "&amp;E68&amp;" | example: "&amp;F68</f>
         <v>0x63,	 // 0x42 | duration | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 424E3400</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C68," ","_"),".","_"),"(",""),")","")</f>
         <v>duration</v>
       </c>
       <c r="S68" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J68=TRUE,J68=FALSE),""""&amp;R68&amp;""": {""measurement_type"": "&amp;B68&amp;IF(NOT(ISBLANK(P68)),", ""device_class"": "&amp;P68,"")&amp;IF(J68=FALSE,", ""accuracy_decimals"": "&amp;N68&amp;", ""unit_of_measurement"": """&amp;H68&amp;"""","")&amp;"},","# "&amp;B68)</f>
         <v xml:space="preserve">  "duration": {"measurement_type": 0x42, "accuracy_decimals": 3, "unit_of_measurement": "s"},</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -8472,51 +8253,47 @@
       <c r="H69" t="s">
         <v>227</v>
       </c>
-      <c r="I69" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x43</v>
-      </c>
       <c r="J69" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D69),"NA",NOT(ISERR(FIND("True =",G69))))</f>
         <v>0</v>
       </c>
       <c r="K69" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C69&amp;J69</f>
         <v>currentFALSE</v>
       </c>
       <c r="L69">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D69,FIND("(",D69)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M69">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D69,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N69">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E69)),0)</f>
         <v>3</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="P69" t="s">
         <v>359</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O69&amp;","&amp;CHAR(9)&amp;" // "&amp;B69&amp;" | "&amp;C69&amp;" | "&amp;D69&amp;" | datatype: "&amp;M69&amp;" | factor_exp10: "&amp;E69&amp;" | example: "&amp;F69</f>
         <v>0x62,	 // 0x43 | current | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 434E34</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C69," ","_"),".","_"),"(",""),")","")</f>
         <v>current</v>
       </c>
       <c r="S69" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J69=TRUE,J69=FALSE),""""&amp;R69&amp;""": {""measurement_type"": "&amp;B69&amp;IF(NOT(ISBLANK(P69)),", ""device_class"": "&amp;P69,"")&amp;IF(J69=FALSE,", ""accuracy_decimals"": "&amp;N69&amp;", ""unit_of_measurement"": """&amp;H69&amp;"""","")&amp;"},","# "&amp;B69)</f>
         <v xml:space="preserve">  "current": {"measurement_type": 0x43, "device_class": DEVICE_CLASS_CURRENT, "accuracy_decimals": 3, "unit_of_measurement": "A"},</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -8542,48 +8319,44 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="I70" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x44</v>
-      </c>
       <c r="J70" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D70),"NA",NOT(ISERR(FIND("True =",G70))))</f>
         <v>0</v>
       </c>
       <c r="K70" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C70&amp;J70</f>
         <v>speedFALSE</v>
       </c>
       <c r="L70">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D70,FIND("(",D70)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M70">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D70,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N70">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E70)),0)</f>
         <v>2</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O70&amp;","&amp;CHAR(9)&amp;" // "&amp;B70&amp;" | "&amp;C70&amp;" | "&amp;D70&amp;" | datatype: "&amp;M70&amp;" | factor_exp10: "&amp;E70&amp;" | example: "&amp;F70</f>
         <v>0x42,	 // 0x44 | speed | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 444E34</v>
       </c>
       <c r="R70" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C70," ","_"),".","_"),"(",""),")","")</f>
         <v>speed</v>
       </c>
       <c r="S70" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J70=TRUE,J70=FALSE),""""&amp;R70&amp;""": {""measurement_type"": "&amp;B70&amp;IF(NOT(ISBLANK(P70)),", ""device_class"": "&amp;P70,"")&amp;IF(J70=FALSE,", ""accuracy_decimals"": "&amp;N70&amp;", ""unit_of_measurement"": """&amp;H70&amp;"""","")&amp;"},","# "&amp;B70)</f>
         <v xml:space="preserve">  "speed": {"measurement_type": 0x44, "accuracy_decimals": 2, "unit_of_measurement": "m/s"},</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -8609,51 +8382,47 @@
       <c r="H71" t="s">
         <v>12</v>
       </c>
-      <c r="I71" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x45</v>
-      </c>
       <c r="J71" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D71),"NA",NOT(ISERR(FIND("True =",G71))))</f>
         <v>0</v>
       </c>
       <c r="K71" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C71&amp;J71</f>
         <v>temperature coarseFALSE</v>
       </c>
       <c r="L71">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D71,FIND("(",D71)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M71">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D71,1,4)="sint",1,0)</f>
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E71)),0)</f>
         <v>1</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>2A</v>
       </c>
       <c r="P71" t="s">
         <v>205</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O71&amp;","&amp;CHAR(9)&amp;" // "&amp;B71&amp;" | "&amp;C71&amp;" | "&amp;D71&amp;" | datatype: "&amp;M71&amp;" | factor_exp10: "&amp;E71&amp;" | example: "&amp;F71</f>
         <v>0x2A,	 // 0x45 | temperature coarse | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.1 | example: 451101</v>
       </c>
       <c r="R71" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C71," ","_"),".","_"),"(",""),")","")</f>
         <v>temperature_coarse</v>
       </c>
       <c r="S71" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J71=TRUE,J71=FALSE),""""&amp;R71&amp;""": {""measurement_type"": "&amp;B71&amp;IF(NOT(ISBLANK(P71)),", ""device_class"": "&amp;P71,"")&amp;IF(J71=FALSE,", ""accuracy_decimals"": "&amp;N71&amp;", ""unit_of_measurement"": """&amp;H71&amp;"""","")&amp;"},","# "&amp;B71)</f>
         <v xml:space="preserve">  "temperature_coarse": {"measurement_type": 0x45, "device_class": DEVICE_CLASS_TEMPERATURE, "accuracy_decimals": 1, "unit_of_measurement": "°C"},</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -8676,48 +8445,44 @@
       <c r="G72">
         <v>5</v>
       </c>
-      <c r="I72" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x46</v>
-      </c>
       <c r="J72" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D72),"NA",NOT(ISERR(FIND("True =",G72))))</f>
         <v>0</v>
       </c>
       <c r="K72" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C72&amp;J72</f>
         <v>UV indexFALSE</v>
       </c>
       <c r="L72">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D72,FIND("(",D72)+1,1),0))</f>
         <v>1</v>
       </c>
       <c r="M72">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D72,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N72">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E72)),0)</f>
         <v>1</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O72&amp;","&amp;CHAR(9)&amp;" // "&amp;B72&amp;" | "&amp;C72&amp;" | "&amp;D72&amp;" | datatype: "&amp;M72&amp;" | factor_exp10: "&amp;E72&amp;" | example: "&amp;F72</f>
         <v>0x21,	 // 0x46 | UV index | uint8 (1 byte) | datatype: 0 | factor_exp10: 0.1 | example: 4632</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C72," ","_"),".","_"),"(",""),")","")</f>
         <v>UV_index</v>
       </c>
       <c r="S72" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J72=TRUE,J72=FALSE),""""&amp;R72&amp;""": {""measurement_type"": "&amp;B72&amp;IF(NOT(ISBLANK(P72)),", ""device_class"": "&amp;P72,"")&amp;IF(J72=FALSE,", ""accuracy_decimals"": "&amp;N72&amp;", ""unit_of_measurement"": """&amp;H72&amp;"""","")&amp;"},","# "&amp;B72)</f>
         <v xml:space="preserve">  "UV_index": {"measurement_type": 0x46, "accuracy_decimals": 1, "unit_of_measurement": ""},</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -8743,48 +8508,44 @@
       <c r="H73" t="s">
         <v>274</v>
       </c>
-      <c r="I73" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x47</v>
-      </c>
       <c r="J73" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D73),"NA",NOT(ISERR(FIND("True =",G73))))</f>
         <v>0</v>
       </c>
       <c r="K73" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C73&amp;J73</f>
         <v>volumeFALSE</v>
       </c>
       <c r="L73">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D73,FIND("(",D73)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M73">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D73,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N73">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E73)),0)</f>
         <v>1</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O73&amp;","&amp;CHAR(9)&amp;" // "&amp;B73&amp;" | "&amp;C73&amp;" | "&amp;D73&amp;" | datatype: "&amp;M73&amp;" | factor_exp10: "&amp;E73&amp;" | example: "&amp;F73</f>
         <v>0x22,	 // 0x47 | volume | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.1 | example: 478756</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C73," ","_"),".","_"),"(",""),")","")</f>
         <v>volume</v>
       </c>
       <c r="S73" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J73=TRUE,J73=FALSE),""""&amp;R73&amp;""": {""measurement_type"": "&amp;B73&amp;IF(NOT(ISBLANK(P73)),", ""device_class"": "&amp;P73,"")&amp;IF(J73=FALSE,", ""accuracy_decimals"": "&amp;N73&amp;", ""unit_of_measurement"": """&amp;H73&amp;"""","")&amp;"},","# "&amp;B73)</f>
         <v xml:space="preserve">  "volume": {"measurement_type": 0x47, "accuracy_decimals": 1, "unit_of_measurement": "L"},</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -8810,48 +8571,44 @@
       <c r="H74" t="s">
         <v>278</v>
       </c>
-      <c r="I74" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
       <c r="J74" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D74),"NA",NOT(ISERR(FIND("True =",G74))))</f>
         <v>0</v>
       </c>
       <c r="K74" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C74&amp;J74</f>
         <v>volume courseFALSE</v>
       </c>
       <c r="L74">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D74,FIND("(",D74)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M74">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D74,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N74">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E74)),0)</f>
         <v>0</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>02</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O74&amp;","&amp;CHAR(9)&amp;" // "&amp;B74&amp;" | "&amp;C74&amp;" | "&amp;D74&amp;" | datatype: "&amp;M74&amp;" | factor_exp10: "&amp;E74&amp;" | example: "&amp;F74</f>
         <v>0x02,	 // 0x48 | volume course | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 48DC87</v>
       </c>
       <c r="R74" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C74," ","_"),".","_"),"(",""),")","")</f>
         <v>volume_course</v>
       </c>
       <c r="S74" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J74=TRUE,J74=FALSE),""""&amp;R74&amp;""": {""measurement_type"": "&amp;B74&amp;IF(NOT(ISBLANK(P74)),", ""device_class"": "&amp;P74,"")&amp;IF(J74=FALSE,", ""accuracy_decimals"": "&amp;N74&amp;", ""unit_of_measurement"": """&amp;H74&amp;"""","")&amp;"},","# "&amp;B74)</f>
         <v xml:space="preserve">  "volume_course": {"measurement_type": 0x48, "accuracy_decimals": 0, "unit_of_measurement": "mL"},</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -8877,48 +8634,44 @@
       <c r="H75" t="s">
         <v>282</v>
       </c>
-      <c r="I75" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x49</v>
-      </c>
       <c r="J75" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D75),"NA",NOT(ISERR(FIND("True =",G75))))</f>
         <v>0</v>
       </c>
       <c r="K75" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C75&amp;J75</f>
         <v>volume Flow RateFALSE</v>
       </c>
       <c r="L75">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D75,FIND("(",D75)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M75">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D75,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N75">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E75)),0)</f>
         <v>3</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O75&amp;","&amp;CHAR(9)&amp;" // "&amp;B75&amp;" | "&amp;C75&amp;" | "&amp;D75&amp;" | datatype: "&amp;M75&amp;" | factor_exp10: "&amp;E75&amp;" | example: "&amp;F75</f>
         <v>0x62,	 // 0x49 | volume Flow Rate | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 49DC87</v>
       </c>
       <c r="R75" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C75," ","_"),".","_"),"(",""),")","")</f>
         <v>volume_Flow_Rate</v>
       </c>
       <c r="S75" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J75=TRUE,J75=FALSE),""""&amp;R75&amp;""": {""measurement_type"": "&amp;B75&amp;IF(NOT(ISBLANK(P75)),", ""device_class"": "&amp;P75,"")&amp;IF(J75=FALSE,", ""accuracy_decimals"": "&amp;N75&amp;", ""unit_of_measurement"": """&amp;H75&amp;"""","")&amp;"},","# "&amp;B75)</f>
         <v xml:space="preserve">  "volume_Flow_Rate": {"measurement_type": 0x49, "accuracy_decimals": 3, "unit_of_measurement": "m3/hr"},</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -8944,48 +8697,44 @@
       <c r="H76" t="s">
         <v>48</v>
       </c>
-      <c r="I76" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x4A</v>
-      </c>
       <c r="J76" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D76),"NA",NOT(ISERR(FIND("True =",G76))))</f>
         <v>0</v>
       </c>
       <c r="K76" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C76&amp;J76</f>
         <v>voltage coarseFALSE</v>
       </c>
       <c r="L76">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D76,FIND("(",D76)+1,1),0))</f>
         <v>2</v>
       </c>
       <c r="M76">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D76,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N76">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E76)),0)</f>
         <v>1</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O76&amp;","&amp;CHAR(9)&amp;" // "&amp;B76&amp;" | "&amp;C76&amp;" | "&amp;D76&amp;" | datatype: "&amp;M76&amp;" | factor_exp10: "&amp;E76&amp;" | example: "&amp;F76</f>
         <v>0x22,	 // 0x4A | voltage coarse | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.1 | example: 4A020C</v>
       </c>
       <c r="R76" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C76," ","_"),".","_"),"(",""),")","")</f>
         <v>voltage_coarse</v>
       </c>
       <c r="S76" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J76=TRUE,J76=FALSE),""""&amp;R76&amp;""": {""measurement_type"": "&amp;B76&amp;IF(NOT(ISBLANK(P76)),", ""device_class"": "&amp;P76,"")&amp;IF(J76=FALSE,", ""accuracy_decimals"": "&amp;N76&amp;", ""unit_of_measurement"": """&amp;H76&amp;"""","")&amp;"},","# "&amp;B76)</f>
         <v xml:space="preserve">  "voltage_coarse": {"measurement_type": 0x4A, "accuracy_decimals": 1, "unit_of_measurement": "V"},</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -9011,51 +8760,47 @@
       <c r="H77" t="s">
         <v>246</v>
       </c>
-      <c r="I77" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x4B</v>
-      </c>
       <c r="J77" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D77),"NA",NOT(ISERR(FIND("True =",G77))))</f>
         <v>0</v>
       </c>
       <c r="K77" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C77&amp;J77</f>
         <v>gasFALSE</v>
       </c>
       <c r="L77">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D77,FIND("(",D77)+1,1),0))</f>
         <v>3</v>
       </c>
       <c r="M77">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D77,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N77">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E77)),0)</f>
         <v>3</v>
       </c>
       <c r="O77" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="P77" t="s">
         <v>358</v>
       </c>
       <c r="Q77" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O77&amp;","&amp;CHAR(9)&amp;" // "&amp;B77&amp;" | "&amp;C77&amp;" | "&amp;D77&amp;" | datatype: "&amp;M77&amp;" | factor_exp10: "&amp;E77&amp;" | example: "&amp;F77</f>
         <v>0x63,	 // 0x4B | gas | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4B138A14</v>
       </c>
       <c r="R77" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C77," ","_"),".","_"),"(",""),")","")</f>
         <v>gas</v>
       </c>
       <c r="S77" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J77=TRUE,J77=FALSE),""""&amp;R77&amp;""": {""measurement_type"": "&amp;B77&amp;IF(NOT(ISBLANK(P77)),", ""device_class"": "&amp;P77,"")&amp;IF(J77=FALSE,", ""accuracy_decimals"": "&amp;N77&amp;", ""unit_of_measurement"": """&amp;H77&amp;"""","")&amp;"},","# "&amp;B77)</f>
         <v xml:space="preserve">  "gas": {"measurement_type": 0x4B, "device_class": DEVICE_CLASS_GAS, "accuracy_decimals": 3, "unit_of_measurement": "m3"},</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -9081,53 +8826,49 @@
       <c r="H78" t="s">
         <v>246</v>
       </c>
-      <c r="I78" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x4C</v>
-      </c>
       <c r="J78" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D78),"NA",NOT(ISERR(FIND("True =",G78))))</f>
         <v>0</v>
       </c>
       <c r="K78" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C78&amp;J78</f>
         <v>gas largeFALSE</v>
       </c>
       <c r="L78">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D78,FIND("(",D78)+1,1),0))</f>
         <v>4</v>
       </c>
       <c r="M78">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D78,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N78">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E78)),0)</f>
         <v>3</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="P78" t="s">
         <v>358</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O78&amp;","&amp;CHAR(9)&amp;" // "&amp;B78&amp;" | "&amp;C78&amp;" | "&amp;D78&amp;" | datatype: "&amp;M78&amp;" | factor_exp10: "&amp;E78&amp;" | example: "&amp;F78</f>
         <v>0x64,	 // 0x4C | gas large | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4C41018A01</v>
       </c>
       <c r="R78" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C78," ","_"),".","_"),"(",""),")","")</f>
         <v>gas_large</v>
       </c>
       <c r="S78" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J78=TRUE,J78=FALSE),""""&amp;R78&amp;""": {""measurement_type"": "&amp;B78&amp;IF(NOT(ISBLANK(P78)),", ""device_class"": "&amp;P78,"")&amp;IF(J78=FALSE,", ""accuracy_decimals"": "&amp;N78&amp;", ""unit_of_measurement"": """&amp;H78&amp;"""","")&amp;"},","# "&amp;B78)</f>
         <v xml:space="preserve">  "gas_large": {"measurement_type": 0x4C, "device_class": DEVICE_CLASS_GAS, "accuracy_decimals": 3, "unit_of_measurement": "m3"},</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" ref="A79:A81" si="26">HEX2DEC(SUBSTITUTE(B79,"0x",""))</f>
+        <f t="shared" ref="A79:A84" si="3">HEX2DEC(SUBSTITUTE(B79,"0x",""))</f>
         <v>77</v>
       </c>
       <c r="B79" t="s">
@@ -9151,53 +8892,49 @@
       <c r="H79" t="s">
         <v>40</v>
       </c>
-      <c r="I79" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x4D</v>
-      </c>
       <c r="J79" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D79),"NA",NOT(ISERR(FIND("True =",G79))))</f>
         <v>0</v>
       </c>
       <c r="K79" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C79&amp;J79</f>
         <v>energy coarseFALSE</v>
       </c>
       <c r="L79">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D79,FIND("(",D79)+1,1),0))</f>
         <v>4</v>
       </c>
       <c r="M79">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D79,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N79">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E79)),0)</f>
         <v>3</v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="P79" t="s">
         <v>209</v>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O79&amp;","&amp;CHAR(9)&amp;" // "&amp;B79&amp;" | "&amp;C79&amp;" | "&amp;D79&amp;" | datatype: "&amp;M79&amp;" | factor_exp10: "&amp;E79&amp;" | example: "&amp;F79</f>
         <v>0x64,	 // 0x4D | energy coarse | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4d12138a14</v>
       </c>
       <c r="R79" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C79," ","_"),".","_"),"(",""),")","")</f>
         <v>energy_coarse</v>
       </c>
       <c r="S79" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J79=TRUE,J79=FALSE),""""&amp;R79&amp;""": {""measurement_type"": "&amp;B79&amp;IF(NOT(ISBLANK(P79)),", ""device_class"": "&amp;P79,"")&amp;IF(J79=FALSE,", ""accuracy_decimals"": "&amp;N79&amp;", ""unit_of_measurement"": """&amp;H79&amp;"""","")&amp;"},","# "&amp;B79)</f>
         <v xml:space="preserve">  "energy_coarse": {"measurement_type": 0x4D, "device_class": DEVICE_CLASS_ENERGY, "accuracy_decimals": 3, "unit_of_measurement": "kWh"},</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B80" t="s">
@@ -9221,50 +8958,46 @@
       <c r="H80" t="s">
         <v>274</v>
       </c>
-      <c r="I80" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x4E</v>
-      </c>
       <c r="J80" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D80),"NA",NOT(ISERR(FIND("True =",G80))))</f>
         <v>0</v>
       </c>
       <c r="K80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C80&amp;J80</f>
         <v>volume preciseFALSE</v>
       </c>
       <c r="L80">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D80,FIND("(",D80)+1,1),0))</f>
         <v>4</v>
       </c>
       <c r="M80">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D80,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N80">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E80)),0)</f>
         <v>3</v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O80&amp;","&amp;CHAR(9)&amp;" // "&amp;B80&amp;" | "&amp;C80&amp;" | "&amp;D80&amp;" | datatype: "&amp;M80&amp;" | factor_exp10: "&amp;E80&amp;" | example: "&amp;F80</f>
         <v>0x64,	 // 0x4E | volume precise | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4E87562A01</v>
       </c>
       <c r="R80" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C80," ","_"),".","_"),"(",""),")","")</f>
         <v>volume_precise</v>
       </c>
       <c r="S80" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J80=TRUE,J80=FALSE),""""&amp;R80&amp;""": {""measurement_type"": "&amp;B80&amp;IF(NOT(ISBLANK(P80)),", ""device_class"": "&amp;P80,"")&amp;IF(J80=FALSE,", ""accuracy_decimals"": "&amp;N80&amp;", ""unit_of_measurement"": """&amp;H80&amp;"""","")&amp;"},","# "&amp;B80)</f>
         <v xml:space="preserve">  "volume_precise": {"measurement_type": 0x4E, "accuracy_decimals": 3, "unit_of_measurement": "L"},</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B81" t="s">
@@ -9288,252 +9021,445 @@
       <c r="H81" t="s">
         <v>274</v>
       </c>
-      <c r="I81" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> || obj_meas_type == 0x4F</v>
-      </c>
       <c r="J81" t="b">
-        <f t="shared" si="22"/>
+        <f>IF(ISBLANK(D81),"NA",NOT(ISERR(FIND("True =",G81))))</f>
         <v>0</v>
       </c>
       <c r="K81" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f>C81&amp;J81</f>
         <v>waterFALSE</v>
       </c>
       <c r="L81">
-        <f t="shared" si="18"/>
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D81,FIND("(",D81)+1,1),0))</f>
         <v>4</v>
       </c>
       <c r="M81">
-        <f t="shared" si="19"/>
+        <f>IF(MID(D81,1,4)="sint",1,0)</f>
         <v>0</v>
       </c>
       <c r="N81">
-        <f t="shared" si="20"/>
+        <f>IFERROR(ABS(LOG10(E81)),0)</f>
         <v>3</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" si="21"/>
+        <f>"0x"&amp;O81&amp;","&amp;CHAR(9)&amp;" // "&amp;B81&amp;" | "&amp;C81&amp;" | "&amp;D81&amp;" | datatype: "&amp;M81&amp;" | factor_exp10: "&amp;E81&amp;" | example: "&amp;F81</f>
         <v>0x64,	 // 0x4F | water | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4F87562A01</v>
       </c>
       <c r="R81" t="str">
-        <f t="shared" si="16"/>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C81," ","_"),".","_"),"(",""),")","")</f>
         <v>water</v>
       </c>
       <c r="S81" s="9" t="str">
-        <f t="shared" si="25"/>
+        <f>"  "&amp;IF(OR(J81=TRUE,J81=FALSE),""""&amp;R81&amp;""": {""measurement_type"": "&amp;B81&amp;IF(NOT(ISBLANK(P81)),", ""device_class"": "&amp;P81,"")&amp;IF(J81=FALSE,", ""accuracy_decimals"": "&amp;N81&amp;", ""unit_of_measurement"": """&amp;H81&amp;"""","")&amp;"},","# "&amp;B81)</f>
         <v xml:space="preserve">  "water": {"measurement_type": 0x4F, "accuracy_decimals": 3, "unit_of_measurement": "L"},</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F82"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F83"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>394</v>
+      </c>
+      <c r="C82" t="s">
+        <v>395</v>
+      </c>
+      <c r="D82" t="s">
+        <v>396</v>
+      </c>
+      <c r="E82" t="s">
+        <v>397</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G82" t="s">
+        <v>399</v>
+      </c>
+      <c r="H82" t="s">
+        <v>239</v>
+      </c>
+      <c r="J82" t="b">
+        <f>IF(ISBLANK(D82),"NA",NOT(ISERR(FIND("True =",G82))))</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="4" t="str">
+        <f>C82&amp;J82</f>
+        <v>timestampFALSE</v>
+      </c>
+      <c r="L82">
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D82,FIND("(",D82)+1,1),0))</f>
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <f>IF(MID(D82,1,4)="sint",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f>IFERROR(ABS(LOG10(E82)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" ref="O82:O84" si="4">DEC2HEX(L82+_xlfn.BITLSHIFT(M82,3)+_xlfn.BITLSHIFT(N82,5),2)</f>
+        <v>04</v>
+      </c>
+      <c r="P82" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q82" t="str">
+        <f>"0x"&amp;O82&amp;","&amp;CHAR(9)&amp;" // "&amp;B82&amp;" | "&amp;C82&amp;" | "&amp;D82&amp;" | datatype: "&amp;M82&amp;" | factor_exp10: "&amp;E82&amp;" | example: "&amp;F82</f>
+        <v>0x04,	 // 0x50 | timestamp | uint48 (4 bytes) | datatype: 0 | factor_exp10: - | example: 505396164</v>
+      </c>
+      <c r="R82" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C82," ","_"),".","_"),"(",""),")","")</f>
+        <v>timestamp</v>
+      </c>
+      <c r="S82" s="9" t="str">
+        <f>"  "&amp;IF(OR(J82=TRUE,J82=FALSE),""""&amp;R82&amp;""": {""measurement_type"": "&amp;B82&amp;IF(NOT(ISBLANK(P82)),", ""device_class"": "&amp;P82,"")&amp;IF(J82=FALSE,", ""accuracy_decimals"": "&amp;N82&amp;", ""unit_of_measurement"": """&amp;H82&amp;"""","")&amp;"},","# "&amp;B82)</f>
+        <v xml:space="preserve">  "timestamp": {"measurement_type": 0x50, "device_class": DEVICE_CLASS_TIMESTAMP, "accuracy_decimals": 0, "unit_of_measurement": "s"},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>400</v>
+      </c>
+      <c r="C83" t="s">
+        <v>401</v>
+      </c>
+      <c r="D83" t="s">
+        <v>402</v>
+      </c>
+      <c r="E83">
+        <v>1E-3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G83">
+        <v>22.151</v>
+      </c>
+      <c r="H83" t="s">
+        <v>403</v>
+      </c>
+      <c r="J83" t="b">
+        <f>IF(ISBLANK(D83),"NA",NOT(ISERR(FIND("True =",G83))))</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="4" t="str">
+        <f>C83&amp;J83</f>
+        <v>accelerationFALSE</v>
+      </c>
+      <c r="L83">
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D83,FIND("(",D83)+1,1),0))</f>
+        <v>2</v>
+      </c>
+      <c r="M83">
+        <f>IF(MID(D83,1,4)="sint",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <f>IFERROR(ABS(LOG10(E83)),0)</f>
+        <v>3</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="Q83" t="str">
+        <f>"0x"&amp;O83&amp;","&amp;CHAR(9)&amp;" // "&amp;B83&amp;" | "&amp;C83&amp;" | "&amp;D83&amp;" | datatype: "&amp;M83&amp;" | factor_exp10: "&amp;E83&amp;" | example: "&amp;F83</f>
+        <v>0x62,	 // 0x51 | acceleration | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 518756</v>
+      </c>
+      <c r="R83" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C83," ","_"),".","_"),"(",""),")","")</f>
+        <v>acceleration</v>
+      </c>
+      <c r="S83" s="9" t="str">
+        <f>"  "&amp;IF(OR(J83=TRUE,J83=FALSE),""""&amp;R83&amp;""": {""measurement_type"": "&amp;B83&amp;IF(NOT(ISBLANK(P83)),", ""device_class"": "&amp;P83,"")&amp;IF(J83=FALSE,", ""accuracy_decimals"": "&amp;N83&amp;", ""unit_of_measurement"": """&amp;H83&amp;"""","")&amp;"},","# "&amp;B83)</f>
+        <v xml:space="preserve">  "acceleration": {"measurement_type": 0x51, "accuracy_decimals": 3, "unit_of_measurement": "m/s²"},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
       <c r="B84" t="s">
+        <v>405</v>
+      </c>
+      <c r="C84" t="s">
+        <v>406</v>
+      </c>
+      <c r="D84" t="s">
+        <v>402</v>
+      </c>
+      <c r="E84">
+        <v>1E-3</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G84">
+        <v>22.151</v>
+      </c>
+      <c r="H84" t="s">
+        <v>407</v>
+      </c>
+      <c r="J84" t="b">
+        <f>IF(ISBLANK(D84),"NA",NOT(ISERR(FIND("True =",G84))))</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="4" t="str">
+        <f>C84&amp;J84</f>
+        <v>gyroscopeFALSE</v>
+      </c>
+      <c r="L84">
+        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D84,FIND("(",D84)+1,1),0))</f>
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <f>IF(MID(D84,1,4)="sint",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <f>IFERROR(ABS(LOG10(E84)),0)</f>
+        <v>3</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="Q84" t="str">
+        <f>"0x"&amp;O84&amp;","&amp;CHAR(9)&amp;" // "&amp;B84&amp;" | "&amp;C84&amp;" | "&amp;D84&amp;" | datatype: "&amp;M84&amp;" | factor_exp10: "&amp;E84&amp;" | example: "&amp;F84</f>
+        <v>0x62,	 // 0x52 | gyroscope | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 528756</v>
+      </c>
+      <c r="R84" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C84," ","_"),".","_"),"(",""),")","")</f>
+        <v>gyroscope</v>
+      </c>
+      <c r="S84" s="9" t="str">
+        <f>"  "&amp;IF(OR(J84=TRUE,J84=FALSE),""""&amp;R84&amp;""": {""measurement_type"": "&amp;B84&amp;IF(NOT(ISBLANK(P84)),", ""device_class"": "&amp;P84,"")&amp;IF(J84=FALSE,", ""accuracy_decimals"": "&amp;N84&amp;", ""unit_of_measurement"": """&amp;H84&amp;"""","")&amp;"},","# "&amp;B84)</f>
+        <v xml:space="preserve">  "gyroscope": {"measurement_type": 0x52, "accuracy_decimals": 3, "unit_of_measurement": "°/s"},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S85" s="9"/>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F86"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F87"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>178</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C88" t="s">
         <v>197</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D88" t="s">
         <v>198</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E88" t="s">
         <v>199</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F88" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G88" t="s">
         <v>3</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H88" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" ref="A85" si="27">HEX2DEC(SUBSTITUTE(B85,"0x",""))</f>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" ref="A89" si="5">HEX2DEC(SUBSTITUTE(B89,"0x",""))</f>
         <v>58</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B89" t="s">
         <v>152</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C89" t="s">
         <v>153</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D89" t="s">
         <v>150</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E89" t="s">
         <v>154</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G89" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
         <v>6</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E90" t="s">
         <v>156</v>
-      </c>
-      <c r="F86"/>
-      <c r="G86" t="s">
-        <v>328</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" t="s">
-        <v>158</v>
-      </c>
-      <c r="F87"/>
-      <c r="G87" t="s">
-        <v>329</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" t="s">
-        <v>160</v>
-      </c>
-      <c r="F88"/>
-      <c r="G88" t="s">
-        <v>330</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" t="s">
-        <v>162</v>
-      </c>
-      <c r="F89"/>
-      <c r="G89" t="s">
-        <v>331</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90" t="s">
-        <v>164</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="s">
+        <v>329</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>160</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92" t="s">
+        <v>330</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>162</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93" t="s">
+        <v>331</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94" t="s">
+        <v>332</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="s">
+        <v>166</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95" t="s">
         <v>333</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H95" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" ref="A92" si="28">HEX2DEC(SUBSTITUTE(B92,"0x",""))</f>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" ref="A96" si="6">HEX2DEC(SUBSTITUTE(B96,"0x",""))</f>
         <v>60</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B96" t="s">
         <v>168</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C96" t="s">
         <v>169</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D96" t="s">
         <v>150</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E96" t="s">
         <v>154</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G96" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
+    <row r="97" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
         <v>6</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E97" t="s">
         <v>171</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F97" t="s">
         <v>172</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G97" t="s">
         <v>335</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
         <v>9</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E98" t="s">
         <v>175</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F98" t="s">
         <v>172</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G98" t="s">
         <v>336</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H98" s="3" t="s">
         <v>177</v>
       </c>
+      <c r="I98" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S81" xr:uid="{28042196-756D-49C6-ACCE-21EFE4A952B1}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="TRUE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S81" xr:uid="{28042196-756D-49C6-ACCE-21EFE4A952B1}"/>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/misc/_bthome_v1.xlsx
+++ b/misc/_bthome_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I066492\OneDrive - SAP SE\Documents\user_afarago\Code\esphome\beethowen\esphome_components\bthome\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3122BAA1-6BB6-400B-922D-3AB5FB256A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E389CEB2-D152-4056-9000-EE71AA523ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0A7624A3-1B95-4732-9BD7-3FA24DFCB5DE}"/>
+    <workbookView xWindow="1470" yWindow="1245" windowWidth="16200" windowHeight="9270" activeTab="1" xr2:uid="{0A7624A3-1B95-4732-9BD7-3FA24DFCB5DE}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V1'!$A$1:$O$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'V2'!$A$1:$S$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'V2'!$A$1:$T$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="427">
   <si>
     <t>bject id</t>
   </si>
@@ -1276,6 +1276,54 @@
   </si>
   <si>
     <t>BTHomeType</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>icons</t>
+  </si>
+  <si>
+    <t>temperature-celsius</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>gauge</t>
+  </si>
+  <si>
+    <t>water-thermometer-outline</t>
+  </si>
+  <si>
+    <t>weight-kilogram</t>
+  </si>
+  <si>
+    <t>weight-pound</t>
+  </si>
+  <si>
+    <t>molecule-co2</t>
+  </si>
+  <si>
+    <t>motion-sensor</t>
+  </si>
+  <si>
+    <t>current-ac</t>
+  </si>
+  <si>
+    <t>gas-cylinder</t>
+  </si>
+  <si>
+    <t>axis-arrow</t>
+  </si>
+  <si>
+    <t>MDI-Icon</t>
+  </si>
+  <si>
+    <t>sun-wireless</t>
+  </si>
+  <si>
+    <t>lightning-bolt</t>
   </si>
 </sst>
 </file>
@@ -1688,27 +1736,27 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" customWidth="1"/>
-    <col min="16" max="16" width="62.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="16" max="16" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -1758,7 +1806,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A49" si="0">HEX2DEC(SUBSTITUTE(B2,"0x",""))</f>
         <v>0</v>
@@ -1804,7 +1852,7 @@
         <v xml:space="preserve">    "packet_id": {"measurement_type": 0x00, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1853,7 +1901,7 @@
         <v xml:space="preserve">    "battery": {"measurement_type": 0x01, "accuracy_decimals": 0, "unit_of_measurement":"%" , "device_class": DEVICE_CLASS_BATTERY},</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1906,7 +1954,7 @@
         <v xml:space="preserve">    "temperature": {"measurement_type": 0x02, "accuracy_decimals": 2, "unit_of_measurement":"°C" , "device_class": DEVICE_CLASS_TEMPERATURE},</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1959,7 +2007,7 @@
         <v xml:space="preserve">    "humidity": {"measurement_type": 0x03, "accuracy_decimals": 2, "unit_of_measurement":"%" , "device_class": DEVICE_CLASS_HUMIDITY},</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2012,7 +2060,7 @@
         <v xml:space="preserve">    "pressure": {"measurement_type": 0x04, "accuracy_decimals": 2, "unit_of_measurement":"hPa" , "device_class": DEVICE_CLASS_PRESSURE},</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2065,7 +2113,7 @@
         <v xml:space="preserve">    "illuminance": {"measurement_type": 0x05, "accuracy_decimals": 2, "unit_of_measurement":"lux" , "device_class": DEVICE_CLASS_ILLUMINANCE},</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2118,7 +2166,7 @@
         <v xml:space="preserve">    "mass_kg": {"measurement_type": 0x06, "accuracy_decimals": 2, "unit_of_measurement":"kg" , "device_class": DEVICE_CLASS_EMPTY},</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2171,7 +2219,7 @@
         <v xml:space="preserve">    "mass_lb": {"measurement_type": 0x07, "accuracy_decimals": 2, "unit_of_measurement":"lb" , "device_class": DEVICE_CLASS_EMPTY},</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2224,7 +2272,7 @@
         <v xml:space="preserve">    "dewpoint": {"measurement_type": 0x08, "accuracy_decimals": 2, "unit_of_measurement":"°C" , "device_class": DEVICE_CLASS_EMPTY},</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2270,7 +2318,7 @@
         <v xml:space="preserve">    "count": {"measurement_type": 0x09, "accuracy_decimals": 0, "unit_of_measurement":"" , "device_class": DEVICE_CLASS_EMPTY},</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2323,7 +2371,7 @@
         <v xml:space="preserve">    "energy": {"measurement_type": 0x0A, "accuracy_decimals": 3, "unit_of_measurement":"kWh" , "device_class": DEVICE_CLASS_ENERGY},</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2376,7 +2424,7 @@
         <v xml:space="preserve">    "power": {"measurement_type": 0x0B, "accuracy_decimals": 2, "unit_of_measurement":"W" , "device_class": DEVICE_CLASS_POWER},</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2429,7 +2477,7 @@
         <v xml:space="preserve">    "voltage": {"measurement_type": 0x0C, "accuracy_decimals": 3, "unit_of_measurement":"V" , "device_class": DEVICE_CLASS_VOLTAGE},</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2478,7 +2526,7 @@
         <v xml:space="preserve">    "pm2_5": {"measurement_type": 0x0D, "accuracy_decimals": 0, "unit_of_measurement":"ug/m3" , "device_class": DEVICE_CLASS_PM25},</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2527,7 +2575,7 @@
         <v xml:space="preserve">    "pm10": {"measurement_type": 0x0E, "accuracy_decimals": 0, "unit_of_measurement":"ug/m3" , "device_class": DEVICE_CLASS_PM10},</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2570,7 +2618,7 @@
         <v xml:space="preserve">    "generic_boolean": {"measurement_type": 0x0F, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2613,7 +2661,7 @@
         <v xml:space="preserve">    "power": {"measurement_type": 0x10, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2656,7 +2704,7 @@
         <v xml:space="preserve">    "opening": {"measurement_type": 0x11, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2705,7 +2753,7 @@
         <v xml:space="preserve">    "co2": {"measurement_type": 0x12, "accuracy_decimals": 0, "unit_of_measurement":"ppm" , "device_class": DEVICE_CLASS_CARBON_DIOXIDE},</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2754,7 +2802,7 @@
         <v xml:space="preserve">    "tvoc": {"measurement_type": 0x13, "accuracy_decimals": 0, "unit_of_measurement":"ug/m3" , "device_class": DEVICE_CLASS_VOLATILE_ORGANIC_COMPOUNDS},</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2807,7 +2855,7 @@
         <v xml:space="preserve">    "moisture": {"measurement_type": 0x14, "accuracy_decimals": 2, "unit_of_measurement":"%" , "device_class": DEVICE_CLASS_MOISTURE},</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2850,7 +2898,7 @@
         <v xml:space="preserve">    "battery": {"measurement_type": 0x15, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2893,7 +2941,7 @@
         <v xml:space="preserve">    "battery_charging": {"measurement_type": 0x16, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2936,7 +2984,7 @@
         <v xml:space="preserve">    "carbon_monoxide": {"measurement_type": 0x17, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2979,7 +3027,7 @@
         <v xml:space="preserve">    "cold": {"measurement_type": 0x18, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3022,7 +3070,7 @@
         <v xml:space="preserve">    "connectivity": {"measurement_type": 0x19, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3065,7 +3113,7 @@
         <v xml:space="preserve">    "door": {"measurement_type": 0x1A, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3108,7 +3156,7 @@
         <v xml:space="preserve">    "garage_door": {"measurement_type": 0x1B, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3151,7 +3199,7 @@
         <v xml:space="preserve">    "gas": {"measurement_type": 0x1C, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3194,7 +3242,7 @@
         <v xml:space="preserve">    "heat": {"measurement_type": 0x1D, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3237,7 +3285,7 @@
         <v xml:space="preserve">    "light": {"measurement_type": 0x1E, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3280,7 +3328,7 @@
         <v xml:space="preserve">    "lock": {"measurement_type": 0x1F, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3323,7 +3371,7 @@
         <v xml:space="preserve">    "moisture": {"measurement_type": 0x20, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3366,7 +3414,7 @@
         <v xml:space="preserve">    "motion": {"measurement_type": 0x21, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3409,7 +3457,7 @@
         <v xml:space="preserve">    "moving": {"measurement_type": 0x22, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3452,7 +3500,7 @@
         <v xml:space="preserve">    "occupancy": {"measurement_type": 0x23, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3495,7 +3543,7 @@
         <v xml:space="preserve">    "plug": {"measurement_type": 0x24, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3538,7 +3586,7 @@
         <v xml:space="preserve">    "presence": {"measurement_type": 0x25, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3581,7 +3629,7 @@
         <v xml:space="preserve">    "problem": {"measurement_type": 0x26, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3624,7 +3672,7 @@
         <v xml:space="preserve">    "running": {"measurement_type": 0x27, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3667,7 +3715,7 @@
         <v xml:space="preserve">    "safety": {"measurement_type": 0x28, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3710,7 +3758,7 @@
         <v xml:space="preserve">    "smoke": {"measurement_type": 0x29, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3753,7 +3801,7 @@
         <v xml:space="preserve">    "sound": {"measurement_type": 0x2A, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3796,7 +3844,7 @@
         <v xml:space="preserve">    "tamper": {"measurement_type": 0x2B, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3839,7 +3887,7 @@
         <v xml:space="preserve">    "vibration": {"measurement_type": 0x2C, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3882,7 +3930,7 @@
         <v xml:space="preserve">    "window": {"measurement_type": 0x2D, "accuracy_decimals": 0, "unit_of_measurement":""},</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3931,7 +3979,7 @@
         <v xml:space="preserve">    "humidity2": {"measurement_type": 0x2E, "accuracy_decimals": 0, "unit_of_measurement":"%" , "device_class": DEVICE_CLASS_HUMIDITY},</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3980,17 +4028,17 @@
         <v xml:space="preserve">    "moisture2": {"measurement_type": 0x2F, "accuracy_decimals": 0, "unit_of_measurement":"%" , "device_class": DEVICE_CLASS_MOISTURE},</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -4013,7 +4061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>152</v>
       </c>
@@ -4030,7 +4078,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>6</v>
       </c>
@@ -4044,7 +4092,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>9</v>
       </c>
@@ -4058,7 +4106,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>13</v>
       </c>
@@ -4072,7 +4120,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>17</v>
       </c>
@@ -4086,7 +4134,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>21</v>
       </c>
@@ -4100,7 +4148,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>25</v>
       </c>
@@ -4114,7 +4162,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>168</v>
       </c>
@@ -4131,7 +4179,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>6</v>
       </c>
@@ -4148,7 +4196,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>9</v>
       </c>
@@ -4180,34 +4228,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28042196-756D-49C6-ACCE-21EFE4A952B1}">
-  <dimension ref="A1:S98"/>
+  <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2:U84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="7.109375" customWidth="1"/>
-    <col min="17" max="18" width="16.6640625" customWidth="1"/>
-    <col min="19" max="19" width="108.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" customWidth="1"/>
+    <col min="18" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>338</v>
       </c>
@@ -4233,40 +4283,46 @@
         <v>5</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U1" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A78" si="0">HEX2DEC(SUBSTITUTE(B2,"0x",""))</f>
         <v>0</v>
@@ -4289,44 +4345,51 @@
       <c r="G2">
         <v>9</v>
       </c>
-      <c r="J2" t="b">
-        <f>IF(ISBLANK(D2),"NA",NOT(ISERR(FIND("True =",G2))))</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="str">
-        <f>C2&amp;J2</f>
+      <c r="I2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K2" t="b">
+        <f t="shared" ref="K2:K33" si="1">IF(ISBLANK(D2),"NA",NOT(ISERR(FIND("True =",G2))))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="str">
+        <f t="shared" ref="L2:L33" si="2">C2&amp;K2</f>
         <v>packet idFALSE</v>
       </c>
-      <c r="L2">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D2,FIND("(",D2)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M2">
-        <f>IF(MID(D2,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="M2:M33" si="3">_xlfn.NUMBERVALUE(IFERROR(MID(D2,FIND("(",D2)+1,1),0))</f>
+        <v>1</v>
       </c>
       <c r="N2">
-        <f>IFERROR(ABS(LOG10(E2)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" t="str">
-        <f>DEC2HEX(L2+_xlfn.BITLSHIFT(M2,3)+_xlfn.BITLSHIFT(N2,5),2)</f>
+        <f t="shared" ref="N2:N33" si="4">IF(MID(D2,1,4)="sint",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O33" si="5">IFERROR(ABS(LOG10(E2)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <f>DEC2HEX(M2+_xlfn.BITLSHIFT(N2,3)+_xlfn.BITLSHIFT(O2,5),2)</f>
         <v>01</v>
       </c>
-      <c r="Q2" t="str">
-        <f>"0x"&amp;O2&amp;","&amp;CHAR(9)&amp;" // "&amp;B2&amp;" | "&amp;C2&amp;" | "&amp;D2&amp;" | datatype: "&amp;M2&amp;" | factor_exp10: "&amp;E2&amp;" | example: "&amp;F2</f>
+      <c r="R2" t="str">
+        <f t="shared" ref="R2:R33" si="6">"0x"&amp;P2&amp;","&amp;CHAR(9)&amp;" // "&amp;B2&amp;" | "&amp;C2&amp;" | "&amp;D2&amp;" | datatype: "&amp;N2&amp;" | factor_exp10: "&amp;E2&amp;" | example: "&amp;F2</f>
         <v>0x01,	 // 0x00 | packet id | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 9</v>
       </c>
-      <c r="R2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C2," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S2" t="str">
+        <f t="shared" ref="S2:S33" si="7">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C2," ","_"),".","_"),"(",""),")","")</f>
         <v>packet_id</v>
       </c>
-      <c r="S2" s="9" t="str">
-        <f>"  "&amp;IF(OR(J2=TRUE,J2=FALSE),""""&amp;R2&amp;""": {""measurement_type"": "&amp;B2&amp;IF(NOT(ISBLANK(P2)),", ""device_class"": "&amp;P2,"")&amp;IF(J2=FALSE,", ""accuracy_decimals"": "&amp;N2&amp;", ""unit_of_measurement"": """&amp;H2&amp;"""","")&amp;"},","# "&amp;B2)</f>
+      <c r="T2" s="9" t="str">
+        <f t="shared" ref="T2:T37" si="8">"  "&amp;IF(OR(K2=TRUE,K2=FALSE),""""&amp;S2&amp;""": {""measurement_type"": "&amp;B2&amp;IF(NOT(ISBLANK(Q2)),", ""device_class"": "&amp;Q2,"")&amp;IF(K2=FALSE,", ""accuracy_decimals"": "&amp;O2&amp;", ""unit_of_measurement"": """&amp;H2&amp;"""","")&amp;"},","# "&amp;B2)</f>
         <v xml:space="preserve">  "packet_id": {"measurement_type": 0x00, "accuracy_decimals": 0, "unit_of_measurement": ""},</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U2" t="str">
+        <f>"  "&amp;B2 &amp; ": " &amp; IF(ISBLANK(I2), "None", """mdi:"&amp;I2&amp;"""") &amp; ","</f>
+        <v xml:space="preserve">  0x00: "mdi:counter",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4352,47 +4415,54 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="b">
-        <f>IF(ISBLANK(D3),"NA",NOT(ISERR(FIND("True =",G3))))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="str">
-        <f>C3&amp;J3</f>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>batteryFALSE</v>
       </c>
-      <c r="L3">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D3,FIND("(",D3)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M3">
-        <f>IF(MID(D3,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N3">
-        <f>IFERROR(ABS(LOG10(E3)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O66" si="1">DEC2HEX(L3+_xlfn.BITLSHIFT(M3,3)+_xlfn.BITLSHIFT(N3,5),2)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P66" si="9">DEC2HEX(M3+_xlfn.BITLSHIFT(N3,3)+_xlfn.BITLSHIFT(O3,5),2)</f>
         <v>01</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>204</v>
       </c>
-      <c r="Q3" t="str">
-        <f>"0x"&amp;O3&amp;","&amp;CHAR(9)&amp;" // "&amp;B3&amp;" | "&amp;C3&amp;" | "&amp;D3&amp;" | datatype: "&amp;M3&amp;" | factor_exp10: "&amp;E3&amp;" | example: "&amp;F3</f>
+      <c r="R3" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x01 | battery | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 0161</v>
       </c>
-      <c r="R3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C3," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S3" t="str">
+        <f t="shared" si="7"/>
         <v>battery</v>
       </c>
-      <c r="S3" s="9" t="str">
-        <f>"  "&amp;IF(OR(J3=TRUE,J3=FALSE),""""&amp;R3&amp;""": {""measurement_type"": "&amp;B3&amp;IF(NOT(ISBLANK(P3)),", ""device_class"": "&amp;P3,"")&amp;IF(J3=FALSE,", ""accuracy_decimals"": "&amp;N3&amp;", ""unit_of_measurement"": """&amp;H3&amp;"""","")&amp;"},","# "&amp;B3)</f>
+      <c r="T3" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "battery": {"measurement_type": 0x01, "device_class": DEVICE_CLASS_BATTERY, "accuracy_decimals": 0, "unit_of_measurement": "%"},</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U3" t="str">
+        <f t="shared" ref="U3:U66" si="10">"  "&amp;B3 &amp; ": " &amp; IF(ISBLANK(I3), "None", """mdi:"&amp;I3&amp;"""") &amp; ","</f>
+        <v xml:space="preserve">  0x01: "mdi:battery",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4418,47 +4488,54 @@
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="b">
-        <f>IF(ISBLANK(D4),"NA",NOT(ISERR(FIND("True =",G4))))</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="str">
-        <f>C4&amp;J4</f>
+      <c r="I4" t="s">
+        <v>413</v>
+      </c>
+      <c r="K4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>temperatureFALSE</v>
       </c>
-      <c r="L4">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D4,FIND("(",D4)+1,1),0))</f>
+      <c r="M4">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M4">
-        <f>IF(MID(D4,1,4)="sint",1,0)</f>
-        <v>1</v>
-      </c>
       <c r="N4">
-        <f>IFERROR(ABS(LOG10(E4)),0)</f>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" si="1"/>
+      <c r="P4" t="str">
+        <f t="shared" si="9"/>
         <v>4A</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>205</v>
       </c>
-      <c r="Q4" t="str">
-        <f>"0x"&amp;O4&amp;","&amp;CHAR(9)&amp;" // "&amp;B4&amp;" | "&amp;C4&amp;" | "&amp;D4&amp;" | datatype: "&amp;M4&amp;" | factor_exp10: "&amp;E4&amp;" | example: "&amp;F4</f>
+      <c r="R4" t="str">
+        <f t="shared" si="6"/>
         <v>0x4A,	 // 0x02 | temperature | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.01 | example: 02CA09</v>
       </c>
-      <c r="R4" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C4," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S4" t="str">
+        <f t="shared" si="7"/>
         <v>temperature</v>
       </c>
-      <c r="S4" s="9" t="str">
-        <f>"  "&amp;IF(OR(J4=TRUE,J4=FALSE),""""&amp;R4&amp;""": {""measurement_type"": "&amp;B4&amp;IF(NOT(ISBLANK(P4)),", ""device_class"": "&amp;P4,"")&amp;IF(J4=FALSE,", ""accuracy_decimals"": "&amp;N4&amp;", ""unit_of_measurement"": """&amp;H4&amp;"""","")&amp;"},","# "&amp;B4)</f>
+      <c r="T4" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "temperature": {"measurement_type": 0x02, "device_class": DEVICE_CLASS_TEMPERATURE, "accuracy_decimals": 2, "unit_of_measurement": "°C"},</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U4" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x02: "mdi:temperature-celsius",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4484,44 +4561,51 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" t="b">
-        <f>IF(ISBLANK(D5),"NA",NOT(ISERR(FIND("True =",G5))))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f>C5&amp;J5</f>
+      <c r="I5" t="s">
+        <v>414</v>
+      </c>
+      <c r="K5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>humidityFALSE</v>
       </c>
-      <c r="L5">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D5,FIND("(",D5)+1,1),0))</f>
+      <c r="M5">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M5">
-        <f>IF(MID(D5,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N5">
-        <f>IFERROR(ABS(LOG10(E5)),0)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O5" t="str">
-        <f t="shared" si="1"/>
+      <c r="P5" t="str">
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="Q5" t="str">
-        <f>"0x"&amp;O5&amp;","&amp;CHAR(9)&amp;" // "&amp;B5&amp;" | "&amp;C5&amp;" | "&amp;D5&amp;" | datatype: "&amp;M5&amp;" | factor_exp10: "&amp;E5&amp;" | example: "&amp;F5</f>
+      <c r="R5" t="str">
+        <f t="shared" si="6"/>
         <v>0x42,	 // 0x03 | humidity | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 03BF13</v>
       </c>
-      <c r="R5" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C5," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S5" t="str">
+        <f t="shared" si="7"/>
         <v>humidity</v>
       </c>
-      <c r="S5" s="9" t="str">
-        <f>"  "&amp;IF(OR(J5=TRUE,J5=FALSE),""""&amp;R5&amp;""": {""measurement_type"": "&amp;B5&amp;IF(NOT(ISBLANK(P5)),", ""device_class"": "&amp;P5,"")&amp;IF(J5=FALSE,", ""accuracy_decimals"": "&amp;N5&amp;", ""unit_of_measurement"": """&amp;H5&amp;"""","")&amp;"},","# "&amp;B5)</f>
+      <c r="T5" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "humidity": {"measurement_type": 0x03, "accuracy_decimals": 2, "unit_of_measurement": "%"},</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U5" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x03: "mdi:percent",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4547,47 +4631,54 @@
       <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="b">
-        <f>IF(ISBLANK(D6),"NA",NOT(ISERR(FIND("True =",G6))))</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="str">
-        <f>C6&amp;J6</f>
+      <c r="I6" t="s">
+        <v>415</v>
+      </c>
+      <c r="K6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>pressureFALSE</v>
       </c>
-      <c r="L6">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D6,FIND("(",D6)+1,1),0))</f>
+      <c r="M6">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M6">
-        <f>IF(MID(D6,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N6">
-        <f>IFERROR(ABS(LOG10(E6)),0)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O6" t="str">
-        <f t="shared" si="1"/>
+      <c r="P6" t="str">
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>207</v>
       </c>
-      <c r="Q6" t="str">
-        <f>"0x"&amp;O6&amp;","&amp;CHAR(9)&amp;" // "&amp;B6&amp;" | "&amp;C6&amp;" | "&amp;D6&amp;" | datatype: "&amp;M6&amp;" | factor_exp10: "&amp;E6&amp;" | example: "&amp;F6</f>
+      <c r="R6" t="str">
+        <f t="shared" si="6"/>
         <v>0x43,	 // 0x04 | pressure | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 04138A01</v>
       </c>
-      <c r="R6" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C6," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S6" t="str">
+        <f t="shared" si="7"/>
         <v>pressure</v>
       </c>
-      <c r="S6" s="9" t="str">
-        <f>"  "&amp;IF(OR(J6=TRUE,J6=FALSE),""""&amp;R6&amp;""": {""measurement_type"": "&amp;B6&amp;IF(NOT(ISBLANK(P6)),", ""device_class"": "&amp;P6,"")&amp;IF(J6=FALSE,", ""accuracy_decimals"": "&amp;N6&amp;", ""unit_of_measurement"": """&amp;H6&amp;"""","")&amp;"},","# "&amp;B6)</f>
+      <c r="T6" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "pressure": {"measurement_type": 0x04, "device_class": DEVICE_CLASS_PRESSURE, "accuracy_decimals": 2, "unit_of_measurement": "hPa"},</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U6" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x04: "mdi:gauge",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4613,47 +4704,54 @@
       <c r="H7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" t="b">
-        <f>IF(ISBLANK(D7),"NA",NOT(ISERR(FIND("True =",G7))))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="str">
-        <f>C7&amp;J7</f>
+      <c r="I7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>illuminanceFALSE</v>
       </c>
-      <c r="L7">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D7,FIND("(",D7)+1,1),0))</f>
+      <c r="M7">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M7">
-        <f>IF(MID(D7,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N7">
-        <f>IFERROR(ABS(LOG10(E7)),0)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O7" t="str">
-        <f t="shared" si="1"/>
+      <c r="P7" t="str">
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>208</v>
       </c>
-      <c r="Q7" t="str">
-        <f>"0x"&amp;O7&amp;","&amp;CHAR(9)&amp;" // "&amp;B7&amp;" | "&amp;C7&amp;" | "&amp;D7&amp;" | datatype: "&amp;M7&amp;" | factor_exp10: "&amp;E7&amp;" | example: "&amp;F7</f>
+      <c r="R7" t="str">
+        <f t="shared" si="6"/>
         <v>0x43,	 // 0x05 | illuminance | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 05138A14</v>
       </c>
-      <c r="R7" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C7," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S7" t="str">
+        <f t="shared" si="7"/>
         <v>illuminance</v>
       </c>
-      <c r="S7" s="9" t="str">
-        <f>"  "&amp;IF(OR(J7=TRUE,J7=FALSE),""""&amp;R7&amp;""": {""measurement_type"": "&amp;B7&amp;IF(NOT(ISBLANK(P7)),", ""device_class"": "&amp;P7,"")&amp;IF(J7=FALSE,", ""accuracy_decimals"": "&amp;N7&amp;", ""unit_of_measurement"": """&amp;H7&amp;"""","")&amp;"},","# "&amp;B7)</f>
+      <c r="T7" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "illuminance": {"measurement_type": 0x05, "device_class": DEVICE_CLASS_ILLUMINANCE, "accuracy_decimals": 2, "unit_of_measurement": "lux"},</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U7" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x05: "mdi:sun-wireless",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4679,44 +4777,51 @@
       <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" t="b">
-        <f>IF(ISBLANK(D8),"NA",NOT(ISERR(FIND("True =",G8))))</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="str">
-        <f>C8&amp;J8</f>
+      <c r="I8" t="s">
+        <v>417</v>
+      </c>
+      <c r="K8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>mass (kg)FALSE</v>
       </c>
-      <c r="L8">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D8,FIND("(",D8)+1,1),0))</f>
+      <c r="M8">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M8">
-        <f>IF(MID(D8,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N8">
-        <f>IFERROR(ABS(LOG10(E8)),0)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O8" t="str">
-        <f t="shared" si="1"/>
+      <c r="P8" t="str">
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="Q8" t="str">
-        <f>"0x"&amp;O8&amp;","&amp;CHAR(9)&amp;" // "&amp;B8&amp;" | "&amp;C8&amp;" | "&amp;D8&amp;" | datatype: "&amp;M8&amp;" | factor_exp10: "&amp;E8&amp;" | example: "&amp;F8</f>
+      <c r="R8" t="str">
+        <f t="shared" si="6"/>
         <v>0x42,	 // 0x06 | mass (kg) | uint16 (2 byte) | datatype: 0 | factor_exp10: 0.01 | example: 065E1F</v>
       </c>
-      <c r="R8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C8," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S8" t="str">
+        <f t="shared" si="7"/>
         <v>mass_kg</v>
       </c>
-      <c r="S8" s="9" t="str">
-        <f>"  "&amp;IF(OR(J8=TRUE,J8=FALSE),""""&amp;R8&amp;""": {""measurement_type"": "&amp;B8&amp;IF(NOT(ISBLANK(P8)),", ""device_class"": "&amp;P8,"")&amp;IF(J8=FALSE,", ""accuracy_decimals"": "&amp;N8&amp;", ""unit_of_measurement"": """&amp;H8&amp;"""","")&amp;"},","# "&amp;B8)</f>
+      <c r="T8" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "mass_kg": {"measurement_type": 0x06, "accuracy_decimals": 2, "unit_of_measurement": "kg"},</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U8" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x06: "mdi:weight-kilogram",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4742,44 +4847,51 @@
       <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="J9" t="b">
-        <f>IF(ISBLANK(D9),"NA",NOT(ISERR(FIND("True =",G9))))</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="str">
-        <f>C9&amp;J9</f>
+      <c r="I9" t="s">
+        <v>418</v>
+      </c>
+      <c r="K9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>mass (lb)FALSE</v>
       </c>
-      <c r="L9">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D9,FIND("(",D9)+1,1),0))</f>
+      <c r="M9">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M9">
-        <f>IF(MID(D9,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N9">
-        <f>IFERROR(ABS(LOG10(E9)),0)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O9" t="str">
-        <f t="shared" si="1"/>
+      <c r="P9" t="str">
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="Q9" t="str">
-        <f>"0x"&amp;O9&amp;","&amp;CHAR(9)&amp;" // "&amp;B9&amp;" | "&amp;C9&amp;" | "&amp;D9&amp;" | datatype: "&amp;M9&amp;" | factor_exp10: "&amp;E9&amp;" | example: "&amp;F9</f>
+      <c r="R9" t="str">
+        <f t="shared" si="6"/>
         <v>0x42,	 // 0x07 | mass (lb) | uint16 (2 byte) | datatype: 0 | factor_exp10: 0.01 | example: 073E1D</v>
       </c>
-      <c r="R9" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C9," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S9" t="str">
+        <f t="shared" si="7"/>
         <v>mass_lb</v>
       </c>
-      <c r="S9" s="9" t="str">
-        <f>"  "&amp;IF(OR(J9=TRUE,J9=FALSE),""""&amp;R9&amp;""": {""measurement_type"": "&amp;B9&amp;IF(NOT(ISBLANK(P9)),", ""device_class"": "&amp;P9,"")&amp;IF(J9=FALSE,", ""accuracy_decimals"": "&amp;N9&amp;", ""unit_of_measurement"": """&amp;H9&amp;"""","")&amp;"},","# "&amp;B9)</f>
+      <c r="T9" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "mass_lb": {"measurement_type": 0x07, "accuracy_decimals": 2, "unit_of_measurement": "lb"},</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U9" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x07: "mdi:weight-pound",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4805,44 +4917,51 @@
       <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="J10" t="b">
-        <f>IF(ISBLANK(D10),"NA",NOT(ISERR(FIND("True =",G10))))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="str">
-        <f>C10&amp;J10</f>
+      <c r="I10" t="s">
+        <v>416</v>
+      </c>
+      <c r="K10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>dewpointFALSE</v>
       </c>
-      <c r="L10">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D10,FIND("(",D10)+1,1),0))</f>
+      <c r="M10">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M10">
-        <f>IF(MID(D10,1,4)="sint",1,0)</f>
-        <v>1</v>
-      </c>
       <c r="N10">
-        <f>IFERROR(ABS(LOG10(E10)),0)</f>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O10" t="str">
-        <f t="shared" si="1"/>
+      <c r="P10" t="str">
+        <f t="shared" si="9"/>
         <v>4A</v>
       </c>
-      <c r="Q10" t="str">
-        <f>"0x"&amp;O10&amp;","&amp;CHAR(9)&amp;" // "&amp;B10&amp;" | "&amp;C10&amp;" | "&amp;D10&amp;" | datatype: "&amp;M10&amp;" | factor_exp10: "&amp;E10&amp;" | example: "&amp;F10</f>
+      <c r="R10" t="str">
+        <f t="shared" si="6"/>
         <v>0x4A,	 // 0x08 | dewpoint | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.01 | example: 08CA06</v>
       </c>
-      <c r="R10" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C10," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S10" t="str">
+        <f t="shared" si="7"/>
         <v>dewpoint</v>
       </c>
-      <c r="S10" s="9" t="str">
-        <f>"  "&amp;IF(OR(J10=TRUE,J10=FALSE),""""&amp;R10&amp;""": {""measurement_type"": "&amp;B10&amp;IF(NOT(ISBLANK(P10)),", ""device_class"": "&amp;P10,"")&amp;IF(J10=FALSE,", ""accuracy_decimals"": "&amp;N10&amp;", ""unit_of_measurement"": """&amp;H10&amp;"""","")&amp;"},","# "&amp;B10)</f>
+      <c r="T10" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "dewpoint": {"measurement_type": 0x08, "accuracy_decimals": 2, "unit_of_measurement": "°C"},</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U10" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x08: "mdi:water-thermometer-outline",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4865,44 +4984,51 @@
       <c r="G11">
         <v>96</v>
       </c>
-      <c r="J11" t="b">
-        <f>IF(ISBLANK(D11),"NA",NOT(ISERR(FIND("True =",G11))))</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <f>C11&amp;J11</f>
+      <c r="I11" t="s">
+        <v>411</v>
+      </c>
+      <c r="K11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>count smallFALSE</v>
       </c>
-      <c r="L11">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D11,FIND("(",D11)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M11">
-        <f>IF(MID(D11,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N11">
-        <f>IFERROR(ABS(LOG10(E11)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="Q11" t="str">
-        <f>"0x"&amp;O11&amp;","&amp;CHAR(9)&amp;" // "&amp;B11&amp;" | "&amp;C11&amp;" | "&amp;D11&amp;" | datatype: "&amp;M11&amp;" | factor_exp10: "&amp;E11&amp;" | example: "&amp;F11</f>
+      <c r="R11" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x09 | count small | uint (1 bytes) | datatype: 0 | factor_exp10: 1 | example: 0960</v>
       </c>
-      <c r="R11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C11," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S11" t="str">
+        <f t="shared" si="7"/>
         <v>count_small</v>
       </c>
-      <c r="S11" s="9" t="str">
-        <f>"  "&amp;IF(OR(J11=TRUE,J11=FALSE),""""&amp;R11&amp;""": {""measurement_type"": "&amp;B11&amp;IF(NOT(ISBLANK(P11)),", ""device_class"": "&amp;P11,"")&amp;IF(J11=FALSE,", ""accuracy_decimals"": "&amp;N11&amp;", ""unit_of_measurement"": """&amp;H11&amp;"""","")&amp;"},","# "&amp;B11)</f>
+      <c r="T11" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "count_small": {"measurement_type": 0x09, "accuracy_decimals": 0, "unit_of_measurement": ""},</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U11" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x09: "mdi:counter",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4928,47 +5054,54 @@
       <c r="H12" t="s">
         <v>40</v>
       </c>
-      <c r="J12" t="b">
-        <f>IF(ISBLANK(D12),"NA",NOT(ISERR(FIND("True =",G12))))</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="str">
-        <f>C12&amp;J12</f>
+      <c r="I12" t="s">
+        <v>426</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>energyFALSE</v>
       </c>
-      <c r="L12">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D12,FIND("(",D12)+1,1),0))</f>
+      <c r="M12">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M12">
-        <f>IF(MID(D12,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N12">
-        <f>IFERROR(ABS(LOG10(E12)),0)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="O12" t="str">
-        <f t="shared" si="1"/>
+      <c r="P12" t="str">
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>209</v>
       </c>
-      <c r="Q12" t="str">
-        <f>"0x"&amp;O12&amp;","&amp;CHAR(9)&amp;" // "&amp;B12&amp;" | "&amp;C12&amp;" | "&amp;D12&amp;" | datatype: "&amp;M12&amp;" | factor_exp10: "&amp;E12&amp;" | example: "&amp;F12</f>
+      <c r="R12" t="str">
+        <f t="shared" si="6"/>
         <v>0x63,	 // 0x0A | energy | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 0A138A14</v>
       </c>
-      <c r="R12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C12," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S12" t="str">
+        <f t="shared" si="7"/>
         <v>energy</v>
       </c>
-      <c r="S12" s="9" t="str">
-        <f>"  "&amp;IF(OR(J12=TRUE,J12=FALSE),""""&amp;R12&amp;""": {""measurement_type"": "&amp;B12&amp;IF(NOT(ISBLANK(P12)),", ""device_class"": "&amp;P12,"")&amp;IF(J12=FALSE,", ""accuracy_decimals"": "&amp;N12&amp;", ""unit_of_measurement"": """&amp;H12&amp;"""","")&amp;"},","# "&amp;B12)</f>
+      <c r="T12" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "energy": {"measurement_type": 0x0A, "device_class": DEVICE_CLASS_ENERGY, "accuracy_decimals": 3, "unit_of_measurement": "kWh"},</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U12" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x0A: "mdi:lightning-bolt",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4994,47 +5127,54 @@
       <c r="H13" t="s">
         <v>44</v>
       </c>
-      <c r="J13" t="b">
-        <f>IF(ISBLANK(D13),"NA",NOT(ISERR(FIND("True =",G13))))</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4" t="str">
-        <f>C13&amp;J13</f>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>powerFALSE</v>
       </c>
-      <c r="L13">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D13,FIND("(",D13)+1,1),0))</f>
+      <c r="M13">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="M13">
-        <f>IF(MID(D13,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N13">
-        <f>IFERROR(ABS(LOG10(E13)),0)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O13" t="str">
-        <f t="shared" si="1"/>
+      <c r="P13" t="str">
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>210</v>
       </c>
-      <c r="Q13" t="str">
-        <f>"0x"&amp;O13&amp;","&amp;CHAR(9)&amp;" // "&amp;B13&amp;" | "&amp;C13&amp;" | "&amp;D13&amp;" | datatype: "&amp;M13&amp;" | factor_exp10: "&amp;E13&amp;" | example: "&amp;F13</f>
+      <c r="R13" t="str">
+        <f t="shared" si="6"/>
         <v>0x43,	 // 0x0B | power | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 0B021B00</v>
       </c>
-      <c r="R13" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C13," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S13" t="str">
+        <f t="shared" si="7"/>
         <v>power</v>
       </c>
-      <c r="S13" s="9" t="str">
-        <f>"  "&amp;IF(OR(J13=TRUE,J13=FALSE),""""&amp;R13&amp;""": {""measurement_type"": "&amp;B13&amp;IF(NOT(ISBLANK(P13)),", ""device_class"": "&amp;P13,"")&amp;IF(J13=FALSE,", ""accuracy_decimals"": "&amp;N13&amp;", ""unit_of_measurement"": """&amp;H13&amp;"""","")&amp;"},","# "&amp;B13)</f>
+      <c r="T13" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "power": {"measurement_type": 0x0B, "device_class": DEVICE_CLASS_POWER, "accuracy_decimals": 2, "unit_of_measurement": "W"},</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U13" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x0B: "mdi:power",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5060,47 +5200,54 @@
       <c r="H14" t="s">
         <v>48</v>
       </c>
-      <c r="J14" t="b">
-        <f>IF(ISBLANK(D14),"NA",NOT(ISERR(FIND("True =",G14))))</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="4" t="str">
-        <f>C14&amp;J14</f>
+      <c r="I14" t="s">
+        <v>426</v>
+      </c>
+      <c r="K14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>voltageFALSE</v>
       </c>
-      <c r="L14">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D14,FIND("(",D14)+1,1),0))</f>
+      <c r="M14">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M14">
-        <f>IF(MID(D14,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N14">
-        <f>IFERROR(ABS(LOG10(E14)),0)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="O14" t="str">
-        <f t="shared" si="1"/>
+      <c r="P14" t="str">
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>211</v>
       </c>
-      <c r="Q14" t="str">
-        <f>"0x"&amp;O14&amp;","&amp;CHAR(9)&amp;" // "&amp;B14&amp;" | "&amp;C14&amp;" | "&amp;D14&amp;" | datatype: "&amp;M14&amp;" | factor_exp10: "&amp;E14&amp;" | example: "&amp;F14</f>
+      <c r="R14" t="str">
+        <f t="shared" si="6"/>
         <v>0x62,	 // 0x0C | voltage | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 0C020C</v>
       </c>
-      <c r="R14" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C14," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S14" t="str">
+        <f t="shared" si="7"/>
         <v>voltage</v>
       </c>
-      <c r="S14" s="9" t="str">
-        <f>"  "&amp;IF(OR(J14=TRUE,J14=FALSE),""""&amp;R14&amp;""": {""measurement_type"": "&amp;B14&amp;IF(NOT(ISBLANK(P14)),", ""device_class"": "&amp;P14,"")&amp;IF(J14=FALSE,", ""accuracy_decimals"": "&amp;N14&amp;", ""unit_of_measurement"": """&amp;H14&amp;"""","")&amp;"},","# "&amp;B14)</f>
+      <c r="T14" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "voltage": {"measurement_type": 0x0C, "device_class": DEVICE_CLASS_VOLTAGE, "accuracy_decimals": 3, "unit_of_measurement": "V"},</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U14" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x0C: "mdi:lightning-bolt",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5126,47 +5273,51 @@
       <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="J15" t="b">
-        <f>IF(ISBLANK(D15),"NA",NOT(ISERR(FIND("True =",G15))))</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="str">
-        <f>C15&amp;J15</f>
+      <c r="K15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>pm2.5FALSE</v>
       </c>
-      <c r="L15">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D15,FIND("(",D15)+1,1),0))</f>
+      <c r="M15">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M15">
-        <f>IF(MID(D15,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N15">
-        <f>IFERROR(ABS(LOG10(E15)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="9"/>
         <v>02</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>215</v>
       </c>
-      <c r="Q15" t="str">
-        <f>"0x"&amp;O15&amp;","&amp;CHAR(9)&amp;" // "&amp;B15&amp;" | "&amp;C15&amp;" | "&amp;D15&amp;" | datatype: "&amp;M15&amp;" | factor_exp10: "&amp;E15&amp;" | example: "&amp;F15</f>
+      <c r="R15" t="str">
+        <f t="shared" si="6"/>
         <v>0x02,	 // 0x0D | pm2.5 | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 0D120C</v>
       </c>
-      <c r="R15" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C15," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S15" t="str">
+        <f t="shared" si="7"/>
         <v>pm2_5</v>
       </c>
-      <c r="S15" s="9" t="str">
-        <f>"  "&amp;IF(OR(J15=TRUE,J15=FALSE),""""&amp;R15&amp;""": {""measurement_type"": "&amp;B15&amp;IF(NOT(ISBLANK(P15)),", ""device_class"": "&amp;P15,"")&amp;IF(J15=FALSE,", ""accuracy_decimals"": "&amp;N15&amp;", ""unit_of_measurement"": """&amp;H15&amp;"""","")&amp;"},","# "&amp;B15)</f>
+      <c r="T15" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "pm2_5": {"measurement_type": 0x0D, "device_class": DEVICE_CLASS_PM25, "accuracy_decimals": 0, "unit_of_measurement": "ug/m3"},</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U15" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x0D: None,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5192,47 +5343,51 @@
       <c r="H16" t="s">
         <v>52</v>
       </c>
-      <c r="J16" t="b">
-        <f>IF(ISBLANK(D16),"NA",NOT(ISERR(FIND("True =",G16))))</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f>C16&amp;J16</f>
+      <c r="K16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>pm10FALSE</v>
       </c>
-      <c r="L16">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D16,FIND("(",D16)+1,1),0))</f>
+      <c r="M16">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M16">
-        <f>IF(MID(D16,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N16">
-        <f>IFERROR(ABS(LOG10(E16)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="9"/>
         <v>02</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>212</v>
       </c>
-      <c r="Q16" t="str">
-        <f>"0x"&amp;O16&amp;","&amp;CHAR(9)&amp;" // "&amp;B16&amp;" | "&amp;C16&amp;" | "&amp;D16&amp;" | datatype: "&amp;M16&amp;" | factor_exp10: "&amp;E16&amp;" | example: "&amp;F16</f>
+      <c r="R16" t="str">
+        <f t="shared" si="6"/>
         <v>0x02,	 // 0x0E | pm10 | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 0E021C</v>
       </c>
-      <c r="R16" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C16," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S16" t="str">
+        <f t="shared" si="7"/>
         <v>pm10</v>
       </c>
-      <c r="S16" s="9" t="str">
-        <f>"  "&amp;IF(OR(J16=TRUE,J16=FALSE),""""&amp;R16&amp;""": {""measurement_type"": "&amp;B16&amp;IF(NOT(ISBLANK(P16)),", ""device_class"": "&amp;P16,"")&amp;IF(J16=FALSE,", ""accuracy_decimals"": "&amp;N16&amp;", ""unit_of_measurement"": """&amp;H16&amp;"""","")&amp;"},","# "&amp;B16)</f>
+      <c r="T16" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "pm10": {"measurement_type": 0x0E, "device_class": DEVICE_CLASS_PM10, "accuracy_decimals": 0, "unit_of_measurement": "ug/m3"},</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U16" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x0E: None,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5252,44 +5407,48 @@
       <c r="G17" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J17" t="b">
-        <f>IF(ISBLANK(D17),"NA",NOT(ISERR(FIND("True =",G17))))</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="4" t="str">
-        <f>C17&amp;J17</f>
+      <c r="K17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>generic booleanTRUE</v>
       </c>
-      <c r="L17">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D17,FIND("(",D17)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M17">
-        <f>IF(MID(D17,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N17">
-        <f>IFERROR(ABS(LOG10(E17)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="Q17" t="str">
-        <f>"0x"&amp;O17&amp;","&amp;CHAR(9)&amp;" // "&amp;B17&amp;" | "&amp;C17&amp;" | "&amp;D17&amp;" | datatype: "&amp;M17&amp;" | factor_exp10: "&amp;E17&amp;" | example: "&amp;F17</f>
+      <c r="R17" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x0F | generic boolean | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 0F01</v>
       </c>
-      <c r="R17" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C17," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S17" t="str">
+        <f t="shared" si="7"/>
         <v>generic_boolean</v>
       </c>
-      <c r="S17" s="9" t="str">
-        <f>"  "&amp;IF(OR(J17=TRUE,J17=FALSE),""""&amp;R17&amp;""": {""measurement_type"": "&amp;B17&amp;IF(NOT(ISBLANK(P17)),", ""device_class"": "&amp;P17,"")&amp;IF(J17=FALSE,", ""accuracy_decimals"": "&amp;N17&amp;", ""unit_of_measurement"": """&amp;H17&amp;"""","")&amp;"},","# "&amp;B17)</f>
+      <c r="T17" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "generic_boolean": {"measurement_type": 0x0F},</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U17" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x0F: None,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5309,47 +5468,54 @@
       <c r="G18" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J18" t="b">
-        <f>IF(ISBLANK(D18),"NA",NOT(ISERR(FIND("True =",G18))))</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="str">
-        <f>C18&amp;J18</f>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>powerTRUE</v>
       </c>
-      <c r="L18">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D18,FIND("(",D18)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M18">
-        <f>IF(MID(D18,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N18">
-        <f>IFERROR(ABS(LOG10(E18)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>210</v>
       </c>
-      <c r="Q18" t="str">
-        <f>"0x"&amp;O18&amp;","&amp;CHAR(9)&amp;" // "&amp;B18&amp;" | "&amp;C18&amp;" | "&amp;D18&amp;" | datatype: "&amp;M18&amp;" | factor_exp10: "&amp;E18&amp;" | example: "&amp;F18</f>
+      <c r="R18" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x10 | power | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1001</v>
       </c>
-      <c r="R18" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C18," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S18" t="str">
+        <f t="shared" si="7"/>
         <v>power</v>
       </c>
-      <c r="S18" s="9" t="str">
-        <f>"  "&amp;IF(OR(J18=TRUE,J18=FALSE),""""&amp;R18&amp;""": {""measurement_type"": "&amp;B18&amp;IF(NOT(ISBLANK(P18)),", ""device_class"": "&amp;P18,"")&amp;IF(J18=FALSE,", ""accuracy_decimals"": "&amp;N18&amp;", ""unit_of_measurement"": """&amp;H18&amp;"""","")&amp;"},","# "&amp;B18)</f>
+      <c r="T18" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "power": {"measurement_type": 0x10, "device_class": DEVICE_CLASS_POWER},</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x10: "mdi:power",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5369,47 +5535,51 @@
       <c r="G19" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J19" t="b">
-        <f>IF(ISBLANK(D19),"NA",NOT(ISERR(FIND("True =",G19))))</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="4" t="str">
-        <f>C19&amp;J19</f>
+      <c r="K19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>openingTRUE</v>
       </c>
-      <c r="L19">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D19,FIND("(",D19)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M19">
-        <f>IF(MID(D19,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N19">
-        <f>IFERROR(ABS(LOG10(E19)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>372</v>
       </c>
-      <c r="Q19" t="str">
-        <f>"0x"&amp;O19&amp;","&amp;CHAR(9)&amp;" // "&amp;B19&amp;" | "&amp;C19&amp;" | "&amp;D19&amp;" | datatype: "&amp;M19&amp;" | factor_exp10: "&amp;E19&amp;" | example: "&amp;F19</f>
+      <c r="R19" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x11 | opening | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1100</v>
       </c>
-      <c r="R19" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C19," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S19" t="str">
+        <f t="shared" si="7"/>
         <v>opening</v>
       </c>
-      <c r="S19" s="9" t="str">
-        <f>"  "&amp;IF(OR(J19=TRUE,J19=FALSE),""""&amp;R19&amp;""": {""measurement_type"": "&amp;B19&amp;IF(NOT(ISBLANK(P19)),", ""device_class"": "&amp;P19,"")&amp;IF(J19=FALSE,", ""accuracy_decimals"": "&amp;N19&amp;", ""unit_of_measurement"": """&amp;H19&amp;"""","")&amp;"},","# "&amp;B19)</f>
+      <c r="T19" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "opening": {"measurement_type": 0x11, "device_class": DEVICE_CLASS_OPENING},</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U19" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x11: None,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5435,47 +5605,54 @@
       <c r="H20" t="s">
         <v>58</v>
       </c>
-      <c r="J20" t="b">
-        <f>IF(ISBLANK(D20),"NA",NOT(ISERR(FIND("True =",G20))))</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="4" t="str">
-        <f>C20&amp;J20</f>
+      <c r="I20" t="s">
+        <v>419</v>
+      </c>
+      <c r="K20" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>co2FALSE</v>
       </c>
-      <c r="L20">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D20,FIND("(",D20)+1,1),0))</f>
+      <c r="M20">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M20">
-        <f>IF(MID(D20,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N20">
-        <f>IFERROR(ABS(LOG10(E20)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="9"/>
         <v>02</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>217</v>
       </c>
-      <c r="Q20" t="str">
-        <f>"0x"&amp;O20&amp;","&amp;CHAR(9)&amp;" // "&amp;B20&amp;" | "&amp;C20&amp;" | "&amp;D20&amp;" | datatype: "&amp;M20&amp;" | factor_exp10: "&amp;E20&amp;" | example: "&amp;F20</f>
+      <c r="R20" t="str">
+        <f t="shared" si="6"/>
         <v>0x02,	 // 0x12 | co2 | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 12E204</v>
       </c>
-      <c r="R20" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C20," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S20" t="str">
+        <f t="shared" si="7"/>
         <v>co2</v>
       </c>
-      <c r="S20" s="9" t="str">
-        <f>"  "&amp;IF(OR(J20=TRUE,J20=FALSE),""""&amp;R20&amp;""": {""measurement_type"": "&amp;B20&amp;IF(NOT(ISBLANK(P20)),", ""device_class"": "&amp;P20,"")&amp;IF(J20=FALSE,", ""accuracy_decimals"": "&amp;N20&amp;", ""unit_of_measurement"": """&amp;H20&amp;"""","")&amp;"},","# "&amp;B20)</f>
+      <c r="T20" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "co2": {"measurement_type": 0x12, "device_class": DEVICE_CLASS_CARBON_DIOXIDE, "accuracy_decimals": 0, "unit_of_measurement": "ppm"},</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U20" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x12: "mdi:molecule-co2",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5501,47 +5678,51 @@
       <c r="H21" t="s">
         <v>52</v>
       </c>
-      <c r="J21" t="b">
-        <f>IF(ISBLANK(D21),"NA",NOT(ISERR(FIND("True =",G21))))</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="4" t="str">
-        <f>C21&amp;J21</f>
+      <c r="K21" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>tvocFALSE</v>
       </c>
-      <c r="L21">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D21,FIND("(",D21)+1,1),0))</f>
+      <c r="M21">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M21">
-        <f>IF(MID(D21,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N21">
-        <f>IFERROR(ABS(LOG10(E21)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="9"/>
         <v>02</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>218</v>
       </c>
-      <c r="Q21" t="str">
-        <f>"0x"&amp;O21&amp;","&amp;CHAR(9)&amp;" // "&amp;B21&amp;" | "&amp;C21&amp;" | "&amp;D21&amp;" | datatype: "&amp;M21&amp;" | factor_exp10: "&amp;E21&amp;" | example: "&amp;F21</f>
+      <c r="R21" t="str">
+        <f t="shared" si="6"/>
         <v>0x02,	 // 0x13 | tvoc | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 133301</v>
       </c>
-      <c r="R21" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C21," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S21" t="str">
+        <f t="shared" si="7"/>
         <v>tvoc</v>
       </c>
-      <c r="S21" s="9" t="str">
-        <f>"  "&amp;IF(OR(J21=TRUE,J21=FALSE),""""&amp;R21&amp;""": {""measurement_type"": "&amp;B21&amp;IF(NOT(ISBLANK(P21)),", ""device_class"": "&amp;P21,"")&amp;IF(J21=FALSE,", ""accuracy_decimals"": "&amp;N21&amp;", ""unit_of_measurement"": """&amp;H21&amp;"""","")&amp;"},","# "&amp;B21)</f>
+      <c r="T21" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "tvoc": {"measurement_type": 0x13, "device_class": DEVICE_CLASS_VOLATILE_ORGANIC_COMPOUNDS, "accuracy_decimals": 0, "unit_of_measurement": "ug/m3"},</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U21" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x13: None,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5567,44 +5748,51 @@
       <c r="H22" t="s">
         <v>8</v>
       </c>
-      <c r="J22" t="b">
-        <f>IF(ISBLANK(D22),"NA",NOT(ISERR(FIND("True =",G22))))</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="4" t="str">
-        <f>C22&amp;J22</f>
+      <c r="I22" t="s">
+        <v>414</v>
+      </c>
+      <c r="K22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>moistureFALSE</v>
       </c>
-      <c r="L22">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D22,FIND("(",D22)+1,1),0))</f>
+      <c r="M22">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M22">
-        <f>IF(MID(D22,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N22">
-        <f>IFERROR(ABS(LOG10(E22)),0)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O22" t="str">
-        <f t="shared" si="1"/>
+      <c r="P22" t="str">
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="Q22" t="str">
-        <f>"0x"&amp;O22&amp;","&amp;CHAR(9)&amp;" // "&amp;B22&amp;" | "&amp;C22&amp;" | "&amp;D22&amp;" | datatype: "&amp;M22&amp;" | factor_exp10: "&amp;E22&amp;" | example: "&amp;F22</f>
+      <c r="R22" t="str">
+        <f t="shared" si="6"/>
         <v>0x42,	 // 0x14 | moisture | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 14020C</v>
       </c>
-      <c r="R22" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C22," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S22" t="str">
+        <f t="shared" si="7"/>
         <v>moisture</v>
       </c>
-      <c r="S22" s="9" t="str">
-        <f>"  "&amp;IF(OR(J22=TRUE,J22=FALSE),""""&amp;R22&amp;""": {""measurement_type"": "&amp;B22&amp;IF(NOT(ISBLANK(P22)),", ""device_class"": "&amp;P22,"")&amp;IF(J22=FALSE,", ""accuracy_decimals"": "&amp;N22&amp;", ""unit_of_measurement"": """&amp;H22&amp;"""","")&amp;"},","# "&amp;B22)</f>
+      <c r="T22" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "moisture": {"measurement_type": 0x14, "accuracy_decimals": 2, "unit_of_measurement": "%"},</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U22" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x14: "mdi:percent",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5624,47 +5812,51 @@
       <c r="G23" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J23" t="b">
-        <f>IF(ISBLANK(D23),"NA",NOT(ISERR(FIND("True =",G23))))</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="4" t="str">
-        <f>C23&amp;J23</f>
+      <c r="K23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>batteryTRUE</v>
       </c>
-      <c r="L23">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D23,FIND("(",D23)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M23">
-        <f>IF(MID(D23,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N23">
-        <f>IFERROR(ABS(LOG10(E23)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>204</v>
       </c>
-      <c r="Q23" t="str">
-        <f>"0x"&amp;O23&amp;","&amp;CHAR(9)&amp;" // "&amp;B23&amp;" | "&amp;C23&amp;" | "&amp;D23&amp;" | datatype: "&amp;M23&amp;" | factor_exp10: "&amp;E23&amp;" | example: "&amp;F23</f>
+      <c r="R23" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x15 | battery | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1501</v>
       </c>
-      <c r="R23" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C23," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S23" t="str">
+        <f t="shared" si="7"/>
         <v>battery</v>
       </c>
-      <c r="S23" s="9" t="str">
-        <f>"  "&amp;IF(OR(J23=TRUE,J23=FALSE),""""&amp;R23&amp;""": {""measurement_type"": "&amp;B23&amp;IF(NOT(ISBLANK(P23)),", ""device_class"": "&amp;P23,"")&amp;IF(J23=FALSE,", ""accuracy_decimals"": "&amp;N23&amp;", ""unit_of_measurement"": """&amp;H23&amp;"""","")&amp;"},","# "&amp;B23)</f>
+      <c r="T23" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "battery": {"measurement_type": 0x15, "device_class": DEVICE_CLASS_BATTERY},</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U23" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x15: None,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5684,47 +5876,51 @@
       <c r="G24" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J24" t="b">
-        <f>IF(ISBLANK(D24),"NA",NOT(ISERR(FIND("True =",G24))))</f>
-        <v>1</v>
-      </c>
-      <c r="K24" s="4" t="str">
-        <f>C24&amp;J24</f>
+      <c r="K24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>battery chargingTRUE</v>
       </c>
-      <c r="L24">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D24,FIND("(",D24)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M24">
-        <f>IF(MID(D24,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N24">
-        <f>IFERROR(ABS(LOG10(E24)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>373</v>
       </c>
-      <c r="Q24" t="str">
-        <f>"0x"&amp;O24&amp;","&amp;CHAR(9)&amp;" // "&amp;B24&amp;" | "&amp;C24&amp;" | "&amp;D24&amp;" | datatype: "&amp;M24&amp;" | factor_exp10: "&amp;E24&amp;" | example: "&amp;F24</f>
+      <c r="R24" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x16 | battery charging | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1601</v>
       </c>
-      <c r="R24" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C24," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S24" t="str">
+        <f t="shared" si="7"/>
         <v>battery_charging</v>
       </c>
-      <c r="S24" s="9" t="str">
-        <f>"  "&amp;IF(OR(J24=TRUE,J24=FALSE),""""&amp;R24&amp;""": {""measurement_type"": "&amp;B24&amp;IF(NOT(ISBLANK(P24)),", ""device_class"": "&amp;P24,"")&amp;IF(J24=FALSE,", ""accuracy_decimals"": "&amp;N24&amp;", ""unit_of_measurement"": """&amp;H24&amp;"""","")&amp;"},","# "&amp;B24)</f>
+      <c r="T24" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "battery_charging": {"measurement_type": 0x16, "device_class": DEVICE_CLASS_BATTERY_CHARGING},</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U24" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x16: None,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5744,47 +5940,51 @@
       <c r="G25" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J25" t="b">
-        <f>IF(ISBLANK(D25),"NA",NOT(ISERR(FIND("True =",G25))))</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="4" t="str">
-        <f>C25&amp;J25</f>
+      <c r="K25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>carbon monoxideTRUE</v>
       </c>
-      <c r="L25">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D25,FIND("(",D25)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M25">
-        <f>IF(MID(D25,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N25">
-        <f>IFERROR(ABS(LOG10(E25)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>358</v>
       </c>
-      <c r="Q25" t="str">
-        <f>"0x"&amp;O25&amp;","&amp;CHAR(9)&amp;" // "&amp;B25&amp;" | "&amp;C25&amp;" | "&amp;D25&amp;" | datatype: "&amp;M25&amp;" | factor_exp10: "&amp;E25&amp;" | example: "&amp;F25</f>
+      <c r="R25" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x17 | carbon monoxide | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1700</v>
       </c>
-      <c r="R25" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C25," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S25" t="str">
+        <f t="shared" si="7"/>
         <v>carbon_monoxide</v>
       </c>
-      <c r="S25" s="9" t="str">
-        <f>"  "&amp;IF(OR(J25=TRUE,J25=FALSE),""""&amp;R25&amp;""": {""measurement_type"": "&amp;B25&amp;IF(NOT(ISBLANK(P25)),", ""device_class"": "&amp;P25,"")&amp;IF(J25=FALSE,", ""accuracy_decimals"": "&amp;N25&amp;", ""unit_of_measurement"": """&amp;H25&amp;"""","")&amp;"},","# "&amp;B25)</f>
+      <c r="T25" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "carbon_monoxide": {"measurement_type": 0x17, "device_class": DEVICE_CLASS_GAS},</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U25" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x17: None,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5804,47 +6004,51 @@
       <c r="G26" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J26" t="b">
-        <f>IF(ISBLANK(D26),"NA",NOT(ISERR(FIND("True =",G26))))</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="4" t="str">
-        <f>C26&amp;J26</f>
+      <c r="K26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>coldTRUE</v>
       </c>
-      <c r="L26">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D26,FIND("(",D26)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M26">
-        <f>IF(MID(D26,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N26">
-        <f>IFERROR(ABS(LOG10(E26)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>374</v>
       </c>
-      <c r="Q26" t="str">
-        <f>"0x"&amp;O26&amp;","&amp;CHAR(9)&amp;" // "&amp;B26&amp;" | "&amp;C26&amp;" | "&amp;D26&amp;" | datatype: "&amp;M26&amp;" | factor_exp10: "&amp;E26&amp;" | example: "&amp;F26</f>
+      <c r="R26" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x18 | cold | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1801</v>
       </c>
-      <c r="R26" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C26," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S26" t="str">
+        <f t="shared" si="7"/>
         <v>cold</v>
       </c>
-      <c r="S26" s="9" t="str">
-        <f>"  "&amp;IF(OR(J26=TRUE,J26=FALSE),""""&amp;R26&amp;""": {""measurement_type"": "&amp;B26&amp;IF(NOT(ISBLANK(P26)),", ""device_class"": "&amp;P26,"")&amp;IF(J26=FALSE,", ""accuracy_decimals"": "&amp;N26&amp;", ""unit_of_measurement"": """&amp;H26&amp;"""","")&amp;"},","# "&amp;B26)</f>
+      <c r="T26" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "cold": {"measurement_type": 0x18, "device_class": DEVICE_CLASS_COLD},</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U26" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x18: None,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5864,47 +6068,51 @@
       <c r="G27" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="J27" t="b">
-        <f>IF(ISBLANK(D27),"NA",NOT(ISERR(FIND("True =",G27))))</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="4" t="str">
-        <f>C27&amp;J27</f>
+      <c r="K27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>connectivityTRUE</v>
       </c>
-      <c r="L27">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D27,FIND("(",D27)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M27">
-        <f>IF(MID(D27,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N27">
-        <f>IFERROR(ABS(LOG10(E27)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>375</v>
       </c>
-      <c r="Q27" t="str">
-        <f>"0x"&amp;O27&amp;","&amp;CHAR(9)&amp;" // "&amp;B27&amp;" | "&amp;C27&amp;" | "&amp;D27&amp;" | datatype: "&amp;M27&amp;" | factor_exp10: "&amp;E27&amp;" | example: "&amp;F27</f>
+      <c r="R27" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x19 | connectivity | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1900</v>
       </c>
-      <c r="R27" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C27," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S27" t="str">
+        <f t="shared" si="7"/>
         <v>connectivity</v>
       </c>
-      <c r="S27" s="9" t="str">
-        <f>"  "&amp;IF(OR(J27=TRUE,J27=FALSE),""""&amp;R27&amp;""": {""measurement_type"": "&amp;B27&amp;IF(NOT(ISBLANK(P27)),", ""device_class"": "&amp;P27,"")&amp;IF(J27=FALSE,", ""accuracy_decimals"": "&amp;N27&amp;", ""unit_of_measurement"": """&amp;H27&amp;"""","")&amp;"},","# "&amp;B27)</f>
+      <c r="T27" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "connectivity": {"measurement_type": 0x19, "device_class": DEVICE_CLASS_CONNECTIVITY},</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U27" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x19: None,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5924,47 +6132,51 @@
       <c r="G28" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J28" t="b">
-        <f>IF(ISBLANK(D28),"NA",NOT(ISERR(FIND("True =",G28))))</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="4" t="str">
-        <f>C28&amp;J28</f>
+      <c r="K28" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>doorTRUE</v>
       </c>
-      <c r="L28">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D28,FIND("(",D28)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M28">
-        <f>IF(MID(D28,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N28">
-        <f>IFERROR(ABS(LOG10(E28)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>376</v>
       </c>
-      <c r="Q28" t="str">
-        <f>"0x"&amp;O28&amp;","&amp;CHAR(9)&amp;" // "&amp;B28&amp;" | "&amp;C28&amp;" | "&amp;D28&amp;" | datatype: "&amp;M28&amp;" | factor_exp10: "&amp;E28&amp;" | example: "&amp;F28</f>
+      <c r="R28" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x1A | door | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1A00</v>
       </c>
-      <c r="R28" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C28," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S28" t="str">
+        <f t="shared" si="7"/>
         <v>door</v>
       </c>
-      <c r="S28" s="9" t="str">
-        <f>"  "&amp;IF(OR(J28=TRUE,J28=FALSE),""""&amp;R28&amp;""": {""measurement_type"": "&amp;B28&amp;IF(NOT(ISBLANK(P28)),", ""device_class"": "&amp;P28,"")&amp;IF(J28=FALSE,", ""accuracy_decimals"": "&amp;N28&amp;", ""unit_of_measurement"": """&amp;H28&amp;"""","")&amp;"},","# "&amp;B28)</f>
+      <c r="T28" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "door": {"measurement_type": 0x1A, "device_class": DEVICE_CLASS_DOOR},</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U28" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x1A: None,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5984,47 +6196,51 @@
       <c r="G29" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J29" t="b">
-        <f>IF(ISBLANK(D29),"NA",NOT(ISERR(FIND("True =",G29))))</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="4" t="str">
-        <f>C29&amp;J29</f>
+      <c r="K29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>garage doorTRUE</v>
       </c>
-      <c r="L29">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D29,FIND("(",D29)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M29">
-        <f>IF(MID(D29,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N29">
-        <f>IFERROR(ABS(LOG10(E29)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>377</v>
       </c>
-      <c r="Q29" t="str">
-        <f>"0x"&amp;O29&amp;","&amp;CHAR(9)&amp;" // "&amp;B29&amp;" | "&amp;C29&amp;" | "&amp;D29&amp;" | datatype: "&amp;M29&amp;" | factor_exp10: "&amp;E29&amp;" | example: "&amp;F29</f>
+      <c r="R29" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x1B | garage door | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1B01</v>
       </c>
-      <c r="R29" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C29," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S29" t="str">
+        <f t="shared" si="7"/>
         <v>garage_door</v>
       </c>
-      <c r="S29" s="9" t="str">
-        <f>"  "&amp;IF(OR(J29=TRUE,J29=FALSE),""""&amp;R29&amp;""": {""measurement_type"": "&amp;B29&amp;IF(NOT(ISBLANK(P29)),", ""device_class"": "&amp;P29,"")&amp;IF(J29=FALSE,", ""accuracy_decimals"": "&amp;N29&amp;", ""unit_of_measurement"": """&amp;H29&amp;"""","")&amp;"},","# "&amp;B29)</f>
+      <c r="T29" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "garage_door": {"measurement_type": 0x1B, "device_class": DEVICE_CLASS_GARAGE_DOOR},</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U29" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x1B: None,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6044,47 +6260,51 @@
       <c r="G30" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J30" t="b">
-        <f>IF(ISBLANK(D30),"NA",NOT(ISERR(FIND("True =",G30))))</f>
-        <v>1</v>
-      </c>
-      <c r="K30" s="4" t="str">
-        <f>C30&amp;J30</f>
+      <c r="K30" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>gasTRUE</v>
       </c>
-      <c r="L30">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D30,FIND("(",D30)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M30">
-        <f>IF(MID(D30,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N30">
-        <f>IFERROR(ABS(LOG10(E30)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>358</v>
       </c>
-      <c r="Q30" t="str">
-        <f>"0x"&amp;O30&amp;","&amp;CHAR(9)&amp;" // "&amp;B30&amp;" | "&amp;C30&amp;" | "&amp;D30&amp;" | datatype: "&amp;M30&amp;" | factor_exp10: "&amp;E30&amp;" | example: "&amp;F30</f>
+      <c r="R30" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x1C | gas | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1C01</v>
       </c>
-      <c r="R30" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C30," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S30" t="str">
+        <f t="shared" si="7"/>
         <v>gas</v>
       </c>
-      <c r="S30" s="9" t="str">
-        <f>"  "&amp;IF(OR(J30=TRUE,J30=FALSE),""""&amp;R30&amp;""": {""measurement_type"": "&amp;B30&amp;IF(NOT(ISBLANK(P30)),", ""device_class"": "&amp;P30,"")&amp;IF(J30=FALSE,", ""accuracy_decimals"": "&amp;N30&amp;", ""unit_of_measurement"": """&amp;H30&amp;"""","")&amp;"},","# "&amp;B30)</f>
+      <c r="T30" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "gas": {"measurement_type": 0x1C, "device_class": DEVICE_CLASS_GAS},</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U30" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x1C: None,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6104,47 +6324,51 @@
       <c r="G31" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J31" t="b">
-        <f>IF(ISBLANK(D31),"NA",NOT(ISERR(FIND("True =",G31))))</f>
-        <v>1</v>
-      </c>
-      <c r="K31" s="4" t="str">
-        <f>C31&amp;J31</f>
+      <c r="K31" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>heatTRUE</v>
       </c>
-      <c r="L31">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D31,FIND("(",D31)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M31">
-        <f>IF(MID(D31,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N31">
-        <f>IFERROR(ABS(LOG10(E31)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>378</v>
       </c>
-      <c r="Q31" t="str">
-        <f>"0x"&amp;O31&amp;","&amp;CHAR(9)&amp;" // "&amp;B31&amp;" | "&amp;C31&amp;" | "&amp;D31&amp;" | datatype: "&amp;M31&amp;" | factor_exp10: "&amp;E31&amp;" | example: "&amp;F31</f>
+      <c r="R31" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x1D | heat | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1D00</v>
       </c>
-      <c r="R31" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C31," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S31" t="str">
+        <f t="shared" si="7"/>
         <v>heat</v>
       </c>
-      <c r="S31" s="9" t="str">
-        <f>"  "&amp;IF(OR(J31=TRUE,J31=FALSE),""""&amp;R31&amp;""": {""measurement_type"": "&amp;B31&amp;IF(NOT(ISBLANK(P31)),", ""device_class"": "&amp;P31,"")&amp;IF(J31=FALSE,", ""accuracy_decimals"": "&amp;N31&amp;", ""unit_of_measurement"": """&amp;H31&amp;"""","")&amp;"},","# "&amp;B31)</f>
+      <c r="T31" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "heat": {"measurement_type": 0x1D, "device_class": DEVICE_CLASS_HEAT},</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U31" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x1D: None,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6164,47 +6388,51 @@
       <c r="G32" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J32" t="b">
-        <f>IF(ISBLANK(D32),"NA",NOT(ISERR(FIND("True =",G32))))</f>
-        <v>1</v>
-      </c>
-      <c r="K32" s="4" t="str">
-        <f>C32&amp;J32</f>
+      <c r="K32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>lightTRUE</v>
       </c>
-      <c r="L32">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D32,FIND("(",D32)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M32">
-        <f>IF(MID(D32,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N32">
-        <f>IFERROR(ABS(LOG10(E32)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>379</v>
       </c>
-      <c r="Q32" t="str">
-        <f>"0x"&amp;O32&amp;","&amp;CHAR(9)&amp;" // "&amp;B32&amp;" | "&amp;C32&amp;" | "&amp;D32&amp;" | datatype: "&amp;M32&amp;" | factor_exp10: "&amp;E32&amp;" | example: "&amp;F32</f>
+      <c r="R32" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x1E | light | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 10</v>
       </c>
-      <c r="R32" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C32," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S32" t="str">
+        <f t="shared" si="7"/>
         <v>light</v>
       </c>
-      <c r="S32" s="9" t="str">
-        <f>"  "&amp;IF(OR(J32=TRUE,J32=FALSE),""""&amp;R32&amp;""": {""measurement_type"": "&amp;B32&amp;IF(NOT(ISBLANK(P32)),", ""device_class"": "&amp;P32,"")&amp;IF(J32=FALSE,", ""accuracy_decimals"": "&amp;N32&amp;", ""unit_of_measurement"": """&amp;H32&amp;"""","")&amp;"},","# "&amp;B32)</f>
+      <c r="T32" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "light": {"measurement_type": 0x1E, "device_class": DEVICE_CLASS_LIGHT},</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U32" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x1E: None,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6224,47 +6452,51 @@
       <c r="G33" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="J33" t="b">
-        <f>IF(ISBLANK(D33),"NA",NOT(ISERR(FIND("True =",G33))))</f>
-        <v>1</v>
-      </c>
-      <c r="K33" s="4" t="str">
-        <f>C33&amp;J33</f>
+      <c r="K33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>lockTRUE</v>
       </c>
-      <c r="L33">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D33,FIND("(",D33)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M33">
-        <f>IF(MID(D33,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="N33">
-        <f>IFERROR(ABS(LOG10(E33)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>380</v>
       </c>
-      <c r="Q33" t="str">
-        <f>"0x"&amp;O33&amp;","&amp;CHAR(9)&amp;" // "&amp;B33&amp;" | "&amp;C33&amp;" | "&amp;D33&amp;" | datatype: "&amp;M33&amp;" | factor_exp10: "&amp;E33&amp;" | example: "&amp;F33</f>
+      <c r="R33" t="str">
+        <f t="shared" si="6"/>
         <v>0x01,	 // 0x1F | lock | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 1F01</v>
       </c>
-      <c r="R33" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C33," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S33" t="str">
+        <f t="shared" si="7"/>
         <v>lock</v>
       </c>
-      <c r="S33" s="9" t="str">
-        <f>"  "&amp;IF(OR(J33=TRUE,J33=FALSE),""""&amp;R33&amp;""": {""measurement_type"": "&amp;B33&amp;IF(NOT(ISBLANK(P33)),", ""device_class"": "&amp;P33,"")&amp;IF(J33=FALSE,", ""accuracy_decimals"": "&amp;N33&amp;", ""unit_of_measurement"": """&amp;H33&amp;"""","")&amp;"},","# "&amp;B33)</f>
+      <c r="T33" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "lock": {"measurement_type": 0x1F, "device_class": DEVICE_CLASS_LOCK},</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U33" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x1F: None,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6284,47 +6516,51 @@
       <c r="G34" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J34" t="b">
-        <f>IF(ISBLANK(D34),"NA",NOT(ISERR(FIND("True =",G34))))</f>
-        <v>1</v>
-      </c>
-      <c r="K34" s="4" t="str">
-        <f>C34&amp;J34</f>
+      <c r="K34" t="b">
+        <f t="shared" ref="K34:K65" si="11">IF(ISBLANK(D34),"NA",NOT(ISERR(FIND("True =",G34))))</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="4" t="str">
+        <f t="shared" ref="L34:L65" si="12">C34&amp;K34</f>
         <v>moistureTRUE</v>
       </c>
-      <c r="L34">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D34,FIND("(",D34)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M34">
-        <f>IF(MID(D34,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="M34:M65" si="13">_xlfn.NUMBERVALUE(IFERROR(MID(D34,FIND("(",D34)+1,1),0))</f>
+        <v>1</v>
       </c>
       <c r="N34">
-        <f>IFERROR(ABS(LOG10(E34)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N34:N65" si="14">IF(MID(D34,1,4)="sint",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" ref="O34:O65" si="15">IFERROR(ABS(LOG10(E34)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>213</v>
       </c>
-      <c r="Q34" t="str">
-        <f>"0x"&amp;O34&amp;","&amp;CHAR(9)&amp;" // "&amp;B34&amp;" | "&amp;C34&amp;" | "&amp;D34&amp;" | datatype: "&amp;M34&amp;" | factor_exp10: "&amp;E34&amp;" | example: "&amp;F34</f>
+      <c r="R34" t="str">
+        <f t="shared" ref="R34:R65" si="16">"0x"&amp;P34&amp;","&amp;CHAR(9)&amp;" // "&amp;B34&amp;" | "&amp;C34&amp;" | "&amp;D34&amp;" | datatype: "&amp;N34&amp;" | factor_exp10: "&amp;E34&amp;" | example: "&amp;F34</f>
         <v>0x01,	 // 0x20 | moisture | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2001</v>
       </c>
-      <c r="R34" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C34," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S34" t="str">
+        <f t="shared" ref="S34:S65" si="17">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C34," ","_"),".","_"),"(",""),")","")</f>
         <v>moisture</v>
       </c>
-      <c r="S34" s="9" t="str">
-        <f>"  "&amp;IF(OR(J34=TRUE,J34=FALSE),""""&amp;R34&amp;""": {""measurement_type"": "&amp;B34&amp;IF(NOT(ISBLANK(P34)),", ""device_class"": "&amp;P34,"")&amp;IF(J34=FALSE,", ""accuracy_decimals"": "&amp;N34&amp;", ""unit_of_measurement"": """&amp;H34&amp;"""","")&amp;"},","# "&amp;B34)</f>
+      <c r="T34" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "moisture": {"measurement_type": 0x20, "device_class": DEVICE_CLASS_MOISTURE},</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U34" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x20: None,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6344,47 +6580,54 @@
       <c r="G35" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J35" t="b">
-        <f>IF(ISBLANK(D35),"NA",NOT(ISERR(FIND("True =",G35))))</f>
-        <v>1</v>
-      </c>
-      <c r="K35" s="4" t="str">
-        <f>C35&amp;J35</f>
+      <c r="I35" t="s">
+        <v>420</v>
+      </c>
+      <c r="K35" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L35" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>motionTRUE</v>
       </c>
-      <c r="L35">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D35,FIND("(",D35)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M35">
-        <f>IF(MID(D35,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N35">
-        <f>IFERROR(ABS(LOG10(E35)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>381</v>
       </c>
-      <c r="Q35" t="str">
-        <f>"0x"&amp;O35&amp;","&amp;CHAR(9)&amp;" // "&amp;B35&amp;" | "&amp;C35&amp;" | "&amp;D35&amp;" | datatype: "&amp;M35&amp;" | factor_exp10: "&amp;E35&amp;" | example: "&amp;F35</f>
+      <c r="R35" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x21 | motion | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2100</v>
       </c>
-      <c r="R35" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C35," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S35" t="str">
+        <f t="shared" si="17"/>
         <v>motion</v>
       </c>
-      <c r="S35" s="9" t="str">
-        <f>"  "&amp;IF(OR(J35=TRUE,J35=FALSE),""""&amp;R35&amp;""": {""measurement_type"": "&amp;B35&amp;IF(NOT(ISBLANK(P35)),", ""device_class"": "&amp;P35,"")&amp;IF(J35=FALSE,", ""accuracy_decimals"": "&amp;N35&amp;", ""unit_of_measurement"": """&amp;H35&amp;"""","")&amp;"},","# "&amp;B35)</f>
+      <c r="T35" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "motion": {"measurement_type": 0x21, "device_class": DEVICE_CLASS_MOTION},</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U35" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x21: "mdi:motion-sensor",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6404,47 +6647,51 @@
       <c r="G36" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="J36" t="b">
-        <f>IF(ISBLANK(D36),"NA",NOT(ISERR(FIND("True =",G36))))</f>
-        <v>1</v>
-      </c>
-      <c r="K36" s="4" t="str">
-        <f>C36&amp;J36</f>
+      <c r="K36" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>movingTRUE</v>
       </c>
-      <c r="L36">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D36,FIND("(",D36)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M36">
-        <f>IF(MID(D36,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N36">
-        <f>IFERROR(ABS(LOG10(E36)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>382</v>
       </c>
-      <c r="Q36" t="str">
-        <f>"0x"&amp;O36&amp;","&amp;CHAR(9)&amp;" // "&amp;B36&amp;" | "&amp;C36&amp;" | "&amp;D36&amp;" | datatype: "&amp;M36&amp;" | factor_exp10: "&amp;E36&amp;" | example: "&amp;F36</f>
+      <c r="R36" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x22 | moving | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2201</v>
       </c>
-      <c r="R36" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C36," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S36" t="str">
+        <f t="shared" si="17"/>
         <v>moving</v>
       </c>
-      <c r="S36" s="9" t="str">
-        <f>"  "&amp;IF(OR(J36=TRUE,J36=FALSE),""""&amp;R36&amp;""": {""measurement_type"": "&amp;B36&amp;IF(NOT(ISBLANK(P36)),", ""device_class"": "&amp;P36,"")&amp;IF(J36=FALSE,", ""accuracy_decimals"": "&amp;N36&amp;", ""unit_of_measurement"": """&amp;H36&amp;"""","")&amp;"},","# "&amp;B36)</f>
+      <c r="T36" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "moving": {"measurement_type": 0x22, "device_class": DEVICE_CLASS_MOVING},</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U36" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x22: None,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6464,47 +6711,51 @@
       <c r="G37" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J37" t="b">
-        <f>IF(ISBLANK(D37),"NA",NOT(ISERR(FIND("True =",G37))))</f>
-        <v>1</v>
-      </c>
-      <c r="K37" s="4" t="str">
-        <f>C37&amp;J37</f>
+      <c r="K37" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L37" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>occupancyTRUE</v>
       </c>
-      <c r="L37">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D37,FIND("(",D37)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M37">
-        <f>IF(MID(D37,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N37">
-        <f>IFERROR(ABS(LOG10(E37)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>383</v>
       </c>
-      <c r="Q37" t="str">
-        <f>"0x"&amp;O37&amp;","&amp;CHAR(9)&amp;" // "&amp;B37&amp;" | "&amp;C37&amp;" | "&amp;D37&amp;" | datatype: "&amp;M37&amp;" | factor_exp10: "&amp;E37&amp;" | example: "&amp;F37</f>
+      <c r="R37" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x23 | occupancy | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2301</v>
       </c>
-      <c r="R37" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C37," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S37" t="str">
+        <f t="shared" si="17"/>
         <v>occupancy</v>
       </c>
-      <c r="S37" s="9" t="str">
-        <f>"  "&amp;IF(OR(J37=TRUE,J37=FALSE),""""&amp;R37&amp;""": {""measurement_type"": "&amp;B37&amp;IF(NOT(ISBLANK(P37)),", ""device_class"": "&amp;P37,"")&amp;IF(J37=FALSE,", ""accuracy_decimals"": "&amp;N37&amp;", ""unit_of_measurement"": """&amp;H37&amp;"""","")&amp;"},","# "&amp;B37)</f>
+      <c r="T37" s="9" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">  "occupancy": {"measurement_type": 0x23, "device_class": DEVICE_CLASS_OCCUPANCY},</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U37" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x23: None,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6524,47 +6775,51 @@
       <c r="G38" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J38" t="b">
-        <f>IF(ISBLANK(D38),"NA",NOT(ISERR(FIND("True =",G38))))</f>
-        <v>1</v>
-      </c>
-      <c r="K38" s="4" t="str">
-        <f>C38&amp;J38</f>
+      <c r="K38" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L38" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>plugTRUE</v>
       </c>
-      <c r="L38">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D38,FIND("(",D38)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M38">
-        <f>IF(MID(D38,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N38">
-        <f>IFERROR(ABS(LOG10(E38)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>384</v>
       </c>
-      <c r="Q38" t="str">
-        <f>"0x"&amp;O38&amp;","&amp;CHAR(9)&amp;" // "&amp;B38&amp;" | "&amp;C38&amp;" | "&amp;D38&amp;" | datatype: "&amp;M38&amp;" | factor_exp10: "&amp;E38&amp;" | example: "&amp;F38</f>
+      <c r="R38" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x24 | plug | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2400</v>
       </c>
-      <c r="R38" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C38," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S38" t="str">
+        <f t="shared" si="17"/>
         <v>plug</v>
       </c>
-      <c r="S38" s="9" t="str">
-        <f>"  "&amp;IF(OR(J38=TRUE,J38=FALSE),""""&amp;R38&amp;""": {""measurement_type"": "&amp;B38&amp;IF(NOT(ISBLANK(P19)),", ""device_class"": "&amp;P19,"")&amp;IF(J38=FALSE,", ""accuracy_decimals"": "&amp;N38&amp;", ""unit_of_measurement"": """&amp;H38&amp;"""","")&amp;"},","# "&amp;B38)</f>
+      <c r="T38" s="9" t="str">
+        <f>"  "&amp;IF(OR(K38=TRUE,K38=FALSE),""""&amp;S38&amp;""": {""measurement_type"": "&amp;B38&amp;IF(NOT(ISBLANK(Q19)),", ""device_class"": "&amp;Q19,"")&amp;IF(K38=FALSE,", ""accuracy_decimals"": "&amp;O38&amp;", ""unit_of_measurement"": """&amp;H38&amp;"""","")&amp;"},","# "&amp;B38)</f>
         <v xml:space="preserve">  "plug": {"measurement_type": 0x24, "device_class": DEVICE_CLASS_OPENING},</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U38" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x24: None,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6584,47 +6839,51 @@
       <c r="G39" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="J39" t="b">
-        <f>IF(ISBLANK(D39),"NA",NOT(ISERR(FIND("True =",G39))))</f>
-        <v>1</v>
-      </c>
-      <c r="K39" s="4" t="str">
-        <f>C39&amp;J39</f>
+      <c r="K39" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L39" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>presenceTRUE</v>
       </c>
-      <c r="L39">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D39,FIND("(",D39)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M39">
-        <f>IF(MID(D39,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N39">
-        <f>IFERROR(ABS(LOG10(E39)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>385</v>
       </c>
-      <c r="Q39" t="str">
-        <f>"0x"&amp;O39&amp;","&amp;CHAR(9)&amp;" // "&amp;B39&amp;" | "&amp;C39&amp;" | "&amp;D39&amp;" | datatype: "&amp;M39&amp;" | factor_exp10: "&amp;E39&amp;" | example: "&amp;F39</f>
+      <c r="R39" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x25 | presence | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2500</v>
       </c>
-      <c r="R39" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C39," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S39" t="str">
+        <f t="shared" si="17"/>
         <v>presence</v>
       </c>
-      <c r="S39" s="9" t="str">
-        <f>"  "&amp;IF(OR(J39=TRUE,J39=FALSE),""""&amp;R39&amp;""": {""measurement_type"": "&amp;B39&amp;IF(NOT(ISBLANK(P38)),", ""device_class"": "&amp;P38,"")&amp;IF(J39=FALSE,", ""accuracy_decimals"": "&amp;N39&amp;", ""unit_of_measurement"": """&amp;H39&amp;"""","")&amp;"},","# "&amp;B39)</f>
+      <c r="T39" s="9" t="str">
+        <f t="shared" ref="T39:T47" si="18">"  "&amp;IF(OR(K39=TRUE,K39=FALSE),""""&amp;S39&amp;""": {""measurement_type"": "&amp;B39&amp;IF(NOT(ISBLANK(Q38)),", ""device_class"": "&amp;Q38,"")&amp;IF(K39=FALSE,", ""accuracy_decimals"": "&amp;O39&amp;", ""unit_of_measurement"": """&amp;H39&amp;"""","")&amp;"},","# "&amp;B39)</f>
         <v xml:space="preserve">  "presence": {"measurement_type": 0x25, "device_class": DEVICE_CLASS_PLUG},</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U39" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x25: None,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6644,47 +6903,51 @@
       <c r="G40" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="J40" t="b">
-        <f>IF(ISBLANK(D40),"NA",NOT(ISERR(FIND("True =",G40))))</f>
-        <v>1</v>
-      </c>
-      <c r="K40" s="4" t="str">
-        <f>C40&amp;J40</f>
+      <c r="K40" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>problemTRUE</v>
       </c>
-      <c r="L40">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D40,FIND("(",D40)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M40">
-        <f>IF(MID(D40,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N40">
-        <f>IFERROR(ABS(LOG10(E40)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>386</v>
       </c>
-      <c r="Q40" t="str">
-        <f>"0x"&amp;O40&amp;","&amp;CHAR(9)&amp;" // "&amp;B40&amp;" | "&amp;C40&amp;" | "&amp;D40&amp;" | datatype: "&amp;M40&amp;" | factor_exp10: "&amp;E40&amp;" | example: "&amp;F40</f>
+      <c r="R40" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x26 | problem | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2601</v>
       </c>
-      <c r="R40" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C40," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S40" t="str">
+        <f t="shared" si="17"/>
         <v>problem</v>
       </c>
-      <c r="S40" s="9" t="str">
-        <f>"  "&amp;IF(OR(J40=TRUE,J40=FALSE),""""&amp;R40&amp;""": {""measurement_type"": "&amp;B40&amp;IF(NOT(ISBLANK(P39)),", ""device_class"": "&amp;P39,"")&amp;IF(J40=FALSE,", ""accuracy_decimals"": "&amp;N40&amp;", ""unit_of_measurement"": """&amp;H40&amp;"""","")&amp;"},","# "&amp;B40)</f>
+      <c r="T40" s="9" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  "problem": {"measurement_type": 0x26, "device_class": DEVICE_CLASS_PRESENCE},</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U40" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x26: None,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6704,47 +6967,51 @@
       <c r="G41" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="J41" t="b">
-        <f>IF(ISBLANK(D41),"NA",NOT(ISERR(FIND("True =",G41))))</f>
-        <v>1</v>
-      </c>
-      <c r="K41" s="4" t="str">
-        <f>C41&amp;J41</f>
+      <c r="K41" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L41" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>runningTRUE</v>
       </c>
-      <c r="L41">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D41,FIND("(",D41)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M41">
-        <f>IF(MID(D41,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N41">
-        <f>IFERROR(ABS(LOG10(E41)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>387</v>
       </c>
-      <c r="Q41" t="str">
-        <f>"0x"&amp;O41&amp;","&amp;CHAR(9)&amp;" // "&amp;B41&amp;" | "&amp;C41&amp;" | "&amp;D41&amp;" | datatype: "&amp;M41&amp;" | factor_exp10: "&amp;E41&amp;" | example: "&amp;F41</f>
+      <c r="R41" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x27 | running | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2701</v>
       </c>
-      <c r="R41" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C41," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S41" t="str">
+        <f t="shared" si="17"/>
         <v>running</v>
       </c>
-      <c r="S41" s="9" t="str">
-        <f>"  "&amp;IF(OR(J41=TRUE,J41=FALSE),""""&amp;R41&amp;""": {""measurement_type"": "&amp;B41&amp;IF(NOT(ISBLANK(P40)),", ""device_class"": "&amp;P40,"")&amp;IF(J41=FALSE,", ""accuracy_decimals"": "&amp;N41&amp;", ""unit_of_measurement"": """&amp;H41&amp;"""","")&amp;"},","# "&amp;B41)</f>
+      <c r="T41" s="9" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  "running": {"measurement_type": 0x27, "device_class": DEVICE_CLASS_PROBLEM},</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U41" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x27: None,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6764,47 +7031,51 @@
       <c r="G42" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="J42" t="b">
-        <f>IF(ISBLANK(D42),"NA",NOT(ISERR(FIND("True =",G42))))</f>
-        <v>1</v>
-      </c>
-      <c r="K42" s="4" t="str">
-        <f>C42&amp;J42</f>
+      <c r="K42" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L42" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>safetyTRUE</v>
       </c>
-      <c r="L42">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D42,FIND("(",D42)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M42">
-        <f>IF(MID(D42,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N42">
-        <f>IFERROR(ABS(LOG10(E42)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>388</v>
       </c>
-      <c r="Q42" t="str">
-        <f>"0x"&amp;O42&amp;","&amp;CHAR(9)&amp;" // "&amp;B42&amp;" | "&amp;C42&amp;" | "&amp;D42&amp;" | datatype: "&amp;M42&amp;" | factor_exp10: "&amp;E42&amp;" | example: "&amp;F42</f>
+      <c r="R42" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x28 | safety | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2800</v>
       </c>
-      <c r="R42" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C42," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S42" t="str">
+        <f t="shared" si="17"/>
         <v>safety</v>
       </c>
-      <c r="S42" s="9" t="str">
-        <f>"  "&amp;IF(OR(J42=TRUE,J42=FALSE),""""&amp;R42&amp;""": {""measurement_type"": "&amp;B42&amp;IF(NOT(ISBLANK(P41)),", ""device_class"": "&amp;P41,"")&amp;IF(J42=FALSE,", ""accuracy_decimals"": "&amp;N42&amp;", ""unit_of_measurement"": """&amp;H42&amp;"""","")&amp;"},","# "&amp;B42)</f>
+      <c r="T42" s="9" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  "safety": {"measurement_type": 0x28, "device_class": DEVICE_CLASS_RUNNING},</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U42" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x28: None,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6824,47 +7095,51 @@
       <c r="G43" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J43" t="b">
-        <f>IF(ISBLANK(D43),"NA",NOT(ISERR(FIND("True =",G43))))</f>
-        <v>1</v>
-      </c>
-      <c r="K43" s="4" t="str">
-        <f>C43&amp;J43</f>
+      <c r="K43" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L43" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>smokeTRUE</v>
       </c>
-      <c r="L43">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D43,FIND("(",D43)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M43">
-        <f>IF(MID(D43,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N43">
-        <f>IFERROR(ABS(LOG10(E43)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>389</v>
       </c>
-      <c r="Q43" t="str">
-        <f>"0x"&amp;O43&amp;","&amp;CHAR(9)&amp;" // "&amp;B43&amp;" | "&amp;C43&amp;" | "&amp;D43&amp;" | datatype: "&amp;M43&amp;" | factor_exp10: "&amp;E43&amp;" | example: "&amp;F43</f>
+      <c r="R43" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x29 | smoke | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2901</v>
       </c>
-      <c r="R43" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C43," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S43" t="str">
+        <f t="shared" si="17"/>
         <v>smoke</v>
       </c>
-      <c r="S43" s="9" t="str">
-        <f>"  "&amp;IF(OR(J43=TRUE,J43=FALSE),""""&amp;R43&amp;""": {""measurement_type"": "&amp;B43&amp;IF(NOT(ISBLANK(P42)),", ""device_class"": "&amp;P42,"")&amp;IF(J43=FALSE,", ""accuracy_decimals"": "&amp;N43&amp;", ""unit_of_measurement"": """&amp;H43&amp;"""","")&amp;"},","# "&amp;B43)</f>
+      <c r="T43" s="9" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  "smoke": {"measurement_type": 0x29, "device_class": DEVICE_CLASS_SAFETY},</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U43" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x29: None,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6884,47 +7159,51 @@
       <c r="G44" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J44" t="b">
-        <f>IF(ISBLANK(D44),"NA",NOT(ISERR(FIND("True =",G44))))</f>
-        <v>1</v>
-      </c>
-      <c r="K44" s="4" t="str">
-        <f>C44&amp;J44</f>
+      <c r="K44" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L44" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>soundTRUE</v>
       </c>
-      <c r="L44">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D44,FIND("(",D44)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M44">
-        <f>IF(MID(D44,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N44">
-        <f>IFERROR(ABS(LOG10(E44)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>390</v>
       </c>
-      <c r="Q44" t="str">
-        <f>"0x"&amp;O44&amp;","&amp;CHAR(9)&amp;" // "&amp;B44&amp;" | "&amp;C44&amp;" | "&amp;D44&amp;" | datatype: "&amp;M44&amp;" | factor_exp10: "&amp;E44&amp;" | example: "&amp;F44</f>
+      <c r="R44" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x2A | sound | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2A00</v>
       </c>
-      <c r="R44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C44," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S44" t="str">
+        <f t="shared" si="17"/>
         <v>sound</v>
       </c>
-      <c r="S44" s="9" t="str">
-        <f>"  "&amp;IF(OR(J44=TRUE,J44=FALSE),""""&amp;R44&amp;""": {""measurement_type"": "&amp;B44&amp;IF(NOT(ISBLANK(P43)),", ""device_class"": "&amp;P43,"")&amp;IF(J44=FALSE,", ""accuracy_decimals"": "&amp;N44&amp;", ""unit_of_measurement"": """&amp;H44&amp;"""","")&amp;"},","# "&amp;B44)</f>
+      <c r="T44" s="9" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  "sound": {"measurement_type": 0x2A, "device_class": DEVICE_CLASS_SMOKE},</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U44" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x2A: None,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6944,47 +7223,51 @@
       <c r="G45" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J45" t="b">
-        <f>IF(ISBLANK(D45),"NA",NOT(ISERR(FIND("True =",G45))))</f>
-        <v>1</v>
-      </c>
-      <c r="K45" s="4" t="str">
-        <f>C45&amp;J45</f>
+      <c r="K45" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L45" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>tamperTRUE</v>
       </c>
-      <c r="L45">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D45,FIND("(",D45)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M45">
-        <f>IF(MID(D45,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N45">
-        <f>IFERROR(ABS(LOG10(E45)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>391</v>
       </c>
-      <c r="Q45" t="str">
-        <f>"0x"&amp;O45&amp;","&amp;CHAR(9)&amp;" // "&amp;B45&amp;" | "&amp;C45&amp;" | "&amp;D45&amp;" | datatype: "&amp;M45&amp;" | factor_exp10: "&amp;E45&amp;" | example: "&amp;F45</f>
+      <c r="R45" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x2B | tamper | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2B00</v>
       </c>
-      <c r="R45" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C45," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S45" t="str">
+        <f t="shared" si="17"/>
         <v>tamper</v>
       </c>
-      <c r="S45" s="9" t="str">
-        <f>"  "&amp;IF(OR(J45=TRUE,J45=FALSE),""""&amp;R45&amp;""": {""measurement_type"": "&amp;B45&amp;IF(NOT(ISBLANK(P44)),", ""device_class"": "&amp;P44,"")&amp;IF(J45=FALSE,", ""accuracy_decimals"": "&amp;N45&amp;", ""unit_of_measurement"": """&amp;H45&amp;"""","")&amp;"},","# "&amp;B45)</f>
+      <c r="T45" s="9" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  "tamper": {"measurement_type": 0x2B, "device_class": DEVICE_CLASS_SOUND},</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U45" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x2B: None,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -7004,47 +7287,51 @@
       <c r="G46" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J46" t="b">
-        <f>IF(ISBLANK(D46),"NA",NOT(ISERR(FIND("True =",G46))))</f>
-        <v>1</v>
-      </c>
-      <c r="K46" s="4" t="str">
-        <f>C46&amp;J46</f>
+      <c r="K46" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L46" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>vibrationTRUE</v>
       </c>
-      <c r="L46">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D46,FIND("(",D46)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M46">
-        <f>IF(MID(D46,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N46">
-        <f>IFERROR(ABS(LOG10(E46)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>392</v>
       </c>
-      <c r="Q46" t="str">
-        <f>"0x"&amp;O46&amp;","&amp;CHAR(9)&amp;" // "&amp;B46&amp;" | "&amp;C46&amp;" | "&amp;D46&amp;" | datatype: "&amp;M46&amp;" | factor_exp10: "&amp;E46&amp;" | example: "&amp;F46</f>
+      <c r="R46" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x2C | vibration | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2C01</v>
       </c>
-      <c r="R46" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C46," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S46" t="str">
+        <f t="shared" si="17"/>
         <v>vibration</v>
       </c>
-      <c r="S46" s="9" t="str">
-        <f>"  "&amp;IF(OR(J46=TRUE,J46=FALSE),""""&amp;R46&amp;""": {""measurement_type"": "&amp;B46&amp;IF(NOT(ISBLANK(P45)),", ""device_class"": "&amp;P45,"")&amp;IF(J46=FALSE,", ""accuracy_decimals"": "&amp;N46&amp;", ""unit_of_measurement"": """&amp;H46&amp;"""","")&amp;"},","# "&amp;B46)</f>
+      <c r="T46" s="9" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  "vibration": {"measurement_type": 0x2C, "device_class": DEVICE_CLASS_TAMPER},</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U46" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x2C: None,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7064,47 +7351,51 @@
       <c r="G47" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J47" t="b">
-        <f>IF(ISBLANK(D47),"NA",NOT(ISERR(FIND("True =",G47))))</f>
-        <v>1</v>
-      </c>
-      <c r="K47" s="4" t="str">
-        <f>C47&amp;J47</f>
+      <c r="K47" t="b">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L47" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>windowTRUE</v>
       </c>
-      <c r="L47">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D47,FIND("(",D47)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M47">
-        <f>IF(MID(D47,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N47">
-        <f>IFERROR(ABS(LOG10(E47)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>393</v>
       </c>
-      <c r="Q47" t="str">
-        <f>"0x"&amp;O47&amp;","&amp;CHAR(9)&amp;" // "&amp;B47&amp;" | "&amp;C47&amp;" | "&amp;D47&amp;" | datatype: "&amp;M47&amp;" | factor_exp10: "&amp;E47&amp;" | example: "&amp;F47</f>
+      <c r="R47" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x2D | window | uint8 (1 byte) | datatype: 0 | factor_exp10:  | example: 2D01</v>
       </c>
-      <c r="R47" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C47," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S47" t="str">
+        <f t="shared" si="17"/>
         <v>window</v>
       </c>
-      <c r="S47" s="9" t="str">
-        <f>"  "&amp;IF(OR(J47=TRUE,J47=FALSE),""""&amp;R47&amp;""": {""measurement_type"": "&amp;B47&amp;IF(NOT(ISBLANK(P46)),", ""device_class"": "&amp;P46,"")&amp;IF(J47=FALSE,", ""accuracy_decimals"": "&amp;N47&amp;", ""unit_of_measurement"": """&amp;H47&amp;"""","")&amp;"},","# "&amp;B47)</f>
+      <c r="T47" s="9" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  "window": {"measurement_type": 0x2D, "device_class": DEVICE_CLASS_VIBRATION},</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U47" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x2D: None,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -7130,44 +7421,51 @@
       <c r="H48" t="s">
         <v>8</v>
       </c>
-      <c r="J48" t="b">
-        <f>IF(ISBLANK(D48),"NA",NOT(ISERR(FIND("True =",G48))))</f>
-        <v>0</v>
-      </c>
-      <c r="K48" s="4" t="str">
-        <f>C48&amp;J48</f>
+      <c r="I48" t="s">
+        <v>414</v>
+      </c>
+      <c r="K48" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>humidity coarseFALSE</v>
       </c>
-      <c r="L48">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D48,FIND("(",D48)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M48">
-        <f>IF(MID(D48,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N48">
-        <f>IFERROR(ABS(LOG10(E48)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="Q48" t="str">
-        <f>"0x"&amp;O48&amp;","&amp;CHAR(9)&amp;" // "&amp;B48&amp;" | "&amp;C48&amp;" | "&amp;D48&amp;" | datatype: "&amp;M48&amp;" | factor_exp10: "&amp;E48&amp;" | example: "&amp;F48</f>
+      <c r="R48" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x2E | humidity coarse | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 2E23</v>
       </c>
-      <c r="R48" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C48," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S48" t="str">
+        <f t="shared" si="17"/>
         <v>humidity_coarse</v>
       </c>
-      <c r="S48" s="9" t="str">
-        <f>"  "&amp;IF(OR(J48=TRUE,J48=FALSE),""""&amp;R48&amp;""": {""measurement_type"": "&amp;B48&amp;IF(NOT(ISBLANK(P48)),", ""device_class"": "&amp;P48,"")&amp;IF(J48=FALSE,", ""accuracy_decimals"": "&amp;N48&amp;", ""unit_of_measurement"": """&amp;H48&amp;"""","")&amp;"},","# "&amp;B48)</f>
+      <c r="T48" s="9" t="str">
+        <f t="shared" ref="T48:T84" si="19">"  "&amp;IF(OR(K48=TRUE,K48=FALSE),""""&amp;S48&amp;""": {""measurement_type"": "&amp;B48&amp;IF(NOT(ISBLANK(Q48)),", ""device_class"": "&amp;Q48,"")&amp;IF(K48=FALSE,", ""accuracy_decimals"": "&amp;O48&amp;", ""unit_of_measurement"": """&amp;H48&amp;"""","")&amp;"},","# "&amp;B48)</f>
         <v xml:space="preserve">  "humidity_coarse": {"measurement_type": 0x2E, "accuracy_decimals": 0, "unit_of_measurement": "%"},</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U48" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x2E: "mdi:percent",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7193,44 +7491,51 @@
       <c r="H49" t="s">
         <v>8</v>
       </c>
-      <c r="J49" t="b">
-        <f>IF(ISBLANK(D49),"NA",NOT(ISERR(FIND("True =",G49))))</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="4" t="str">
-        <f>C49&amp;J49</f>
+      <c r="I49" t="s">
+        <v>414</v>
+      </c>
+      <c r="K49" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>moisture coarseFALSE</v>
       </c>
-      <c r="L49">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D49,FIND("(",D49)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M49">
-        <f>IF(MID(D49,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="N49">
-        <f>IFERROR(ABS(LOG10(E49)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="Q49" t="str">
-        <f>"0x"&amp;O49&amp;","&amp;CHAR(9)&amp;" // "&amp;B49&amp;" | "&amp;C49&amp;" | "&amp;D49&amp;" | datatype: "&amp;M49&amp;" | factor_exp10: "&amp;E49&amp;" | example: "&amp;F49</f>
+      <c r="R49" t="str">
+        <f t="shared" si="16"/>
         <v>0x01,	 // 0x2F | moisture coarse | uint8 (1 byte) | datatype: 0 | factor_exp10: 1 | example: 2F23</v>
       </c>
-      <c r="R49" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C49," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S49" t="str">
+        <f t="shared" si="17"/>
         <v>moisture_coarse</v>
       </c>
-      <c r="S49" s="9" t="str">
-        <f>"  "&amp;IF(OR(J49=TRUE,J49=FALSE),""""&amp;R49&amp;""": {""measurement_type"": "&amp;B49&amp;IF(NOT(ISBLANK(P49)),", ""device_class"": "&amp;P49,"")&amp;IF(J49=FALSE,", ""accuracy_decimals"": "&amp;N49&amp;", ""unit_of_measurement"": """&amp;H49&amp;"""","")&amp;"},","# "&amp;B49)</f>
+      <c r="T49" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "moisture_coarse": {"measurement_type": 0x2F, "accuracy_decimals": 0, "unit_of_measurement": "%"},</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U49" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x2F: "mdi:percent",</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7241,44 +7546,48 @@
       <c r="C50" t="s">
         <v>350</v>
       </c>
-      <c r="J50" t="str">
-        <f>IF(ISBLANK(D50),"NA",NOT(ISERR(FIND("True =",G50))))</f>
+      <c r="K50" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K50" s="4" t="str">
-        <f>C50&amp;J50</f>
+      <c r="L50" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>NANA</v>
       </c>
-      <c r="L50">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D50,FIND("(",D50)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M50">
-        <f>IF(MID(D50,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N50">
-        <f>IFERROR(ABS(LOG10(E50)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q50" t="str">
-        <f>"0x"&amp;O50&amp;","&amp;CHAR(9)&amp;" // "&amp;B50&amp;" | "&amp;C50&amp;" | "&amp;D50&amp;" | datatype: "&amp;M50&amp;" | factor_exp10: "&amp;E50&amp;" | example: "&amp;F50</f>
+      <c r="R50" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x30 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R50" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C50," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S50" t="str">
+        <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="S50" s="9" t="str">
-        <f>"  "&amp;IF(OR(J50=TRUE,J50=FALSE),""""&amp;R50&amp;""": {""measurement_type"": "&amp;B50&amp;IF(NOT(ISBLANK(P50)),", ""device_class"": "&amp;P50,"")&amp;IF(J50=FALSE,", ""accuracy_decimals"": "&amp;N50&amp;", ""unit_of_measurement"": """&amp;H50&amp;"""","")&amp;"},","# "&amp;B50)</f>
+      <c r="T50" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x30</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U50" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x30: None,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7289,44 +7598,48 @@
       <c r="C51" t="s">
         <v>350</v>
       </c>
-      <c r="J51" t="str">
-        <f>IF(ISBLANK(D51),"NA",NOT(ISERR(FIND("True =",G51))))</f>
+      <c r="K51" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K51" s="4" t="str">
-        <f>C51&amp;J51</f>
+      <c r="L51" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>NANA</v>
       </c>
-      <c r="L51">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D51,FIND("(",D51)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M51">
-        <f>IF(MID(D51,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N51">
-        <f>IFERROR(ABS(LOG10(E51)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q51" t="str">
-        <f>"0x"&amp;O51&amp;","&amp;CHAR(9)&amp;" // "&amp;B51&amp;" | "&amp;C51&amp;" | "&amp;D51&amp;" | datatype: "&amp;M51&amp;" | factor_exp10: "&amp;E51&amp;" | example: "&amp;F51</f>
+      <c r="R51" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x31 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R51" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C51," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S51" t="str">
+        <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="S51" s="9" t="str">
-        <f>"  "&amp;IF(OR(J51=TRUE,J51=FALSE),""""&amp;R51&amp;""": {""measurement_type"": "&amp;B51&amp;IF(NOT(ISBLANK(P51)),", ""device_class"": "&amp;P51,"")&amp;IF(J51=FALSE,", ""accuracy_decimals"": "&amp;N51&amp;", ""unit_of_measurement"": """&amp;H51&amp;"""","")&amp;"},","# "&amp;B51)</f>
+      <c r="T51" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x31</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U51" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x31: None,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7337,44 +7650,48 @@
       <c r="C52" t="s">
         <v>350</v>
       </c>
-      <c r="J52" t="str">
-        <f>IF(ISBLANK(D52),"NA",NOT(ISERR(FIND("True =",G52))))</f>
+      <c r="K52" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K52" s="4" t="str">
-        <f>C52&amp;J52</f>
+      <c r="L52" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>NANA</v>
       </c>
-      <c r="L52">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D52,FIND("(",D52)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M52">
-        <f>IF(MID(D52,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N52">
-        <f>IFERROR(ABS(LOG10(E52)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q52" t="str">
-        <f>"0x"&amp;O52&amp;","&amp;CHAR(9)&amp;" // "&amp;B52&amp;" | "&amp;C52&amp;" | "&amp;D52&amp;" | datatype: "&amp;M52&amp;" | factor_exp10: "&amp;E52&amp;" | example: "&amp;F52</f>
+      <c r="R52" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x32 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R52" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C52," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S52" t="str">
+        <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="S52" s="9" t="str">
-        <f>"  "&amp;IF(OR(J52=TRUE,J52=FALSE),""""&amp;R52&amp;""": {""measurement_type"": "&amp;B52&amp;IF(NOT(ISBLANK(P52)),", ""device_class"": "&amp;P52,"")&amp;IF(J52=FALSE,", ""accuracy_decimals"": "&amp;N52&amp;", ""unit_of_measurement"": """&amp;H52&amp;"""","")&amp;"},","# "&amp;B52)</f>
+      <c r="T52" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x32</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U52" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x32: None,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -7385,44 +7702,48 @@
       <c r="C53" t="s">
         <v>350</v>
       </c>
-      <c r="J53" t="str">
-        <f>IF(ISBLANK(D53),"NA",NOT(ISERR(FIND("True =",G53))))</f>
+      <c r="K53" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K53" s="4" t="str">
-        <f>C53&amp;J53</f>
+      <c r="L53" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>NANA</v>
       </c>
-      <c r="L53">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D53,FIND("(",D53)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M53">
-        <f>IF(MID(D53,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N53">
-        <f>IFERROR(ABS(LOG10(E53)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q53" t="str">
-        <f>"0x"&amp;O53&amp;","&amp;CHAR(9)&amp;" // "&amp;B53&amp;" | "&amp;C53&amp;" | "&amp;D53&amp;" | datatype: "&amp;M53&amp;" | factor_exp10: "&amp;E53&amp;" | example: "&amp;F53</f>
+      <c r="R53" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x33 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R53" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C53," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S53" t="str">
+        <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="S53" s="9" t="str">
-        <f>"  "&amp;IF(OR(J53=TRUE,J53=FALSE),""""&amp;R53&amp;""": {""measurement_type"": "&amp;B53&amp;IF(NOT(ISBLANK(P53)),", ""device_class"": "&amp;P53,"")&amp;IF(J53=FALSE,", ""accuracy_decimals"": "&amp;N53&amp;", ""unit_of_measurement"": """&amp;H53&amp;"""","")&amp;"},","# "&amp;B53)</f>
+      <c r="T53" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x33</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U53" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x33: None,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -7433,44 +7754,48 @@
       <c r="C54" t="s">
         <v>350</v>
       </c>
-      <c r="J54" t="str">
-        <f>IF(ISBLANK(D54),"NA",NOT(ISERR(FIND("True =",G54))))</f>
+      <c r="K54" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K54" s="4" t="str">
-        <f>C54&amp;J54</f>
+      <c r="L54" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>NANA</v>
       </c>
-      <c r="L54">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D54,FIND("(",D54)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M54">
-        <f>IF(MID(D54,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N54">
-        <f>IFERROR(ABS(LOG10(E54)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q54" t="str">
-        <f>"0x"&amp;O54&amp;","&amp;CHAR(9)&amp;" // "&amp;B54&amp;" | "&amp;C54&amp;" | "&amp;D54&amp;" | datatype: "&amp;M54&amp;" | factor_exp10: "&amp;E54&amp;" | example: "&amp;F54</f>
+      <c r="R54" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x34 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R54" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C54," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S54" t="str">
+        <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="S54" s="9" t="str">
-        <f>"  "&amp;IF(OR(J54=TRUE,J54=FALSE),""""&amp;R54&amp;""": {""measurement_type"": "&amp;B54&amp;IF(NOT(ISBLANK(P54)),", ""device_class"": "&amp;P54,"")&amp;IF(J54=FALSE,", ""accuracy_decimals"": "&amp;N54&amp;", ""unit_of_measurement"": """&amp;H54&amp;"""","")&amp;"},","# "&amp;B54)</f>
+      <c r="T54" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x34</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U54" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x34: None,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -7481,44 +7806,48 @@
       <c r="C55" t="s">
         <v>350</v>
       </c>
-      <c r="J55" t="str">
-        <f>IF(ISBLANK(D55),"NA",NOT(ISERR(FIND("True =",G55))))</f>
+      <c r="K55" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K55" s="4" t="str">
-        <f>C55&amp;J55</f>
+      <c r="L55" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>NANA</v>
       </c>
-      <c r="L55">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D55,FIND("(",D55)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M55">
-        <f>IF(MID(D55,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N55">
-        <f>IFERROR(ABS(LOG10(E55)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q55" t="str">
-        <f>"0x"&amp;O55&amp;","&amp;CHAR(9)&amp;" // "&amp;B55&amp;" | "&amp;C55&amp;" | "&amp;D55&amp;" | datatype: "&amp;M55&amp;" | factor_exp10: "&amp;E55&amp;" | example: "&amp;F55</f>
+      <c r="R55" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x35 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R55" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C55," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S55" t="str">
+        <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="S55" s="9" t="str">
-        <f>"  "&amp;IF(OR(J55=TRUE,J55=FALSE),""""&amp;R55&amp;""": {""measurement_type"": "&amp;B55&amp;IF(NOT(ISBLANK(P55)),", ""device_class"": "&amp;P55,"")&amp;IF(J55=FALSE,", ""accuracy_decimals"": "&amp;N55&amp;", ""unit_of_measurement"": """&amp;H55&amp;"""","")&amp;"},","# "&amp;B55)</f>
+      <c r="T55" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x35</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U55" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x35: None,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -7529,44 +7858,48 @@
       <c r="C56" t="s">
         <v>350</v>
       </c>
-      <c r="J56" t="str">
-        <f>IF(ISBLANK(D56),"NA",NOT(ISERR(FIND("True =",G56))))</f>
+      <c r="K56" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K56" s="4" t="str">
-        <f>C56&amp;J56</f>
+      <c r="L56" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>NANA</v>
       </c>
-      <c r="L56">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D56,FIND("(",D56)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M56">
-        <f>IF(MID(D56,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N56">
-        <f>IFERROR(ABS(LOG10(E56)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q56" t="str">
-        <f>"0x"&amp;O56&amp;","&amp;CHAR(9)&amp;" // "&amp;B56&amp;" | "&amp;C56&amp;" | "&amp;D56&amp;" | datatype: "&amp;M56&amp;" | factor_exp10: "&amp;E56&amp;" | example: "&amp;F56</f>
+      <c r="R56" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x36 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R56" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C56," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S56" t="str">
+        <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="S56" s="9" t="str">
-        <f>"  "&amp;IF(OR(J56=TRUE,J56=FALSE),""""&amp;R56&amp;""": {""measurement_type"": "&amp;B56&amp;IF(NOT(ISBLANK(P56)),", ""device_class"": "&amp;P56,"")&amp;IF(J56=FALSE,", ""accuracy_decimals"": "&amp;N56&amp;", ""unit_of_measurement"": """&amp;H56&amp;"""","")&amp;"},","# "&amp;B56)</f>
+      <c r="T56" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x36</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U56" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x36: None,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -7577,44 +7910,48 @@
       <c r="C57" t="s">
         <v>350</v>
       </c>
-      <c r="J57" t="str">
-        <f>IF(ISBLANK(D57),"NA",NOT(ISERR(FIND("True =",G57))))</f>
+      <c r="K57" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K57" s="4" t="str">
-        <f>C57&amp;J57</f>
+      <c r="L57" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>NANA</v>
       </c>
-      <c r="L57">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D57,FIND("(",D57)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M57">
-        <f>IF(MID(D57,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N57">
-        <f>IFERROR(ABS(LOG10(E57)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q57" t="str">
-        <f>"0x"&amp;O57&amp;","&amp;CHAR(9)&amp;" // "&amp;B57&amp;" | "&amp;C57&amp;" | "&amp;D57&amp;" | datatype: "&amp;M57&amp;" | factor_exp10: "&amp;E57&amp;" | example: "&amp;F57</f>
+      <c r="R57" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x37 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R57" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C57," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S57" t="str">
+        <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="S57" s="9" t="str">
-        <f>"  "&amp;IF(OR(J57=TRUE,J57=FALSE),""""&amp;R57&amp;""": {""measurement_type"": "&amp;B57&amp;IF(NOT(ISBLANK(P57)),", ""device_class"": "&amp;P57,"")&amp;IF(J57=FALSE,", ""accuracy_decimals"": "&amp;N57&amp;", ""unit_of_measurement"": """&amp;H57&amp;"""","")&amp;"},","# "&amp;B57)</f>
+      <c r="T57" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x37</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U57" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x37: None,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -7625,44 +7962,48 @@
       <c r="C58" t="s">
         <v>350</v>
       </c>
-      <c r="J58" t="str">
-        <f>IF(ISBLANK(D58),"NA",NOT(ISERR(FIND("True =",G58))))</f>
+      <c r="K58" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K58" s="4" t="str">
-        <f>C58&amp;J58</f>
+      <c r="L58" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>NANA</v>
       </c>
-      <c r="L58">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D58,FIND("(",D58)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M58">
-        <f>IF(MID(D58,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N58">
-        <f>IFERROR(ABS(LOG10(E58)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q58" t="str">
-        <f>"0x"&amp;O58&amp;","&amp;CHAR(9)&amp;" // "&amp;B58&amp;" | "&amp;C58&amp;" | "&amp;D58&amp;" | datatype: "&amp;M58&amp;" | factor_exp10: "&amp;E58&amp;" | example: "&amp;F58</f>
+      <c r="R58" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x38 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R58" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C58," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S58" t="str">
+        <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="S58" s="9" t="str">
-        <f>"  "&amp;IF(OR(J58=TRUE,J58=FALSE),""""&amp;R58&amp;""": {""measurement_type"": "&amp;B58&amp;IF(NOT(ISBLANK(P58)),", ""device_class"": "&amp;P58,"")&amp;IF(J58=FALSE,", ""accuracy_decimals"": "&amp;N58&amp;", ""unit_of_measurement"": """&amp;H58&amp;"""","")&amp;"},","# "&amp;B58)</f>
+      <c r="T58" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x38</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U58" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x38: None,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -7673,44 +8014,48 @@
       <c r="C59" t="s">
         <v>350</v>
       </c>
-      <c r="J59" t="str">
-        <f>IF(ISBLANK(D59),"NA",NOT(ISERR(FIND("True =",G59))))</f>
+      <c r="K59" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K59" s="4" t="str">
-        <f>C59&amp;J59</f>
+      <c r="L59" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>NANA</v>
       </c>
-      <c r="L59">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D59,FIND("(",D59)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M59">
-        <f>IF(MID(D59,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N59">
-        <f>IFERROR(ABS(LOG10(E59)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q59" t="str">
-        <f>"0x"&amp;O59&amp;","&amp;CHAR(9)&amp;" // "&amp;B59&amp;" | "&amp;C59&amp;" | "&amp;D59&amp;" | datatype: "&amp;M59&amp;" | factor_exp10: "&amp;E59&amp;" | example: "&amp;F59</f>
+      <c r="R59" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x39 | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R59" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C59," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S59" t="str">
+        <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="S59" s="9" t="str">
-        <f>"  "&amp;IF(OR(J59=TRUE,J59=FALSE),""""&amp;R59&amp;""": {""measurement_type"": "&amp;B59&amp;IF(NOT(ISBLANK(P59)),", ""device_class"": "&amp;P59,"")&amp;IF(J59=FALSE,", ""accuracy_decimals"": "&amp;N59&amp;", ""unit_of_measurement"": """&amp;H59&amp;"""","")&amp;"},","# "&amp;B59)</f>
+      <c r="T59" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x39</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U59" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x39: None,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -7722,44 +8067,48 @@
         <v>351</v>
       </c>
       <c r="F60"/>
-      <c r="J60" t="str">
-        <f>IF(ISBLANK(D60),"NA",NOT(ISERR(FIND("True =",G60))))</f>
+      <c r="K60" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K60" s="4" t="str">
-        <f>C60&amp;J60</f>
+      <c r="L60" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>TODONA</v>
       </c>
-      <c r="L60">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D60,FIND("(",D60)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M60">
-        <f>IF(MID(D60,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N60">
-        <f>IFERROR(ABS(LOG10(E60)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q60" t="str">
-        <f>"0x"&amp;O60&amp;","&amp;CHAR(9)&amp;" // "&amp;B60&amp;" | "&amp;C60&amp;" | "&amp;D60&amp;" | datatype: "&amp;M60&amp;" | factor_exp10: "&amp;E60&amp;" | example: "&amp;F60</f>
+      <c r="R60" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x3A | TODO |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R60" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C60," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S60" t="str">
+        <f t="shared" si="17"/>
         <v>TODO</v>
       </c>
-      <c r="S60" s="9" t="str">
-        <f>"  "&amp;IF(OR(J60=TRUE,J60=FALSE),""""&amp;R60&amp;""": {""measurement_type"": "&amp;B60&amp;IF(NOT(ISBLANK(P60)),", ""device_class"": "&amp;P60,"")&amp;IF(J60=FALSE,", ""accuracy_decimals"": "&amp;N60&amp;", ""unit_of_measurement"": """&amp;H60&amp;"""","")&amp;"},","# "&amp;B60)</f>
+      <c r="T60" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x3A</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U60" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x3A: None,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -7770,44 +8119,48 @@
       <c r="C61" t="s">
         <v>350</v>
       </c>
-      <c r="J61" t="str">
-        <f>IF(ISBLANK(D61),"NA",NOT(ISERR(FIND("True =",G61))))</f>
+      <c r="K61" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K61" s="4" t="str">
-        <f>C61&amp;J61</f>
+      <c r="L61" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>NANA</v>
       </c>
-      <c r="L61">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D61,FIND("(",D61)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M61">
-        <f>IF(MID(D61,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N61">
-        <f>IFERROR(ABS(LOG10(E61)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q61" t="str">
-        <f>"0x"&amp;O61&amp;","&amp;CHAR(9)&amp;" // "&amp;B61&amp;" | "&amp;C61&amp;" | "&amp;D61&amp;" | datatype: "&amp;M61&amp;" | factor_exp10: "&amp;E61&amp;" | example: "&amp;F61</f>
+      <c r="R61" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x3B | NA |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R61" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C61," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S61" t="str">
+        <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="S61" s="9" t="str">
-        <f>"  "&amp;IF(OR(J61=TRUE,J61=FALSE),""""&amp;R61&amp;""": {""measurement_type"": "&amp;B61&amp;IF(NOT(ISBLANK(P61)),", ""device_class"": "&amp;P61,"")&amp;IF(J61=FALSE,", ""accuracy_decimals"": "&amp;N61&amp;", ""unit_of_measurement"": """&amp;H61&amp;"""","")&amp;"},","# "&amp;B61)</f>
+      <c r="T61" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x3B</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U61" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x3B: None,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -7818,44 +8171,48 @@
       <c r="C62" t="s">
         <v>351</v>
       </c>
-      <c r="J62" t="str">
-        <f>IF(ISBLANK(D62),"NA",NOT(ISERR(FIND("True =",G62))))</f>
+      <c r="K62" t="str">
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="K62" s="4" t="str">
-        <f>C62&amp;J62</f>
+      <c r="L62" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>TODONA</v>
       </c>
-      <c r="L62">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D62,FIND("(",D62)+1,1),0))</f>
-        <v>0</v>
-      </c>
       <c r="M62">
-        <f>IF(MID(D62,1,4)="sint",1,0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N62">
-        <f>IFERROR(ABS(LOG10(E62)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Q62" t="str">
-        <f>"0x"&amp;O62&amp;","&amp;CHAR(9)&amp;" // "&amp;B62&amp;" | "&amp;C62&amp;" | "&amp;D62&amp;" | datatype: "&amp;M62&amp;" | factor_exp10: "&amp;E62&amp;" | example: "&amp;F62</f>
+      <c r="R62" t="str">
+        <f t="shared" si="16"/>
         <v xml:space="preserve">0x00,	 // 0x3C | TODO |  | datatype: 0 | factor_exp10:  | example: </v>
       </c>
-      <c r="R62" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C62," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S62" t="str">
+        <f t="shared" si="17"/>
         <v>TODO</v>
       </c>
-      <c r="S62" s="9" t="str">
-        <f>"  "&amp;IF(OR(J62=TRUE,J62=FALSE),""""&amp;R62&amp;""": {""measurement_type"": "&amp;B62&amp;IF(NOT(ISBLANK(P62)),", ""device_class"": "&amp;P62,"")&amp;IF(J62=FALSE,", ""accuracy_decimals"": "&amp;N62&amp;", ""unit_of_measurement"": """&amp;H62&amp;"""","")&amp;"},","# "&amp;B62)</f>
+      <c r="T62" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  # 0x3C</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U62" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x3C: None,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -7878,44 +8235,51 @@
       <c r="G63">
         <v>24585</v>
       </c>
-      <c r="J63" t="b">
-        <f>IF(ISBLANK(D63),"NA",NOT(ISERR(FIND("True =",G63))))</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="4" t="str">
-        <f>C63&amp;J63</f>
+      <c r="I63" t="s">
+        <v>411</v>
+      </c>
+      <c r="K63" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>count mediumFALSE</v>
       </c>
-      <c r="L63">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D63,FIND("(",D63)+1,1),0))</f>
+      <c r="M63">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="M63">
-        <f>IF(MID(D63,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N63">
-        <f>IFERROR(ABS(LOG10(E63)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="9"/>
         <v>02</v>
       </c>
-      <c r="Q63" t="str">
-        <f>"0x"&amp;O63&amp;","&amp;CHAR(9)&amp;" // "&amp;B63&amp;" | "&amp;C63&amp;" | "&amp;D63&amp;" | datatype: "&amp;M63&amp;" | factor_exp10: "&amp;E63&amp;" | example: "&amp;F63</f>
+      <c r="R63" t="str">
+        <f t="shared" si="16"/>
         <v>0x02,	 // 0x3D | count medium | uint (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 3D0960</v>
       </c>
-      <c r="R63" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C63," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S63" t="str">
+        <f t="shared" si="17"/>
         <v>count_medium</v>
       </c>
-      <c r="S63" s="9" t="str">
-        <f>"  "&amp;IF(OR(J63=TRUE,J63=FALSE),""""&amp;R63&amp;""": {""measurement_type"": "&amp;B63&amp;IF(NOT(ISBLANK(P63)),", ""device_class"": "&amp;P63,"")&amp;IF(J63=FALSE,", ""accuracy_decimals"": "&amp;N63&amp;", ""unit_of_measurement"": """&amp;H63&amp;"""","")&amp;"},","# "&amp;B63)</f>
+      <c r="T63" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "count_medium": {"measurement_type": 0x3D, "accuracy_decimals": 0, "unit_of_measurement": ""},</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U63" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x3D: "mdi:counter",</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -7938,44 +8302,51 @@
       <c r="G64">
         <v>1611213866</v>
       </c>
-      <c r="J64" t="b">
-        <f>IF(ISBLANK(D64),"NA",NOT(ISERR(FIND("True =",G64))))</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="4" t="str">
-        <f>C64&amp;J64</f>
+      <c r="I64" t="s">
+        <v>411</v>
+      </c>
+      <c r="K64" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>count largeFALSE</v>
       </c>
-      <c r="L64">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D64,FIND("(",D64)+1,1),0))</f>
+      <c r="M64">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="M64">
-        <f>IF(MID(D64,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N64">
-        <f>IFERROR(ABS(LOG10(E64)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="9"/>
         <v>04</v>
       </c>
-      <c r="Q64" t="str">
-        <f>"0x"&amp;O64&amp;","&amp;CHAR(9)&amp;" // "&amp;B64&amp;" | "&amp;C64&amp;" | "&amp;D64&amp;" | datatype: "&amp;M64&amp;" | factor_exp10: "&amp;E64&amp;" | example: "&amp;F64</f>
+      <c r="R64" t="str">
+        <f t="shared" si="16"/>
         <v>0x04,	 // 0x3E | count large | uint (4 bytes) | datatype: 0 | factor_exp10: 1 | example: 3E2A2C0960</v>
       </c>
-      <c r="R64" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C64," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S64" t="str">
+        <f t="shared" si="17"/>
         <v>count_large</v>
       </c>
-      <c r="S64" s="9" t="str">
-        <f>"  "&amp;IF(OR(J64=TRUE,J64=FALSE),""""&amp;R64&amp;""": {""measurement_type"": "&amp;B64&amp;IF(NOT(ISBLANK(P64)),", ""device_class"": "&amp;P64,"")&amp;IF(J64=FALSE,", ""accuracy_decimals"": "&amp;N64&amp;", ""unit_of_measurement"": """&amp;H64&amp;"""","")&amp;"},","# "&amp;B64)</f>
+      <c r="T64" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "count_large": {"measurement_type": 0x3E, "accuracy_decimals": 0, "unit_of_measurement": ""},</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U64" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x3E: "mdi:counter",</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -8001,44 +8372,48 @@
       <c r="H65" t="s">
         <v>262</v>
       </c>
-      <c r="J65" t="b">
-        <f>IF(ISBLANK(D65),"NA",NOT(ISERR(FIND("True =",G65))))</f>
-        <v>0</v>
-      </c>
-      <c r="K65" s="4" t="str">
-        <f>C65&amp;J65</f>
+      <c r="K65" t="b">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="4" t="str">
+        <f t="shared" si="12"/>
         <v>rotationFALSE</v>
       </c>
-      <c r="L65">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D65,FIND("(",D65)+1,1),0))</f>
+      <c r="M65">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="M65">
-        <f>IF(MID(D65,1,4)="sint",1,0)</f>
-        <v>1</v>
-      </c>
       <c r="N65">
-        <f>IFERROR(ABS(LOG10(E65)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="O65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="9"/>
         <v>2A</v>
       </c>
-      <c r="Q65" t="str">
-        <f>"0x"&amp;O65&amp;","&amp;CHAR(9)&amp;" // "&amp;B65&amp;" | "&amp;C65&amp;" | "&amp;D65&amp;" | datatype: "&amp;M65&amp;" | factor_exp10: "&amp;E65&amp;" | example: "&amp;F65</f>
+      <c r="R65" t="str">
+        <f t="shared" si="16"/>
         <v>0x2A,	 // 0x3F | rotation | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.1 | example: 3F020C</v>
       </c>
-      <c r="R65" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C65," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S65" t="str">
+        <f t="shared" si="17"/>
         <v>rotation</v>
       </c>
-      <c r="S65" s="9" t="str">
-        <f>"  "&amp;IF(OR(J65=TRUE,J65=FALSE),""""&amp;R65&amp;""": {""measurement_type"": "&amp;B65&amp;IF(NOT(ISBLANK(P65)),", ""device_class"": "&amp;P65,"")&amp;IF(J65=FALSE,", ""accuracy_decimals"": "&amp;N65&amp;", ""unit_of_measurement"": """&amp;H65&amp;"""","")&amp;"},","# "&amp;B65)</f>
+      <c r="T65" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "rotation": {"measurement_type": 0x3F, "accuracy_decimals": 1, "unit_of_measurement": "°"},</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U65" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x3F: None,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -8064,44 +8439,48 @@
       <c r="H66" t="s">
         <v>232</v>
       </c>
-      <c r="J66" t="b">
-        <f>IF(ISBLANK(D66),"NA",NOT(ISERR(FIND("True =",G66))))</f>
-        <v>0</v>
-      </c>
-      <c r="K66" s="4" t="str">
-        <f>C66&amp;J66</f>
+      <c r="K66" t="b">
+        <f t="shared" ref="K66:K84" si="20">IF(ISBLANK(D66),"NA",NOT(ISERR(FIND("True =",G66))))</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="4" t="str">
+        <f t="shared" ref="L66:L97" si="21">C66&amp;K66</f>
         <v>distance (mm)FALSE</v>
       </c>
-      <c r="L66">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D66,FIND("(",D66)+1,1),0))</f>
+      <c r="M66">
+        <f t="shared" ref="M66:M84" si="22">_xlfn.NUMBERVALUE(IFERROR(MID(D66,FIND("(",D66)+1,1),0))</f>
         <v>2</v>
       </c>
-      <c r="M66">
-        <f>IF(MID(D66,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N66">
-        <f>IFERROR(ABS(LOG10(E66)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="N66:N84" si="23">IF(MID(D66,1,4)="sint",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" ref="O66:O84" si="24">IFERROR(ABS(LOG10(E66)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="9"/>
         <v>02</v>
       </c>
-      <c r="Q66" t="str">
-        <f>"0x"&amp;O66&amp;","&amp;CHAR(9)&amp;" // "&amp;B66&amp;" | "&amp;C66&amp;" | "&amp;D66&amp;" | datatype: "&amp;M66&amp;" | factor_exp10: "&amp;E66&amp;" | example: "&amp;F66</f>
+      <c r="R66" t="str">
+        <f t="shared" ref="R66:R84" si="25">"0x"&amp;P66&amp;","&amp;CHAR(9)&amp;" // "&amp;B66&amp;" | "&amp;C66&amp;" | "&amp;D66&amp;" | datatype: "&amp;N66&amp;" | factor_exp10: "&amp;E66&amp;" | example: "&amp;F66</f>
         <v>0x02,	 // 0x40 | distance (mm) | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 400C00</v>
       </c>
-      <c r="R66" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C66," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S66" t="str">
+        <f t="shared" ref="S66:S84" si="26">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C66," ","_"),".","_"),"(",""),")","")</f>
         <v>distance_mm</v>
       </c>
-      <c r="S66" s="9" t="str">
-        <f>"  "&amp;IF(OR(J66=TRUE,J66=FALSE),""""&amp;R66&amp;""": {""measurement_type"": "&amp;B66&amp;IF(NOT(ISBLANK(P66)),", ""device_class"": "&amp;P66,"")&amp;IF(J66=FALSE,", ""accuracy_decimals"": "&amp;N66&amp;", ""unit_of_measurement"": """&amp;H66&amp;"""","")&amp;"},","# "&amp;B66)</f>
+      <c r="T66" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "distance_mm": {"measurement_type": 0x40, "accuracy_decimals": 0, "unit_of_measurement": "mm"},</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U66" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">  0x40: None,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -8127,44 +8506,48 @@
       <c r="H67" t="s">
         <v>235</v>
       </c>
-      <c r="J67" t="b">
-        <f>IF(ISBLANK(D67),"NA",NOT(ISERR(FIND("True =",G67))))</f>
-        <v>0</v>
-      </c>
-      <c r="K67" s="4" t="str">
-        <f>C67&amp;J67</f>
+      <c r="K67" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>distance (m)FALSE</v>
       </c>
-      <c r="L67">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D67,FIND("(",D67)+1,1),0))</f>
+      <c r="M67">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="M67">
-        <f>IF(MID(D67,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N67">
-        <f>IFERROR(ABS(LOG10(E67)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="O67" t="str">
-        <f t="shared" ref="O67:O81" si="2">DEC2HEX(L67+_xlfn.BITLSHIFT(M67,3)+_xlfn.BITLSHIFT(N67,5),2)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" ref="P67:P81" si="27">DEC2HEX(M67+_xlfn.BITLSHIFT(N67,3)+_xlfn.BITLSHIFT(O67,5),2)</f>
         <v>22</v>
       </c>
-      <c r="Q67" t="str">
-        <f>"0x"&amp;O67&amp;","&amp;CHAR(9)&amp;" // "&amp;B67&amp;" | "&amp;C67&amp;" | "&amp;D67&amp;" | datatype: "&amp;M67&amp;" | factor_exp10: "&amp;E67&amp;" | example: "&amp;F67</f>
+      <c r="R67" t="str">
+        <f t="shared" si="25"/>
         <v>0x22,	 // 0x41 | distance (m) | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.1 | example: 414E00</v>
       </c>
-      <c r="R67" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C67," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S67" t="str">
+        <f t="shared" si="26"/>
         <v>distance_m</v>
       </c>
-      <c r="S67" s="9" t="str">
-        <f>"  "&amp;IF(OR(J67=TRUE,J67=FALSE),""""&amp;R67&amp;""": {""measurement_type"": "&amp;B67&amp;IF(NOT(ISBLANK(P67)),", ""device_class"": "&amp;P67,"")&amp;IF(J67=FALSE,", ""accuracy_decimals"": "&amp;N67&amp;", ""unit_of_measurement"": """&amp;H67&amp;"""","")&amp;"},","# "&amp;B67)</f>
+      <c r="T67" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "distance_m": {"measurement_type": 0x41, "accuracy_decimals": 1, "unit_of_measurement": "m"},</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U67" t="str">
+        <f t="shared" ref="U67:U84" si="28">"  "&amp;B67 &amp; ": " &amp; IF(ISBLANK(I67), "None", """mdi:"&amp;I67&amp;"""") &amp; ","</f>
+        <v xml:space="preserve">  0x41: None,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -8190,44 +8573,48 @@
       <c r="H68" t="s">
         <v>239</v>
       </c>
-      <c r="J68" t="b">
-        <f>IF(ISBLANK(D68),"NA",NOT(ISERR(FIND("True =",G68))))</f>
-        <v>0</v>
-      </c>
-      <c r="K68" s="4" t="str">
-        <f>C68&amp;J68</f>
+      <c r="K68" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L68" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>durationFALSE</v>
       </c>
-      <c r="L68">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D68,FIND("(",D68)+1,1),0))</f>
+      <c r="M68">
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="M68">
-        <f>IF(MID(D68,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N68">
-        <f>IFERROR(ABS(LOG10(E68)),0)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="O68" t="str">
-        <f t="shared" si="2"/>
+      <c r="P68" t="str">
+        <f t="shared" si="27"/>
         <v>63</v>
       </c>
-      <c r="Q68" t="str">
-        <f>"0x"&amp;O68&amp;","&amp;CHAR(9)&amp;" // "&amp;B68&amp;" | "&amp;C68&amp;" | "&amp;D68&amp;" | datatype: "&amp;M68&amp;" | factor_exp10: "&amp;E68&amp;" | example: "&amp;F68</f>
+      <c r="R68" t="str">
+        <f t="shared" si="25"/>
         <v>0x63,	 // 0x42 | duration | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 424E3400</v>
       </c>
-      <c r="R68" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C68," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S68" t="str">
+        <f t="shared" si="26"/>
         <v>duration</v>
       </c>
-      <c r="S68" s="9" t="str">
-        <f>"  "&amp;IF(OR(J68=TRUE,J68=FALSE),""""&amp;R68&amp;""": {""measurement_type"": "&amp;B68&amp;IF(NOT(ISBLANK(P68)),", ""device_class"": "&amp;P68,"")&amp;IF(J68=FALSE,", ""accuracy_decimals"": "&amp;N68&amp;", ""unit_of_measurement"": """&amp;H68&amp;"""","")&amp;"},","# "&amp;B68)</f>
+      <c r="T68" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "duration": {"measurement_type": 0x42, "accuracy_decimals": 3, "unit_of_measurement": "s"},</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U68" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x42: None,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -8253,47 +8640,54 @@
       <c r="H69" t="s">
         <v>227</v>
       </c>
-      <c r="J69" t="b">
-        <f>IF(ISBLANK(D69),"NA",NOT(ISERR(FIND("True =",G69))))</f>
-        <v>0</v>
-      </c>
-      <c r="K69" s="4" t="str">
-        <f>C69&amp;J69</f>
+      <c r="I69" t="s">
+        <v>421</v>
+      </c>
+      <c r="K69" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>currentFALSE</v>
       </c>
-      <c r="L69">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D69,FIND("(",D69)+1,1),0))</f>
+      <c r="M69">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="M69">
-        <f>IF(MID(D69,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N69">
-        <f>IFERROR(ABS(LOG10(E69)),0)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="O69" t="str">
-        <f t="shared" si="2"/>
+      <c r="P69" t="str">
+        <f t="shared" si="27"/>
         <v>62</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>359</v>
       </c>
-      <c r="Q69" t="str">
-        <f>"0x"&amp;O69&amp;","&amp;CHAR(9)&amp;" // "&amp;B69&amp;" | "&amp;C69&amp;" | "&amp;D69&amp;" | datatype: "&amp;M69&amp;" | factor_exp10: "&amp;E69&amp;" | example: "&amp;F69</f>
+      <c r="R69" t="str">
+        <f t="shared" si="25"/>
         <v>0x62,	 // 0x43 | current | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 434E34</v>
       </c>
-      <c r="R69" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C69," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S69" t="str">
+        <f t="shared" si="26"/>
         <v>current</v>
       </c>
-      <c r="S69" s="9" t="str">
-        <f>"  "&amp;IF(OR(J69=TRUE,J69=FALSE),""""&amp;R69&amp;""": {""measurement_type"": "&amp;B69&amp;IF(NOT(ISBLANK(P69)),", ""device_class"": "&amp;P69,"")&amp;IF(J69=FALSE,", ""accuracy_decimals"": "&amp;N69&amp;", ""unit_of_measurement"": """&amp;H69&amp;"""","")&amp;"},","# "&amp;B69)</f>
+      <c r="T69" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "current": {"measurement_type": 0x43, "device_class": DEVICE_CLASS_CURRENT, "accuracy_decimals": 3, "unit_of_measurement": "A"},</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U69" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x43: "mdi:current-ac",</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -8319,44 +8713,48 @@
       <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="J70" t="b">
-        <f>IF(ISBLANK(D70),"NA",NOT(ISERR(FIND("True =",G70))))</f>
-        <v>0</v>
-      </c>
-      <c r="K70" s="4" t="str">
-        <f>C70&amp;J70</f>
+      <c r="K70" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>speedFALSE</v>
       </c>
-      <c r="L70">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D70,FIND("(",D70)+1,1),0))</f>
+      <c r="M70">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="M70">
-        <f>IF(MID(D70,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N70">
-        <f>IFERROR(ABS(LOG10(E70)),0)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
-      <c r="O70" t="str">
-        <f t="shared" si="2"/>
+      <c r="P70" t="str">
+        <f t="shared" si="27"/>
         <v>42</v>
       </c>
-      <c r="Q70" t="str">
-        <f>"0x"&amp;O70&amp;","&amp;CHAR(9)&amp;" // "&amp;B70&amp;" | "&amp;C70&amp;" | "&amp;D70&amp;" | datatype: "&amp;M70&amp;" | factor_exp10: "&amp;E70&amp;" | example: "&amp;F70</f>
+      <c r="R70" t="str">
+        <f t="shared" si="25"/>
         <v>0x42,	 // 0x44 | speed | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.01 | example: 444E34</v>
       </c>
-      <c r="R70" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C70," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S70" t="str">
+        <f t="shared" si="26"/>
         <v>speed</v>
       </c>
-      <c r="S70" s="9" t="str">
-        <f>"  "&amp;IF(OR(J70=TRUE,J70=FALSE),""""&amp;R70&amp;""": {""measurement_type"": "&amp;B70&amp;IF(NOT(ISBLANK(P70)),", ""device_class"": "&amp;P70,"")&amp;IF(J70=FALSE,", ""accuracy_decimals"": "&amp;N70&amp;", ""unit_of_measurement"": """&amp;H70&amp;"""","")&amp;"},","# "&amp;B70)</f>
+      <c r="T70" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "speed": {"measurement_type": 0x44, "accuracy_decimals": 2, "unit_of_measurement": "m/s"},</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U70" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x44: None,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -8382,47 +8780,51 @@
       <c r="H71" t="s">
         <v>12</v>
       </c>
-      <c r="J71" t="b">
-        <f>IF(ISBLANK(D71),"NA",NOT(ISERR(FIND("True =",G71))))</f>
-        <v>0</v>
-      </c>
-      <c r="K71" s="4" t="str">
-        <f>C71&amp;J71</f>
+      <c r="K71" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>temperature coarseFALSE</v>
       </c>
-      <c r="L71">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D71,FIND("(",D71)+1,1),0))</f>
+      <c r="M71">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="M71">
-        <f>IF(MID(D71,1,4)="sint",1,0)</f>
-        <v>1</v>
-      </c>
       <c r="N71">
-        <f>IFERROR(ABS(LOG10(E71)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="O71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="27"/>
         <v>2A</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>205</v>
       </c>
-      <c r="Q71" t="str">
-        <f>"0x"&amp;O71&amp;","&amp;CHAR(9)&amp;" // "&amp;B71&amp;" | "&amp;C71&amp;" | "&amp;D71&amp;" | datatype: "&amp;M71&amp;" | factor_exp10: "&amp;E71&amp;" | example: "&amp;F71</f>
+      <c r="R71" t="str">
+        <f t="shared" si="25"/>
         <v>0x2A,	 // 0x45 | temperature coarse | sint16 (2 bytes) | datatype: 1 | factor_exp10: 0.1 | example: 451101</v>
       </c>
-      <c r="R71" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C71," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S71" t="str">
+        <f t="shared" si="26"/>
         <v>temperature_coarse</v>
       </c>
-      <c r="S71" s="9" t="str">
-        <f>"  "&amp;IF(OR(J71=TRUE,J71=FALSE),""""&amp;R71&amp;""": {""measurement_type"": "&amp;B71&amp;IF(NOT(ISBLANK(P71)),", ""device_class"": "&amp;P71,"")&amp;IF(J71=FALSE,", ""accuracy_decimals"": "&amp;N71&amp;", ""unit_of_measurement"": """&amp;H71&amp;"""","")&amp;"},","# "&amp;B71)</f>
+      <c r="T71" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "temperature_coarse": {"measurement_type": 0x45, "device_class": DEVICE_CLASS_TEMPERATURE, "accuracy_decimals": 1, "unit_of_measurement": "°C"},</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U71" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x45: None,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -8445,44 +8847,48 @@
       <c r="G72">
         <v>5</v>
       </c>
-      <c r="J72" t="b">
-        <f>IF(ISBLANK(D72),"NA",NOT(ISERR(FIND("True =",G72))))</f>
-        <v>0</v>
-      </c>
-      <c r="K72" s="4" t="str">
-        <f>C72&amp;J72</f>
+      <c r="K72" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>UV indexFALSE</v>
       </c>
-      <c r="L72">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D72,FIND("(",D72)+1,1),0))</f>
-        <v>1</v>
-      </c>
       <c r="M72">
-        <f>IF(MID(D72,1,4)="sint",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1</v>
       </c>
       <c r="N72">
-        <f>IFERROR(ABS(LOG10(E72)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="O72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
-      <c r="Q72" t="str">
-        <f>"0x"&amp;O72&amp;","&amp;CHAR(9)&amp;" // "&amp;B72&amp;" | "&amp;C72&amp;" | "&amp;D72&amp;" | datatype: "&amp;M72&amp;" | factor_exp10: "&amp;E72&amp;" | example: "&amp;F72</f>
+      <c r="R72" t="str">
+        <f t="shared" si="25"/>
         <v>0x21,	 // 0x46 | UV index | uint8 (1 byte) | datatype: 0 | factor_exp10: 0.1 | example: 4632</v>
       </c>
-      <c r="R72" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C72," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S72" t="str">
+        <f t="shared" si="26"/>
         <v>UV_index</v>
       </c>
-      <c r="S72" s="9" t="str">
-        <f>"  "&amp;IF(OR(J72=TRUE,J72=FALSE),""""&amp;R72&amp;""": {""measurement_type"": "&amp;B72&amp;IF(NOT(ISBLANK(P72)),", ""device_class"": "&amp;P72,"")&amp;IF(J72=FALSE,", ""accuracy_decimals"": "&amp;N72&amp;", ""unit_of_measurement"": """&amp;H72&amp;"""","")&amp;"},","# "&amp;B72)</f>
+      <c r="T72" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "UV_index": {"measurement_type": 0x46, "accuracy_decimals": 1, "unit_of_measurement": ""},</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U72" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x46: None,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -8508,44 +8914,48 @@
       <c r="H73" t="s">
         <v>274</v>
       </c>
-      <c r="J73" t="b">
-        <f>IF(ISBLANK(D73),"NA",NOT(ISERR(FIND("True =",G73))))</f>
-        <v>0</v>
-      </c>
-      <c r="K73" s="4" t="str">
-        <f>C73&amp;J73</f>
+      <c r="K73" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>volumeFALSE</v>
       </c>
-      <c r="L73">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D73,FIND("(",D73)+1,1),0))</f>
+      <c r="M73">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="M73">
-        <f>IF(MID(D73,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N73">
-        <f>IFERROR(ABS(LOG10(E73)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="O73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="27"/>
         <v>22</v>
       </c>
-      <c r="Q73" t="str">
-        <f>"0x"&amp;O73&amp;","&amp;CHAR(9)&amp;" // "&amp;B73&amp;" | "&amp;C73&amp;" | "&amp;D73&amp;" | datatype: "&amp;M73&amp;" | factor_exp10: "&amp;E73&amp;" | example: "&amp;F73</f>
+      <c r="R73" t="str">
+        <f t="shared" si="25"/>
         <v>0x22,	 // 0x47 | volume | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.1 | example: 478756</v>
       </c>
-      <c r="R73" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C73," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S73" t="str">
+        <f t="shared" si="26"/>
         <v>volume</v>
       </c>
-      <c r="S73" s="9" t="str">
-        <f>"  "&amp;IF(OR(J73=TRUE,J73=FALSE),""""&amp;R73&amp;""": {""measurement_type"": "&amp;B73&amp;IF(NOT(ISBLANK(P73)),", ""device_class"": "&amp;P73,"")&amp;IF(J73=FALSE,", ""accuracy_decimals"": "&amp;N73&amp;", ""unit_of_measurement"": """&amp;H73&amp;"""","")&amp;"},","# "&amp;B73)</f>
+      <c r="T73" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "volume": {"measurement_type": 0x47, "accuracy_decimals": 1, "unit_of_measurement": "L"},</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U73" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x47: None,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -8571,44 +8981,48 @@
       <c r="H74" t="s">
         <v>278</v>
       </c>
-      <c r="J74" t="b">
-        <f>IF(ISBLANK(D74),"NA",NOT(ISERR(FIND("True =",G74))))</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="4" t="str">
-        <f>C74&amp;J74</f>
+      <c r="K74" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>volume courseFALSE</v>
       </c>
-      <c r="L74">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D74,FIND("(",D74)+1,1),0))</f>
+      <c r="M74">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="M74">
-        <f>IF(MID(D74,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N74">
-        <f>IFERROR(ABS(LOG10(E74)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="27"/>
         <v>02</v>
       </c>
-      <c r="Q74" t="str">
-        <f>"0x"&amp;O74&amp;","&amp;CHAR(9)&amp;" // "&amp;B74&amp;" | "&amp;C74&amp;" | "&amp;D74&amp;" | datatype: "&amp;M74&amp;" | factor_exp10: "&amp;E74&amp;" | example: "&amp;F74</f>
+      <c r="R74" t="str">
+        <f t="shared" si="25"/>
         <v>0x02,	 // 0x48 | volume course | uint16 (2 bytes) | datatype: 0 | factor_exp10: 1 | example: 48DC87</v>
       </c>
-      <c r="R74" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C74," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S74" t="str">
+        <f t="shared" si="26"/>
         <v>volume_course</v>
       </c>
-      <c r="S74" s="9" t="str">
-        <f>"  "&amp;IF(OR(J74=TRUE,J74=FALSE),""""&amp;R74&amp;""": {""measurement_type"": "&amp;B74&amp;IF(NOT(ISBLANK(P74)),", ""device_class"": "&amp;P74,"")&amp;IF(J74=FALSE,", ""accuracy_decimals"": "&amp;N74&amp;", ""unit_of_measurement"": """&amp;H74&amp;"""","")&amp;"},","# "&amp;B74)</f>
+      <c r="T74" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "volume_course": {"measurement_type": 0x48, "accuracy_decimals": 0, "unit_of_measurement": "mL"},</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U74" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x48: None,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -8634,44 +9048,48 @@
       <c r="H75" t="s">
         <v>282</v>
       </c>
-      <c r="J75" t="b">
-        <f>IF(ISBLANK(D75),"NA",NOT(ISERR(FIND("True =",G75))))</f>
-        <v>0</v>
-      </c>
-      <c r="K75" s="4" t="str">
-        <f>C75&amp;J75</f>
+      <c r="K75" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>volume Flow RateFALSE</v>
       </c>
-      <c r="L75">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D75,FIND("(",D75)+1,1),0))</f>
+      <c r="M75">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="M75">
-        <f>IF(MID(D75,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N75">
-        <f>IFERROR(ABS(LOG10(E75)),0)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="O75" t="str">
-        <f t="shared" si="2"/>
+      <c r="P75" t="str">
+        <f t="shared" si="27"/>
         <v>62</v>
       </c>
-      <c r="Q75" t="str">
-        <f>"0x"&amp;O75&amp;","&amp;CHAR(9)&amp;" // "&amp;B75&amp;" | "&amp;C75&amp;" | "&amp;D75&amp;" | datatype: "&amp;M75&amp;" | factor_exp10: "&amp;E75&amp;" | example: "&amp;F75</f>
+      <c r="R75" t="str">
+        <f t="shared" si="25"/>
         <v>0x62,	 // 0x49 | volume Flow Rate | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 49DC87</v>
       </c>
-      <c r="R75" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C75," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S75" t="str">
+        <f t="shared" si="26"/>
         <v>volume_Flow_Rate</v>
       </c>
-      <c r="S75" s="9" t="str">
-        <f>"  "&amp;IF(OR(J75=TRUE,J75=FALSE),""""&amp;R75&amp;""": {""measurement_type"": "&amp;B75&amp;IF(NOT(ISBLANK(P75)),", ""device_class"": "&amp;P75,"")&amp;IF(J75=FALSE,", ""accuracy_decimals"": "&amp;N75&amp;", ""unit_of_measurement"": """&amp;H75&amp;"""","")&amp;"},","# "&amp;B75)</f>
+      <c r="T75" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "volume_Flow_Rate": {"measurement_type": 0x49, "accuracy_decimals": 3, "unit_of_measurement": "m3/hr"},</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U75" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x49: None,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -8697,44 +9115,48 @@
       <c r="H76" t="s">
         <v>48</v>
       </c>
-      <c r="J76" t="b">
-        <f>IF(ISBLANK(D76),"NA",NOT(ISERR(FIND("True =",G76))))</f>
-        <v>0</v>
-      </c>
-      <c r="K76" s="4" t="str">
-        <f>C76&amp;J76</f>
+      <c r="K76" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>voltage coarseFALSE</v>
       </c>
-      <c r="L76">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D76,FIND("(",D76)+1,1),0))</f>
+      <c r="M76">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="M76">
-        <f>IF(MID(D76,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N76">
-        <f>IFERROR(ABS(LOG10(E76)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="O76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="27"/>
         <v>22</v>
       </c>
-      <c r="Q76" t="str">
-        <f>"0x"&amp;O76&amp;","&amp;CHAR(9)&amp;" // "&amp;B76&amp;" | "&amp;C76&amp;" | "&amp;D76&amp;" | datatype: "&amp;M76&amp;" | factor_exp10: "&amp;E76&amp;" | example: "&amp;F76</f>
+      <c r="R76" t="str">
+        <f t="shared" si="25"/>
         <v>0x22,	 // 0x4A | voltage coarse | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.1 | example: 4A020C</v>
       </c>
-      <c r="R76" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C76," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S76" t="str">
+        <f t="shared" si="26"/>
         <v>voltage_coarse</v>
       </c>
-      <c r="S76" s="9" t="str">
-        <f>"  "&amp;IF(OR(J76=TRUE,J76=FALSE),""""&amp;R76&amp;""": {""measurement_type"": "&amp;B76&amp;IF(NOT(ISBLANK(P76)),", ""device_class"": "&amp;P76,"")&amp;IF(J76=FALSE,", ""accuracy_decimals"": "&amp;N76&amp;", ""unit_of_measurement"": """&amp;H76&amp;"""","")&amp;"},","# "&amp;B76)</f>
+      <c r="T76" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "voltage_coarse": {"measurement_type": 0x4A, "accuracy_decimals": 1, "unit_of_measurement": "V"},</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U76" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x4A: None,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -8760,47 +9182,54 @@
       <c r="H77" t="s">
         <v>246</v>
       </c>
-      <c r="J77" t="b">
-        <f>IF(ISBLANK(D77),"NA",NOT(ISERR(FIND("True =",G77))))</f>
-        <v>0</v>
-      </c>
-      <c r="K77" s="4" t="str">
-        <f>C77&amp;J77</f>
+      <c r="I77" t="s">
+        <v>422</v>
+      </c>
+      <c r="K77" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>gasFALSE</v>
       </c>
-      <c r="L77">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D77,FIND("(",D77)+1,1),0))</f>
+      <c r="M77">
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
-      <c r="M77">
-        <f>IF(MID(D77,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N77">
-        <f>IFERROR(ABS(LOG10(E77)),0)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="O77" t="str">
-        <f t="shared" si="2"/>
+      <c r="P77" t="str">
+        <f t="shared" si="27"/>
         <v>63</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>358</v>
       </c>
-      <c r="Q77" t="str">
-        <f>"0x"&amp;O77&amp;","&amp;CHAR(9)&amp;" // "&amp;B77&amp;" | "&amp;C77&amp;" | "&amp;D77&amp;" | datatype: "&amp;M77&amp;" | factor_exp10: "&amp;E77&amp;" | example: "&amp;F77</f>
+      <c r="R77" t="str">
+        <f t="shared" si="25"/>
         <v>0x63,	 // 0x4B | gas | uint24 (3 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4B138A14</v>
       </c>
-      <c r="R77" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C77," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S77" t="str">
+        <f t="shared" si="26"/>
         <v>gas</v>
       </c>
-      <c r="S77" s="9" t="str">
-        <f>"  "&amp;IF(OR(J77=TRUE,J77=FALSE),""""&amp;R77&amp;""": {""measurement_type"": "&amp;B77&amp;IF(NOT(ISBLANK(P77)),", ""device_class"": "&amp;P77,"")&amp;IF(J77=FALSE,", ""accuracy_decimals"": "&amp;N77&amp;", ""unit_of_measurement"": """&amp;H77&amp;"""","")&amp;"},","# "&amp;B77)</f>
+      <c r="T77" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "gas": {"measurement_type": 0x4B, "device_class": DEVICE_CLASS_GAS, "accuracy_decimals": 3, "unit_of_measurement": "m3"},</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U77" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x4B: "mdi:gas-cylinder",</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -8826,49 +9255,56 @@
       <c r="H78" t="s">
         <v>246</v>
       </c>
-      <c r="J78" t="b">
-        <f>IF(ISBLANK(D78),"NA",NOT(ISERR(FIND("True =",G78))))</f>
-        <v>0</v>
-      </c>
-      <c r="K78" s="4" t="str">
-        <f>C78&amp;J78</f>
+      <c r="I78" t="s">
+        <v>422</v>
+      </c>
+      <c r="K78" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>gas largeFALSE</v>
       </c>
-      <c r="L78">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D78,FIND("(",D78)+1,1),0))</f>
+      <c r="M78">
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="M78">
-        <f>IF(MID(D78,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N78">
-        <f>IFERROR(ABS(LOG10(E78)),0)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="O78" t="str">
-        <f t="shared" si="2"/>
+      <c r="P78" t="str">
+        <f t="shared" si="27"/>
         <v>64</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>358</v>
       </c>
-      <c r="Q78" t="str">
-        <f>"0x"&amp;O78&amp;","&amp;CHAR(9)&amp;" // "&amp;B78&amp;" | "&amp;C78&amp;" | "&amp;D78&amp;" | datatype: "&amp;M78&amp;" | factor_exp10: "&amp;E78&amp;" | example: "&amp;F78</f>
+      <c r="R78" t="str">
+        <f t="shared" si="25"/>
         <v>0x64,	 // 0x4C | gas large | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4C41018A01</v>
       </c>
-      <c r="R78" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C78," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S78" t="str">
+        <f t="shared" si="26"/>
         <v>gas_large</v>
       </c>
-      <c r="S78" s="9" t="str">
-        <f>"  "&amp;IF(OR(J78=TRUE,J78=FALSE),""""&amp;R78&amp;""": {""measurement_type"": "&amp;B78&amp;IF(NOT(ISBLANK(P78)),", ""device_class"": "&amp;P78,"")&amp;IF(J78=FALSE,", ""accuracy_decimals"": "&amp;N78&amp;", ""unit_of_measurement"": """&amp;H78&amp;"""","")&amp;"},","# "&amp;B78)</f>
+      <c r="T78" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "gas_large": {"measurement_type": 0x4C, "device_class": DEVICE_CLASS_GAS, "accuracy_decimals": 3, "unit_of_measurement": "m3"},</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U78" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x4C: "mdi:gas-cylinder",</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" ref="A79:A84" si="3">HEX2DEC(SUBSTITUTE(B79,"0x",""))</f>
+        <f t="shared" ref="A79:A84" si="29">HEX2DEC(SUBSTITUTE(B79,"0x",""))</f>
         <v>77</v>
       </c>
       <c r="B79" t="s">
@@ -8892,49 +9328,53 @@
       <c r="H79" t="s">
         <v>40</v>
       </c>
-      <c r="J79" t="b">
-        <f>IF(ISBLANK(D79),"NA",NOT(ISERR(FIND("True =",G79))))</f>
-        <v>0</v>
-      </c>
-      <c r="K79" s="4" t="str">
-        <f>C79&amp;J79</f>
+      <c r="K79" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>energy coarseFALSE</v>
       </c>
-      <c r="L79">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D79,FIND("(",D79)+1,1),0))</f>
+      <c r="M79">
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="M79">
-        <f>IF(MID(D79,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N79">
-        <f>IFERROR(ABS(LOG10(E79)),0)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="O79" t="str">
-        <f t="shared" si="2"/>
+      <c r="P79" t="str">
+        <f t="shared" si="27"/>
         <v>64</v>
       </c>
-      <c r="P79" t="s">
+      <c r="Q79" t="s">
         <v>209</v>
       </c>
-      <c r="Q79" t="str">
-        <f>"0x"&amp;O79&amp;","&amp;CHAR(9)&amp;" // "&amp;B79&amp;" | "&amp;C79&amp;" | "&amp;D79&amp;" | datatype: "&amp;M79&amp;" | factor_exp10: "&amp;E79&amp;" | example: "&amp;F79</f>
+      <c r="R79" t="str">
+        <f t="shared" si="25"/>
         <v>0x64,	 // 0x4D | energy coarse | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4d12138a14</v>
       </c>
-      <c r="R79" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C79," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S79" t="str">
+        <f t="shared" si="26"/>
         <v>energy_coarse</v>
       </c>
-      <c r="S79" s="9" t="str">
-        <f>"  "&amp;IF(OR(J79=TRUE,J79=FALSE),""""&amp;R79&amp;""": {""measurement_type"": "&amp;B79&amp;IF(NOT(ISBLANK(P79)),", ""device_class"": "&amp;P79,"")&amp;IF(J79=FALSE,", ""accuracy_decimals"": "&amp;N79&amp;", ""unit_of_measurement"": """&amp;H79&amp;"""","")&amp;"},","# "&amp;B79)</f>
+      <c r="T79" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "energy_coarse": {"measurement_type": 0x4D, "device_class": DEVICE_CLASS_ENERGY, "accuracy_decimals": 3, "unit_of_measurement": "kWh"},</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U79" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x4D: None,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>78</v>
       </c>
       <c r="B80" t="s">
@@ -8958,46 +9398,50 @@
       <c r="H80" t="s">
         <v>274</v>
       </c>
-      <c r="J80" t="b">
-        <f>IF(ISBLANK(D80),"NA",NOT(ISERR(FIND("True =",G80))))</f>
-        <v>0</v>
-      </c>
-      <c r="K80" s="4" t="str">
-        <f>C80&amp;J80</f>
+      <c r="K80" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>volume preciseFALSE</v>
       </c>
-      <c r="L80">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D80,FIND("(",D80)+1,1),0))</f>
+      <c r="M80">
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="M80">
-        <f>IF(MID(D80,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N80">
-        <f>IFERROR(ABS(LOG10(E80)),0)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="O80" t="str">
-        <f t="shared" si="2"/>
+      <c r="P80" t="str">
+        <f t="shared" si="27"/>
         <v>64</v>
       </c>
-      <c r="Q80" t="str">
-        <f>"0x"&amp;O80&amp;","&amp;CHAR(9)&amp;" // "&amp;B80&amp;" | "&amp;C80&amp;" | "&amp;D80&amp;" | datatype: "&amp;M80&amp;" | factor_exp10: "&amp;E80&amp;" | example: "&amp;F80</f>
+      <c r="R80" t="str">
+        <f t="shared" si="25"/>
         <v>0x64,	 // 0x4E | volume precise | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4E87562A01</v>
       </c>
-      <c r="R80" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C80," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S80" t="str">
+        <f t="shared" si="26"/>
         <v>volume_precise</v>
       </c>
-      <c r="S80" s="9" t="str">
-        <f>"  "&amp;IF(OR(J80=TRUE,J80=FALSE),""""&amp;R80&amp;""": {""measurement_type"": "&amp;B80&amp;IF(NOT(ISBLANK(P80)),", ""device_class"": "&amp;P80,"")&amp;IF(J80=FALSE,", ""accuracy_decimals"": "&amp;N80&amp;", ""unit_of_measurement"": """&amp;H80&amp;"""","")&amp;"},","# "&amp;B80)</f>
+      <c r="T80" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "volume_precise": {"measurement_type": 0x4E, "accuracy_decimals": 3, "unit_of_measurement": "L"},</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U80" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x4E: None,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>79</v>
       </c>
       <c r="B81" t="s">
@@ -9021,46 +9465,53 @@
       <c r="H81" t="s">
         <v>274</v>
       </c>
-      <c r="J81" t="b">
-        <f>IF(ISBLANK(D81),"NA",NOT(ISERR(FIND("True =",G81))))</f>
-        <v>0</v>
-      </c>
-      <c r="K81" s="4" t="str">
-        <f>C81&amp;J81</f>
+      <c r="I81" t="s">
+        <v>286</v>
+      </c>
+      <c r="K81" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L81" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>waterFALSE</v>
       </c>
-      <c r="L81">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D81,FIND("(",D81)+1,1),0))</f>
+      <c r="M81">
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="M81">
-        <f>IF(MID(D81,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N81">
-        <f>IFERROR(ABS(LOG10(E81)),0)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="O81" t="str">
-        <f t="shared" si="2"/>
+      <c r="P81" t="str">
+        <f t="shared" si="27"/>
         <v>64</v>
       </c>
-      <c r="Q81" t="str">
-        <f>"0x"&amp;O81&amp;","&amp;CHAR(9)&amp;" // "&amp;B81&amp;" | "&amp;C81&amp;" | "&amp;D81&amp;" | datatype: "&amp;M81&amp;" | factor_exp10: "&amp;E81&amp;" | example: "&amp;F81</f>
+      <c r="R81" t="str">
+        <f t="shared" si="25"/>
         <v>0x64,	 // 0x4F | water | uint32 (4 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 4F87562A01</v>
       </c>
-      <c r="R81" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C81," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S81" t="str">
+        <f t="shared" si="26"/>
         <v>water</v>
       </c>
-      <c r="S81" s="9" t="str">
-        <f>"  "&amp;IF(OR(J81=TRUE,J81=FALSE),""""&amp;R81&amp;""": {""measurement_type"": "&amp;B81&amp;IF(NOT(ISBLANK(P81)),", ""device_class"": "&amp;P81,"")&amp;IF(J81=FALSE,", ""accuracy_decimals"": "&amp;N81&amp;", ""unit_of_measurement"": """&amp;H81&amp;"""","")&amp;"},","# "&amp;B81)</f>
+      <c r="T81" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "water": {"measurement_type": 0x4F, "accuracy_decimals": 3, "unit_of_measurement": "L"},</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U81" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x4F: "mdi:water",</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>80</v>
       </c>
       <c r="B82" t="s">
@@ -9084,49 +9535,53 @@
       <c r="H82" t="s">
         <v>239</v>
       </c>
-      <c r="J82" t="b">
-        <f>IF(ISBLANK(D82),"NA",NOT(ISERR(FIND("True =",G82))))</f>
-        <v>0</v>
-      </c>
-      <c r="K82" s="4" t="str">
-        <f>C82&amp;J82</f>
+      <c r="K82" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L82" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>timestampFALSE</v>
       </c>
-      <c r="L82">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D82,FIND("(",D82)+1,1),0))</f>
+      <c r="M82">
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="M82">
-        <f>IF(MID(D82,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N82">
-        <f>IFERROR(ABS(LOG10(E82)),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O82" t="str">
-        <f t="shared" ref="O82:O84" si="4">DEC2HEX(L82+_xlfn.BITLSHIFT(M82,3)+_xlfn.BITLSHIFT(N82,5),2)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" ref="P82:P84" si="30">DEC2HEX(M82+_xlfn.BITLSHIFT(N82,3)+_xlfn.BITLSHIFT(O82,5),2)</f>
         <v>04</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>409</v>
       </c>
-      <c r="Q82" t="str">
-        <f>"0x"&amp;O82&amp;","&amp;CHAR(9)&amp;" // "&amp;B82&amp;" | "&amp;C82&amp;" | "&amp;D82&amp;" | datatype: "&amp;M82&amp;" | factor_exp10: "&amp;E82&amp;" | example: "&amp;F82</f>
+      <c r="R82" t="str">
+        <f t="shared" si="25"/>
         <v>0x04,	 // 0x50 | timestamp | uint48 (4 bytes) | datatype: 0 | factor_exp10: - | example: 505396164</v>
       </c>
-      <c r="R82" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C82," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S82" t="str">
+        <f t="shared" si="26"/>
         <v>timestamp</v>
       </c>
-      <c r="S82" s="9" t="str">
-        <f>"  "&amp;IF(OR(J82=TRUE,J82=FALSE),""""&amp;R82&amp;""": {""measurement_type"": "&amp;B82&amp;IF(NOT(ISBLANK(P82)),", ""device_class"": "&amp;P82,"")&amp;IF(J82=FALSE,", ""accuracy_decimals"": "&amp;N82&amp;", ""unit_of_measurement"": """&amp;H82&amp;"""","")&amp;"},","# "&amp;B82)</f>
+      <c r="T82" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "timestamp": {"measurement_type": 0x50, "device_class": DEVICE_CLASS_TIMESTAMP, "accuracy_decimals": 0, "unit_of_measurement": "s"},</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U82" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x50: None,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>81</v>
       </c>
       <c r="B83" t="s">
@@ -9150,46 +9605,53 @@
       <c r="H83" t="s">
         <v>403</v>
       </c>
-      <c r="J83" t="b">
-        <f>IF(ISBLANK(D83),"NA",NOT(ISERR(FIND("True =",G83))))</f>
-        <v>0</v>
-      </c>
-      <c r="K83" s="4" t="str">
-        <f>C83&amp;J83</f>
+      <c r="I83" t="s">
+        <v>423</v>
+      </c>
+      <c r="K83" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>accelerationFALSE</v>
       </c>
-      <c r="L83">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D83,FIND("(",D83)+1,1),0))</f>
+      <c r="M83">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="M83">
-        <f>IF(MID(D83,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N83">
-        <f>IFERROR(ABS(LOG10(E83)),0)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="O83" t="str">
-        <f t="shared" si="4"/>
+      <c r="P83" t="str">
+        <f t="shared" si="30"/>
         <v>62</v>
       </c>
-      <c r="Q83" t="str">
-        <f>"0x"&amp;O83&amp;","&amp;CHAR(9)&amp;" // "&amp;B83&amp;" | "&amp;C83&amp;" | "&amp;D83&amp;" | datatype: "&amp;M83&amp;" | factor_exp10: "&amp;E83&amp;" | example: "&amp;F83</f>
+      <c r="R83" t="str">
+        <f t="shared" si="25"/>
         <v>0x62,	 // 0x51 | acceleration | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 518756</v>
       </c>
-      <c r="R83" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C83," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S83" t="str">
+        <f t="shared" si="26"/>
         <v>acceleration</v>
       </c>
-      <c r="S83" s="9" t="str">
-        <f>"  "&amp;IF(OR(J83=TRUE,J83=FALSE),""""&amp;R83&amp;""": {""measurement_type"": "&amp;B83&amp;IF(NOT(ISBLANK(P83)),", ""device_class"": "&amp;P83,"")&amp;IF(J83=FALSE,", ""accuracy_decimals"": "&amp;N83&amp;", ""unit_of_measurement"": """&amp;H83&amp;"""","")&amp;"},","# "&amp;B83)</f>
+      <c r="T83" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "acceleration": {"measurement_type": 0x51, "accuracy_decimals": 3, "unit_of_measurement": "m/s²"},</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U83" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x51: "mdi:axis-arrow",</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="29"/>
         <v>82</v>
       </c>
       <c r="B84" t="s">
@@ -9213,55 +9675,59 @@
       <c r="H84" t="s">
         <v>407</v>
       </c>
-      <c r="J84" t="b">
-        <f>IF(ISBLANK(D84),"NA",NOT(ISERR(FIND("True =",G84))))</f>
-        <v>0</v>
-      </c>
-      <c r="K84" s="4" t="str">
-        <f>C84&amp;J84</f>
+      <c r="K84" t="b">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="4" t="str">
+        <f t="shared" si="21"/>
         <v>gyroscopeFALSE</v>
       </c>
-      <c r="L84">
-        <f>_xlfn.NUMBERVALUE(IFERROR(MID(D84,FIND("(",D84)+1,1),0))</f>
+      <c r="M84">
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
-      <c r="M84">
-        <f>IF(MID(D84,1,4)="sint",1,0)</f>
-        <v>0</v>
-      </c>
       <c r="N84">
-        <f>IFERROR(ABS(LOG10(E84)),0)</f>
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
-      <c r="O84" t="str">
-        <f t="shared" si="4"/>
+      <c r="P84" t="str">
+        <f t="shared" si="30"/>
         <v>62</v>
       </c>
-      <c r="Q84" t="str">
-        <f>"0x"&amp;O84&amp;","&amp;CHAR(9)&amp;" // "&amp;B84&amp;" | "&amp;C84&amp;" | "&amp;D84&amp;" | datatype: "&amp;M84&amp;" | factor_exp10: "&amp;E84&amp;" | example: "&amp;F84</f>
+      <c r="R84" t="str">
+        <f t="shared" si="25"/>
         <v>0x62,	 // 0x52 | gyroscope | uint16 (2 bytes) | datatype: 0 | factor_exp10: 0.001 | example: 528756</v>
       </c>
-      <c r="R84" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C84," ","_"),".","_"),"(",""),")","")</f>
+      <c r="S84" t="str">
+        <f t="shared" si="26"/>
         <v>gyroscope</v>
       </c>
-      <c r="S84" s="9" t="str">
-        <f>"  "&amp;IF(OR(J84=TRUE,J84=FALSE),""""&amp;R84&amp;""": {""measurement_type"": "&amp;B84&amp;IF(NOT(ISBLANK(P84)),", ""device_class"": "&amp;P84,"")&amp;IF(J84=FALSE,", ""accuracy_decimals"": "&amp;N84&amp;", ""unit_of_measurement"": """&amp;H84&amp;"""","")&amp;"},","# "&amp;B84)</f>
+      <c r="T84" s="9" t="str">
+        <f t="shared" si="19"/>
         <v xml:space="preserve">  "gyroscope": {"measurement_type": 0x52, "accuracy_decimals": 3, "unit_of_measurement": "°/s"},</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="S85" s="9"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U84" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  0x52: None,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T85" s="9"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F86"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F87"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>178</v>
       </c>
@@ -9284,9 +9750,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" ref="A89" si="5">HEX2DEC(SUBSTITUTE(B89,"0x",""))</f>
+        <f t="shared" ref="A89" si="31">HEX2DEC(SUBSTITUTE(B89,"0x",""))</f>
         <v>58</v>
       </c>
       <c r="B89" t="s">
@@ -9305,7 +9771,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>6</v>
       </c>
@@ -9320,8 +9786,9 @@
         <v>156</v>
       </c>
       <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>9</v>
       </c>
@@ -9336,8 +9803,9 @@
         <v>158</v>
       </c>
       <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>13</v>
       </c>
@@ -9352,8 +9820,9 @@
         <v>160</v>
       </c>
       <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>17</v>
       </c>
@@ -9368,8 +9837,9 @@
         <v>162</v>
       </c>
       <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>21</v>
       </c>
@@ -9384,8 +9854,9 @@
         <v>164</v>
       </c>
       <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>25</v>
       </c>
@@ -9400,10 +9871,11 @@
         <v>166</v>
       </c>
       <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" ref="A96" si="6">HEX2DEC(SUBSTITUTE(B96,"0x",""))</f>
+        <f t="shared" ref="A96" si="32">HEX2DEC(SUBSTITUTE(B96,"0x",""))</f>
         <v>60</v>
       </c>
       <c r="B96" t="s">
@@ -9422,7 +9894,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>6</v>
       </c>
@@ -9439,8 +9911,9 @@
         <v>174</v>
       </c>
       <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>9</v>
       </c>
@@ -9457,13 +9930,14 @@
         <v>177</v>
       </c>
       <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S81" xr:uid="{28042196-756D-49C6-ACCE-21EFE4A952B1}"/>
-  <conditionalFormatting sqref="K1:K1048576">
+  <autoFilter ref="A1:T81" xr:uid="{28042196-756D-49C6-ACCE-21EFE4A952B1}"/>
+  <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="M1:M1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9475,7 +9949,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
+  <conditionalFormatting sqref="N1:N1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9487,7 +9961,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="O1:O1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
